--- a/data-validation/bitacora_historica_tablero_oficial.xlsx
+++ b/data-validation/bitacora_historica_tablero_oficial.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marianafernandez/Documents/COSMO/IngenieriaDatos/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marianafernandez/Documents/COSMO/covid19-mx-data/data-validation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{397529F5-3807-1847-9326-498BB1A0AD10}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBF75BB0-2247-4C4C-9153-7907D7BCDB19}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="460" windowWidth="16100" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,19 +25,19 @@
     <t>Fecha en reporte</t>
   </si>
   <si>
-    <t>Confirmados en reporte</t>
+    <t>Porcentaje hospitalizados</t>
   </si>
   <si>
-    <t>Negativos en reporte</t>
+    <t xml:space="preserve">Confirmados </t>
   </si>
   <si>
-    <t>Sospechosos en reporte</t>
+    <t xml:space="preserve">Negativos </t>
   </si>
   <si>
-    <t>Defunciones en reporte</t>
+    <t xml:space="preserve">Sospechosos </t>
   </si>
   <si>
-    <t>Porcentaje hospitalizados</t>
+    <t xml:space="preserve">Defunciones </t>
   </si>
 </sst>
 </file>
@@ -447,7 +447,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -459,19 +461,19 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">

--- a/data-validation/bitacora_historica_tablero_oficial.xlsx
+++ b/data-validation/bitacora_historica_tablero_oficial.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10510"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marianafernandez/Documents/COSMO/covid19-mx-data/data-validation/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBF75BB0-2247-4C4C-9153-7907D7BCDB19}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="460" windowWidth="16100" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="out_vars" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -25,30 +19,30 @@
     <t>Fecha en reporte</t>
   </si>
   <si>
-    <t>Porcentaje hospitalizados</t>
+    <t>Confirmados</t>
   </si>
   <si>
-    <t xml:space="preserve">Confirmados </t>
+    <t>Negativos</t>
   </si>
   <si>
-    <t xml:space="preserve">Negativos </t>
+    <t>Sospechosos</t>
   </si>
   <si>
-    <t xml:space="preserve">Sospechosos </t>
+    <t>Defunciones</t>
   </si>
   <si>
-    <t xml:space="preserve">Defunciones </t>
+    <t>Porcentaje hospitalizados</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
-    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd"/>
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -113,19 +107,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -167,7 +153,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -199,27 +185,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -251,24 +219,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -444,39 +394,34 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="2" max="2" width="17.6640625" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>1</v>
-      </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -499,7 +444,7 @@
         <v>34.9</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -519,10 +464,10 @@
         <v>10637</v>
       </c>
       <c r="G3">
-        <v>34.590000000000003</v>
+        <v>34.59</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -542,14 +487,14 @@
         <v>11728</v>
       </c>
       <c r="G4">
-        <v>34.450000000000003</v>
+        <v>34.45</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7">
       <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5" s="2">
         <v>43986</v>
       </c>
       <c r="C5">
@@ -566,6 +511,29 @@
       </c>
       <c r="G5">
         <v>34.24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" s="3">
+        <v>43987</v>
+      </c>
+      <c r="C6">
+        <v>110026</v>
+      </c>
+      <c r="D6">
+        <v>166049</v>
+      </c>
+      <c r="E6">
+        <v>48822</v>
+      </c>
+      <c r="F6">
+        <v>13170</v>
+      </c>
+      <c r="G6">
+        <v>34.03</v>
       </c>
     </row>
   </sheetData>

--- a/data-validation/bitacora_historica_tablero_oficial.xlsx
+++ b/data-validation/bitacora_historica_tablero_oficial.xlsx
@@ -1,22 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10510"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marianafernandez/Documents/COSMO/covid19-mx-data/data-validation/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76394DDA-8482-BD4D-986B-8CBB23A5E7E2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="460" windowWidth="16100" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="out_vars" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
-    <t>Fecha en reporte</t>
+    <t>Fecha</t>
   </si>
   <si>
     <t>Confirmados</t>
@@ -37,12 +43,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
-    <numFmt numFmtId="165" formatCode="YYYY-MM-DD"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -94,24 +99,31 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -153,7 +165,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -185,9 +197,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -219,6 +249,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -394,14 +442,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -421,7 +471,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -444,7 +494,7 @@
         <v>34.9</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -464,10 +514,10 @@
         <v>10637</v>
       </c>
       <c r="G3">
-        <v>34.59</v>
+        <v>34.590000000000003</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -487,10 +537,10 @@
         <v>11728</v>
       </c>
       <c r="G4">
-        <v>34.45</v>
+        <v>34.450000000000003</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -513,11 +563,11 @@
         <v>34.24</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6" s="2">
         <v>43987</v>
       </c>
       <c r="C6">

--- a/data-validation/bitacora_historica_tablero_oficial.xlsx
+++ b/data-validation/bitacora_historica_tablero_oficial.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10510"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marianafernandez/Documents/COSMO/covid19-mx-data/data-validation/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76394DDA-8482-BD4D-986B-8CBB23A5E7E2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="460" windowWidth="16100" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="out_vars" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -43,11 +37,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -99,31 +94,24 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -165,7 +153,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -197,27 +185,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -249,24 +219,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -442,16 +394,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -471,7 +421,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -494,7 +444,7 @@
         <v>34.9</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -514,10 +464,10 @@
         <v>10637</v>
       </c>
       <c r="G3">
-        <v>34.590000000000003</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+        <v>34.59</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -537,10 +487,10 @@
         <v>11728</v>
       </c>
       <c r="G4">
-        <v>34.450000000000003</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+        <v>34.45</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -563,7 +513,7 @@
         <v>34.24</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -584,6 +534,29 @@
       </c>
       <c r="G6">
         <v>34.03</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" s="3">
+        <v>43988</v>
+      </c>
+      <c r="C7">
+        <v>113619</v>
+      </c>
+      <c r="D7">
+        <v>170434</v>
+      </c>
+      <c r="E7">
+        <v>48273</v>
+      </c>
+      <c r="F7">
+        <v>13511</v>
+      </c>
+      <c r="G7">
+        <v>33.72</v>
       </c>
     </row>
   </sheetData>

--- a/data-validation/bitacora_historica_tablero_oficial.xlsx
+++ b/data-validation/bitacora_historica_tablero_oficial.xlsx
@@ -395,7 +395,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -540,7 +540,7 @@
       <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7" s="2">
         <v>43988</v>
       </c>
       <c r="C7">
@@ -557,6 +557,29 @@
       </c>
       <c r="G7">
         <v>33.72</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" s="3">
+        <v>43989</v>
+      </c>
+      <c r="C8">
+        <v>117103</v>
+      </c>
+      <c r="D8">
+        <v>173975</v>
+      </c>
+      <c r="E8">
+        <v>45317</v>
+      </c>
+      <c r="F8">
+        <v>13699</v>
+      </c>
+      <c r="G8">
+        <v>33.48</v>
       </c>
     </row>
   </sheetData>

--- a/data-validation/bitacora_historica_tablero_oficial.xlsx
+++ b/data-validation/bitacora_historica_tablero_oficial.xlsx
@@ -395,7 +395,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -563,7 +563,7 @@
       <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B8" s="2">
         <v>43989</v>
       </c>
       <c r="C8">
@@ -580,6 +580,29 @@
       </c>
       <c r="G8">
         <v>33.48</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" s="3">
+        <v>43990</v>
+      </c>
+      <c r="C9">
+        <v>120102</v>
+      </c>
+      <c r="D9">
+        <v>177875</v>
+      </c>
+      <c r="E9">
+        <v>46398</v>
+      </c>
+      <c r="F9">
+        <v>14053</v>
+      </c>
+      <c r="G9">
+        <v>33.32</v>
       </c>
     </row>
   </sheetData>

--- a/data-validation/bitacora_historica_tablero_oficial.xlsx
+++ b/data-validation/bitacora_historica_tablero_oficial.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10510"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marianafernandez/Documents/COSMO/covid19-mx-data/data-validation/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D17C7176-CDE3-9B4B-A0BB-47D8CF382D94}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="460" windowWidth="23500" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="out_vars" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -37,12 +43,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
-    <numFmt numFmtId="165" formatCode="YYYY-MM-DD"/>
-  </numFmts>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -94,24 +96,31 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -153,7 +162,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -185,9 +194,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -219,6 +246,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -394,14 +439,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="17.6640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -421,7 +471,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -444,7 +494,7 @@
         <v>34.9</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -464,10 +514,10 @@
         <v>10637</v>
       </c>
       <c r="G3">
-        <v>34.59</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>34.590000000000003</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -487,10 +537,10 @@
         <v>11728</v>
       </c>
       <c r="G4">
-        <v>34.45</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>34.450000000000003</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -513,7 +563,7 @@
         <v>34.24</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -536,7 +586,7 @@
         <v>34.03</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -559,7 +609,7 @@
         <v>33.72</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -579,14 +629,14 @@
         <v>13699</v>
       </c>
       <c r="G8">
-        <v>33.48</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>33.479999999999997</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="B9" s="3">
+      <c r="B9" s="2">
         <v>43990</v>
       </c>
       <c r="C9">
@@ -603,6 +653,29 @@
       </c>
       <c r="G9">
         <v>33.32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" s="2">
+        <v>43991</v>
+      </c>
+      <c r="C10">
+        <v>124301</v>
+      </c>
+      <c r="D10">
+        <v>182077</v>
+      </c>
+      <c r="E10">
+        <v>50677</v>
+      </c>
+      <c r="F10">
+        <v>14649</v>
+      </c>
+      <c r="G10">
+        <v>33.21</v>
       </c>
     </row>
   </sheetData>

--- a/data-validation/bitacora_historica_tablero_oficial.xlsx
+++ b/data-validation/bitacora_historica_tablero_oficial.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marianafernandez/Documents/COSMO/covid19-mx-data/data-validation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D17C7176-CDE3-9B4B-A0BB-47D8CF382D94}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C2F8828-9380-4E4C-B526-D7A9AD177FC0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="460" windowWidth="23500" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="460" windowWidth="16100" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="out_vars" sheetId="1" r:id="rId1"/>
@@ -44,6 +44,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -101,7 +104,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -440,10 +443,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -678,6 +681,52 @@
         <v>33.21</v>
       </c>
     </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" s="2">
+        <v>43992</v>
+      </c>
+      <c r="C11">
+        <v>129184</v>
+      </c>
+      <c r="D11">
+        <v>186570</v>
+      </c>
+      <c r="E11">
+        <v>53608</v>
+      </c>
+      <c r="F11">
+        <v>15357</v>
+      </c>
+      <c r="G11">
+        <v>33.11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" s="2">
+        <v>43993</v>
+      </c>
+      <c r="C12">
+        <v>133974</v>
+      </c>
+      <c r="D12">
+        <v>191465</v>
+      </c>
+      <c r="E12">
+        <v>55700</v>
+      </c>
+      <c r="F12">
+        <v>15944</v>
+      </c>
+      <c r="G12">
+        <v>33.01</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data-validation/bitacora_historica_tablero_oficial.xlsx
+++ b/data-validation/bitacora_historica_tablero_oficial.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10510"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marianafernandez/Documents/COSMO/covid19-mx-data/data-validation/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C2F8828-9380-4E4C-B526-D7A9AD177FC0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="460" windowWidth="16100" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="out_vars" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -43,11 +37,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -99,31 +94,24 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -165,7 +153,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -197,27 +185,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -249,24 +219,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -442,19 +394,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="2" max="2" width="17.6640625" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -474,7 +421,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -497,7 +444,7 @@
         <v>34.9</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -517,10 +464,10 @@
         <v>10637</v>
       </c>
       <c r="G3">
-        <v>34.590000000000003</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+        <v>34.59</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -540,10 +487,10 @@
         <v>11728</v>
       </c>
       <c r="G4">
-        <v>34.450000000000003</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+        <v>34.45</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -566,7 +513,7 @@
         <v>34.24</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -589,7 +536,7 @@
         <v>34.03</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -612,7 +559,7 @@
         <v>33.72</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -632,10 +579,10 @@
         <v>13699</v>
       </c>
       <c r="G8">
-        <v>33.479999999999997</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+        <v>33.48</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -658,7 +605,7 @@
         <v>33.32</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -681,7 +628,7 @@
         <v>33.21</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -704,7 +651,7 @@
         <v>33.11</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -725,6 +672,52 @@
       </c>
       <c r="G12">
         <v>33.01</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" s="2">
+        <v>43994</v>
+      </c>
+      <c r="C13">
+        <v>139196</v>
+      </c>
+      <c r="D13">
+        <v>197590</v>
+      </c>
+      <c r="E13">
+        <v>56928</v>
+      </c>
+      <c r="F13">
+        <v>16448</v>
+      </c>
+      <c r="G13">
+        <v>32.78</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" s="3">
+        <v>43995</v>
+      </c>
+      <c r="C14">
+        <v>142690</v>
+      </c>
+      <c r="D14">
+        <v>202139</v>
+      </c>
+      <c r="E14">
+        <v>56926</v>
+      </c>
+      <c r="F14">
+        <v>16872</v>
+      </c>
+      <c r="G14">
+        <v>32.66</v>
       </c>
     </row>
   </sheetData>

--- a/data-validation/bitacora_historica_tablero_oficial.xlsx
+++ b/data-validation/bitacora_historica_tablero_oficial.xlsx
@@ -395,7 +395,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -701,7 +701,7 @@
       <c r="A14" s="1">
         <v>12</v>
       </c>
-      <c r="B14" s="3">
+      <c r="B14" s="2">
         <v>43995</v>
       </c>
       <c r="C14">
@@ -718,6 +718,29 @@
       </c>
       <c r="G14">
         <v>32.66</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" s="3">
+        <v>43996</v>
+      </c>
+      <c r="C15">
+        <v>146837</v>
+      </c>
+      <c r="D15">
+        <v>207076</v>
+      </c>
+      <c r="E15">
+        <v>52636</v>
+      </c>
+      <c r="F15">
+        <v>17141</v>
+      </c>
+      <c r="G15">
+        <v>32.5</v>
       </c>
     </row>
   </sheetData>

--- a/data-validation/bitacora_historica_tablero_oficial.xlsx
+++ b/data-validation/bitacora_historica_tablero_oficial.xlsx
@@ -395,7 +395,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -724,7 +724,7 @@
       <c r="A15" s="1">
         <v>13</v>
       </c>
-      <c r="B15" s="3">
+      <c r="B15" s="2">
         <v>43996</v>
       </c>
       <c r="C15">
@@ -741,6 +741,29 @@
       </c>
       <c r="G15">
         <v>32.5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" s="3">
+        <v>43997</v>
+      </c>
+      <c r="C16">
+        <v>150264</v>
+      </c>
+      <c r="D16">
+        <v>211616</v>
+      </c>
+      <c r="E16">
+        <v>53217</v>
+      </c>
+      <c r="F16">
+        <v>17580</v>
+      </c>
+      <c r="G16">
+        <v>32.36</v>
       </c>
     </row>
   </sheetData>

--- a/data-validation/bitacora_historica_tablero_oficial.xlsx
+++ b/data-validation/bitacora_historica_tablero_oficial.xlsx
@@ -395,7 +395,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -747,7 +747,7 @@
       <c r="A16" s="1">
         <v>14</v>
       </c>
-      <c r="B16" s="3">
+      <c r="B16" s="2">
         <v>43997</v>
       </c>
       <c r="C16">
@@ -764,6 +764,29 @@
       </c>
       <c r="G16">
         <v>32.36</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" s="3">
+        <v>43998</v>
+      </c>
+      <c r="C17">
+        <v>154863</v>
+      </c>
+      <c r="D17">
+        <v>216857</v>
+      </c>
+      <c r="E17">
+        <v>56843</v>
+      </c>
+      <c r="F17">
+        <v>18310</v>
+      </c>
+      <c r="G17">
+        <v>32.29</v>
       </c>
     </row>
   </sheetData>

--- a/data-validation/bitacora_historica_tablero_oficial.xlsx
+++ b/data-validation/bitacora_historica_tablero_oficial.xlsx
@@ -395,7 +395,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -770,7 +770,7 @@
       <c r="A17" s="1">
         <v>15</v>
       </c>
-      <c r="B17" s="3">
+      <c r="B17" s="2">
         <v>43998</v>
       </c>
       <c r="C17">
@@ -787,6 +787,29 @@
       </c>
       <c r="G17">
         <v>32.29</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" s="3">
+        <v>43999</v>
+      </c>
+      <c r="C18">
+        <v>159793</v>
+      </c>
+      <c r="D18">
+        <v>222801</v>
+      </c>
+      <c r="E18">
+        <v>59076</v>
+      </c>
+      <c r="F18">
+        <v>19080</v>
+      </c>
+      <c r="G18">
+        <v>32.06</v>
       </c>
     </row>
   </sheetData>

--- a/data-validation/bitacora_historica_tablero_oficial.xlsx
+++ b/data-validation/bitacora_historica_tablero_oficial.xlsx
@@ -395,7 +395,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G18"/>
+  <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -793,7 +793,7 @@
       <c r="A18" s="1">
         <v>16</v>
       </c>
-      <c r="B18" s="3">
+      <c r="B18" s="2">
         <v>43999</v>
       </c>
       <c r="C18">
@@ -810,6 +810,29 @@
       </c>
       <c r="G18">
         <v>32.06</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" s="3">
+        <v>44000</v>
+      </c>
+      <c r="C19">
+        <v>165455</v>
+      </c>
+      <c r="D19">
+        <v>228248</v>
+      </c>
+      <c r="E19">
+        <v>59778</v>
+      </c>
+      <c r="F19">
+        <v>19747</v>
+      </c>
+      <c r="G19">
+        <v>31.86</v>
       </c>
     </row>
   </sheetData>

--- a/data-validation/bitacora_historica_tablero_oficial.xlsx
+++ b/data-validation/bitacora_historica_tablero_oficial.xlsx
@@ -395,7 +395,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G19"/>
+  <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -816,7 +816,7 @@
       <c r="A19" s="1">
         <v>17</v>
       </c>
-      <c r="B19" s="3">
+      <c r="B19" s="2">
         <v>44000</v>
       </c>
       <c r="C19">
@@ -833,6 +833,29 @@
       </c>
       <c r="G19">
         <v>31.86</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" s="3">
+        <v>44001</v>
+      </c>
+      <c r="C20">
+        <v>170485</v>
+      </c>
+      <c r="D20">
+        <v>233137</v>
+      </c>
+      <c r="E20">
+        <v>62245</v>
+      </c>
+      <c r="F20">
+        <v>20394</v>
+      </c>
+      <c r="G20">
+        <v>31.72</v>
       </c>
     </row>
   </sheetData>

--- a/data-validation/bitacora_historica_tablero_oficial.xlsx
+++ b/data-validation/bitacora_historica_tablero_oficial.xlsx
@@ -395,467 +395,450 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G20"/>
+  <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="B1" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2" s="2">
+    <row r="2" spans="1:6">
+      <c r="A2" s="2">
         <v>43983</v>
       </c>
+      <c r="B2">
+        <v>93435</v>
+      </c>
       <c r="C2">
-        <v>93435</v>
+        <v>150157</v>
       </c>
       <c r="D2">
-        <v>150157</v>
+        <v>38497</v>
       </c>
       <c r="E2">
-        <v>38497</v>
+        <v>10167</v>
       </c>
       <c r="F2">
-        <v>10167</v>
-      </c>
-      <c r="G2">
         <v>34.9</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" s="2">
+    <row r="3" spans="1:6">
+      <c r="A3" s="2">
         <v>43984</v>
       </c>
+      <c r="B3">
+        <v>97326</v>
+      </c>
       <c r="C3">
-        <v>97326</v>
+        <v>153601</v>
       </c>
       <c r="D3">
-        <v>153601</v>
+        <v>42151</v>
       </c>
       <c r="E3">
-        <v>42151</v>
+        <v>10637</v>
       </c>
       <c r="F3">
-        <v>10637</v>
-      </c>
-      <c r="G3">
         <v>34.59</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4" s="2">
+    <row r="4" spans="1:6">
+      <c r="A4" s="2">
         <v>43985</v>
       </c>
+      <c r="B4">
+        <v>101238</v>
+      </c>
       <c r="C4">
-        <v>101238</v>
+        <v>157354</v>
       </c>
       <c r="D4">
-        <v>157354</v>
+        <v>44869</v>
       </c>
       <c r="E4">
-        <v>44869</v>
+        <v>11728</v>
       </c>
       <c r="F4">
-        <v>11728</v>
-      </c>
-      <c r="G4">
         <v>34.45</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5" s="2">
+    <row r="5" spans="1:6">
+      <c r="A5" s="2">
         <v>43986</v>
       </c>
+      <c r="B5">
+        <v>105680</v>
+      </c>
       <c r="C5">
-        <v>105680</v>
+        <v>161724</v>
       </c>
       <c r="D5">
-        <v>161724</v>
+        <v>46659</v>
       </c>
       <c r="E5">
-        <v>46659</v>
+        <v>12545</v>
       </c>
       <c r="F5">
-        <v>12545</v>
-      </c>
-      <c r="G5">
         <v>34.24</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="1">
-        <v>4</v>
-      </c>
-      <c r="B6" s="2">
+    <row r="6" spans="1:6">
+      <c r="A6" s="2">
         <v>43987</v>
       </c>
+      <c r="B6">
+        <v>110026</v>
+      </c>
       <c r="C6">
-        <v>110026</v>
+        <v>166049</v>
       </c>
       <c r="D6">
-        <v>166049</v>
+        <v>48822</v>
       </c>
       <c r="E6">
-        <v>48822</v>
+        <v>13170</v>
       </c>
       <c r="F6">
-        <v>13170</v>
-      </c>
-      <c r="G6">
         <v>34.03</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="1">
-        <v>5</v>
-      </c>
-      <c r="B7" s="2">
+    <row r="7" spans="1:6">
+      <c r="A7" s="2">
         <v>43988</v>
       </c>
+      <c r="B7">
+        <v>113619</v>
+      </c>
       <c r="C7">
-        <v>113619</v>
+        <v>170434</v>
       </c>
       <c r="D7">
-        <v>170434</v>
+        <v>48273</v>
       </c>
       <c r="E7">
-        <v>48273</v>
+        <v>13511</v>
       </c>
       <c r="F7">
-        <v>13511</v>
-      </c>
-      <c r="G7">
         <v>33.72</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="1">
-        <v>6</v>
-      </c>
-      <c r="B8" s="2">
+    <row r="8" spans="1:6">
+      <c r="A8" s="2">
         <v>43989</v>
       </c>
+      <c r="B8">
+        <v>117103</v>
+      </c>
       <c r="C8">
-        <v>117103</v>
+        <v>173975</v>
       </c>
       <c r="D8">
-        <v>173975</v>
+        <v>45317</v>
       </c>
       <c r="E8">
-        <v>45317</v>
+        <v>13699</v>
       </c>
       <c r="F8">
-        <v>13699</v>
-      </c>
-      <c r="G8">
         <v>33.48</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="1">
-        <v>7</v>
-      </c>
-      <c r="B9" s="2">
+    <row r="9" spans="1:6">
+      <c r="A9" s="2">
         <v>43990</v>
       </c>
+      <c r="B9">
+        <v>120102</v>
+      </c>
       <c r="C9">
-        <v>120102</v>
+        <v>177875</v>
       </c>
       <c r="D9">
-        <v>177875</v>
+        <v>46398</v>
       </c>
       <c r="E9">
-        <v>46398</v>
+        <v>14053</v>
       </c>
       <c r="F9">
-        <v>14053</v>
-      </c>
-      <c r="G9">
         <v>33.32</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="1">
-        <v>8</v>
-      </c>
-      <c r="B10" s="2">
+    <row r="10" spans="1:6">
+      <c r="A10" s="2">
         <v>43991</v>
       </c>
+      <c r="B10">
+        <v>124301</v>
+      </c>
       <c r="C10">
-        <v>124301</v>
+        <v>182077</v>
       </c>
       <c r="D10">
-        <v>182077</v>
+        <v>50677</v>
       </c>
       <c r="E10">
-        <v>50677</v>
+        <v>14649</v>
       </c>
       <c r="F10">
-        <v>14649</v>
-      </c>
-      <c r="G10">
         <v>33.21</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="1">
-        <v>9</v>
-      </c>
-      <c r="B11" s="2">
+    <row r="11" spans="1:6">
+      <c r="A11" s="2">
         <v>43992</v>
       </c>
+      <c r="B11">
+        <v>129184</v>
+      </c>
       <c r="C11">
-        <v>129184</v>
+        <v>186570</v>
       </c>
       <c r="D11">
-        <v>186570</v>
+        <v>53608</v>
       </c>
       <c r="E11">
-        <v>53608</v>
+        <v>15357</v>
       </c>
       <c r="F11">
-        <v>15357</v>
-      </c>
-      <c r="G11">
         <v>33.11</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="1">
-        <v>10</v>
-      </c>
-      <c r="B12" s="2">
+    <row r="12" spans="1:6">
+      <c r="A12" s="2">
         <v>43993</v>
       </c>
+      <c r="B12">
+        <v>133974</v>
+      </c>
       <c r="C12">
-        <v>133974</v>
+        <v>191465</v>
       </c>
       <c r="D12">
-        <v>191465</v>
+        <v>55700</v>
       </c>
       <c r="E12">
-        <v>55700</v>
+        <v>15944</v>
       </c>
       <c r="F12">
-        <v>15944</v>
-      </c>
-      <c r="G12">
         <v>33.01</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
-      <c r="A13" s="1">
-        <v>11</v>
-      </c>
-      <c r="B13" s="2">
+    <row r="13" spans="1:6">
+      <c r="A13" s="2">
         <v>43994</v>
       </c>
+      <c r="B13">
+        <v>139196</v>
+      </c>
       <c r="C13">
-        <v>139196</v>
+        <v>197590</v>
       </c>
       <c r="D13">
-        <v>197590</v>
+        <v>56928</v>
       </c>
       <c r="E13">
-        <v>56928</v>
+        <v>16448</v>
       </c>
       <c r="F13">
-        <v>16448</v>
-      </c>
-      <c r="G13">
         <v>32.78</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
-      <c r="A14" s="1">
-        <v>12</v>
-      </c>
-      <c r="B14" s="2">
+    <row r="14" spans="1:6">
+      <c r="A14" s="2">
         <v>43995</v>
       </c>
+      <c r="B14">
+        <v>142690</v>
+      </c>
       <c r="C14">
-        <v>142690</v>
+        <v>202139</v>
       </c>
       <c r="D14">
-        <v>202139</v>
+        <v>56926</v>
       </c>
       <c r="E14">
-        <v>56926</v>
+        <v>16872</v>
       </c>
       <c r="F14">
-        <v>16872</v>
-      </c>
-      <c r="G14">
         <v>32.66</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
-      <c r="A15" s="1">
-        <v>13</v>
-      </c>
-      <c r="B15" s="2">
+    <row r="15" spans="1:6">
+      <c r="A15" s="2">
         <v>43996</v>
       </c>
+      <c r="B15">
+        <v>146837</v>
+      </c>
       <c r="C15">
-        <v>146837</v>
+        <v>207076</v>
       </c>
       <c r="D15">
-        <v>207076</v>
+        <v>52636</v>
       </c>
       <c r="E15">
-        <v>52636</v>
+        <v>17141</v>
       </c>
       <c r="F15">
-        <v>17141</v>
-      </c>
-      <c r="G15">
         <v>32.5</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
-      <c r="A16" s="1">
-        <v>14</v>
-      </c>
-      <c r="B16" s="2">
+    <row r="16" spans="1:6">
+      <c r="A16" s="2">
         <v>43997</v>
       </c>
+      <c r="B16">
+        <v>150264</v>
+      </c>
       <c r="C16">
-        <v>150264</v>
+        <v>211616</v>
       </c>
       <c r="D16">
-        <v>211616</v>
+        <v>53217</v>
       </c>
       <c r="E16">
-        <v>53217</v>
+        <v>17580</v>
       </c>
       <c r="F16">
-        <v>17580</v>
-      </c>
-      <c r="G16">
         <v>32.36</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
-      <c r="A17" s="1">
-        <v>15</v>
-      </c>
-      <c r="B17" s="2">
+    <row r="17" spans="1:6">
+      <c r="A17" s="2">
         <v>43998</v>
       </c>
+      <c r="B17">
+        <v>154863</v>
+      </c>
       <c r="C17">
-        <v>154863</v>
+        <v>216857</v>
       </c>
       <c r="D17">
-        <v>216857</v>
+        <v>56843</v>
       </c>
       <c r="E17">
-        <v>56843</v>
+        <v>18310</v>
       </c>
       <c r="F17">
-        <v>18310</v>
-      </c>
-      <c r="G17">
         <v>32.29</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
-      <c r="A18" s="1">
-        <v>16</v>
-      </c>
-      <c r="B18" s="2">
+    <row r="18" spans="1:6">
+      <c r="A18" s="2">
         <v>43999</v>
       </c>
+      <c r="B18">
+        <v>159793</v>
+      </c>
       <c r="C18">
-        <v>159793</v>
+        <v>222801</v>
       </c>
       <c r="D18">
-        <v>222801</v>
+        <v>59076</v>
       </c>
       <c r="E18">
-        <v>59076</v>
+        <v>19080</v>
       </c>
       <c r="F18">
-        <v>19080</v>
-      </c>
-      <c r="G18">
         <v>32.06</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
-      <c r="A19" s="1">
-        <v>17</v>
-      </c>
-      <c r="B19" s="2">
+    <row r="19" spans="1:6">
+      <c r="A19" s="2">
         <v>44000</v>
       </c>
+      <c r="B19">
+        <v>165455</v>
+      </c>
       <c r="C19">
-        <v>165455</v>
+        <v>228248</v>
       </c>
       <c r="D19">
-        <v>228248</v>
+        <v>59778</v>
       </c>
       <c r="E19">
-        <v>59778</v>
+        <v>19747</v>
       </c>
       <c r="F19">
-        <v>19747</v>
-      </c>
-      <c r="G19">
         <v>31.86</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
-      <c r="A20" s="1">
-        <v>18</v>
-      </c>
-      <c r="B20" s="3">
+    <row r="20" spans="1:6">
+      <c r="A20" s="2">
         <v>44001</v>
       </c>
+      <c r="B20">
+        <v>170485</v>
+      </c>
       <c r="C20">
-        <v>170485</v>
+        <v>233137</v>
       </c>
       <c r="D20">
-        <v>233137</v>
+        <v>62245</v>
       </c>
       <c r="E20">
-        <v>62245</v>
+        <v>20394</v>
       </c>
       <c r="F20">
-        <v>20394</v>
-      </c>
-      <c r="G20">
         <v>31.72</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="2">
+        <v>44002</v>
+      </c>
+      <c r="B21">
+        <v>175202</v>
+      </c>
+      <c r="C21">
+        <v>238129</v>
+      </c>
+      <c r="D21">
+        <v>60621</v>
+      </c>
+      <c r="E21">
+        <v>20781</v>
+      </c>
+      <c r="F21">
+        <v>31.46</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="3">
+        <v>44003</v>
+      </c>
+      <c r="B22">
+        <v>180545</v>
+      </c>
+      <c r="C22">
+        <v>242393</v>
+      </c>
+      <c r="D22">
+        <v>56590</v>
+      </c>
+      <c r="E22">
+        <v>21825</v>
+      </c>
+      <c r="F22">
+        <v>31.61</v>
       </c>
     </row>
   </sheetData>

--- a/data-validation/bitacora_historica_tablero_oficial.xlsx
+++ b/data-validation/bitacora_historica_tablero_oficial.xlsx
@@ -1,67 +1,42 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet name="out_vars" sheetId="1" r:id="rId1"/>
+    <sheet name="out_vars" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
-  <si>
-    <t>Fecha</t>
-  </si>
-  <si>
-    <t>Confirmados</t>
-  </si>
-  <si>
-    <t>Negativos</t>
-  </si>
-  <si>
-    <t>Sospechosos</t>
-  </si>
-  <si>
-    <t>Defunciones</t>
-  </si>
-  <si>
-    <t>Porcentaje hospitalizados</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
-    <numFmt numFmtId="165" formatCode="YYYY-MM-DD"/>
+  <numFmts count="4">
+    <numFmt formatCode="yyyy-mm-dd h:mm:ss" numFmtId="164"/>
+    <numFmt formatCode="YYYY-MM-DD HH:MM:SS" numFmtId="165"/>
+    <numFmt formatCode="yyyy-mm-dd" numFmtId="166"/>
+    <numFmt formatCode="YYYY-MM-DD" numFmtId="167"/>
   </numFmts>
   <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -76,37 +51,28 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="167" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,454 +360,492 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="2">
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Fecha</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Confirmados</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Negativos</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Sospechosos</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Defunciones</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Porcentaje hospitalizados</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
         <v>43983</v>
       </c>
-      <c r="B2">
+      <c r="B2" t="n">
         <v>93435</v>
       </c>
-      <c r="C2">
+      <c r="C2" t="n">
         <v>150157</v>
       </c>
-      <c r="D2">
+      <c r="D2" t="n">
         <v>38497</v>
       </c>
-      <c r="E2">
+      <c r="E2" t="n">
         <v>10167</v>
       </c>
-      <c r="F2">
+      <c r="F2" t="n">
         <v>34.9</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="2">
+    <row r="3">
+      <c r="A3" s="2" t="n">
         <v>43984</v>
       </c>
-      <c r="B3">
+      <c r="B3" t="n">
         <v>97326</v>
       </c>
-      <c r="C3">
+      <c r="C3" t="n">
         <v>153601</v>
       </c>
-      <c r="D3">
+      <c r="D3" t="n">
         <v>42151</v>
       </c>
-      <c r="E3">
+      <c r="E3" t="n">
         <v>10637</v>
       </c>
-      <c r="F3">
+      <c r="F3" t="n">
         <v>34.59</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="2">
+    <row r="4">
+      <c r="A4" s="2" t="n">
         <v>43985</v>
       </c>
-      <c r="B4">
+      <c r="B4" t="n">
         <v>101238</v>
       </c>
-      <c r="C4">
+      <c r="C4" t="n">
         <v>157354</v>
       </c>
-      <c r="D4">
+      <c r="D4" t="n">
         <v>44869</v>
       </c>
-      <c r="E4">
+      <c r="E4" t="n">
         <v>11728</v>
       </c>
-      <c r="F4">
+      <c r="F4" t="n">
         <v>34.45</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="2">
+    <row r="5">
+      <c r="A5" s="2" t="n">
         <v>43986</v>
       </c>
-      <c r="B5">
+      <c r="B5" t="n">
         <v>105680</v>
       </c>
-      <c r="C5">
+      <c r="C5" t="n">
         <v>161724</v>
       </c>
-      <c r="D5">
+      <c r="D5" t="n">
         <v>46659</v>
       </c>
-      <c r="E5">
+      <c r="E5" t="n">
         <v>12545</v>
       </c>
-      <c r="F5">
+      <c r="F5" t="n">
         <v>34.24</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="2">
+    <row r="6">
+      <c r="A6" s="2" t="n">
         <v>43987</v>
       </c>
-      <c r="B6">
+      <c r="B6" t="n">
         <v>110026</v>
       </c>
-      <c r="C6">
+      <c r="C6" t="n">
         <v>166049</v>
       </c>
-      <c r="D6">
+      <c r="D6" t="n">
         <v>48822</v>
       </c>
-      <c r="E6">
+      <c r="E6" t="n">
         <v>13170</v>
       </c>
-      <c r="F6">
+      <c r="F6" t="n">
         <v>34.03</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="2">
+    <row r="7">
+      <c r="A7" s="2" t="n">
         <v>43988</v>
       </c>
-      <c r="B7">
+      <c r="B7" t="n">
         <v>113619</v>
       </c>
-      <c r="C7">
+      <c r="C7" t="n">
         <v>170434</v>
       </c>
-      <c r="D7">
+      <c r="D7" t="n">
         <v>48273</v>
       </c>
-      <c r="E7">
+      <c r="E7" t="n">
         <v>13511</v>
       </c>
-      <c r="F7">
+      <c r="F7" t="n">
         <v>33.72</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="2">
+    <row r="8">
+      <c r="A8" s="2" t="n">
         <v>43989</v>
       </c>
-      <c r="B8">
+      <c r="B8" t="n">
         <v>117103</v>
       </c>
-      <c r="C8">
+      <c r="C8" t="n">
         <v>173975</v>
       </c>
-      <c r="D8">
+      <c r="D8" t="n">
         <v>45317</v>
       </c>
-      <c r="E8">
+      <c r="E8" t="n">
         <v>13699</v>
       </c>
-      <c r="F8">
+      <c r="F8" t="n">
         <v>33.48</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="2">
+    <row r="9">
+      <c r="A9" s="2" t="n">
         <v>43990</v>
       </c>
-      <c r="B9">
+      <c r="B9" t="n">
         <v>120102</v>
       </c>
-      <c r="C9">
+      <c r="C9" t="n">
         <v>177875</v>
       </c>
-      <c r="D9">
+      <c r="D9" t="n">
         <v>46398</v>
       </c>
-      <c r="E9">
+      <c r="E9" t="n">
         <v>14053</v>
       </c>
-      <c r="F9">
+      <c r="F9" t="n">
         <v>33.32</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="2">
+    <row r="10">
+      <c r="A10" s="2" t="n">
         <v>43991</v>
       </c>
-      <c r="B10">
+      <c r="B10" t="n">
         <v>124301</v>
       </c>
-      <c r="C10">
+      <c r="C10" t="n">
         <v>182077</v>
       </c>
-      <c r="D10">
+      <c r="D10" t="n">
         <v>50677</v>
       </c>
-      <c r="E10">
+      <c r="E10" t="n">
         <v>14649</v>
       </c>
-      <c r="F10">
+      <c r="F10" t="n">
         <v>33.21</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="2">
+    <row r="11">
+      <c r="A11" s="2" t="n">
         <v>43992</v>
       </c>
-      <c r="B11">
+      <c r="B11" t="n">
         <v>129184</v>
       </c>
-      <c r="C11">
+      <c r="C11" t="n">
         <v>186570</v>
       </c>
-      <c r="D11">
+      <c r="D11" t="n">
         <v>53608</v>
       </c>
-      <c r="E11">
+      <c r="E11" t="n">
         <v>15357</v>
       </c>
-      <c r="F11">
+      <c r="F11" t="n">
         <v>33.11</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="2">
+    <row r="12">
+      <c r="A12" s="2" t="n">
         <v>43993</v>
       </c>
-      <c r="B12">
+      <c r="B12" t="n">
         <v>133974</v>
       </c>
-      <c r="C12">
+      <c r="C12" t="n">
         <v>191465</v>
       </c>
-      <c r="D12">
+      <c r="D12" t="n">
         <v>55700</v>
       </c>
-      <c r="E12">
+      <c r="E12" t="n">
         <v>15944</v>
       </c>
-      <c r="F12">
+      <c r="F12" t="n">
         <v>33.01</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="2">
+    <row r="13">
+      <c r="A13" s="2" t="n">
         <v>43994</v>
       </c>
-      <c r="B13">
+      <c r="B13" t="n">
         <v>139196</v>
       </c>
-      <c r="C13">
+      <c r="C13" t="n">
         <v>197590</v>
       </c>
-      <c r="D13">
+      <c r="D13" t="n">
         <v>56928</v>
       </c>
-      <c r="E13">
+      <c r="E13" t="n">
         <v>16448</v>
       </c>
-      <c r="F13">
+      <c r="F13" t="n">
         <v>32.78</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
-      <c r="A14" s="2">
+    <row r="14">
+      <c r="A14" s="2" t="n">
         <v>43995</v>
       </c>
-      <c r="B14">
+      <c r="B14" t="n">
         <v>142690</v>
       </c>
-      <c r="C14">
+      <c r="C14" t="n">
         <v>202139</v>
       </c>
-      <c r="D14">
+      <c r="D14" t="n">
         <v>56926</v>
       </c>
-      <c r="E14">
+      <c r="E14" t="n">
         <v>16872</v>
       </c>
-      <c r="F14">
+      <c r="F14" t="n">
         <v>32.66</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
-      <c r="A15" s="2">
+    <row r="15">
+      <c r="A15" s="2" t="n">
         <v>43996</v>
       </c>
-      <c r="B15">
+      <c r="B15" t="n">
         <v>146837</v>
       </c>
-      <c r="C15">
+      <c r="C15" t="n">
         <v>207076</v>
       </c>
-      <c r="D15">
+      <c r="D15" t="n">
         <v>52636</v>
       </c>
-      <c r="E15">
+      <c r="E15" t="n">
         <v>17141</v>
       </c>
-      <c r="F15">
+      <c r="F15" t="n">
         <v>32.5</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
-      <c r="A16" s="2">
+    <row r="16">
+      <c r="A16" s="2" t="n">
         <v>43997</v>
       </c>
-      <c r="B16">
+      <c r="B16" t="n">
         <v>150264</v>
       </c>
-      <c r="C16">
+      <c r="C16" t="n">
         <v>211616</v>
       </c>
-      <c r="D16">
+      <c r="D16" t="n">
         <v>53217</v>
       </c>
-      <c r="E16">
+      <c r="E16" t="n">
         <v>17580</v>
       </c>
-      <c r="F16">
+      <c r="F16" t="n">
         <v>32.36</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
-      <c r="A17" s="2">
+    <row r="17">
+      <c r="A17" s="2" t="n">
         <v>43998</v>
       </c>
-      <c r="B17">
+      <c r="B17" t="n">
         <v>154863</v>
       </c>
-      <c r="C17">
+      <c r="C17" t="n">
         <v>216857</v>
       </c>
-      <c r="D17">
+      <c r="D17" t="n">
         <v>56843</v>
       </c>
-      <c r="E17">
+      <c r="E17" t="n">
         <v>18310</v>
       </c>
-      <c r="F17">
+      <c r="F17" t="n">
         <v>32.29</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
-      <c r="A18" s="2">
+    <row r="18">
+      <c r="A18" s="2" t="n">
         <v>43999</v>
       </c>
-      <c r="B18">
+      <c r="B18" t="n">
         <v>159793</v>
       </c>
-      <c r="C18">
+      <c r="C18" t="n">
         <v>222801</v>
       </c>
-      <c r="D18">
+      <c r="D18" t="n">
         <v>59076</v>
       </c>
-      <c r="E18">
+      <c r="E18" t="n">
         <v>19080</v>
       </c>
-      <c r="F18">
+      <c r="F18" t="n">
         <v>32.06</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
-      <c r="A19" s="2">
+    <row r="19">
+      <c r="A19" s="2" t="n">
         <v>44000</v>
       </c>
-      <c r="B19">
+      <c r="B19" t="n">
         <v>165455</v>
       </c>
-      <c r="C19">
+      <c r="C19" t="n">
         <v>228248</v>
       </c>
-      <c r="D19">
+      <c r="D19" t="n">
         <v>59778</v>
       </c>
-      <c r="E19">
+      <c r="E19" t="n">
         <v>19747</v>
       </c>
-      <c r="F19">
+      <c r="F19" t="n">
         <v>31.86</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
-      <c r="A20" s="2">
+    <row r="20">
+      <c r="A20" s="2" t="n">
         <v>44001</v>
       </c>
-      <c r="B20">
+      <c r="B20" t="n">
         <v>170485</v>
       </c>
-      <c r="C20">
+      <c r="C20" t="n">
         <v>233137</v>
       </c>
-      <c r="D20">
+      <c r="D20" t="n">
         <v>62245</v>
       </c>
-      <c r="E20">
+      <c r="E20" t="n">
         <v>20394</v>
       </c>
-      <c r="F20">
+      <c r="F20" t="n">
         <v>31.72</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
-      <c r="A21" s="2">
+    <row r="21">
+      <c r="A21" s="2" t="n">
         <v>44002</v>
       </c>
-      <c r="B21">
+      <c r="B21" t="n">
         <v>175202</v>
       </c>
-      <c r="C21">
+      <c r="C21" t="n">
         <v>238129</v>
       </c>
-      <c r="D21">
+      <c r="D21" t="n">
         <v>60621</v>
       </c>
-      <c r="E21">
+      <c r="E21" t="n">
         <v>20781</v>
       </c>
-      <c r="F21">
+      <c r="F21" t="n">
         <v>31.46</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
-      <c r="A22" s="3">
+    <row r="22">
+      <c r="A22" s="2" t="n">
         <v>44003</v>
       </c>
-      <c r="B22">
+      <c r="B22" t="n">
         <v>180545</v>
       </c>
-      <c r="C22">
+      <c r="C22" t="n">
         <v>242393</v>
       </c>
-      <c r="D22">
+      <c r="D22" t="n">
         <v>56590</v>
       </c>
-      <c r="E22">
+      <c r="E22" t="n">
         <v>21825</v>
       </c>
-      <c r="F22">
+      <c r="F22" t="n">
         <v>31.61</v>
       </c>
     </row>
+    <row r="23">
+      <c r="A23" s="3" t="n">
+        <v>44004</v>
+      </c>
+      <c r="B23" t="n">
+        <v>185122</v>
+      </c>
+      <c r="C23" t="n">
+        <v>246147</v>
+      </c>
+      <c r="D23" t="n">
+        <v>57281</v>
+      </c>
+      <c r="E23" t="n">
+        <v>22584</v>
+      </c>
+      <c r="F23" t="n">
+        <v>31.69</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/data-validation/bitacora_historica_tablero_oficial.xlsx
+++ b/data-validation/bitacora_historica_tablero_oficial.xlsx
@@ -365,7 +365,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F23"/>
+  <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -826,7 +826,7 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="3" t="n">
+      <c r="A23" s="2" t="n">
         <v>44004</v>
       </c>
       <c r="B23" t="n">
@@ -843,6 +843,26 @@
       </c>
       <c r="F23" t="n">
         <v>31.69</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="3" t="n">
+        <v>44005</v>
+      </c>
+      <c r="B24" t="n">
+        <v>191410</v>
+      </c>
+      <c r="C24" t="n">
+        <v>251355</v>
+      </c>
+      <c r="D24" t="n">
+        <v>59106</v>
+      </c>
+      <c r="E24" t="n">
+        <v>23377</v>
+      </c>
+      <c r="F24" t="n">
+        <v>31.6</v>
       </c>
     </row>
   </sheetData>

--- a/data-validation/bitacora_historica_tablero_oficial.xlsx
+++ b/data-validation/bitacora_historica_tablero_oficial.xlsx
@@ -1,42 +1,69 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="out_vars" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="out_vars" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+  <si>
+    <t>Fecha</t>
+  </si>
+  <si>
+    <t>Confirmados</t>
+  </si>
+  <si>
+    <t>Negativos</t>
+  </si>
+  <si>
+    <t>Sospechosos</t>
+  </si>
+  <si>
+    <t>Defunciones</t>
+  </si>
+  <si>
+    <t>Porcentaje hospitalizados</t>
+  </si>
+  <si>
+    <t>2020-06-24</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt formatCode="yyyy-mm-dd h:mm:ss" numFmtId="164"/>
-    <numFmt formatCode="YYYY-MM-DD HH:MM:SS" numFmtId="165"/>
-    <numFmt formatCode="yyyy-mm-dd" numFmtId="166"/>
-    <numFmt formatCode="YYYY-MM-DD" numFmtId="167"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
   </numFmts>
   <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -51,28 +78,36 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="167" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -360,512 +395,514 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:F24"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Fecha</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Confirmados</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Negativos</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Sospechosos</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Defunciones</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Porcentaje hospitalizados</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="2">
         <v>43983</v>
       </c>
-      <c r="B2" t="n">
+      <c r="B2">
         <v>93435</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C2">
         <v>150157</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D2">
         <v>38497</v>
       </c>
-      <c r="E2" t="n">
+      <c r="E2">
         <v>10167</v>
       </c>
-      <c r="F2" t="n">
+      <c r="F2">
         <v>34.9</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
+    <row r="3" spans="1:6">
+      <c r="A3" s="2">
         <v>43984</v>
       </c>
-      <c r="B3" t="n">
+      <c r="B3">
         <v>97326</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C3">
         <v>153601</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D3">
         <v>42151</v>
       </c>
-      <c r="E3" t="n">
+      <c r="E3">
         <v>10637</v>
       </c>
-      <c r="F3" t="n">
+      <c r="F3">
         <v>34.59</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
+    <row r="4" spans="1:6">
+      <c r="A4" s="2">
         <v>43985</v>
       </c>
-      <c r="B4" t="n">
+      <c r="B4">
         <v>101238</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C4">
         <v>157354</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D4">
         <v>44869</v>
       </c>
-      <c r="E4" t="n">
+      <c r="E4">
         <v>11728</v>
       </c>
-      <c r="F4" t="n">
+      <c r="F4">
         <v>34.45</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
+    <row r="5" spans="1:6">
+      <c r="A5" s="2">
         <v>43986</v>
       </c>
-      <c r="B5" t="n">
+      <c r="B5">
         <v>105680</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C5">
         <v>161724</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D5">
         <v>46659</v>
       </c>
-      <c r="E5" t="n">
+      <c r="E5">
         <v>12545</v>
       </c>
-      <c r="F5" t="n">
+      <c r="F5">
         <v>34.24</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
+    <row r="6" spans="1:6">
+      <c r="A6" s="2">
         <v>43987</v>
       </c>
-      <c r="B6" t="n">
+      <c r="B6">
         <v>110026</v>
       </c>
-      <c r="C6" t="n">
+      <c r="C6">
         <v>166049</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D6">
         <v>48822</v>
       </c>
-      <c r="E6" t="n">
+      <c r="E6">
         <v>13170</v>
       </c>
-      <c r="F6" t="n">
+      <c r="F6">
         <v>34.03</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
+    <row r="7" spans="1:6">
+      <c r="A7" s="2">
         <v>43988</v>
       </c>
-      <c r="B7" t="n">
+      <c r="B7">
         <v>113619</v>
       </c>
-      <c r="C7" t="n">
+      <c r="C7">
         <v>170434</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D7">
         <v>48273</v>
       </c>
-      <c r="E7" t="n">
+      <c r="E7">
         <v>13511</v>
       </c>
-      <c r="F7" t="n">
+      <c r="F7">
         <v>33.72</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
+    <row r="8" spans="1:6">
+      <c r="A8" s="2">
         <v>43989</v>
       </c>
-      <c r="B8" t="n">
+      <c r="B8">
         <v>117103</v>
       </c>
-      <c r="C8" t="n">
+      <c r="C8">
         <v>173975</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D8">
         <v>45317</v>
       </c>
-      <c r="E8" t="n">
+      <c r="E8">
         <v>13699</v>
       </c>
-      <c r="F8" t="n">
+      <c r="F8">
         <v>33.48</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
+    <row r="9" spans="1:6">
+      <c r="A9" s="2">
         <v>43990</v>
       </c>
-      <c r="B9" t="n">
+      <c r="B9">
         <v>120102</v>
       </c>
-      <c r="C9" t="n">
+      <c r="C9">
         <v>177875</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D9">
         <v>46398</v>
       </c>
-      <c r="E9" t="n">
+      <c r="E9">
         <v>14053</v>
       </c>
-      <c r="F9" t="n">
+      <c r="F9">
         <v>33.32</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
+    <row r="10" spans="1:6">
+      <c r="A10" s="2">
         <v>43991</v>
       </c>
-      <c r="B10" t="n">
+      <c r="B10">
         <v>124301</v>
       </c>
-      <c r="C10" t="n">
+      <c r="C10">
         <v>182077</v>
       </c>
-      <c r="D10" t="n">
+      <c r="D10">
         <v>50677</v>
       </c>
-      <c r="E10" t="n">
+      <c r="E10">
         <v>14649</v>
       </c>
-      <c r="F10" t="n">
+      <c r="F10">
         <v>33.21</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
+    <row r="11" spans="1:6">
+      <c r="A11" s="2">
         <v>43992</v>
       </c>
-      <c r="B11" t="n">
+      <c r="B11">
         <v>129184</v>
       </c>
-      <c r="C11" t="n">
+      <c r="C11">
         <v>186570</v>
       </c>
-      <c r="D11" t="n">
+      <c r="D11">
         <v>53608</v>
       </c>
-      <c r="E11" t="n">
+      <c r="E11">
         <v>15357</v>
       </c>
-      <c r="F11" t="n">
+      <c r="F11">
         <v>33.11</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
+    <row r="12" spans="1:6">
+      <c r="A12" s="2">
         <v>43993</v>
       </c>
-      <c r="B12" t="n">
+      <c r="B12">
         <v>133974</v>
       </c>
-      <c r="C12" t="n">
+      <c r="C12">
         <v>191465</v>
       </c>
-      <c r="D12" t="n">
+      <c r="D12">
         <v>55700</v>
       </c>
-      <c r="E12" t="n">
+      <c r="E12">
         <v>15944</v>
       </c>
-      <c r="F12" t="n">
+      <c r="F12">
         <v>33.01</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
+    <row r="13" spans="1:6">
+      <c r="A13" s="2">
         <v>43994</v>
       </c>
-      <c r="B13" t="n">
+      <c r="B13">
         <v>139196</v>
       </c>
-      <c r="C13" t="n">
+      <c r="C13">
         <v>197590</v>
       </c>
-      <c r="D13" t="n">
+      <c r="D13">
         <v>56928</v>
       </c>
-      <c r="E13" t="n">
+      <c r="E13">
         <v>16448</v>
       </c>
-      <c r="F13" t="n">
+      <c r="F13">
         <v>32.78</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
+    <row r="14" spans="1:6">
+      <c r="A14" s="2">
         <v>43995</v>
       </c>
-      <c r="B14" t="n">
+      <c r="B14">
         <v>142690</v>
       </c>
-      <c r="C14" t="n">
+      <c r="C14">
         <v>202139</v>
       </c>
-      <c r="D14" t="n">
+      <c r="D14">
         <v>56926</v>
       </c>
-      <c r="E14" t="n">
+      <c r="E14">
         <v>16872</v>
       </c>
-      <c r="F14" t="n">
+      <c r="F14">
         <v>32.66</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
+    <row r="15" spans="1:6">
+      <c r="A15" s="2">
         <v>43996</v>
       </c>
-      <c r="B15" t="n">
+      <c r="B15">
         <v>146837</v>
       </c>
-      <c r="C15" t="n">
+      <c r="C15">
         <v>207076</v>
       </c>
-      <c r="D15" t="n">
+      <c r="D15">
         <v>52636</v>
       </c>
-      <c r="E15" t="n">
+      <c r="E15">
         <v>17141</v>
       </c>
-      <c r="F15" t="n">
+      <c r="F15">
         <v>32.5</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
+    <row r="16" spans="1:6">
+      <c r="A16" s="2">
         <v>43997</v>
       </c>
-      <c r="B16" t="n">
+      <c r="B16">
         <v>150264</v>
       </c>
-      <c r="C16" t="n">
+      <c r="C16">
         <v>211616</v>
       </c>
-      <c r="D16" t="n">
+      <c r="D16">
         <v>53217</v>
       </c>
-      <c r="E16" t="n">
+      <c r="E16">
         <v>17580</v>
       </c>
-      <c r="F16" t="n">
+      <c r="F16">
         <v>32.36</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
+    <row r="17" spans="1:6">
+      <c r="A17" s="2">
         <v>43998</v>
       </c>
-      <c r="B17" t="n">
+      <c r="B17">
         <v>154863</v>
       </c>
-      <c r="C17" t="n">
+      <c r="C17">
         <v>216857</v>
       </c>
-      <c r="D17" t="n">
+      <c r="D17">
         <v>56843</v>
       </c>
-      <c r="E17" t="n">
+      <c r="E17">
         <v>18310</v>
       </c>
-      <c r="F17" t="n">
+      <c r="F17">
         <v>32.29</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
+    <row r="18" spans="1:6">
+      <c r="A18" s="2">
         <v>43999</v>
       </c>
-      <c r="B18" t="n">
+      <c r="B18">
         <v>159793</v>
       </c>
-      <c r="C18" t="n">
+      <c r="C18">
         <v>222801</v>
       </c>
-      <c r="D18" t="n">
+      <c r="D18">
         <v>59076</v>
       </c>
-      <c r="E18" t="n">
+      <c r="E18">
         <v>19080</v>
       </c>
-      <c r="F18" t="n">
+      <c r="F18">
         <v>32.06</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" s="2" t="n">
+    <row r="19" spans="1:6">
+      <c r="A19" s="2">
         <v>44000</v>
       </c>
-      <c r="B19" t="n">
+      <c r="B19">
         <v>165455</v>
       </c>
-      <c r="C19" t="n">
+      <c r="C19">
         <v>228248</v>
       </c>
-      <c r="D19" t="n">
+      <c r="D19">
         <v>59778</v>
       </c>
-      <c r="E19" t="n">
+      <c r="E19">
         <v>19747</v>
       </c>
-      <c r="F19" t="n">
+      <c r="F19">
         <v>31.86</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" s="2" t="n">
+    <row r="20" spans="1:6">
+      <c r="A20" s="2">
         <v>44001</v>
       </c>
-      <c r="B20" t="n">
+      <c r="B20">
         <v>170485</v>
       </c>
-      <c r="C20" t="n">
+      <c r="C20">
         <v>233137</v>
       </c>
-      <c r="D20" t="n">
+      <c r="D20">
         <v>62245</v>
       </c>
-      <c r="E20" t="n">
+      <c r="E20">
         <v>20394</v>
       </c>
-      <c r="F20" t="n">
+      <c r="F20">
         <v>31.72</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" s="2" t="n">
+    <row r="21" spans="1:6">
+      <c r="A21" s="2">
         <v>44002</v>
       </c>
-      <c r="B21" t="n">
+      <c r="B21">
         <v>175202</v>
       </c>
-      <c r="C21" t="n">
+      <c r="C21">
         <v>238129</v>
       </c>
-      <c r="D21" t="n">
+      <c r="D21">
         <v>60621</v>
       </c>
-      <c r="E21" t="n">
+      <c r="E21">
         <v>20781</v>
       </c>
-      <c r="F21" t="n">
+      <c r="F21">
         <v>31.46</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" s="2" t="n">
+    <row r="22" spans="1:6">
+      <c r="A22" s="2">
         <v>44003</v>
       </c>
-      <c r="B22" t="n">
+      <c r="B22">
         <v>180545</v>
       </c>
-      <c r="C22" t="n">
+      <c r="C22">
         <v>242393</v>
       </c>
-      <c r="D22" t="n">
+      <c r="D22">
         <v>56590</v>
       </c>
-      <c r="E22" t="n">
+      <c r="E22">
         <v>21825</v>
       </c>
-      <c r="F22" t="n">
+      <c r="F22">
         <v>31.61</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" s="2" t="n">
+    <row r="23" spans="1:6">
+      <c r="A23" s="2">
         <v>44004</v>
       </c>
-      <c r="B23" t="n">
+      <c r="B23">
         <v>185122</v>
       </c>
-      <c r="C23" t="n">
+      <c r="C23">
         <v>246147</v>
       </c>
-      <c r="D23" t="n">
+      <c r="D23">
         <v>57281</v>
       </c>
-      <c r="E23" t="n">
+      <c r="E23">
         <v>22584</v>
       </c>
-      <c r="F23" t="n">
+      <c r="F23">
         <v>31.69</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" s="3" t="n">
+    <row r="24" spans="1:6">
+      <c r="A24" s="2">
         <v>44005</v>
       </c>
-      <c r="B24" t="n">
+      <c r="B24">
         <v>191410</v>
       </c>
-      <c r="C24" t="n">
+      <c r="C24">
         <v>251355</v>
       </c>
-      <c r="D24" t="n">
+      <c r="D24">
         <v>59106</v>
       </c>
-      <c r="E24" t="n">
+      <c r="E24">
         <v>23377</v>
       </c>
-      <c r="F24" t="n">
+      <c r="F24">
         <v>31.6</v>
       </c>
     </row>
+    <row r="25" spans="1:6">
+      <c r="A25" t="s">
+        <v>6</v>
+      </c>
+      <c r="B25">
+        <v>196847</v>
+      </c>
+      <c r="C25">
+        <v>256336</v>
+      </c>
+      <c r="D25">
+        <v>62475</v>
+      </c>
+      <c r="E25">
+        <v>24324</v>
+      </c>
+      <c r="F25">
+        <v>31.58</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/data-validation/bitacora_historica_tablero_oficial.xlsx
+++ b/data-validation/bitacora_historica_tablero_oficial.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Fecha</t>
   </si>
@@ -33,16 +33,14 @@
   <si>
     <t>Porcentaje hospitalizados</t>
   </si>
-  <si>
-    <t>2020-06-24</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -96,12 +94,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -396,7 +395,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F25"/>
+  <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -883,8 +882,8 @@
       </c>
     </row>
     <row r="25" spans="1:6">
-      <c r="A25" t="s">
-        <v>6</v>
+      <c r="A25" s="2">
+        <v>44006</v>
       </c>
       <c r="B25">
         <v>196847</v>
@@ -900,6 +899,26 @@
       </c>
       <c r="F25">
         <v>31.58</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="3">
+        <v>44007</v>
+      </c>
+      <c r="B26">
+        <v>202951</v>
+      </c>
+      <c r="C26">
+        <v>262117</v>
+      </c>
+      <c r="D26">
+        <v>63583</v>
+      </c>
+      <c r="E26">
+        <v>25060</v>
+      </c>
+      <c r="F26">
+        <v>31.46</v>
       </c>
     </row>
   </sheetData>

--- a/data-validation/bitacora_historica_tablero_oficial.xlsx
+++ b/data-validation/bitacora_historica_tablero_oficial.xlsx
@@ -395,7 +395,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F26"/>
+  <dimension ref="A1:F27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -902,7 +902,7 @@
       </c>
     </row>
     <row r="26" spans="1:6">
-      <c r="A26" s="3">
+      <c r="A26" s="2">
         <v>44007</v>
       </c>
       <c r="B26">
@@ -919,6 +919,26 @@
       </c>
       <c r="F26">
         <v>31.46</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="3">
+        <v>44008</v>
+      </c>
+      <c r="B27">
+        <v>208392</v>
+      </c>
+      <c r="C27">
+        <v>267288</v>
+      </c>
+      <c r="D27">
+        <v>66440</v>
+      </c>
+      <c r="E27">
+        <v>25779</v>
+      </c>
+      <c r="F27">
+        <v>31.37</v>
       </c>
     </row>
   </sheetData>

--- a/data-validation/bitacora_historica_tablero_oficial.xlsx
+++ b/data-validation/bitacora_historica_tablero_oficial.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>Fecha</t>
   </si>
@@ -32,16 +32,93 @@
   </si>
   <si>
     <t>Porcentaje hospitalizados</t>
+  </si>
+  <si>
+    <t>2020-06-01</t>
+  </si>
+  <si>
+    <t>2020-06-02</t>
+  </si>
+  <si>
+    <t>2020-06-03</t>
+  </si>
+  <si>
+    <t>2020-06-04</t>
+  </si>
+  <si>
+    <t>2020-06-05</t>
+  </si>
+  <si>
+    <t>2020-06-06</t>
+  </si>
+  <si>
+    <t>2020-06-07</t>
+  </si>
+  <si>
+    <t>2020-06-08</t>
+  </si>
+  <si>
+    <t>2020-06-09</t>
+  </si>
+  <si>
+    <t>2020-06-10</t>
+  </si>
+  <si>
+    <t>2020-06-11</t>
+  </si>
+  <si>
+    <t>2020-06-12</t>
+  </si>
+  <si>
+    <t>2020-06-13</t>
+  </si>
+  <si>
+    <t>2020-06-14</t>
+  </si>
+  <si>
+    <t>2020-06-15</t>
+  </si>
+  <si>
+    <t>2020-06-16</t>
+  </si>
+  <si>
+    <t>2020-06-17</t>
+  </si>
+  <si>
+    <t>2020-06-18</t>
+  </si>
+  <si>
+    <t>2020-06-19</t>
+  </si>
+  <si>
+    <t>2020-06-20</t>
+  </si>
+  <si>
+    <t>2020-06-21</t>
+  </si>
+  <si>
+    <t>2020-06-22</t>
+  </si>
+  <si>
+    <t>2020-06-23</t>
+  </si>
+  <si>
+    <t>2020-06-24</t>
+  </si>
+  <si>
+    <t>2020-06-25</t>
+  </si>
+  <si>
+    <t>2020-06-26</t>
+  </si>
+  <si>
+    <t>2020-06-27</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
-    <numFmt numFmtId="165" formatCode="YYYY-MM-DD"/>
-  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -94,13 +171,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -395,7 +470,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F27"/>
+  <dimension ref="A1:F28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -422,8 +497,8 @@
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="2">
-        <v>43983</v>
+      <c r="A2" t="s">
+        <v>6</v>
       </c>
       <c r="B2">
         <v>93435</v>
@@ -442,8 +517,8 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="2">
-        <v>43984</v>
+      <c r="A3" t="s">
+        <v>7</v>
       </c>
       <c r="B3">
         <v>97326</v>
@@ -462,8 +537,8 @@
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="2">
-        <v>43985</v>
+      <c r="A4" t="s">
+        <v>8</v>
       </c>
       <c r="B4">
         <v>101238</v>
@@ -482,8 +557,8 @@
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="2">
-        <v>43986</v>
+      <c r="A5" t="s">
+        <v>9</v>
       </c>
       <c r="B5">
         <v>105680</v>
@@ -502,8 +577,8 @@
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="2">
-        <v>43987</v>
+      <c r="A6" t="s">
+        <v>10</v>
       </c>
       <c r="B6">
         <v>110026</v>
@@ -522,8 +597,8 @@
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="2">
-        <v>43988</v>
+      <c r="A7" t="s">
+        <v>11</v>
       </c>
       <c r="B7">
         <v>113619</v>
@@ -542,8 +617,8 @@
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="2">
-        <v>43989</v>
+      <c r="A8" t="s">
+        <v>12</v>
       </c>
       <c r="B8">
         <v>117103</v>
@@ -562,8 +637,8 @@
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="2">
-        <v>43990</v>
+      <c r="A9" t="s">
+        <v>13</v>
       </c>
       <c r="B9">
         <v>120102</v>
@@ -582,8 +657,8 @@
       </c>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="2">
-        <v>43991</v>
+      <c r="A10" t="s">
+        <v>14</v>
       </c>
       <c r="B10">
         <v>124301</v>
@@ -602,8 +677,8 @@
       </c>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="2">
-        <v>43992</v>
+      <c r="A11" t="s">
+        <v>15</v>
       </c>
       <c r="B11">
         <v>129184</v>
@@ -622,8 +697,8 @@
       </c>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="2">
-        <v>43993</v>
+      <c r="A12" t="s">
+        <v>16</v>
       </c>
       <c r="B12">
         <v>133974</v>
@@ -642,8 +717,8 @@
       </c>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="2">
-        <v>43994</v>
+      <c r="A13" t="s">
+        <v>17</v>
       </c>
       <c r="B13">
         <v>139196</v>
@@ -662,8 +737,8 @@
       </c>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="2">
-        <v>43995</v>
+      <c r="A14" t="s">
+        <v>18</v>
       </c>
       <c r="B14">
         <v>142690</v>
@@ -682,8 +757,8 @@
       </c>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="2">
-        <v>43996</v>
+      <c r="A15" t="s">
+        <v>19</v>
       </c>
       <c r="B15">
         <v>146837</v>
@@ -702,8 +777,8 @@
       </c>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="2">
-        <v>43997</v>
+      <c r="A16" t="s">
+        <v>20</v>
       </c>
       <c r="B16">
         <v>150264</v>
@@ -722,8 +797,8 @@
       </c>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="2">
-        <v>43998</v>
+      <c r="A17" t="s">
+        <v>21</v>
       </c>
       <c r="B17">
         <v>154863</v>
@@ -742,8 +817,8 @@
       </c>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="2">
-        <v>43999</v>
+      <c r="A18" t="s">
+        <v>22</v>
       </c>
       <c r="B18">
         <v>159793</v>
@@ -762,8 +837,8 @@
       </c>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="2">
-        <v>44000</v>
+      <c r="A19" t="s">
+        <v>23</v>
       </c>
       <c r="B19">
         <v>165455</v>
@@ -782,8 +857,8 @@
       </c>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="2">
-        <v>44001</v>
+      <c r="A20" t="s">
+        <v>24</v>
       </c>
       <c r="B20">
         <v>170485</v>
@@ -802,8 +877,8 @@
       </c>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="2">
-        <v>44002</v>
+      <c r="A21" t="s">
+        <v>25</v>
       </c>
       <c r="B21">
         <v>175202</v>
@@ -822,8 +897,8 @@
       </c>
     </row>
     <row r="22" spans="1:6">
-      <c r="A22" s="2">
-        <v>44003</v>
+      <c r="A22" t="s">
+        <v>26</v>
       </c>
       <c r="B22">
         <v>180545</v>
@@ -842,8 +917,8 @@
       </c>
     </row>
     <row r="23" spans="1:6">
-      <c r="A23" s="2">
-        <v>44004</v>
+      <c r="A23" t="s">
+        <v>27</v>
       </c>
       <c r="B23">
         <v>185122</v>
@@ -862,8 +937,8 @@
       </c>
     </row>
     <row r="24" spans="1:6">
-      <c r="A24" s="2">
-        <v>44005</v>
+      <c r="A24" t="s">
+        <v>28</v>
       </c>
       <c r="B24">
         <v>191410</v>
@@ -882,8 +957,8 @@
       </c>
     </row>
     <row r="25" spans="1:6">
-      <c r="A25" s="2">
-        <v>44006</v>
+      <c r="A25" t="s">
+        <v>29</v>
       </c>
       <c r="B25">
         <v>196847</v>
@@ -902,8 +977,8 @@
       </c>
     </row>
     <row r="26" spans="1:6">
-      <c r="A26" s="2">
-        <v>44007</v>
+      <c r="A26" t="s">
+        <v>30</v>
       </c>
       <c r="B26">
         <v>202951</v>
@@ -922,8 +997,8 @@
       </c>
     </row>
     <row r="27" spans="1:6">
-      <c r="A27" s="3">
-        <v>44008</v>
+      <c r="A27" t="s">
+        <v>31</v>
       </c>
       <c r="B27">
         <v>208392</v>
@@ -939,6 +1014,26 @@
       </c>
       <c r="F27">
         <v>31.37</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" t="s">
+        <v>32</v>
+      </c>
+      <c r="B28">
+        <v>212802</v>
+      </c>
+      <c r="C28">
+        <v>271151</v>
+      </c>
+      <c r="D28">
+        <v>67099</v>
+      </c>
+      <c r="E28">
+        <v>26381</v>
+      </c>
+      <c r="F28">
+        <v>31.24</v>
       </c>
     </row>
   </sheetData>

--- a/data-validation/bitacora_historica_tablero_oficial.xlsx
+++ b/data-validation/bitacora_historica_tablero_oficial.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>Fecha</t>
   </si>
@@ -113,6 +113,9 @@
   </si>
   <si>
     <t>2020-06-27</t>
+  </si>
+  <si>
+    <t>2020-06-28</t>
   </si>
 </sst>
 </file>
@@ -470,7 +473,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F28"/>
+  <dimension ref="A1:F29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1036,6 +1039,26 @@
         <v>31.24</v>
       </c>
     </row>
+    <row r="29" spans="1:6">
+      <c r="A29" t="s">
+        <v>33</v>
+      </c>
+      <c r="B29">
+        <v>216852</v>
+      </c>
+      <c r="C29">
+        <v>275203</v>
+      </c>
+      <c r="D29">
+        <v>64143</v>
+      </c>
+      <c r="E29">
+        <v>26648</v>
+      </c>
+      <c r="F29">
+        <v>31.11</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data-validation/bitacora_historica_tablero_oficial.xlsx
+++ b/data-validation/bitacora_historica_tablero_oficial.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t>Fecha</t>
   </si>
@@ -116,6 +116,9 @@
   </si>
   <si>
     <t>2020-06-28</t>
+  </si>
+  <si>
+    <t>2020-06-29</t>
   </si>
 </sst>
 </file>
@@ -473,7 +476,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F29"/>
+  <dimension ref="A1:F30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1059,6 +1062,26 @@
         <v>31.11</v>
       </c>
     </row>
+    <row r="30" spans="1:6">
+      <c r="A30" t="s">
+        <v>34</v>
+      </c>
+      <c r="B30">
+        <v>220657</v>
+      </c>
+      <c r="C30">
+        <v>279035</v>
+      </c>
+      <c r="D30">
+        <v>66910</v>
+      </c>
+      <c r="E30">
+        <v>27121</v>
+      </c>
+      <c r="F30">
+        <v>30.95</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data-validation/bitacora_historica_tablero_oficial.xlsx
+++ b/data-validation/bitacora_historica_tablero_oficial.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t>Fecha</t>
   </si>
@@ -119,6 +119,9 @@
   </si>
   <si>
     <t>2020-06-29</t>
+  </si>
+  <si>
+    <t>2020-06-30</t>
   </si>
 </sst>
 </file>
@@ -476,7 +479,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F30"/>
+  <dimension ref="A1:F31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1082,6 +1085,26 @@
         <v>30.95</v>
       </c>
     </row>
+    <row r="31" spans="1:6">
+      <c r="A31" t="s">
+        <v>35</v>
+      </c>
+      <c r="B31">
+        <v>226089</v>
+      </c>
+      <c r="C31">
+        <v>283450</v>
+      </c>
+      <c r="D31">
+        <v>72041</v>
+      </c>
+      <c r="E31">
+        <v>27769</v>
+      </c>
+      <c r="F31">
+        <v>30.78</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data-validation/bitacora_historica_tablero_oficial.xlsx
+++ b/data-validation/bitacora_historica_tablero_oficial.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
   <si>
     <t>Fecha</t>
   </si>
@@ -122,6 +122,9 @@
   </si>
   <si>
     <t>2020-06-30</t>
+  </si>
+  <si>
+    <t>2020-07-01</t>
   </si>
 </sst>
 </file>
@@ -479,7 +482,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F31"/>
+  <dimension ref="A1:F32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1105,6 +1108,26 @@
         <v>30.78</v>
       </c>
     </row>
+    <row r="32" spans="1:6">
+      <c r="A32" t="s">
+        <v>36</v>
+      </c>
+      <c r="B32">
+        <v>231770</v>
+      </c>
+      <c r="C32">
+        <v>289142</v>
+      </c>
+      <c r="D32">
+        <v>75005</v>
+      </c>
+      <c r="E32">
+        <v>28510</v>
+      </c>
+      <c r="F32">
+        <v>30.73</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data-validation/bitacora_historica_tablero_oficial.xlsx
+++ b/data-validation/bitacora_historica_tablero_oficial.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t>Fecha</t>
   </si>
@@ -125,6 +125,9 @@
   </si>
   <si>
     <t>2020-07-01</t>
+  </si>
+  <si>
+    <t>2020-07-02</t>
   </si>
 </sst>
 </file>
@@ -482,7 +485,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F32"/>
+  <dimension ref="A1:F33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1128,6 +1131,26 @@
         <v>30.73</v>
       </c>
     </row>
+    <row r="33" spans="1:6">
+      <c r="A33" t="s">
+        <v>37</v>
+      </c>
+      <c r="B33">
+        <v>238511</v>
+      </c>
+      <c r="C33">
+        <v>295561</v>
+      </c>
+      <c r="D33">
+        <v>76423</v>
+      </c>
+      <c r="E33">
+        <v>29189</v>
+      </c>
+      <c r="F33">
+        <v>30.52</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data-validation/bitacora_historica_tablero_oficial.xlsx
+++ b/data-validation/bitacora_historica_tablero_oficial.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
   <si>
     <t>Fecha</t>
   </si>
@@ -128,6 +128,9 @@
   </si>
   <si>
     <t>2020-07-02</t>
+  </si>
+  <si>
+    <t>2020-07-03</t>
   </si>
 </sst>
 </file>
@@ -485,7 +488,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F33"/>
+  <dimension ref="A1:F34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1151,6 +1154,26 @@
         <v>30.52</v>
       </c>
     </row>
+    <row r="34" spans="1:6">
+      <c r="A34" t="s">
+        <v>38</v>
+      </c>
+      <c r="B34">
+        <v>245251</v>
+      </c>
+      <c r="C34">
+        <v>301986</v>
+      </c>
+      <c r="D34">
+        <v>77750</v>
+      </c>
+      <c r="E34">
+        <v>29843</v>
+      </c>
+      <c r="F34">
+        <v>30.35</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data-validation/bitacora_historica_tablero_oficial.xlsx
+++ b/data-validation/bitacora_historica_tablero_oficial.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10614"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marianafernandez/Documents/COSMO/covid19-mx-data/data-validation/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{675B92F9-FC25-1B4D-AA97-2A8D02EBF18C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="460" windowWidth="23000" windowHeight="15120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="out_vars" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
   <si>
     <t>Fecha</t>
   </si>
@@ -131,13 +137,43 @@
   </si>
   <si>
     <t>2020-07-03</t>
+  </si>
+  <si>
+    <t>2020-07-13</t>
+  </si>
+  <si>
+    <t>2020-07-04</t>
+  </si>
+  <si>
+    <t>2020-07-05</t>
+  </si>
+  <si>
+    <t>2020-07-06</t>
+  </si>
+  <si>
+    <t>2020-07-08</t>
+  </si>
+  <si>
+    <t>2020-07-09</t>
+  </si>
+  <si>
+    <t>2020-07-10</t>
+  </si>
+  <si>
+    <t>2020-07-11</t>
+  </si>
+  <si>
+    <t>2020-07-07</t>
+  </si>
+  <si>
+    <t>2020-07-12</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -189,22 +225,31 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -246,7 +291,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -278,9 +323,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -312,6 +375,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -487,14 +568,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F34"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="I32" sqref="I32"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -514,7 +597,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -534,7 +617,7 @@
         <v>34.9</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -551,10 +634,10 @@
         <v>10637</v>
       </c>
       <c r="F3">
-        <v>34.59</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>34.590000000000003</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -571,10 +654,10 @@
         <v>11728</v>
       </c>
       <c r="F4">
-        <v>34.45</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>34.450000000000003</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -594,7 +677,7 @@
         <v>34.24</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -614,7 +697,7 @@
         <v>34.03</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -634,7 +717,7 @@
         <v>33.72</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -651,10 +734,10 @@
         <v>13699</v>
       </c>
       <c r="F8">
-        <v>33.48</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>33.479999999999997</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>13</v>
       </c>
@@ -674,7 +757,7 @@
         <v>33.32</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>14</v>
       </c>
@@ -694,7 +777,7 @@
         <v>33.21</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>15</v>
       </c>
@@ -714,7 +797,7 @@
         <v>33.11</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>16</v>
       </c>
@@ -734,7 +817,7 @@
         <v>33.01</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>17</v>
       </c>
@@ -754,7 +837,7 @@
         <v>32.78</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>18</v>
       </c>
@@ -771,10 +854,10 @@
         <v>16872</v>
       </c>
       <c r="F14">
-        <v>32.66</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+        <v>32.659999999999997</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>19</v>
       </c>
@@ -794,7 +877,7 @@
         <v>32.5</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>20</v>
       </c>
@@ -814,7 +897,7 @@
         <v>32.36</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>21</v>
       </c>
@@ -834,7 +917,7 @@
         <v>32.29</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>22</v>
       </c>
@@ -854,7 +937,7 @@
         <v>32.06</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>23</v>
       </c>
@@ -874,7 +957,7 @@
         <v>31.86</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>24</v>
       </c>
@@ -894,7 +977,7 @@
         <v>31.72</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>25</v>
       </c>
@@ -914,7 +997,7 @@
         <v>31.46</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>26</v>
       </c>
@@ -934,7 +1017,7 @@
         <v>31.61</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>27</v>
       </c>
@@ -954,7 +1037,7 @@
         <v>31.69</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>28</v>
       </c>
@@ -974,7 +1057,7 @@
         <v>31.6</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>29</v>
       </c>
@@ -994,7 +1077,7 @@
         <v>31.58</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>30</v>
       </c>
@@ -1014,7 +1097,7 @@
         <v>31.46</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>31</v>
       </c>
@@ -1034,7 +1117,7 @@
         <v>31.37</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>32</v>
       </c>
@@ -1054,7 +1137,7 @@
         <v>31.24</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>33</v>
       </c>
@@ -1074,7 +1157,7 @@
         <v>31.11</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>34</v>
       </c>
@@ -1094,7 +1177,7 @@
         <v>30.95</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>35</v>
       </c>
@@ -1114,7 +1197,7 @@
         <v>30.78</v>
       </c>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>36</v>
       </c>
@@ -1134,7 +1217,7 @@
         <v>30.73</v>
       </c>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>37</v>
       </c>
@@ -1154,7 +1237,7 @@
         <v>30.52</v>
       </c>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>38</v>
       </c>
@@ -1172,6 +1255,206 @@
       </c>
       <c r="F34">
         <v>30.35</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A35" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B35">
+        <v>252165</v>
+      </c>
+      <c r="C35">
+        <v>308439</v>
+      </c>
+      <c r="D35">
+        <v>74387</v>
+      </c>
+      <c r="E35">
+        <v>30366</v>
+      </c>
+      <c r="F35">
+        <v>30.18</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A36" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B36">
+        <v>256848</v>
+      </c>
+      <c r="C36">
+        <v>312989</v>
+      </c>
+      <c r="D36">
+        <v>71305</v>
+      </c>
+      <c r="E36">
+        <v>30639</v>
+      </c>
+      <c r="F36">
+        <v>30.02</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A37" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B37">
+        <v>261750</v>
+      </c>
+      <c r="C37">
+        <v>317446</v>
+      </c>
+      <c r="D37">
+        <v>73035</v>
+      </c>
+      <c r="E37">
+        <v>31119</v>
+      </c>
+      <c r="F37">
+        <v>29.94</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A38" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B38">
+        <v>268008</v>
+      </c>
+      <c r="C38">
+        <v>322826</v>
+      </c>
+      <c r="D38">
+        <v>77703</v>
+      </c>
+      <c r="E38">
+        <v>32014</v>
+      </c>
+      <c r="F38">
+        <v>29.89</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A39" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B39">
+        <v>275003</v>
+      </c>
+      <c r="C39">
+        <v>328908</v>
+      </c>
+      <c r="D39">
+        <v>80893</v>
+      </c>
+      <c r="E39">
+        <v>32796</v>
+      </c>
+      <c r="F39">
+        <v>29.78</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A40" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B40">
+        <v>282283</v>
+      </c>
+      <c r="C40">
+        <v>336673</v>
+      </c>
+      <c r="D40">
+        <v>80988</v>
+      </c>
+      <c r="E40">
+        <v>33526</v>
+      </c>
+      <c r="F40">
+        <v>29.67</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A41" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B41">
+        <v>289174</v>
+      </c>
+      <c r="C41">
+        <v>344283</v>
+      </c>
+      <c r="D41">
+        <v>81838</v>
+      </c>
+      <c r="E41">
+        <v>34191</v>
+      </c>
+      <c r="F41">
+        <v>29.5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A42" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B42">
+        <v>295268</v>
+      </c>
+      <c r="C42">
+        <v>350007</v>
+      </c>
+      <c r="D42">
+        <v>78393</v>
+      </c>
+      <c r="E42">
+        <v>34730</v>
+      </c>
+      <c r="F42">
+        <v>29.33</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A43" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B43">
+        <v>299750</v>
+      </c>
+      <c r="C43">
+        <v>354171</v>
+      </c>
+      <c r="D43">
+        <v>74563</v>
+      </c>
+      <c r="E43">
+        <v>35006</v>
+      </c>
+      <c r="F43">
+        <v>29.25</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A44" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B44">
+        <v>304435</v>
+      </c>
+      <c r="C44">
+        <v>358663</v>
+      </c>
+      <c r="D44">
+        <v>76824</v>
+      </c>
+      <c r="E44">
+        <v>35491</v>
+      </c>
+      <c r="F44">
+        <v>29.21</v>
       </c>
     </row>
   </sheetData>

--- a/data-validation/bitacora_historica_tablero_oficial.xlsx
+++ b/data-validation/bitacora_historica_tablero_oficial.xlsx
@@ -1,26 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10614"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marianafernandez/Documents/COSMO/covid19-mx-data/data-validation/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{675B92F9-FC25-1B4D-AA97-2A8D02EBF18C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="460" windowWidth="23000" windowHeight="15120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="out_vars" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
   <si>
     <t>Fecha</t>
   </si>
@@ -139,41 +133,44 @@
     <t>2020-07-03</t>
   </si>
   <si>
+    <t>2020-07-04</t>
+  </si>
+  <si>
+    <t>2020-07-05</t>
+  </si>
+  <si>
+    <t>2020-07-06</t>
+  </si>
+  <si>
+    <t>2020-07-07</t>
+  </si>
+  <si>
+    <t>2020-07-08</t>
+  </si>
+  <si>
+    <t>2020-07-09</t>
+  </si>
+  <si>
+    <t>2020-07-10</t>
+  </si>
+  <si>
+    <t>2020-07-11</t>
+  </si>
+  <si>
+    <t>2020-07-12</t>
+  </si>
+  <si>
     <t>2020-07-13</t>
   </si>
   <si>
-    <t>2020-07-04</t>
-  </si>
-  <si>
-    <t>2020-07-05</t>
-  </si>
-  <si>
-    <t>2020-07-06</t>
-  </si>
-  <si>
-    <t>2020-07-08</t>
-  </si>
-  <si>
-    <t>2020-07-09</t>
-  </si>
-  <si>
-    <t>2020-07-10</t>
-  </si>
-  <si>
-    <t>2020-07-11</t>
-  </si>
-  <si>
-    <t>2020-07-07</t>
-  </si>
-  <si>
-    <t>2020-07-12</t>
+    <t>2020-07-14</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -225,31 +222,22 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -291,7 +279,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -323,27 +311,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -375,24 +345,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -568,16 +520,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F44"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="I32" sqref="I32"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -597,7 +547,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -617,7 +567,7 @@
         <v>34.9</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -634,10 +584,10 @@
         <v>10637</v>
       </c>
       <c r="F3">
-        <v>34.590000000000003</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+        <v>34.59</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -654,10 +604,10 @@
         <v>11728</v>
       </c>
       <c r="F4">
-        <v>34.450000000000003</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+        <v>34.45</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -677,7 +627,7 @@
         <v>34.24</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -697,7 +647,7 @@
         <v>34.03</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -717,7 +667,7 @@
         <v>33.72</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -734,10 +684,10 @@
         <v>13699</v>
       </c>
       <c r="F8">
-        <v>33.479999999999997</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+        <v>33.48</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" t="s">
         <v>13</v>
       </c>
@@ -757,7 +707,7 @@
         <v>33.32</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6">
       <c r="A10" t="s">
         <v>14</v>
       </c>
@@ -777,7 +727,7 @@
         <v>33.21</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6">
       <c r="A11" t="s">
         <v>15</v>
       </c>
@@ -797,7 +747,7 @@
         <v>33.11</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6">
       <c r="A12" t="s">
         <v>16</v>
       </c>
@@ -817,7 +767,7 @@
         <v>33.01</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6">
       <c r="A13" t="s">
         <v>17</v>
       </c>
@@ -837,7 +787,7 @@
         <v>32.78</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6">
       <c r="A14" t="s">
         <v>18</v>
       </c>
@@ -854,10 +804,10 @@
         <v>16872</v>
       </c>
       <c r="F14">
-        <v>32.659999999999997</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+        <v>32.66</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" t="s">
         <v>19</v>
       </c>
@@ -877,7 +827,7 @@
         <v>32.5</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6">
       <c r="A16" t="s">
         <v>20</v>
       </c>
@@ -897,7 +847,7 @@
         <v>32.36</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6">
       <c r="A17" t="s">
         <v>21</v>
       </c>
@@ -917,7 +867,7 @@
         <v>32.29</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6">
       <c r="A18" t="s">
         <v>22</v>
       </c>
@@ -937,7 +887,7 @@
         <v>32.06</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6">
       <c r="A19" t="s">
         <v>23</v>
       </c>
@@ -957,7 +907,7 @@
         <v>31.86</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6">
       <c r="A20" t="s">
         <v>24</v>
       </c>
@@ -977,7 +927,7 @@
         <v>31.72</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6">
       <c r="A21" t="s">
         <v>25</v>
       </c>
@@ -997,7 +947,7 @@
         <v>31.46</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6">
       <c r="A22" t="s">
         <v>26</v>
       </c>
@@ -1017,7 +967,7 @@
         <v>31.61</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6">
       <c r="A23" t="s">
         <v>27</v>
       </c>
@@ -1037,7 +987,7 @@
         <v>31.69</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6">
       <c r="A24" t="s">
         <v>28</v>
       </c>
@@ -1057,7 +1007,7 @@
         <v>31.6</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6">
       <c r="A25" t="s">
         <v>29</v>
       </c>
@@ -1077,7 +1027,7 @@
         <v>31.58</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6">
       <c r="A26" t="s">
         <v>30</v>
       </c>
@@ -1097,7 +1047,7 @@
         <v>31.46</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6">
       <c r="A27" t="s">
         <v>31</v>
       </c>
@@ -1117,7 +1067,7 @@
         <v>31.37</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6">
       <c r="A28" t="s">
         <v>32</v>
       </c>
@@ -1137,7 +1087,7 @@
         <v>31.24</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6">
       <c r="A29" t="s">
         <v>33</v>
       </c>
@@ -1157,7 +1107,7 @@
         <v>31.11</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6">
       <c r="A30" t="s">
         <v>34</v>
       </c>
@@ -1177,7 +1127,7 @@
         <v>30.95</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6">
       <c r="A31" t="s">
         <v>35</v>
       </c>
@@ -1197,7 +1147,7 @@
         <v>30.78</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:6">
       <c r="A32" t="s">
         <v>36</v>
       </c>
@@ -1217,7 +1167,7 @@
         <v>30.73</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6">
       <c r="A33" t="s">
         <v>37</v>
       </c>
@@ -1237,7 +1187,7 @@
         <v>30.52</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:6">
       <c r="A34" t="s">
         <v>38</v>
       </c>
@@ -1257,9 +1207,9 @@
         <v>30.35</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A35" s="2" t="s">
-        <v>40</v>
+    <row r="35" spans="1:6">
+      <c r="A35" t="s">
+        <v>39</v>
       </c>
       <c r="B35">
         <v>252165</v>
@@ -1277,9 +1227,9 @@
         <v>30.18</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A36" s="2" t="s">
-        <v>41</v>
+    <row r="36" spans="1:6">
+      <c r="A36" t="s">
+        <v>40</v>
       </c>
       <c r="B36">
         <v>256848</v>
@@ -1297,9 +1247,9 @@
         <v>30.02</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A37" s="2" t="s">
-        <v>42</v>
+    <row r="37" spans="1:6">
+      <c r="A37" t="s">
+        <v>41</v>
       </c>
       <c r="B37">
         <v>261750</v>
@@ -1317,9 +1267,9 @@
         <v>29.94</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A38" s="2" t="s">
-        <v>47</v>
+    <row r="38" spans="1:6">
+      <c r="A38" t="s">
+        <v>42</v>
       </c>
       <c r="B38">
         <v>268008</v>
@@ -1337,8 +1287,8 @@
         <v>29.89</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A39" s="2" t="s">
+    <row r="39" spans="1:6">
+      <c r="A39" t="s">
         <v>43</v>
       </c>
       <c r="B39">
@@ -1357,8 +1307,8 @@
         <v>29.78</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A40" s="2" t="s">
+    <row r="40" spans="1:6">
+      <c r="A40" t="s">
         <v>44</v>
       </c>
       <c r="B40">
@@ -1377,8 +1327,8 @@
         <v>29.67</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A41" s="2" t="s">
+    <row r="41" spans="1:6">
+      <c r="A41" t="s">
         <v>45</v>
       </c>
       <c r="B41">
@@ -1397,8 +1347,8 @@
         <v>29.5</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A42" s="2" t="s">
+    <row r="42" spans="1:6">
+      <c r="A42" t="s">
         <v>46</v>
       </c>
       <c r="B42">
@@ -1417,9 +1367,9 @@
         <v>29.33</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A43" s="2" t="s">
-        <v>48</v>
+    <row r="43" spans="1:6">
+      <c r="A43" t="s">
+        <v>47</v>
       </c>
       <c r="B43">
         <v>299750</v>
@@ -1437,9 +1387,9 @@
         <v>29.25</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A44" s="2" t="s">
-        <v>39</v>
+    <row r="44" spans="1:6">
+      <c r="A44" t="s">
+        <v>48</v>
       </c>
       <c r="B44">
         <v>304435</v>
@@ -1455,6 +1405,26 @@
       </c>
       <c r="F44">
         <v>29.21</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45" t="s">
+        <v>49</v>
+      </c>
+      <c r="B45">
+        <v>311486</v>
+      </c>
+      <c r="C45">
+        <v>363930</v>
+      </c>
+      <c r="D45">
+        <v>80721</v>
+      </c>
+      <c r="E45">
+        <v>36327</v>
+      </c>
+      <c r="F45">
+        <v>29.12</v>
       </c>
     </row>
   </sheetData>

--- a/data-validation/bitacora_historica_tablero_oficial.xlsx
+++ b/data-validation/bitacora_historica_tablero_oficial.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
   <si>
     <t>Fecha</t>
   </si>
@@ -164,6 +164,9 @@
   </si>
   <si>
     <t>2020-07-14</t>
+  </si>
+  <si>
+    <t>2020-07-15</t>
   </si>
 </sst>
 </file>
@@ -521,7 +524,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F45"/>
+  <dimension ref="A1:F46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1427,6 +1430,26 @@
         <v>29.12</v>
       </c>
     </row>
+    <row r="46" spans="1:6">
+      <c r="A46" t="s">
+        <v>50</v>
+      </c>
+      <c r="B46">
+        <v>317635</v>
+      </c>
+      <c r="C46">
+        <v>369411</v>
+      </c>
+      <c r="D46">
+        <v>81411</v>
+      </c>
+      <c r="E46">
+        <v>36906</v>
+      </c>
+      <c r="F46">
+        <v>29.05</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data-validation/bitacora_historica_tablero_oficial.xlsx
+++ b/data-validation/bitacora_historica_tablero_oficial.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
   <si>
     <t>Fecha</t>
   </si>
@@ -167,6 +167,9 @@
   </si>
   <si>
     <t>2020-07-15</t>
+  </si>
+  <si>
+    <t>2020-07-16</t>
   </si>
 </sst>
 </file>
@@ -524,7 +527,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F46"/>
+  <dimension ref="A1:F47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1450,6 +1453,26 @@
         <v>29.05</v>
       </c>
     </row>
+    <row r="47" spans="1:6">
+      <c r="A47" t="s">
+        <v>51</v>
+      </c>
+      <c r="B47">
+        <v>324041</v>
+      </c>
+      <c r="C47">
+        <v>375455</v>
+      </c>
+      <c r="D47">
+        <v>82567</v>
+      </c>
+      <c r="E47">
+        <v>37574</v>
+      </c>
+      <c r="F47">
+        <v>28.95</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data-validation/bitacora_historica_tablero_oficial.xlsx
+++ b/data-validation/bitacora_historica_tablero_oficial.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
   <si>
     <t>Fecha</t>
   </si>
@@ -170,6 +170,9 @@
   </si>
   <si>
     <t>2020-07-16</t>
+  </si>
+  <si>
+    <t>2020-07-17</t>
   </si>
 </sst>
 </file>
@@ -527,7 +530,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F47"/>
+  <dimension ref="A1:F48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1473,6 +1476,26 @@
         <v>28.95</v>
       </c>
     </row>
+    <row r="48" spans="1:6">
+      <c r="A48" t="s">
+        <v>52</v>
+      </c>
+      <c r="B48">
+        <v>331298</v>
+      </c>
+      <c r="C48">
+        <v>382003</v>
+      </c>
+      <c r="D48">
+        <v>85877</v>
+      </c>
+      <c r="E48">
+        <v>38310</v>
+      </c>
+      <c r="F48">
+        <v>28.81</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data-validation/bitacora_historica_tablero_oficial.xlsx
+++ b/data-validation/bitacora_historica_tablero_oficial.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
   <si>
     <t>Fecha</t>
   </si>
@@ -173,6 +173,9 @@
   </si>
   <si>
     <t>2020-07-17</t>
+  </si>
+  <si>
+    <t>2020-07-18</t>
   </si>
 </sst>
 </file>
@@ -530,7 +533,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F48"/>
+  <dimension ref="A1:F49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1496,6 +1499,26 @@
         <v>28.81</v>
       </c>
     </row>
+    <row r="49" spans="1:6">
+      <c r="A49" t="s">
+        <v>53</v>
+      </c>
+      <c r="B49">
+        <v>338913</v>
+      </c>
+      <c r="C49">
+        <v>388636</v>
+      </c>
+      <c r="D49">
+        <v>87104</v>
+      </c>
+      <c r="E49">
+        <v>38888</v>
+      </c>
+      <c r="F49">
+        <v>28.66</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data-validation/bitacora_historica_tablero_oficial.xlsx
+++ b/data-validation/bitacora_historica_tablero_oficial.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
   <si>
     <t>Fecha</t>
   </si>
@@ -176,6 +176,9 @@
   </si>
   <si>
     <t>2020-07-18</t>
+  </si>
+  <si>
+    <t>2020-07-19</t>
   </si>
 </sst>
 </file>
@@ -533,7 +536,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F49"/>
+  <dimension ref="A1:F50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1519,6 +1522,26 @@
         <v>28.66</v>
       </c>
     </row>
+    <row r="50" spans="1:6">
+      <c r="A50" t="s">
+        <v>54</v>
+      </c>
+      <c r="B50">
+        <v>344224</v>
+      </c>
+      <c r="C50">
+        <v>394156</v>
+      </c>
+      <c r="D50">
+        <v>83542</v>
+      </c>
+      <c r="E50">
+        <v>39184</v>
+      </c>
+      <c r="F50">
+        <v>28.55</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data-validation/bitacora_historica_tablero_oficial.xlsx
+++ b/data-validation/bitacora_historica_tablero_oficial.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
   <si>
     <t>Fecha</t>
   </si>
@@ -179,6 +179,9 @@
   </si>
   <si>
     <t>2020-07-19</t>
+  </si>
+  <si>
+    <t>2020-07-20</t>
   </si>
 </sst>
 </file>
@@ -536,7 +539,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F50"/>
+  <dimension ref="A1:F51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1542,6 +1545,26 @@
         <v>28.55</v>
       </c>
     </row>
+    <row r="51" spans="1:6">
+      <c r="A51" t="s">
+        <v>55</v>
+      </c>
+      <c r="B51">
+        <v>349396</v>
+      </c>
+      <c r="C51">
+        <v>399443</v>
+      </c>
+      <c r="D51">
+        <v>79112</v>
+      </c>
+      <c r="E51">
+        <v>39485</v>
+      </c>
+      <c r="F51">
+        <v>28.43</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data-validation/bitacora_historica_tablero_oficial.xlsx
+++ b/data-validation/bitacora_historica_tablero_oficial.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
   <si>
     <t>Fecha</t>
   </si>
@@ -182,6 +182,9 @@
   </si>
   <si>
     <t>2020-07-20</t>
+  </si>
+  <si>
+    <t>2020-07-21</t>
   </si>
 </sst>
 </file>
@@ -539,7 +542,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F51"/>
+  <dimension ref="A1:F52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1565,6 +1568,26 @@
         <v>28.43</v>
       </c>
     </row>
+    <row r="52" spans="1:6">
+      <c r="A52" t="s">
+        <v>56</v>
+      </c>
+      <c r="B52">
+        <v>356255</v>
+      </c>
+      <c r="C52">
+        <v>406151</v>
+      </c>
+      <c r="D52">
+        <v>82866</v>
+      </c>
+      <c r="E52">
+        <v>40400</v>
+      </c>
+      <c r="F52">
+        <v>28.33</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data-validation/bitacora_historica_tablero_oficial.xlsx
+++ b/data-validation/bitacora_historica_tablero_oficial.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
   <si>
     <t>Fecha</t>
   </si>
@@ -185,6 +185,9 @@
   </si>
   <si>
     <t>2020-07-21</t>
+  </si>
+  <si>
+    <t>2020-07-22</t>
   </si>
 </sst>
 </file>
@@ -542,7 +545,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F52"/>
+  <dimension ref="A1:F53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1588,6 +1591,26 @@
         <v>28.33</v>
       </c>
     </row>
+    <row r="53" spans="1:6">
+      <c r="A53" t="s">
+        <v>57</v>
+      </c>
+      <c r="B53">
+        <v>362274</v>
+      </c>
+      <c r="C53">
+        <v>411673</v>
+      </c>
+      <c r="D53">
+        <v>87905</v>
+      </c>
+      <c r="E53">
+        <v>41190</v>
+      </c>
+      <c r="F53">
+        <v>28.24</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data-validation/bitacora_historica_tablero_oficial.xlsx
+++ b/data-validation/bitacora_historica_tablero_oficial.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
   <si>
     <t>Fecha</t>
   </si>
@@ -188,6 +188,9 @@
   </si>
   <si>
     <t>2020-07-22</t>
+  </si>
+  <si>
+    <t>2020-07-23</t>
   </si>
 </sst>
 </file>
@@ -545,7 +548,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F53"/>
+  <dimension ref="A1:F54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1611,6 +1614,26 @@
         <v>28.24</v>
       </c>
     </row>
+    <row r="54" spans="1:6">
+      <c r="A54" t="s">
+        <v>58</v>
+      </c>
+      <c r="B54">
+        <v>370712</v>
+      </c>
+      <c r="C54">
+        <v>419349</v>
+      </c>
+      <c r="D54">
+        <v>89547</v>
+      </c>
+      <c r="E54">
+        <v>41908</v>
+      </c>
+      <c r="F54">
+        <v>28.12</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data-validation/bitacora_historica_tablero_oficial.xlsx
+++ b/data-validation/bitacora_historica_tablero_oficial.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="61">
   <si>
     <t>Fecha</t>
   </si>
@@ -191,6 +191,12 @@
   </si>
   <si>
     <t>2020-07-23</t>
+  </si>
+  <si>
+    <t>2020-07-24</t>
+  </si>
+  <si>
+    <t>2020-07-25</t>
   </si>
 </sst>
 </file>
@@ -548,7 +554,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F54"/>
+  <dimension ref="A1:F56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1634,6 +1640,46 @@
         <v>28.12</v>
       </c>
     </row>
+    <row r="55" spans="1:6">
+      <c r="A55" t="s">
+        <v>59</v>
+      </c>
+      <c r="B55">
+        <v>378285</v>
+      </c>
+      <c r="C55">
+        <v>426869</v>
+      </c>
+      <c r="D55">
+        <v>90970</v>
+      </c>
+      <c r="E55">
+        <v>42645</v>
+      </c>
+      <c r="F55">
+        <v>27.97</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
+      <c r="A56" t="s">
+        <v>60</v>
+      </c>
+      <c r="B56">
+        <v>385036</v>
+      </c>
+      <c r="C56">
+        <v>433384</v>
+      </c>
+      <c r="D56">
+        <v>93433</v>
+      </c>
+      <c r="E56">
+        <v>43374</v>
+      </c>
+      <c r="F56">
+        <v>27.89</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data-validation/bitacora_historica_tablero_oficial.xlsx
+++ b/data-validation/bitacora_historica_tablero_oficial.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
   <si>
     <t>Fecha</t>
   </si>
@@ -197,6 +197,9 @@
   </si>
   <si>
     <t>2020-07-25</t>
+  </si>
+  <si>
+    <t>2020-07-26</t>
   </si>
 </sst>
 </file>
@@ -554,7 +557,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F56"/>
+  <dimension ref="A1:F57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1680,6 +1683,26 @@
         <v>27.89</v>
       </c>
     </row>
+    <row r="57" spans="1:6">
+      <c r="A57" t="s">
+        <v>61</v>
+      </c>
+      <c r="B57">
+        <v>390516</v>
+      </c>
+      <c r="C57">
+        <v>438468</v>
+      </c>
+      <c r="D57">
+        <v>89397</v>
+      </c>
+      <c r="E57">
+        <v>43680</v>
+      </c>
+      <c r="F57">
+        <v>27.78</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data-validation/bitacora_historica_tablero_oficial.xlsx
+++ b/data-validation/bitacora_historica_tablero_oficial.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
   <si>
     <t>Fecha</t>
   </si>
@@ -200,6 +200,9 @@
   </si>
   <si>
     <t>2020-07-26</t>
+  </si>
+  <si>
+    <t>2020-07-27</t>
   </si>
 </sst>
 </file>
@@ -557,7 +560,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F57"/>
+  <dimension ref="A1:F58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1703,6 +1706,26 @@
         <v>27.78</v>
       </c>
     </row>
+    <row r="58" spans="1:6">
+      <c r="A58" t="s">
+        <v>62</v>
+      </c>
+      <c r="B58">
+        <v>395489</v>
+      </c>
+      <c r="C58">
+        <v>442884</v>
+      </c>
+      <c r="D58">
+        <v>85986</v>
+      </c>
+      <c r="E58">
+        <v>44022</v>
+      </c>
+      <c r="F58">
+        <v>27.72</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data-validation/bitacora_historica_tablero_oficial.xlsx
+++ b/data-validation/bitacora_historica_tablero_oficial.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="64">
   <si>
     <t>Fecha</t>
   </si>
@@ -203,6 +203,9 @@
   </si>
   <si>
     <t>2020-07-27</t>
+  </si>
+  <si>
+    <t>2020-07-28</t>
   </si>
 </sst>
 </file>
@@ -560,7 +563,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F58"/>
+  <dimension ref="A1:F59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1726,6 +1729,26 @@
         <v>27.72</v>
       </c>
     </row>
+    <row r="59" spans="1:6">
+      <c r="A59" t="s">
+        <v>63</v>
+      </c>
+      <c r="B59">
+        <v>402697</v>
+      </c>
+      <c r="C59">
+        <v>449854</v>
+      </c>
+      <c r="D59">
+        <v>87538</v>
+      </c>
+      <c r="E59">
+        <v>44876</v>
+      </c>
+      <c r="F59">
+        <v>27.63</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data-validation/bitacora_historica_tablero_oficial.xlsx
+++ b/data-validation/bitacora_historica_tablero_oficial.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="65">
   <si>
     <t>Fecha</t>
   </si>
@@ -206,6 +206,9 @@
   </si>
   <si>
     <t>2020-07-28</t>
+  </si>
+  <si>
+    <t>2020-07-29</t>
   </si>
 </sst>
 </file>
@@ -563,7 +566,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F59"/>
+  <dimension ref="A1:F60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1749,6 +1752,26 @@
         <v>27.63</v>
       </c>
     </row>
+    <row r="60" spans="1:6">
+      <c r="A60" t="s">
+        <v>64</v>
+      </c>
+      <c r="B60">
+        <v>408449</v>
+      </c>
+      <c r="C60">
+        <v>455087</v>
+      </c>
+      <c r="D60">
+        <v>89978</v>
+      </c>
+      <c r="E60">
+        <v>45361</v>
+      </c>
+      <c r="F60">
+        <v>27.52</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data-validation/bitacora_historica_tablero_oficial.xlsx
+++ b/data-validation/bitacora_historica_tablero_oficial.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="66">
   <si>
     <t>Fecha</t>
   </si>
@@ -209,6 +209,9 @@
   </si>
   <si>
     <t>2020-07-29</t>
+  </si>
+  <si>
+    <t>2020-07-30</t>
   </si>
 </sst>
 </file>
@@ -566,7 +569,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F60"/>
+  <dimension ref="A1:F61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1772,6 +1775,26 @@
         <v>27.52</v>
       </c>
     </row>
+    <row r="61" spans="1:6">
+      <c r="A61" t="s">
+        <v>65</v>
+      </c>
+      <c r="B61">
+        <v>416179</v>
+      </c>
+      <c r="C61">
+        <v>461775</v>
+      </c>
+      <c r="D61">
+        <v>90582</v>
+      </c>
+      <c r="E61">
+        <v>46000</v>
+      </c>
+      <c r="F61">
+        <v>27.38</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data-validation/bitacora_historica_tablero_oficial.xlsx
+++ b/data-validation/bitacora_historica_tablero_oficial.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
   <si>
     <t>Fecha</t>
   </si>
@@ -212,6 +212,12 @@
   </si>
   <si>
     <t>2020-07-30</t>
+  </si>
+  <si>
+    <t>2020-07-31</t>
+  </si>
+  <si>
+    <t>2020-08-01</t>
   </si>
 </sst>
 </file>
@@ -569,7 +575,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F61"/>
+  <dimension ref="A1:F63"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1795,6 +1801,46 @@
         <v>27.38</v>
       </c>
     </row>
+    <row r="62" spans="1:6">
+      <c r="A62" t="s">
+        <v>66</v>
+      </c>
+      <c r="B62">
+        <v>424637</v>
+      </c>
+      <c r="C62">
+        <v>469629</v>
+      </c>
+      <c r="D62">
+        <v>90022</v>
+      </c>
+      <c r="E62">
+        <v>46688</v>
+      </c>
+      <c r="F62">
+        <v>27.16</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
+      <c r="A63" t="s">
+        <v>67</v>
+      </c>
+      <c r="B63">
+        <v>434193</v>
+      </c>
+      <c r="C63">
+        <v>477733</v>
+      </c>
+      <c r="D63">
+        <v>87771</v>
+      </c>
+      <c r="E63">
+        <v>47472</v>
+      </c>
+      <c r="F63">
+        <v>27.02</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data-validation/bitacora_historica_tablero_oficial.xlsx
+++ b/data-validation/bitacora_historica_tablero_oficial.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="69">
   <si>
     <t>Fecha</t>
   </si>
@@ -218,6 +218,9 @@
   </si>
   <si>
     <t>2020-08-01</t>
+  </si>
+  <si>
+    <t>2020-08-02</t>
   </si>
 </sst>
 </file>
@@ -575,7 +578,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F63"/>
+  <dimension ref="A1:F64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1841,6 +1844,26 @@
         <v>27.02</v>
       </c>
     </row>
+    <row r="64" spans="1:6">
+      <c r="A64" t="s">
+        <v>68</v>
+      </c>
+      <c r="B64">
+        <v>439046</v>
+      </c>
+      <c r="C64">
+        <v>483333</v>
+      </c>
+      <c r="D64">
+        <v>83119</v>
+      </c>
+      <c r="E64">
+        <v>47746</v>
+      </c>
+      <c r="F64">
+        <v>26.92</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data-validation/bitacora_historica_tablero_oficial.xlsx
+++ b/data-validation/bitacora_historica_tablero_oficial.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="70">
   <si>
     <t>Fecha</t>
   </si>
@@ -221,6 +221,9 @@
   </si>
   <si>
     <t>2020-08-02</t>
+  </si>
+  <si>
+    <t>2020-08-03</t>
   </si>
 </sst>
 </file>
@@ -578,7 +581,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F64"/>
+  <dimension ref="A1:F65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1864,6 +1867,26 @@
         <v>26.92</v>
       </c>
     </row>
+    <row r="65" spans="1:6">
+      <c r="A65" t="s">
+        <v>69</v>
+      </c>
+      <c r="B65">
+        <v>443813</v>
+      </c>
+      <c r="C65">
+        <v>488207</v>
+      </c>
+      <c r="D65">
+        <v>79030</v>
+      </c>
+      <c r="E65">
+        <v>48012</v>
+      </c>
+      <c r="F65">
+        <v>26.88</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data-validation/bitacora_historica_tablero_oficial.xlsx
+++ b/data-validation/bitacora_historica_tablero_oficial.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="71">
   <si>
     <t>Fecha</t>
   </si>
@@ -224,6 +224,9 @@
   </si>
   <si>
     <t>2020-08-03</t>
+  </si>
+  <si>
+    <t>2020-08-04</t>
   </si>
 </sst>
 </file>
@@ -581,7 +584,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F65"/>
+  <dimension ref="A1:F66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1887,6 +1890,26 @@
         <v>26.88</v>
       </c>
     </row>
+    <row r="66" spans="1:6">
+      <c r="A66" t="s">
+        <v>70</v>
+      </c>
+      <c r="B66">
+        <v>449961</v>
+      </c>
+      <c r="C66">
+        <v>493873</v>
+      </c>
+      <c r="D66">
+        <v>82460</v>
+      </c>
+      <c r="E66">
+        <v>48869</v>
+      </c>
+      <c r="F66">
+        <v>26.86</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data-validation/bitacora_historica_tablero_oficial.xlsx
+++ b/data-validation/bitacora_historica_tablero_oficial.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="72">
   <si>
     <t>Fecha</t>
   </si>
@@ -227,6 +227,9 @@
   </si>
   <si>
     <t>2020-08-04</t>
+  </si>
+  <si>
+    <t>2020-08-05</t>
   </si>
 </sst>
 </file>
@@ -584,7 +587,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F66"/>
+  <dimension ref="A1:F67"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1910,6 +1913,26 @@
         <v>26.86</v>
       </c>
     </row>
+    <row r="67" spans="1:6">
+      <c r="A67" t="s">
+        <v>71</v>
+      </c>
+      <c r="B67">
+        <v>456100</v>
+      </c>
+      <c r="C67">
+        <v>499915</v>
+      </c>
+      <c r="D67">
+        <v>85845</v>
+      </c>
+      <c r="E67">
+        <v>49698</v>
+      </c>
+      <c r="F67">
+        <v>26.83</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data-validation/bitacora_historica_tablero_oficial.xlsx
+++ b/data-validation/bitacora_historica_tablero_oficial.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="73">
   <si>
     <t>Fecha</t>
   </si>
@@ -230,6 +230,9 @@
   </si>
   <si>
     <t>2020-08-05</t>
+  </si>
+  <si>
+    <t>2020-08-06</t>
   </si>
 </sst>
 </file>
@@ -587,7 +590,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F67"/>
+  <dimension ref="A1:F68"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1933,6 +1936,26 @@
         <v>26.83</v>
       </c>
     </row>
+    <row r="68" spans="1:6">
+      <c r="A68" t="s">
+        <v>72</v>
+      </c>
+      <c r="B68">
+        <v>462690</v>
+      </c>
+      <c r="C68">
+        <v>506252</v>
+      </c>
+      <c r="D68">
+        <v>87973</v>
+      </c>
+      <c r="E68">
+        <v>50517</v>
+      </c>
+      <c r="F68">
+        <v>26.8</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data-validation/bitacora_historica_tablero_oficial.xlsx
+++ b/data-validation/bitacora_historica_tablero_oficial.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="75">
   <si>
     <t>Fecha</t>
   </si>
@@ -233,6 +233,12 @@
   </si>
   <si>
     <t>2020-08-06</t>
+  </si>
+  <si>
+    <t>2020-08-07</t>
+  </si>
+  <si>
+    <t>2020-08-08</t>
   </si>
 </sst>
 </file>
@@ -590,7 +596,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F68"/>
+  <dimension ref="A1:F70"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1956,6 +1962,46 @@
         <v>26.8</v>
       </c>
     </row>
+    <row r="69" spans="1:6">
+      <c r="A69" t="s">
+        <v>73</v>
+      </c>
+      <c r="B69">
+        <v>469407</v>
+      </c>
+      <c r="C69">
+        <v>513144</v>
+      </c>
+      <c r="D69">
+        <v>89155</v>
+      </c>
+      <c r="E69">
+        <v>51311</v>
+      </c>
+      <c r="F69">
+        <v>26.74</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
+      <c r="A70" t="s">
+        <v>74</v>
+      </c>
+      <c r="B70">
+        <v>475902</v>
+      </c>
+      <c r="C70">
+        <v>520970</v>
+      </c>
+      <c r="D70">
+        <v>89025</v>
+      </c>
+      <c r="E70">
+        <v>52006</v>
+      </c>
+      <c r="F70">
+        <v>26.67</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data-validation/bitacora_historica_tablero_oficial.xlsx
+++ b/data-validation/bitacora_historica_tablero_oficial.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="76">
   <si>
     <t>Fecha</t>
   </si>
@@ -239,6 +239,9 @@
   </si>
   <si>
     <t>2020-08-08</t>
+  </si>
+  <si>
+    <t>2020-08-09</t>
   </si>
 </sst>
 </file>
@@ -596,7 +599,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F70"/>
+  <dimension ref="A1:F71"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2002,6 +2005,26 @@
         <v>26.67</v>
       </c>
     </row>
+    <row r="71" spans="1:6">
+      <c r="A71" t="s">
+        <v>75</v>
+      </c>
+      <c r="B71">
+        <v>480278</v>
+      </c>
+      <c r="C71">
+        <v>526911</v>
+      </c>
+      <c r="D71">
+        <v>84506</v>
+      </c>
+      <c r="E71">
+        <v>52298</v>
+      </c>
+      <c r="F71">
+        <v>26.61</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data-validation/bitacora_historica_tablero_oficial.xlsx
+++ b/data-validation/bitacora_historica_tablero_oficial.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="77">
   <si>
     <t>Fecha</t>
   </si>
@@ -242,6 +242,9 @@
   </si>
   <si>
     <t>2020-08-09</t>
+  </si>
+  <si>
+    <t>2020-08-10</t>
   </si>
 </sst>
 </file>
@@ -599,7 +602,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F71"/>
+  <dimension ref="A1:F72"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2025,6 +2028,26 @@
         <v>26.61</v>
       </c>
     </row>
+    <row r="72" spans="1:6">
+      <c r="A72" t="s">
+        <v>76</v>
+      </c>
+      <c r="B72">
+        <v>485836</v>
+      </c>
+      <c r="C72">
+        <v>532028</v>
+      </c>
+      <c r="D72">
+        <v>79213</v>
+      </c>
+      <c r="E72">
+        <v>53003</v>
+      </c>
+      <c r="F72">
+        <v>26.56</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data-validation/bitacora_historica_tablero_oficial.xlsx
+++ b/data-validation/bitacora_historica_tablero_oficial.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="78">
   <si>
     <t>Fecha</t>
   </si>
@@ -245,6 +245,9 @@
   </si>
   <si>
     <t>2020-08-10</t>
+  </si>
+  <si>
+    <t>2020-08-11</t>
   </si>
 </sst>
 </file>
@@ -602,7 +605,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F72"/>
+  <dimension ref="A1:F73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2048,6 +2051,26 @@
         <v>26.56</v>
       </c>
     </row>
+    <row r="73" spans="1:6">
+      <c r="A73" t="s">
+        <v>77</v>
+      </c>
+      <c r="B73">
+        <v>492522</v>
+      </c>
+      <c r="C73">
+        <v>538333</v>
+      </c>
+      <c r="D73">
+        <v>81259</v>
+      </c>
+      <c r="E73">
+        <v>53929</v>
+      </c>
+      <c r="F73">
+        <v>26.51</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data-validation/bitacora_historica_tablero_oficial.xlsx
+++ b/data-validation/bitacora_historica_tablero_oficial.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="79">
   <si>
     <t>Fecha</t>
   </si>
@@ -248,6 +248,9 @@
   </si>
   <si>
     <t>2020-08-11</t>
+  </si>
+  <si>
+    <t>2020-08-12</t>
   </si>
 </sst>
 </file>
@@ -605,7 +608,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F73"/>
+  <dimension ref="A1:F74"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2071,6 +2074,26 @@
         <v>26.51</v>
       </c>
     </row>
+    <row r="74" spans="1:6">
+      <c r="A74" t="s">
+        <v>78</v>
+      </c>
+      <c r="B74">
+        <v>498380</v>
+      </c>
+      <c r="C74">
+        <v>545262</v>
+      </c>
+      <c r="D74">
+        <v>83473</v>
+      </c>
+      <c r="E74">
+        <v>54666</v>
+      </c>
+      <c r="F74">
+        <v>26.49</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data-validation/bitacora_historica_tablero_oficial.xlsx
+++ b/data-validation/bitacora_historica_tablero_oficial.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="80">
   <si>
     <t>Fecha</t>
   </si>
@@ -251,6 +251,9 @@
   </si>
   <si>
     <t>2020-08-12</t>
+  </si>
+  <si>
+    <t>2020-08-13</t>
   </si>
 </sst>
 </file>
@@ -608,7 +611,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F74"/>
+  <dimension ref="A1:F75"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2094,6 +2097,26 @@
         <v>26.49</v>
       </c>
     </row>
+    <row r="75" spans="1:6">
+      <c r="A75" t="s">
+        <v>79</v>
+      </c>
+      <c r="B75">
+        <v>505751</v>
+      </c>
+      <c r="C75">
+        <v>553219</v>
+      </c>
+      <c r="D75">
+        <v>83075</v>
+      </c>
+      <c r="E75">
+        <v>55293</v>
+      </c>
+      <c r="F75">
+        <v>26.39</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data-validation/bitacora_historica_tablero_oficial.xlsx
+++ b/data-validation/bitacora_historica_tablero_oficial.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="81">
   <si>
     <t>Fecha</t>
   </si>
@@ -254,6 +254,9 @@
   </si>
   <si>
     <t>2020-08-13</t>
+  </si>
+  <si>
+    <t>2020-08-14</t>
   </si>
 </sst>
 </file>
@@ -611,7 +614,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F75"/>
+  <dimension ref="A1:F76"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2117,6 +2120,26 @@
         <v>26.39</v>
       </c>
     </row>
+    <row r="76" spans="1:6">
+      <c r="A76" t="s">
+        <v>80</v>
+      </c>
+      <c r="B76">
+        <v>511369</v>
+      </c>
+      <c r="C76">
+        <v>559974</v>
+      </c>
+      <c r="D76">
+        <v>85509</v>
+      </c>
+      <c r="E76">
+        <v>55908</v>
+      </c>
+      <c r="F76">
+        <v>26.33</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data-validation/bitacora_historica_tablero_oficial.xlsx
+++ b/data-validation/bitacora_historica_tablero_oficial.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="82">
   <si>
     <t>Fecha</t>
   </si>
@@ -257,6 +257,9 @@
   </si>
   <si>
     <t>2020-08-14</t>
+  </si>
+  <si>
+    <t>2020-08-15</t>
   </si>
 </sst>
 </file>
@@ -614,7 +617,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F76"/>
+  <dimension ref="A1:F77"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2140,6 +2143,26 @@
         <v>26.33</v>
       </c>
     </row>
+    <row r="77" spans="1:6">
+      <c r="A77" t="s">
+        <v>81</v>
+      </c>
+      <c r="B77">
+        <v>517714</v>
+      </c>
+      <c r="C77">
+        <v>568359</v>
+      </c>
+      <c r="D77">
+        <v>84934</v>
+      </c>
+      <c r="E77">
+        <v>56543</v>
+      </c>
+      <c r="F77">
+        <v>26.25</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data-validation/bitacora_historica_tablero_oficial.xlsx
+++ b/data-validation/bitacora_historica_tablero_oficial.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="83">
   <si>
     <t>Fecha</t>
   </si>
@@ -260,6 +260,9 @@
   </si>
   <si>
     <t>2020-08-15</t>
+  </si>
+  <si>
+    <t>2020-08-16</t>
   </si>
 </sst>
 </file>
@@ -617,7 +620,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F77"/>
+  <dimension ref="A1:F78"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2163,6 +2166,26 @@
         <v>26.25</v>
       </c>
     </row>
+    <row r="78" spans="1:6">
+      <c r="A78" t="s">
+        <v>82</v>
+      </c>
+      <c r="B78">
+        <v>522162</v>
+      </c>
+      <c r="C78">
+        <v>573723</v>
+      </c>
+      <c r="D78">
+        <v>81046</v>
+      </c>
+      <c r="E78">
+        <v>56757</v>
+      </c>
+      <c r="F78">
+        <v>26.21</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data-validation/bitacora_historica_tablero_oficial.xlsx
+++ b/data-validation/bitacora_historica_tablero_oficial.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="84">
   <si>
     <t>Fecha</t>
   </si>
@@ -263,6 +263,9 @@
   </si>
   <si>
     <t>2020-08-16</t>
+  </si>
+  <si>
+    <t>2020-08-17</t>
   </si>
 </sst>
 </file>
@@ -620,7 +623,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F78"/>
+  <dimension ref="A1:F79"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2186,6 +2189,26 @@
         <v>26.21</v>
       </c>
     </row>
+    <row r="79" spans="1:6">
+      <c r="A79" t="s">
+        <v>83</v>
+      </c>
+      <c r="B79">
+        <v>525733</v>
+      </c>
+      <c r="C79">
+        <v>577531</v>
+      </c>
+      <c r="D79">
+        <v>78431</v>
+      </c>
+      <c r="E79">
+        <v>57023</v>
+      </c>
+      <c r="F79">
+        <v>26.17</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data-validation/bitacora_historica_tablero_oficial.xlsx
+++ b/data-validation/bitacora_historica_tablero_oficial.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
   <si>
     <t>Fecha</t>
   </si>
@@ -266,6 +266,9 @@
   </si>
   <si>
     <t>2020-08-17</t>
+  </si>
+  <si>
+    <t>2020-08-18</t>
   </si>
 </sst>
 </file>
@@ -623,7 +626,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F79"/>
+  <dimension ref="A1:F80"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2209,6 +2212,26 @@
         <v>26.17</v>
       </c>
     </row>
+    <row r="80" spans="1:6">
+      <c r="A80" t="s">
+        <v>84</v>
+      </c>
+      <c r="B80">
+        <v>531239</v>
+      </c>
+      <c r="C80">
+        <v>584293</v>
+      </c>
+      <c r="D80">
+        <v>81175</v>
+      </c>
+      <c r="E80">
+        <v>57774</v>
+      </c>
+      <c r="F80">
+        <v>26.15</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data-validation/bitacora_historica_tablero_oficial.xlsx
+++ b/data-validation/bitacora_historica_tablero_oficial.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="86">
   <si>
     <t>Fecha</t>
   </si>
@@ -269,6 +269,9 @@
   </si>
   <si>
     <t>2020-08-18</t>
+  </si>
+  <si>
+    <t>2020-08-19</t>
   </si>
 </sst>
 </file>
@@ -626,7 +629,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F80"/>
+  <dimension ref="A1:F81"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2232,6 +2235,26 @@
         <v>26.15</v>
       </c>
     </row>
+    <row r="81" spans="1:6">
+      <c r="A81" t="s">
+        <v>85</v>
+      </c>
+      <c r="B81">
+        <v>537031</v>
+      </c>
+      <c r="C81">
+        <v>591637</v>
+      </c>
+      <c r="D81">
+        <v>82884</v>
+      </c>
+      <c r="E81">
+        <v>58481</v>
+      </c>
+      <c r="F81">
+        <v>26.09</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data-validation/bitacora_historica_tablero_oficial.xlsx
+++ b/data-validation/bitacora_historica_tablero_oficial.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="87">
   <si>
     <t>Fecha</t>
   </si>
@@ -272,6 +272,9 @@
   </si>
   <si>
     <t>2020-08-19</t>
+  </si>
+  <si>
+    <t>2020-08-20</t>
   </si>
 </sst>
 </file>
@@ -629,7 +632,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F81"/>
+  <dimension ref="A1:F82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2255,6 +2258,26 @@
         <v>26.09</v>
       </c>
     </row>
+    <row r="82" spans="1:6">
+      <c r="A82" t="s">
+        <v>86</v>
+      </c>
+      <c r="B82">
+        <v>543806</v>
+      </c>
+      <c r="C82">
+        <v>599525</v>
+      </c>
+      <c r="D82">
+        <v>82786</v>
+      </c>
+      <c r="E82">
+        <v>59106</v>
+      </c>
+      <c r="F82">
+        <v>26.02</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data-validation/bitacora_historica_tablero_oficial.xlsx
+++ b/data-validation/bitacora_historica_tablero_oficial.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="89">
   <si>
     <t>Fecha</t>
   </si>
@@ -275,6 +275,12 @@
   </si>
   <si>
     <t>2020-08-20</t>
+  </si>
+  <si>
+    <t>2020-08-21</t>
+  </si>
+  <si>
+    <t>2020-08-22</t>
   </si>
 </sst>
 </file>
@@ -632,7 +638,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F82"/>
+  <dimension ref="A1:F84"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2278,6 +2284,46 @@
         <v>26.02</v>
       </c>
     </row>
+    <row r="83" spans="1:6">
+      <c r="A83" t="s">
+        <v>87</v>
+      </c>
+      <c r="B83">
+        <v>549734</v>
+      </c>
+      <c r="C83">
+        <v>606446</v>
+      </c>
+      <c r="D83">
+        <v>82953</v>
+      </c>
+      <c r="E83">
+        <v>59610</v>
+      </c>
+      <c r="F83">
+        <v>25.9</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
+      <c r="A84" t="s">
+        <v>88</v>
+      </c>
+      <c r="B84">
+        <v>556216</v>
+      </c>
+      <c r="C84">
+        <v>614070</v>
+      </c>
+      <c r="D84">
+        <v>83146</v>
+      </c>
+      <c r="E84">
+        <v>60254</v>
+      </c>
+      <c r="F84">
+        <v>25.86</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data-validation/bitacora_historica_tablero_oficial.xlsx
+++ b/data-validation/bitacora_historica_tablero_oficial.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="90">
   <si>
     <t>Fecha</t>
   </si>
@@ -281,6 +281,9 @@
   </si>
   <si>
     <t>2020-08-22</t>
+  </si>
+  <si>
+    <t>2020-08-23</t>
   </si>
 </sst>
 </file>
@@ -638,7 +641,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F84"/>
+  <dimension ref="A1:F85"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2324,6 +2327,26 @@
         <v>25.86</v>
       </c>
     </row>
+    <row r="85" spans="1:6">
+      <c r="A85" t="s">
+        <v>89</v>
+      </c>
+      <c r="B85">
+        <v>560164</v>
+      </c>
+      <c r="C85">
+        <v>618779</v>
+      </c>
+      <c r="D85">
+        <v>80198</v>
+      </c>
+      <c r="E85">
+        <v>60480</v>
+      </c>
+      <c r="F85">
+        <v>25.81</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data-validation/bitacora_historica_tablero_oficial.xlsx
+++ b/data-validation/bitacora_historica_tablero_oficial.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="91">
   <si>
     <t>Fecha</t>
   </si>
@@ -284,6 +284,9 @@
   </si>
   <si>
     <t>2020-08-23</t>
+  </si>
+  <si>
+    <t>2020-08-24</t>
   </si>
 </sst>
 </file>
@@ -641,7 +644,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F85"/>
+  <dimension ref="A1:F86"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2347,6 +2350,26 @@
         <v>25.81</v>
       </c>
     </row>
+    <row r="86" spans="1:6">
+      <c r="A86" t="s">
+        <v>90</v>
+      </c>
+      <c r="B86">
+        <v>563705</v>
+      </c>
+      <c r="C86">
+        <v>622932</v>
+      </c>
+      <c r="D86">
+        <v>77198</v>
+      </c>
+      <c r="E86">
+        <v>60800</v>
+      </c>
+      <c r="F86">
+        <v>25.81</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data-validation/bitacora_historica_tablero_oficial.xlsx
+++ b/data-validation/bitacora_historica_tablero_oficial.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="92">
   <si>
     <t>Fecha</t>
   </si>
@@ -287,6 +287,9 @@
   </si>
   <si>
     <t>2020-08-24</t>
+  </si>
+  <si>
+    <t>2020-08-25</t>
   </si>
 </sst>
 </file>
@@ -644,7 +647,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F86"/>
+  <dimension ref="A1:F87"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2370,6 +2373,26 @@
         <v>25.81</v>
       </c>
     </row>
+    <row r="87" spans="1:6">
+      <c r="A87" t="s">
+        <v>91</v>
+      </c>
+      <c r="B87">
+        <v>568621</v>
+      </c>
+      <c r="C87">
+        <v>628937</v>
+      </c>
+      <c r="D87">
+        <v>80878</v>
+      </c>
+      <c r="E87">
+        <v>61450</v>
+      </c>
+      <c r="F87">
+        <v>25.76</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data-validation/bitacora_historica_tablero_oficial.xlsx
+++ b/data-validation/bitacora_historica_tablero_oficial.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="93">
   <si>
     <t>Fecha</t>
   </si>
@@ -290,6 +290,9 @@
   </si>
   <si>
     <t>2020-08-25</t>
+  </si>
+  <si>
+    <t>2020-08-26</t>
   </si>
 </sst>
 </file>
@@ -647,7 +650,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F87"/>
+  <dimension ref="A1:F88"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2393,6 +2396,26 @@
         <v>25.76</v>
       </c>
     </row>
+    <row r="88" spans="1:6">
+      <c r="A88" t="s">
+        <v>92</v>
+      </c>
+      <c r="B88">
+        <v>573888</v>
+      </c>
+      <c r="C88">
+        <v>635729</v>
+      </c>
+      <c r="D88">
+        <v>81466</v>
+      </c>
+      <c r="E88">
+        <v>62076</v>
+      </c>
+      <c r="F88">
+        <v>25.7</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data-validation/bitacora_historica_tablero_oficial.xlsx
+++ b/data-validation/bitacora_historica_tablero_oficial.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10810"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marianafernandez/Documents/COSMO/covid19-mx-data/data-validation/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FA50B3E-E49B-334B-A6F4-B4A1A9AC23CB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="460" windowWidth="16100" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="out_vars" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="95">
   <si>
     <t>Fecha</t>
   </si>
@@ -293,13 +299,19 @@
   </si>
   <si>
     <t>2020-08-26</t>
+  </si>
+  <si>
+    <t>2020-08-27</t>
+  </si>
+  <si>
+    <t>2020-08-28</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -362,11 +374,19 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -408,7 +428,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -440,9 +460,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -474,6 +512,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -649,14 +705,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F88"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F90"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="A91" sqref="A91:XFD91"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -676,7 +734,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -696,7 +754,7 @@
         <v>34.9</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -713,10 +771,10 @@
         <v>10637</v>
       </c>
       <c r="F3">
-        <v>34.59</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>34.590000000000003</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -733,10 +791,10 @@
         <v>11728</v>
       </c>
       <c r="F4">
-        <v>34.45</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>34.450000000000003</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -756,7 +814,7 @@
         <v>34.24</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -776,7 +834,7 @@
         <v>34.03</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -796,7 +854,7 @@
         <v>33.72</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -813,10 +871,10 @@
         <v>13699</v>
       </c>
       <c r="F8">
-        <v>33.48</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>33.479999999999997</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>13</v>
       </c>
@@ -836,7 +894,7 @@
         <v>33.32</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>14</v>
       </c>
@@ -856,7 +914,7 @@
         <v>33.21</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>15</v>
       </c>
@@ -876,7 +934,7 @@
         <v>33.11</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>16</v>
       </c>
@@ -896,7 +954,7 @@
         <v>33.01</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>17</v>
       </c>
@@ -916,7 +974,7 @@
         <v>32.78</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>18</v>
       </c>
@@ -933,10 +991,10 @@
         <v>16872</v>
       </c>
       <c r="F14">
-        <v>32.66</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+        <v>32.659999999999997</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>19</v>
       </c>
@@ -956,7 +1014,7 @@
         <v>32.5</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>20</v>
       </c>
@@ -976,7 +1034,7 @@
         <v>32.36</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>21</v>
       </c>
@@ -996,7 +1054,7 @@
         <v>32.29</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>22</v>
       </c>
@@ -1016,7 +1074,7 @@
         <v>32.06</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>23</v>
       </c>
@@ -1036,7 +1094,7 @@
         <v>31.86</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>24</v>
       </c>
@@ -1056,7 +1114,7 @@
         <v>31.72</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>25</v>
       </c>
@@ -1076,7 +1134,7 @@
         <v>31.46</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>26</v>
       </c>
@@ -1096,7 +1154,7 @@
         <v>31.61</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>27</v>
       </c>
@@ -1116,7 +1174,7 @@
         <v>31.69</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>28</v>
       </c>
@@ -1136,7 +1194,7 @@
         <v>31.6</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>29</v>
       </c>
@@ -1156,7 +1214,7 @@
         <v>31.58</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>30</v>
       </c>
@@ -1176,7 +1234,7 @@
         <v>31.46</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>31</v>
       </c>
@@ -1196,7 +1254,7 @@
         <v>31.37</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>32</v>
       </c>
@@ -1216,7 +1274,7 @@
         <v>31.24</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>33</v>
       </c>
@@ -1236,7 +1294,7 @@
         <v>31.11</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>34</v>
       </c>
@@ -1256,7 +1314,7 @@
         <v>30.95</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>35</v>
       </c>
@@ -1276,7 +1334,7 @@
         <v>30.78</v>
       </c>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>36</v>
       </c>
@@ -1296,7 +1354,7 @@
         <v>30.73</v>
       </c>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>37</v>
       </c>
@@ -1316,7 +1374,7 @@
         <v>30.52</v>
       </c>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>38</v>
       </c>
@@ -1336,7 +1394,7 @@
         <v>30.35</v>
       </c>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>39</v>
       </c>
@@ -1356,7 +1414,7 @@
         <v>30.18</v>
       </c>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>40</v>
       </c>
@@ -1376,7 +1434,7 @@
         <v>30.02</v>
       </c>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>41</v>
       </c>
@@ -1396,7 +1454,7 @@
         <v>29.94</v>
       </c>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>42</v>
       </c>
@@ -1416,7 +1474,7 @@
         <v>29.89</v>
       </c>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>43</v>
       </c>
@@ -1436,7 +1494,7 @@
         <v>29.78</v>
       </c>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>44</v>
       </c>
@@ -1456,7 +1514,7 @@
         <v>29.67</v>
       </c>
     </row>
-    <row r="41" spans="1:6">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>45</v>
       </c>
@@ -1476,7 +1534,7 @@
         <v>29.5</v>
       </c>
     </row>
-    <row r="42" spans="1:6">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>46</v>
       </c>
@@ -1496,7 +1554,7 @@
         <v>29.33</v>
       </c>
     </row>
-    <row r="43" spans="1:6">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>47</v>
       </c>
@@ -1516,7 +1574,7 @@
         <v>29.25</v>
       </c>
     </row>
-    <row r="44" spans="1:6">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>48</v>
       </c>
@@ -1536,7 +1594,7 @@
         <v>29.21</v>
       </c>
     </row>
-    <row r="45" spans="1:6">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>49</v>
       </c>
@@ -1556,7 +1614,7 @@
         <v>29.12</v>
       </c>
     </row>
-    <row r="46" spans="1:6">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>50</v>
       </c>
@@ -1576,7 +1634,7 @@
         <v>29.05</v>
       </c>
     </row>
-    <row r="47" spans="1:6">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>51</v>
       </c>
@@ -1596,7 +1654,7 @@
         <v>28.95</v>
       </c>
     </row>
-    <row r="48" spans="1:6">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>52</v>
       </c>
@@ -1616,7 +1674,7 @@
         <v>28.81</v>
       </c>
     </row>
-    <row r="49" spans="1:6">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>53</v>
       </c>
@@ -1636,7 +1694,7 @@
         <v>28.66</v>
       </c>
     </row>
-    <row r="50" spans="1:6">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>54</v>
       </c>
@@ -1656,7 +1714,7 @@
         <v>28.55</v>
       </c>
     </row>
-    <row r="51" spans="1:6">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>55</v>
       </c>
@@ -1676,7 +1734,7 @@
         <v>28.43</v>
       </c>
     </row>
-    <row r="52" spans="1:6">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>56</v>
       </c>
@@ -1696,7 +1754,7 @@
         <v>28.33</v>
       </c>
     </row>
-    <row r="53" spans="1:6">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>57</v>
       </c>
@@ -1716,7 +1774,7 @@
         <v>28.24</v>
       </c>
     </row>
-    <row r="54" spans="1:6">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>58</v>
       </c>
@@ -1736,7 +1794,7 @@
         <v>28.12</v>
       </c>
     </row>
-    <row r="55" spans="1:6">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>59</v>
       </c>
@@ -1756,7 +1814,7 @@
         <v>27.97</v>
       </c>
     </row>
-    <row r="56" spans="1:6">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>60</v>
       </c>
@@ -1776,7 +1834,7 @@
         <v>27.89</v>
       </c>
     </row>
-    <row r="57" spans="1:6">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>61</v>
       </c>
@@ -1796,7 +1854,7 @@
         <v>27.78</v>
       </c>
     </row>
-    <row r="58" spans="1:6">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>62</v>
       </c>
@@ -1816,7 +1874,7 @@
         <v>27.72</v>
       </c>
     </row>
-    <row r="59" spans="1:6">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>63</v>
       </c>
@@ -1836,7 +1894,7 @@
         <v>27.63</v>
       </c>
     </row>
-    <row r="60" spans="1:6">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>64</v>
       </c>
@@ -1856,7 +1914,7 @@
         <v>27.52</v>
       </c>
     </row>
-    <row r="61" spans="1:6">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>65</v>
       </c>
@@ -1876,7 +1934,7 @@
         <v>27.38</v>
       </c>
     </row>
-    <row r="62" spans="1:6">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>66</v>
       </c>
@@ -1896,7 +1954,7 @@
         <v>27.16</v>
       </c>
     </row>
-    <row r="63" spans="1:6">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>67</v>
       </c>
@@ -1916,7 +1974,7 @@
         <v>27.02</v>
       </c>
     </row>
-    <row r="64" spans="1:6">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>68</v>
       </c>
@@ -1936,7 +1994,7 @@
         <v>26.92</v>
       </c>
     </row>
-    <row r="65" spans="1:6">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>69</v>
       </c>
@@ -1956,7 +2014,7 @@
         <v>26.88</v>
       </c>
     </row>
-    <row r="66" spans="1:6">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>70</v>
       </c>
@@ -1976,7 +2034,7 @@
         <v>26.86</v>
       </c>
     </row>
-    <row r="67" spans="1:6">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>71</v>
       </c>
@@ -1996,7 +2054,7 @@
         <v>26.83</v>
       </c>
     </row>
-    <row r="68" spans="1:6">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>72</v>
       </c>
@@ -2016,7 +2074,7 @@
         <v>26.8</v>
       </c>
     </row>
-    <row r="69" spans="1:6">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>73</v>
       </c>
@@ -2036,7 +2094,7 @@
         <v>26.74</v>
       </c>
     </row>
-    <row r="70" spans="1:6">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>74</v>
       </c>
@@ -2056,7 +2114,7 @@
         <v>26.67</v>
       </c>
     </row>
-    <row r="71" spans="1:6">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>75</v>
       </c>
@@ -2076,7 +2134,7 @@
         <v>26.61</v>
       </c>
     </row>
-    <row r="72" spans="1:6">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>76</v>
       </c>
@@ -2096,7 +2154,7 @@
         <v>26.56</v>
       </c>
     </row>
-    <row r="73" spans="1:6">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>77</v>
       </c>
@@ -2116,7 +2174,7 @@
         <v>26.51</v>
       </c>
     </row>
-    <row r="74" spans="1:6">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>78</v>
       </c>
@@ -2136,7 +2194,7 @@
         <v>26.49</v>
       </c>
     </row>
-    <row r="75" spans="1:6">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>79</v>
       </c>
@@ -2156,7 +2214,7 @@
         <v>26.39</v>
       </c>
     </row>
-    <row r="76" spans="1:6">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>80</v>
       </c>
@@ -2176,7 +2234,7 @@
         <v>26.33</v>
       </c>
     </row>
-    <row r="77" spans="1:6">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>81</v>
       </c>
@@ -2196,7 +2254,7 @@
         <v>26.25</v>
       </c>
     </row>
-    <row r="78" spans="1:6">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>82</v>
       </c>
@@ -2216,7 +2274,7 @@
         <v>26.21</v>
       </c>
     </row>
-    <row r="79" spans="1:6">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>83</v>
       </c>
@@ -2236,7 +2294,7 @@
         <v>26.17</v>
       </c>
     </row>
-    <row r="80" spans="1:6">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>84</v>
       </c>
@@ -2256,7 +2314,7 @@
         <v>26.15</v>
       </c>
     </row>
-    <row r="81" spans="1:6">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>85</v>
       </c>
@@ -2276,7 +2334,7 @@
         <v>26.09</v>
       </c>
     </row>
-    <row r="82" spans="1:6">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>86</v>
       </c>
@@ -2296,7 +2354,7 @@
         <v>26.02</v>
       </c>
     </row>
-    <row r="83" spans="1:6">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>87</v>
       </c>
@@ -2316,7 +2374,7 @@
         <v>25.9</v>
       </c>
     </row>
-    <row r="84" spans="1:6">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>88</v>
       </c>
@@ -2336,7 +2394,7 @@
         <v>25.86</v>
       </c>
     </row>
-    <row r="85" spans="1:6">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>89</v>
       </c>
@@ -2356,7 +2414,7 @@
         <v>25.81</v>
       </c>
     </row>
-    <row r="86" spans="1:6">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>90</v>
       </c>
@@ -2376,7 +2434,7 @@
         <v>25.81</v>
       </c>
     </row>
-    <row r="87" spans="1:6">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>91</v>
       </c>
@@ -2396,7 +2454,7 @@
         <v>25.76</v>
       </c>
     </row>
-    <row r="88" spans="1:6">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>92</v>
       </c>
@@ -2414,6 +2472,46 @@
       </c>
       <c r="F88">
         <v>25.7</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
+        <v>93</v>
+      </c>
+      <c r="B89">
+        <v>579914</v>
+      </c>
+      <c r="C89">
+        <v>643265</v>
+      </c>
+      <c r="D89">
+        <v>81597</v>
+      </c>
+      <c r="E89">
+        <v>62594</v>
+      </c>
+      <c r="F89">
+        <v>25.64</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
+        <v>94</v>
+      </c>
+      <c r="B90">
+        <v>585738</v>
+      </c>
+      <c r="C90">
+        <v>650862</v>
+      </c>
+      <c r="D90">
+        <v>83357</v>
+      </c>
+      <c r="E90">
+        <v>63146</v>
+      </c>
+      <c r="F90">
+        <v>25.57</v>
       </c>
     </row>
   </sheetData>

--- a/data-validation/bitacora_historica_tablero_oficial.xlsx
+++ b/data-validation/bitacora_historica_tablero_oficial.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marianafernandez/Documents/COSMO/covid19-mx-data/data-validation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FA50B3E-E49B-334B-A6F4-B4A1A9AC23CB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D02C3E4D-7D60-0248-A494-5EFE3CF06F4D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="460" windowWidth="16100" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="out_vars" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="97">
   <si>
     <t>Fecha</t>
   </si>
@@ -305,15 +305,28 @@
   </si>
   <si>
     <t>2020-08-28</t>
+  </si>
+  <si>
+    <t>2020-08-30</t>
+  </si>
+  <si>
+    <t>2020-08-29</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -323,6 +336,12 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -360,17 +379,24 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+      <alignment wrapText="1"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="XLConnect.Numeric" xfId="1" xr:uid="{6188D71B-A290-CF40-A3F4-26A7A31B574C}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -706,10 +732,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F90"/>
+  <dimension ref="A1:I92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="A91" sqref="A91:XFD91"/>
+    <sheetView tabSelected="1" topLeftCell="A68" workbookViewId="0">
+      <selection activeCell="A91" sqref="A91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2314,7 +2340,7 @@
         <v>26.15</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>85</v>
       </c>
@@ -2334,7 +2360,7 @@
         <v>26.09</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>86</v>
       </c>
@@ -2354,7 +2380,7 @@
         <v>26.02</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>87</v>
       </c>
@@ -2374,7 +2400,7 @@
         <v>25.9</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>88</v>
       </c>
@@ -2394,7 +2420,7 @@
         <v>25.86</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>89</v>
       </c>
@@ -2414,7 +2440,7 @@
         <v>25.81</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>90</v>
       </c>
@@ -2434,7 +2460,7 @@
         <v>25.81</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>91</v>
       </c>
@@ -2454,7 +2480,7 @@
         <v>25.76</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>92</v>
       </c>
@@ -2474,7 +2500,7 @@
         <v>25.7</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>93</v>
       </c>
@@ -2494,7 +2520,7 @@
         <v>25.64</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>94</v>
       </c>
@@ -2514,7 +2540,51 @@
         <v>25.57</v>
       </c>
     </row>
+    <row r="91" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
+        <v>96</v>
+      </c>
+      <c r="B91" s="2">
+        <v>591712</v>
+      </c>
+      <c r="C91" s="2">
+        <v>658309</v>
+      </c>
+      <c r="D91" s="2">
+        <v>84310</v>
+      </c>
+      <c r="E91" s="2">
+        <v>63819</v>
+      </c>
+      <c r="F91" s="2">
+        <v>25.503285382077767</v>
+      </c>
+      <c r="G91" s="2"/>
+      <c r="H91" s="2"/>
+      <c r="I91" s="2"/>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
+        <v>95</v>
+      </c>
+      <c r="B92">
+        <v>595841</v>
+      </c>
+      <c r="C92">
+        <v>663474</v>
+      </c>
+      <c r="D92">
+        <v>81151</v>
+      </c>
+      <c r="E92">
+        <v>64158</v>
+      </c>
+      <c r="F92">
+        <v>25.46</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/data-validation/bitacora_historica_tablero_oficial.xlsx
+++ b/data-validation/bitacora_historica_tablero_oficial.xlsx
@@ -1,26 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10810"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marianafernandez/Documents/COSMO/covid19-mx-data/data-validation/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D02C3E4D-7D60-0248-A494-5EFE3CF06F4D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="out_vars" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="98">
   <si>
     <t>Fecha</t>
   </si>
@@ -307,26 +301,22 @@
     <t>2020-08-28</t>
   </si>
   <si>
+    <t>2020-08-29</t>
+  </si>
+  <si>
     <t>2020-08-30</t>
   </si>
   <si>
-    <t>2020-08-29</t>
+    <t>2020-08-31</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -336,12 +326,6 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -379,40 +363,25 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
-      <alignment wrapText="1"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1">
-      <alignment wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="XLConnect.Numeric" xfId="1" xr:uid="{6188D71B-A290-CF40-A3F4-26A7A31B574C}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -454,7 +423,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -486,27 +455,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -538,24 +489,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -731,16 +664,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I92"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A68" workbookViewId="0">
-      <selection activeCell="A91" sqref="A91"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -760,7 +691,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -780,7 +711,7 @@
         <v>34.9</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -797,10 +728,10 @@
         <v>10637</v>
       </c>
       <c r="F3">
-        <v>34.590000000000003</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+        <v>34.59</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -817,10 +748,10 @@
         <v>11728</v>
       </c>
       <c r="F4">
-        <v>34.450000000000003</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+        <v>34.45</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -840,7 +771,7 @@
         <v>34.24</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -860,7 +791,7 @@
         <v>34.03</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -880,7 +811,7 @@
         <v>33.72</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -897,10 +828,10 @@
         <v>13699</v>
       </c>
       <c r="F8">
-        <v>33.479999999999997</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+        <v>33.48</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" t="s">
         <v>13</v>
       </c>
@@ -920,7 +851,7 @@
         <v>33.32</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6">
       <c r="A10" t="s">
         <v>14</v>
       </c>
@@ -940,7 +871,7 @@
         <v>33.21</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6">
       <c r="A11" t="s">
         <v>15</v>
       </c>
@@ -960,7 +891,7 @@
         <v>33.11</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6">
       <c r="A12" t="s">
         <v>16</v>
       </c>
@@ -980,7 +911,7 @@
         <v>33.01</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6">
       <c r="A13" t="s">
         <v>17</v>
       </c>
@@ -1000,7 +931,7 @@
         <v>32.78</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6">
       <c r="A14" t="s">
         <v>18</v>
       </c>
@@ -1017,10 +948,10 @@
         <v>16872</v>
       </c>
       <c r="F14">
-        <v>32.659999999999997</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+        <v>32.66</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" t="s">
         <v>19</v>
       </c>
@@ -1040,7 +971,7 @@
         <v>32.5</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6">
       <c r="A16" t="s">
         <v>20</v>
       </c>
@@ -1060,7 +991,7 @@
         <v>32.36</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6">
       <c r="A17" t="s">
         <v>21</v>
       </c>
@@ -1080,7 +1011,7 @@
         <v>32.29</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6">
       <c r="A18" t="s">
         <v>22</v>
       </c>
@@ -1100,7 +1031,7 @@
         <v>32.06</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6">
       <c r="A19" t="s">
         <v>23</v>
       </c>
@@ -1120,7 +1051,7 @@
         <v>31.86</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6">
       <c r="A20" t="s">
         <v>24</v>
       </c>
@@ -1140,7 +1071,7 @@
         <v>31.72</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6">
       <c r="A21" t="s">
         <v>25</v>
       </c>
@@ -1160,7 +1091,7 @@
         <v>31.46</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6">
       <c r="A22" t="s">
         <v>26</v>
       </c>
@@ -1180,7 +1111,7 @@
         <v>31.61</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6">
       <c r="A23" t="s">
         <v>27</v>
       </c>
@@ -1200,7 +1131,7 @@
         <v>31.69</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6">
       <c r="A24" t="s">
         <v>28</v>
       </c>
@@ -1220,7 +1151,7 @@
         <v>31.6</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6">
       <c r="A25" t="s">
         <v>29</v>
       </c>
@@ -1240,7 +1171,7 @@
         <v>31.58</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6">
       <c r="A26" t="s">
         <v>30</v>
       </c>
@@ -1260,7 +1191,7 @@
         <v>31.46</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6">
       <c r="A27" t="s">
         <v>31</v>
       </c>
@@ -1280,7 +1211,7 @@
         <v>31.37</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6">
       <c r="A28" t="s">
         <v>32</v>
       </c>
@@ -1300,7 +1231,7 @@
         <v>31.24</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6">
       <c r="A29" t="s">
         <v>33</v>
       </c>
@@ -1320,7 +1251,7 @@
         <v>31.11</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6">
       <c r="A30" t="s">
         <v>34</v>
       </c>
@@ -1340,7 +1271,7 @@
         <v>30.95</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6">
       <c r="A31" t="s">
         <v>35</v>
       </c>
@@ -1360,7 +1291,7 @@
         <v>30.78</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:6">
       <c r="A32" t="s">
         <v>36</v>
       </c>
@@ -1380,7 +1311,7 @@
         <v>30.73</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6">
       <c r="A33" t="s">
         <v>37</v>
       </c>
@@ -1400,7 +1331,7 @@
         <v>30.52</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:6">
       <c r="A34" t="s">
         <v>38</v>
       </c>
@@ -1420,7 +1351,7 @@
         <v>30.35</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:6">
       <c r="A35" t="s">
         <v>39</v>
       </c>
@@ -1440,7 +1371,7 @@
         <v>30.18</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:6">
       <c r="A36" t="s">
         <v>40</v>
       </c>
@@ -1460,7 +1391,7 @@
         <v>30.02</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:6">
       <c r="A37" t="s">
         <v>41</v>
       </c>
@@ -1480,7 +1411,7 @@
         <v>29.94</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:6">
       <c r="A38" t="s">
         <v>42</v>
       </c>
@@ -1500,7 +1431,7 @@
         <v>29.89</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:6">
       <c r="A39" t="s">
         <v>43</v>
       </c>
@@ -1520,7 +1451,7 @@
         <v>29.78</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:6">
       <c r="A40" t="s">
         <v>44</v>
       </c>
@@ -1540,7 +1471,7 @@
         <v>29.67</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:6">
       <c r="A41" t="s">
         <v>45</v>
       </c>
@@ -1560,7 +1491,7 @@
         <v>29.5</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:6">
       <c r="A42" t="s">
         <v>46</v>
       </c>
@@ -1580,7 +1511,7 @@
         <v>29.33</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:6">
       <c r="A43" t="s">
         <v>47</v>
       </c>
@@ -1600,7 +1531,7 @@
         <v>29.25</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:6">
       <c r="A44" t="s">
         <v>48</v>
       </c>
@@ -1620,7 +1551,7 @@
         <v>29.21</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:6">
       <c r="A45" t="s">
         <v>49</v>
       </c>
@@ -1640,7 +1571,7 @@
         <v>29.12</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:6">
       <c r="A46" t="s">
         <v>50</v>
       </c>
@@ -1660,7 +1591,7 @@
         <v>29.05</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:6">
       <c r="A47" t="s">
         <v>51</v>
       </c>
@@ -1680,7 +1611,7 @@
         <v>28.95</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:6">
       <c r="A48" t="s">
         <v>52</v>
       </c>
@@ -1700,7 +1631,7 @@
         <v>28.81</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:6">
       <c r="A49" t="s">
         <v>53</v>
       </c>
@@ -1720,7 +1651,7 @@
         <v>28.66</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:6">
       <c r="A50" t="s">
         <v>54</v>
       </c>
@@ -1740,7 +1671,7 @@
         <v>28.55</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:6">
       <c r="A51" t="s">
         <v>55</v>
       </c>
@@ -1760,7 +1691,7 @@
         <v>28.43</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:6">
       <c r="A52" t="s">
         <v>56</v>
       </c>
@@ -1780,7 +1711,7 @@
         <v>28.33</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:6">
       <c r="A53" t="s">
         <v>57</v>
       </c>
@@ -1800,7 +1731,7 @@
         <v>28.24</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:6">
       <c r="A54" t="s">
         <v>58</v>
       </c>
@@ -1820,7 +1751,7 @@
         <v>28.12</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:6">
       <c r="A55" t="s">
         <v>59</v>
       </c>
@@ -1840,7 +1771,7 @@
         <v>27.97</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:6">
       <c r="A56" t="s">
         <v>60</v>
       </c>
@@ -1860,7 +1791,7 @@
         <v>27.89</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:6">
       <c r="A57" t="s">
         <v>61</v>
       </c>
@@ -1880,7 +1811,7 @@
         <v>27.78</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:6">
       <c r="A58" t="s">
         <v>62</v>
       </c>
@@ -1900,7 +1831,7 @@
         <v>27.72</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:6">
       <c r="A59" t="s">
         <v>63</v>
       </c>
@@ -1920,7 +1851,7 @@
         <v>27.63</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:6">
       <c r="A60" t="s">
         <v>64</v>
       </c>
@@ -1940,7 +1871,7 @@
         <v>27.52</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:6">
       <c r="A61" t="s">
         <v>65</v>
       </c>
@@ -1960,7 +1891,7 @@
         <v>27.38</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:6">
       <c r="A62" t="s">
         <v>66</v>
       </c>
@@ -1980,7 +1911,7 @@
         <v>27.16</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:6">
       <c r="A63" t="s">
         <v>67</v>
       </c>
@@ -2000,7 +1931,7 @@
         <v>27.02</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:6">
       <c r="A64" t="s">
         <v>68</v>
       </c>
@@ -2020,7 +1951,7 @@
         <v>26.92</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:6">
       <c r="A65" t="s">
         <v>69</v>
       </c>
@@ -2040,7 +1971,7 @@
         <v>26.88</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:6">
       <c r="A66" t="s">
         <v>70</v>
       </c>
@@ -2060,7 +1991,7 @@
         <v>26.86</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:6">
       <c r="A67" t="s">
         <v>71</v>
       </c>
@@ -2080,7 +2011,7 @@
         <v>26.83</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:6">
       <c r="A68" t="s">
         <v>72</v>
       </c>
@@ -2100,7 +2031,7 @@
         <v>26.8</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:6">
       <c r="A69" t="s">
         <v>73</v>
       </c>
@@ -2120,7 +2051,7 @@
         <v>26.74</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:6">
       <c r="A70" t="s">
         <v>74</v>
       </c>
@@ -2140,7 +2071,7 @@
         <v>26.67</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:6">
       <c r="A71" t="s">
         <v>75</v>
       </c>
@@ -2160,7 +2091,7 @@
         <v>26.61</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:6">
       <c r="A72" t="s">
         <v>76</v>
       </c>
@@ -2180,7 +2111,7 @@
         <v>26.56</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:6">
       <c r="A73" t="s">
         <v>77</v>
       </c>
@@ -2200,7 +2131,7 @@
         <v>26.51</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:6">
       <c r="A74" t="s">
         <v>78</v>
       </c>
@@ -2220,7 +2151,7 @@
         <v>26.49</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:6">
       <c r="A75" t="s">
         <v>79</v>
       </c>
@@ -2240,7 +2171,7 @@
         <v>26.39</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:6">
       <c r="A76" t="s">
         <v>80</v>
       </c>
@@ -2260,7 +2191,7 @@
         <v>26.33</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:6">
       <c r="A77" t="s">
         <v>81</v>
       </c>
@@ -2280,7 +2211,7 @@
         <v>26.25</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:6">
       <c r="A78" t="s">
         <v>82</v>
       </c>
@@ -2300,7 +2231,7 @@
         <v>26.21</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:6">
       <c r="A79" t="s">
         <v>83</v>
       </c>
@@ -2320,7 +2251,7 @@
         <v>26.17</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:6">
       <c r="A80" t="s">
         <v>84</v>
       </c>
@@ -2340,7 +2271,7 @@
         <v>26.15</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:6">
       <c r="A81" t="s">
         <v>85</v>
       </c>
@@ -2360,7 +2291,7 @@
         <v>26.09</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:6">
       <c r="A82" t="s">
         <v>86</v>
       </c>
@@ -2380,7 +2311,7 @@
         <v>26.02</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:6">
       <c r="A83" t="s">
         <v>87</v>
       </c>
@@ -2400,7 +2331,7 @@
         <v>25.9</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:6">
       <c r="A84" t="s">
         <v>88</v>
       </c>
@@ -2420,7 +2351,7 @@
         <v>25.86</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:6">
       <c r="A85" t="s">
         <v>89</v>
       </c>
@@ -2440,7 +2371,7 @@
         <v>25.81</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:6">
       <c r="A86" t="s">
         <v>90</v>
       </c>
@@ -2460,7 +2391,7 @@
         <v>25.81</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:6">
       <c r="A87" t="s">
         <v>91</v>
       </c>
@@ -2480,7 +2411,7 @@
         <v>25.76</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:6">
       <c r="A88" t="s">
         <v>92</v>
       </c>
@@ -2500,7 +2431,7 @@
         <v>25.7</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:6">
       <c r="A89" t="s">
         <v>93</v>
       </c>
@@ -2520,7 +2451,7 @@
         <v>25.64</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:6">
       <c r="A90" t="s">
         <v>94</v>
       </c>
@@ -2540,32 +2471,29 @@
         <v>25.57</v>
       </c>
     </row>
-    <row r="91" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:6">
       <c r="A91" t="s">
+        <v>95</v>
+      </c>
+      <c r="B91">
+        <v>591712</v>
+      </c>
+      <c r="C91">
+        <v>658309</v>
+      </c>
+      <c r="D91">
+        <v>84310</v>
+      </c>
+      <c r="E91">
+        <v>63819</v>
+      </c>
+      <c r="F91">
+        <v>25.50328538207777</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
+      <c r="A92" t="s">
         <v>96</v>
-      </c>
-      <c r="B91" s="2">
-        <v>591712</v>
-      </c>
-      <c r="C91" s="2">
-        <v>658309</v>
-      </c>
-      <c r="D91" s="2">
-        <v>84310</v>
-      </c>
-      <c r="E91" s="2">
-        <v>63819</v>
-      </c>
-      <c r="F91" s="2">
-        <v>25.503285382077767</v>
-      </c>
-      <c r="G91" s="2"/>
-      <c r="H91" s="2"/>
-      <c r="I91" s="2"/>
-    </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A92" t="s">
-        <v>95</v>
       </c>
       <c r="B92">
         <v>595841</v>
@@ -2583,8 +2511,27 @@
         <v>25.46</v>
       </c>
     </row>
+    <row r="93" spans="1:6">
+      <c r="A93" t="s">
+        <v>97</v>
+      </c>
+      <c r="B93">
+        <v>599560</v>
+      </c>
+      <c r="C93">
+        <v>668193</v>
+      </c>
+      <c r="D93">
+        <v>77730</v>
+      </c>
+      <c r="E93">
+        <v>64414</v>
+      </c>
+      <c r="F93">
+        <v>25.42</v>
+      </c>
+    </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/data-validation/bitacora_historica_tablero_oficial.xlsx
+++ b/data-validation/bitacora_historica_tablero_oficial.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="99">
   <si>
     <t>Fecha</t>
   </si>
@@ -308,6 +308,9 @@
   </si>
   <si>
     <t>2020-08-31</t>
+  </si>
+  <si>
+    <t>2020-09-01</t>
   </si>
 </sst>
 </file>
@@ -665,7 +668,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F93"/>
+  <dimension ref="A1:F94"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2531,6 +2534,26 @@
         <v>25.42</v>
       </c>
     </row>
+    <row r="94" spans="1:6">
+      <c r="A94" t="s">
+        <v>98</v>
+      </c>
+      <c r="B94">
+        <v>606036</v>
+      </c>
+      <c r="C94">
+        <v>676958</v>
+      </c>
+      <c r="D94">
+        <v>77129</v>
+      </c>
+      <c r="E94">
+        <v>65241</v>
+      </c>
+      <c r="F94">
+        <v>25.36</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data-validation/bitacora_historica_tablero_oficial.xlsx
+++ b/data-validation/bitacora_historica_tablero_oficial.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="100">
   <si>
     <t>Fecha</t>
   </si>
@@ -311,6 +311,9 @@
   </si>
   <si>
     <t>2020-09-01</t>
+  </si>
+  <si>
+    <t>2020-09-02</t>
   </si>
 </sst>
 </file>
@@ -668,7 +671,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F94"/>
+  <dimension ref="A1:F95"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2554,6 +2557,26 @@
         <v>25.36</v>
       </c>
     </row>
+    <row r="95" spans="1:6">
+      <c r="A95" t="s">
+        <v>99</v>
+      </c>
+      <c r="B95">
+        <v>610957</v>
+      </c>
+      <c r="C95">
+        <v>683438</v>
+      </c>
+      <c r="D95">
+        <v>81775</v>
+      </c>
+      <c r="E95">
+        <v>65816</v>
+      </c>
+      <c r="F95">
+        <v>25.32</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data-validation/bitacora_historica_tablero_oficial.xlsx
+++ b/data-validation/bitacora_historica_tablero_oficial.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="101">
   <si>
     <t>Fecha</t>
   </si>
@@ -314,6 +314,9 @@
   </si>
   <si>
     <t>2020-09-02</t>
+  </si>
+  <si>
+    <t>2020-09-03</t>
   </si>
 </sst>
 </file>
@@ -671,7 +674,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F95"/>
+  <dimension ref="A1:F96"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2577,6 +2580,26 @@
         <v>25.32</v>
       </c>
     </row>
+    <row r="96" spans="1:6">
+      <c r="A96" t="s">
+        <v>100</v>
+      </c>
+      <c r="B96">
+        <v>616894</v>
+      </c>
+      <c r="C96">
+        <v>692319</v>
+      </c>
+      <c r="D96">
+        <v>83820</v>
+      </c>
+      <c r="E96">
+        <v>66329</v>
+      </c>
+      <c r="F96">
+        <v>25.25</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data-validation/bitacora_historica_tablero_oficial.xlsx
+++ b/data-validation/bitacora_historica_tablero_oficial.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="102">
   <si>
     <t>Fecha</t>
   </si>
@@ -317,6 +317,9 @@
   </si>
   <si>
     <t>2020-09-03</t>
+  </si>
+  <si>
+    <t>2020-09-04</t>
   </si>
 </sst>
 </file>
@@ -674,7 +677,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F96"/>
+  <dimension ref="A1:F97"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2600,6 +2603,26 @@
         <v>25.25</v>
       </c>
     </row>
+    <row r="97" spans="1:6">
+      <c r="A97" t="s">
+        <v>101</v>
+      </c>
+      <c r="B97">
+        <v>623090</v>
+      </c>
+      <c r="C97">
+        <v>700502</v>
+      </c>
+      <c r="D97">
+        <v>85792</v>
+      </c>
+      <c r="E97">
+        <v>66851</v>
+      </c>
+      <c r="F97">
+        <v>25.17</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data-validation/bitacora_historica_tablero_oficial.xlsx
+++ b/data-validation/bitacora_historica_tablero_oficial.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10810"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marianafernandez/Documents/COSMO/covid19-mx-data/data-validation/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B8512C7-D742-834C-A3DA-212EAB28094F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="out_vars" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="105">
   <si>
     <t>Fecha</t>
   </si>
@@ -320,13 +326,22 @@
   </si>
   <si>
     <t>2020-09-04</t>
+  </si>
+  <si>
+    <t>2020-09-05</t>
+  </si>
+  <si>
+    <t>2020-09-07</t>
+  </si>
+  <si>
+    <t>2020-09-06</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -338,6 +353,18 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF333333"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -378,22 +405,31 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -435,7 +471,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -467,9 +503,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -501,6 +555,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -676,14 +748,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F97"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:L106"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A87" workbookViewId="0">
+      <selection activeCell="D104" sqref="D104"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -703,7 +777,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -723,7 +797,7 @@
         <v>34.9</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -740,10 +814,10 @@
         <v>10637</v>
       </c>
       <c r="F3">
-        <v>34.59</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>34.590000000000003</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -760,10 +834,10 @@
         <v>11728</v>
       </c>
       <c r="F4">
-        <v>34.45</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>34.450000000000003</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -783,7 +857,7 @@
         <v>34.24</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -803,7 +877,7 @@
         <v>34.03</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -823,7 +897,7 @@
         <v>33.72</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -840,10 +914,10 @@
         <v>13699</v>
       </c>
       <c r="F8">
-        <v>33.48</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>33.479999999999997</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>13</v>
       </c>
@@ -863,7 +937,7 @@
         <v>33.32</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>14</v>
       </c>
@@ -883,7 +957,7 @@
         <v>33.21</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>15</v>
       </c>
@@ -903,7 +977,7 @@
         <v>33.11</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>16</v>
       </c>
@@ -923,7 +997,7 @@
         <v>33.01</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>17</v>
       </c>
@@ -943,7 +1017,7 @@
         <v>32.78</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>18</v>
       </c>
@@ -960,10 +1034,10 @@
         <v>16872</v>
       </c>
       <c r="F14">
-        <v>32.66</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+        <v>32.659999999999997</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>19</v>
       </c>
@@ -983,7 +1057,7 @@
         <v>32.5</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>20</v>
       </c>
@@ -1003,7 +1077,7 @@
         <v>32.36</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>21</v>
       </c>
@@ -1023,7 +1097,7 @@
         <v>32.29</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>22</v>
       </c>
@@ -1043,7 +1117,7 @@
         <v>32.06</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>23</v>
       </c>
@@ -1063,7 +1137,7 @@
         <v>31.86</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>24</v>
       </c>
@@ -1083,7 +1157,7 @@
         <v>31.72</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>25</v>
       </c>
@@ -1103,7 +1177,7 @@
         <v>31.46</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>26</v>
       </c>
@@ -1123,7 +1197,7 @@
         <v>31.61</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>27</v>
       </c>
@@ -1143,7 +1217,7 @@
         <v>31.69</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>28</v>
       </c>
@@ -1163,7 +1237,7 @@
         <v>31.6</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>29</v>
       </c>
@@ -1183,7 +1257,7 @@
         <v>31.58</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>30</v>
       </c>
@@ -1203,7 +1277,7 @@
         <v>31.46</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>31</v>
       </c>
@@ -1223,7 +1297,7 @@
         <v>31.37</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>32</v>
       </c>
@@ -1243,7 +1317,7 @@
         <v>31.24</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>33</v>
       </c>
@@ -1263,7 +1337,7 @@
         <v>31.11</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>34</v>
       </c>
@@ -1283,7 +1357,7 @@
         <v>30.95</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>35</v>
       </c>
@@ -1303,7 +1377,7 @@
         <v>30.78</v>
       </c>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>36</v>
       </c>
@@ -1323,7 +1397,7 @@
         <v>30.73</v>
       </c>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>37</v>
       </c>
@@ -1343,7 +1417,7 @@
         <v>30.52</v>
       </c>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>38</v>
       </c>
@@ -1363,7 +1437,7 @@
         <v>30.35</v>
       </c>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>39</v>
       </c>
@@ -1383,7 +1457,7 @@
         <v>30.18</v>
       </c>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>40</v>
       </c>
@@ -1403,7 +1477,7 @@
         <v>30.02</v>
       </c>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>41</v>
       </c>
@@ -1423,7 +1497,7 @@
         <v>29.94</v>
       </c>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>42</v>
       </c>
@@ -1443,7 +1517,7 @@
         <v>29.89</v>
       </c>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>43</v>
       </c>
@@ -1463,7 +1537,7 @@
         <v>29.78</v>
       </c>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>44</v>
       </c>
@@ -1483,7 +1557,7 @@
         <v>29.67</v>
       </c>
     </row>
-    <row r="41" spans="1:6">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>45</v>
       </c>
@@ -1503,7 +1577,7 @@
         <v>29.5</v>
       </c>
     </row>
-    <row r="42" spans="1:6">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>46</v>
       </c>
@@ -1523,7 +1597,7 @@
         <v>29.33</v>
       </c>
     </row>
-    <row r="43" spans="1:6">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>47</v>
       </c>
@@ -1543,7 +1617,7 @@
         <v>29.25</v>
       </c>
     </row>
-    <row r="44" spans="1:6">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>48</v>
       </c>
@@ -1563,7 +1637,7 @@
         <v>29.21</v>
       </c>
     </row>
-    <row r="45" spans="1:6">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>49</v>
       </c>
@@ -1583,7 +1657,7 @@
         <v>29.12</v>
       </c>
     </row>
-    <row r="46" spans="1:6">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>50</v>
       </c>
@@ -1603,7 +1677,7 @@
         <v>29.05</v>
       </c>
     </row>
-    <row r="47" spans="1:6">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>51</v>
       </c>
@@ -1623,7 +1697,7 @@
         <v>28.95</v>
       </c>
     </row>
-    <row r="48" spans="1:6">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>52</v>
       </c>
@@ -1643,7 +1717,7 @@
         <v>28.81</v>
       </c>
     </row>
-    <row r="49" spans="1:6">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>53</v>
       </c>
@@ -1663,7 +1737,7 @@
         <v>28.66</v>
       </c>
     </row>
-    <row r="50" spans="1:6">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>54</v>
       </c>
@@ -1683,7 +1757,7 @@
         <v>28.55</v>
       </c>
     </row>
-    <row r="51" spans="1:6">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>55</v>
       </c>
@@ -1703,7 +1777,7 @@
         <v>28.43</v>
       </c>
     </row>
-    <row r="52" spans="1:6">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>56</v>
       </c>
@@ -1723,7 +1797,7 @@
         <v>28.33</v>
       </c>
     </row>
-    <row r="53" spans="1:6">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>57</v>
       </c>
@@ -1743,7 +1817,7 @@
         <v>28.24</v>
       </c>
     </row>
-    <row r="54" spans="1:6">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>58</v>
       </c>
@@ -1763,7 +1837,7 @@
         <v>28.12</v>
       </c>
     </row>
-    <row r="55" spans="1:6">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>59</v>
       </c>
@@ -1783,7 +1857,7 @@
         <v>27.97</v>
       </c>
     </row>
-    <row r="56" spans="1:6">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>60</v>
       </c>
@@ -1803,7 +1877,7 @@
         <v>27.89</v>
       </c>
     </row>
-    <row r="57" spans="1:6">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>61</v>
       </c>
@@ -1823,7 +1897,7 @@
         <v>27.78</v>
       </c>
     </row>
-    <row r="58" spans="1:6">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>62</v>
       </c>
@@ -1843,7 +1917,7 @@
         <v>27.72</v>
       </c>
     </row>
-    <row r="59" spans="1:6">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>63</v>
       </c>
@@ -1863,7 +1937,7 @@
         <v>27.63</v>
       </c>
     </row>
-    <row r="60" spans="1:6">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>64</v>
       </c>
@@ -1883,7 +1957,7 @@
         <v>27.52</v>
       </c>
     </row>
-    <row r="61" spans="1:6">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>65</v>
       </c>
@@ -1903,7 +1977,7 @@
         <v>27.38</v>
       </c>
     </row>
-    <row r="62" spans="1:6">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>66</v>
       </c>
@@ -1923,7 +1997,7 @@
         <v>27.16</v>
       </c>
     </row>
-    <row r="63" spans="1:6">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>67</v>
       </c>
@@ -1943,7 +2017,7 @@
         <v>27.02</v>
       </c>
     </row>
-    <row r="64" spans="1:6">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>68</v>
       </c>
@@ -1963,7 +2037,7 @@
         <v>26.92</v>
       </c>
     </row>
-    <row r="65" spans="1:6">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>69</v>
       </c>
@@ -1983,7 +2057,7 @@
         <v>26.88</v>
       </c>
     </row>
-    <row r="66" spans="1:6">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>70</v>
       </c>
@@ -2003,7 +2077,7 @@
         <v>26.86</v>
       </c>
     </row>
-    <row r="67" spans="1:6">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>71</v>
       </c>
@@ -2023,7 +2097,7 @@
         <v>26.83</v>
       </c>
     </row>
-    <row r="68" spans="1:6">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>72</v>
       </c>
@@ -2043,7 +2117,7 @@
         <v>26.8</v>
       </c>
     </row>
-    <row r="69" spans="1:6">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>73</v>
       </c>
@@ -2063,7 +2137,7 @@
         <v>26.74</v>
       </c>
     </row>
-    <row r="70" spans="1:6">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>74</v>
       </c>
@@ -2083,7 +2157,7 @@
         <v>26.67</v>
       </c>
     </row>
-    <row r="71" spans="1:6">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>75</v>
       </c>
@@ -2103,7 +2177,7 @@
         <v>26.61</v>
       </c>
     </row>
-    <row r="72" spans="1:6">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>76</v>
       </c>
@@ -2123,7 +2197,7 @@
         <v>26.56</v>
       </c>
     </row>
-    <row r="73" spans="1:6">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>77</v>
       </c>
@@ -2143,7 +2217,7 @@
         <v>26.51</v>
       </c>
     </row>
-    <row r="74" spans="1:6">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>78</v>
       </c>
@@ -2163,7 +2237,7 @@
         <v>26.49</v>
       </c>
     </row>
-    <row r="75" spans="1:6">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>79</v>
       </c>
@@ -2183,7 +2257,7 @@
         <v>26.39</v>
       </c>
     </row>
-    <row r="76" spans="1:6">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>80</v>
       </c>
@@ -2203,7 +2277,7 @@
         <v>26.33</v>
       </c>
     </row>
-    <row r="77" spans="1:6">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>81</v>
       </c>
@@ -2223,7 +2297,7 @@
         <v>26.25</v>
       </c>
     </row>
-    <row r="78" spans="1:6">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>82</v>
       </c>
@@ -2243,7 +2317,7 @@
         <v>26.21</v>
       </c>
     </row>
-    <row r="79" spans="1:6">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>83</v>
       </c>
@@ -2263,7 +2337,7 @@
         <v>26.17</v>
       </c>
     </row>
-    <row r="80" spans="1:6">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>84</v>
       </c>
@@ -2283,7 +2357,7 @@
         <v>26.15</v>
       </c>
     </row>
-    <row r="81" spans="1:6">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>85</v>
       </c>
@@ -2303,7 +2377,7 @@
         <v>26.09</v>
       </c>
     </row>
-    <row r="82" spans="1:6">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>86</v>
       </c>
@@ -2323,7 +2397,7 @@
         <v>26.02</v>
       </c>
     </row>
-    <row r="83" spans="1:6">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>87</v>
       </c>
@@ -2343,7 +2417,7 @@
         <v>25.9</v>
       </c>
     </row>
-    <row r="84" spans="1:6">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>88</v>
       </c>
@@ -2363,7 +2437,7 @@
         <v>25.86</v>
       </c>
     </row>
-    <row r="85" spans="1:6">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>89</v>
       </c>
@@ -2383,7 +2457,7 @@
         <v>25.81</v>
       </c>
     </row>
-    <row r="86" spans="1:6">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>90</v>
       </c>
@@ -2403,7 +2477,7 @@
         <v>25.81</v>
       </c>
     </row>
-    <row r="87" spans="1:6">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>91</v>
       </c>
@@ -2423,7 +2497,7 @@
         <v>25.76</v>
       </c>
     </row>
-    <row r="88" spans="1:6">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>92</v>
       </c>
@@ -2443,7 +2517,7 @@
         <v>25.7</v>
       </c>
     </row>
-    <row r="89" spans="1:6">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>93</v>
       </c>
@@ -2463,7 +2537,7 @@
         <v>25.64</v>
       </c>
     </row>
-    <row r="90" spans="1:6">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>94</v>
       </c>
@@ -2483,7 +2557,7 @@
         <v>25.57</v>
       </c>
     </row>
-    <row r="91" spans="1:6">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>95</v>
       </c>
@@ -2503,7 +2577,7 @@
         <v>25.50328538207777</v>
       </c>
     </row>
-    <row r="92" spans="1:6">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>96</v>
       </c>
@@ -2523,7 +2597,7 @@
         <v>25.46</v>
       </c>
     </row>
-    <row r="93" spans="1:6">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>97</v>
       </c>
@@ -2543,7 +2617,7 @@
         <v>25.42</v>
       </c>
     </row>
-    <row r="94" spans="1:6">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>98</v>
       </c>
@@ -2563,7 +2637,7 @@
         <v>25.36</v>
       </c>
     </row>
-    <row r="95" spans="1:6">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>99</v>
       </c>
@@ -2583,7 +2657,7 @@
         <v>25.32</v>
       </c>
     </row>
-    <row r="96" spans="1:6">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>100</v>
       </c>
@@ -2603,7 +2677,7 @@
         <v>25.25</v>
       </c>
     </row>
-    <row r="97" spans="1:6">
+    <row r="97" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>101</v>
       </c>
@@ -2623,7 +2697,74 @@
         <v>25.17</v>
       </c>
     </row>
+    <row r="98" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
+        <v>102</v>
+      </c>
+      <c r="B98">
+        <v>629409</v>
+      </c>
+      <c r="C98">
+        <v>709182</v>
+      </c>
+      <c r="D98">
+        <v>86616</v>
+      </c>
+      <c r="E98">
+        <v>67326</v>
+      </c>
+      <c r="F98">
+        <v>25.06</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A99" t="s">
+        <v>104</v>
+      </c>
+      <c r="B99">
+        <v>634023</v>
+      </c>
+      <c r="C99">
+        <v>715395</v>
+      </c>
+      <c r="D99">
+        <v>82215</v>
+      </c>
+      <c r="E99">
+        <v>67558</v>
+      </c>
+      <c r="F99">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A100" t="s">
+        <v>103</v>
+      </c>
+      <c r="B100">
+        <v>637509</v>
+      </c>
+      <c r="C100">
+        <v>719981</v>
+      </c>
+      <c r="D100">
+        <v>78213</v>
+      </c>
+      <c r="E100">
+        <v>67781</v>
+      </c>
+      <c r="F100">
+        <v>24.98</v>
+      </c>
+    </row>
+    <row r="106" spans="1:12" ht="18" x14ac:dyDescent="0.2">
+      <c r="I106" s="2"/>
+      <c r="J106" s="2"/>
+      <c r="K106" s="2"/>
+      <c r="L106" s="2"/>
+    </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/data-validation/bitacora_historica_tablero_oficial.xlsx
+++ b/data-validation/bitacora_historica_tablero_oficial.xlsx
@@ -1,26 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10810"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marianafernandez/Documents/COSMO/covid19-mx-data/data-validation/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B8512C7-D742-834C-A3DA-212EAB28094F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="out_vars" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
   <si>
     <t>Fecha</t>
   </si>
@@ -331,17 +325,20 @@
     <t>2020-09-05</t>
   </si>
   <si>
+    <t>2020-09-06</t>
+  </si>
+  <si>
     <t>2020-09-07</t>
   </si>
   <si>
-    <t>2020-09-06</t>
+    <t>2020-09-08</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -353,18 +350,6 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color rgb="FF333333"/>
-      <name val="Helvetica Neue"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -405,31 +390,22 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -471,7 +447,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -503,27 +479,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -555,24 +513,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -748,16 +688,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L106"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A87" workbookViewId="0">
-      <selection activeCell="D104" sqref="D104"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -777,7 +715,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -797,7 +735,7 @@
         <v>34.9</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -814,10 +752,10 @@
         <v>10637</v>
       </c>
       <c r="F3">
-        <v>34.590000000000003</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+        <v>34.59</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -834,10 +772,10 @@
         <v>11728</v>
       </c>
       <c r="F4">
-        <v>34.450000000000003</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+        <v>34.45</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -857,7 +795,7 @@
         <v>34.24</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -877,7 +815,7 @@
         <v>34.03</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -897,7 +835,7 @@
         <v>33.72</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -914,10 +852,10 @@
         <v>13699</v>
       </c>
       <c r="F8">
-        <v>33.479999999999997</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+        <v>33.48</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" t="s">
         <v>13</v>
       </c>
@@ -937,7 +875,7 @@
         <v>33.32</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6">
       <c r="A10" t="s">
         <v>14</v>
       </c>
@@ -957,7 +895,7 @@
         <v>33.21</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6">
       <c r="A11" t="s">
         <v>15</v>
       </c>
@@ -977,7 +915,7 @@
         <v>33.11</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6">
       <c r="A12" t="s">
         <v>16</v>
       </c>
@@ -997,7 +935,7 @@
         <v>33.01</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6">
       <c r="A13" t="s">
         <v>17</v>
       </c>
@@ -1017,7 +955,7 @@
         <v>32.78</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6">
       <c r="A14" t="s">
         <v>18</v>
       </c>
@@ -1034,10 +972,10 @@
         <v>16872</v>
       </c>
       <c r="F14">
-        <v>32.659999999999997</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+        <v>32.66</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" t="s">
         <v>19</v>
       </c>
@@ -1057,7 +995,7 @@
         <v>32.5</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6">
       <c r="A16" t="s">
         <v>20</v>
       </c>
@@ -1077,7 +1015,7 @@
         <v>32.36</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6">
       <c r="A17" t="s">
         <v>21</v>
       </c>
@@ -1097,7 +1035,7 @@
         <v>32.29</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6">
       <c r="A18" t="s">
         <v>22</v>
       </c>
@@ -1117,7 +1055,7 @@
         <v>32.06</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6">
       <c r="A19" t="s">
         <v>23</v>
       </c>
@@ -1137,7 +1075,7 @@
         <v>31.86</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6">
       <c r="A20" t="s">
         <v>24</v>
       </c>
@@ -1157,7 +1095,7 @@
         <v>31.72</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6">
       <c r="A21" t="s">
         <v>25</v>
       </c>
@@ -1177,7 +1115,7 @@
         <v>31.46</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6">
       <c r="A22" t="s">
         <v>26</v>
       </c>
@@ -1197,7 +1135,7 @@
         <v>31.61</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6">
       <c r="A23" t="s">
         <v>27</v>
       </c>
@@ -1217,7 +1155,7 @@
         <v>31.69</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6">
       <c r="A24" t="s">
         <v>28</v>
       </c>
@@ -1237,7 +1175,7 @@
         <v>31.6</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6">
       <c r="A25" t="s">
         <v>29</v>
       </c>
@@ -1257,7 +1195,7 @@
         <v>31.58</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6">
       <c r="A26" t="s">
         <v>30</v>
       </c>
@@ -1277,7 +1215,7 @@
         <v>31.46</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6">
       <c r="A27" t="s">
         <v>31</v>
       </c>
@@ -1297,7 +1235,7 @@
         <v>31.37</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6">
       <c r="A28" t="s">
         <v>32</v>
       </c>
@@ -1317,7 +1255,7 @@
         <v>31.24</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6">
       <c r="A29" t="s">
         <v>33</v>
       </c>
@@ -1337,7 +1275,7 @@
         <v>31.11</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6">
       <c r="A30" t="s">
         <v>34</v>
       </c>
@@ -1357,7 +1295,7 @@
         <v>30.95</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6">
       <c r="A31" t="s">
         <v>35</v>
       </c>
@@ -1377,7 +1315,7 @@
         <v>30.78</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:6">
       <c r="A32" t="s">
         <v>36</v>
       </c>
@@ -1397,7 +1335,7 @@
         <v>30.73</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6">
       <c r="A33" t="s">
         <v>37</v>
       </c>
@@ -1417,7 +1355,7 @@
         <v>30.52</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:6">
       <c r="A34" t="s">
         <v>38</v>
       </c>
@@ -1437,7 +1375,7 @@
         <v>30.35</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:6">
       <c r="A35" t="s">
         <v>39</v>
       </c>
@@ -1457,7 +1395,7 @@
         <v>30.18</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:6">
       <c r="A36" t="s">
         <v>40</v>
       </c>
@@ -1477,7 +1415,7 @@
         <v>30.02</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:6">
       <c r="A37" t="s">
         <v>41</v>
       </c>
@@ -1497,7 +1435,7 @@
         <v>29.94</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:6">
       <c r="A38" t="s">
         <v>42</v>
       </c>
@@ -1517,7 +1455,7 @@
         <v>29.89</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:6">
       <c r="A39" t="s">
         <v>43</v>
       </c>
@@ -1537,7 +1475,7 @@
         <v>29.78</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:6">
       <c r="A40" t="s">
         <v>44</v>
       </c>
@@ -1557,7 +1495,7 @@
         <v>29.67</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:6">
       <c r="A41" t="s">
         <v>45</v>
       </c>
@@ -1577,7 +1515,7 @@
         <v>29.5</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:6">
       <c r="A42" t="s">
         <v>46</v>
       </c>
@@ -1597,7 +1535,7 @@
         <v>29.33</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:6">
       <c r="A43" t="s">
         <v>47</v>
       </c>
@@ -1617,7 +1555,7 @@
         <v>29.25</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:6">
       <c r="A44" t="s">
         <v>48</v>
       </c>
@@ -1637,7 +1575,7 @@
         <v>29.21</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:6">
       <c r="A45" t="s">
         <v>49</v>
       </c>
@@ -1657,7 +1595,7 @@
         <v>29.12</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:6">
       <c r="A46" t="s">
         <v>50</v>
       </c>
@@ -1677,7 +1615,7 @@
         <v>29.05</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:6">
       <c r="A47" t="s">
         <v>51</v>
       </c>
@@ -1697,7 +1635,7 @@
         <v>28.95</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:6">
       <c r="A48" t="s">
         <v>52</v>
       </c>
@@ -1717,7 +1655,7 @@
         <v>28.81</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:6">
       <c r="A49" t="s">
         <v>53</v>
       </c>
@@ -1737,7 +1675,7 @@
         <v>28.66</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:6">
       <c r="A50" t="s">
         <v>54</v>
       </c>
@@ -1757,7 +1695,7 @@
         <v>28.55</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:6">
       <c r="A51" t="s">
         <v>55</v>
       </c>
@@ -1777,7 +1715,7 @@
         <v>28.43</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:6">
       <c r="A52" t="s">
         <v>56</v>
       </c>
@@ -1797,7 +1735,7 @@
         <v>28.33</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:6">
       <c r="A53" t="s">
         <v>57</v>
       </c>
@@ -1817,7 +1755,7 @@
         <v>28.24</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:6">
       <c r="A54" t="s">
         <v>58</v>
       </c>
@@ -1837,7 +1775,7 @@
         <v>28.12</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:6">
       <c r="A55" t="s">
         <v>59</v>
       </c>
@@ -1857,7 +1795,7 @@
         <v>27.97</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:6">
       <c r="A56" t="s">
         <v>60</v>
       </c>
@@ -1877,7 +1815,7 @@
         <v>27.89</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:6">
       <c r="A57" t="s">
         <v>61</v>
       </c>
@@ -1897,7 +1835,7 @@
         <v>27.78</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:6">
       <c r="A58" t="s">
         <v>62</v>
       </c>
@@ -1917,7 +1855,7 @@
         <v>27.72</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:6">
       <c r="A59" t="s">
         <v>63</v>
       </c>
@@ -1937,7 +1875,7 @@
         <v>27.63</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:6">
       <c r="A60" t="s">
         <v>64</v>
       </c>
@@ -1957,7 +1895,7 @@
         <v>27.52</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:6">
       <c r="A61" t="s">
         <v>65</v>
       </c>
@@ -1977,7 +1915,7 @@
         <v>27.38</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:6">
       <c r="A62" t="s">
         <v>66</v>
       </c>
@@ -1997,7 +1935,7 @@
         <v>27.16</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:6">
       <c r="A63" t="s">
         <v>67</v>
       </c>
@@ -2017,7 +1955,7 @@
         <v>27.02</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:6">
       <c r="A64" t="s">
         <v>68</v>
       </c>
@@ -2037,7 +1975,7 @@
         <v>26.92</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:6">
       <c r="A65" t="s">
         <v>69</v>
       </c>
@@ -2057,7 +1995,7 @@
         <v>26.88</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:6">
       <c r="A66" t="s">
         <v>70</v>
       </c>
@@ -2077,7 +2015,7 @@
         <v>26.86</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:6">
       <c r="A67" t="s">
         <v>71</v>
       </c>
@@ -2097,7 +2035,7 @@
         <v>26.83</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:6">
       <c r="A68" t="s">
         <v>72</v>
       </c>
@@ -2117,7 +2055,7 @@
         <v>26.8</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:6">
       <c r="A69" t="s">
         <v>73</v>
       </c>
@@ -2137,7 +2075,7 @@
         <v>26.74</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:6">
       <c r="A70" t="s">
         <v>74</v>
       </c>
@@ -2157,7 +2095,7 @@
         <v>26.67</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:6">
       <c r="A71" t="s">
         <v>75</v>
       </c>
@@ -2177,7 +2115,7 @@
         <v>26.61</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:6">
       <c r="A72" t="s">
         <v>76</v>
       </c>
@@ -2197,7 +2135,7 @@
         <v>26.56</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:6">
       <c r="A73" t="s">
         <v>77</v>
       </c>
@@ -2217,7 +2155,7 @@
         <v>26.51</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:6">
       <c r="A74" t="s">
         <v>78</v>
       </c>
@@ -2237,7 +2175,7 @@
         <v>26.49</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:6">
       <c r="A75" t="s">
         <v>79</v>
       </c>
@@ -2257,7 +2195,7 @@
         <v>26.39</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:6">
       <c r="A76" t="s">
         <v>80</v>
       </c>
@@ -2277,7 +2215,7 @@
         <v>26.33</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:6">
       <c r="A77" t="s">
         <v>81</v>
       </c>
@@ -2297,7 +2235,7 @@
         <v>26.25</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:6">
       <c r="A78" t="s">
         <v>82</v>
       </c>
@@ -2317,7 +2255,7 @@
         <v>26.21</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:6">
       <c r="A79" t="s">
         <v>83</v>
       </c>
@@ -2337,7 +2275,7 @@
         <v>26.17</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:6">
       <c r="A80" t="s">
         <v>84</v>
       </c>
@@ -2357,7 +2295,7 @@
         <v>26.15</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:6">
       <c r="A81" t="s">
         <v>85</v>
       </c>
@@ -2377,7 +2315,7 @@
         <v>26.09</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:6">
       <c r="A82" t="s">
         <v>86</v>
       </c>
@@ -2397,7 +2335,7 @@
         <v>26.02</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:6">
       <c r="A83" t="s">
         <v>87</v>
       </c>
@@ -2417,7 +2355,7 @@
         <v>25.9</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:6">
       <c r="A84" t="s">
         <v>88</v>
       </c>
@@ -2437,7 +2375,7 @@
         <v>25.86</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:6">
       <c r="A85" t="s">
         <v>89</v>
       </c>
@@ -2457,7 +2395,7 @@
         <v>25.81</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:6">
       <c r="A86" t="s">
         <v>90</v>
       </c>
@@ -2477,7 +2415,7 @@
         <v>25.81</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:6">
       <c r="A87" t="s">
         <v>91</v>
       </c>
@@ -2497,7 +2435,7 @@
         <v>25.76</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:6">
       <c r="A88" t="s">
         <v>92</v>
       </c>
@@ -2517,7 +2455,7 @@
         <v>25.7</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:6">
       <c r="A89" t="s">
         <v>93</v>
       </c>
@@ -2537,7 +2475,7 @@
         <v>25.64</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:6">
       <c r="A90" t="s">
         <v>94</v>
       </c>
@@ -2557,7 +2495,7 @@
         <v>25.57</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:6">
       <c r="A91" t="s">
         <v>95</v>
       </c>
@@ -2577,7 +2515,7 @@
         <v>25.50328538207777</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:6">
       <c r="A92" t="s">
         <v>96</v>
       </c>
@@ -2597,7 +2535,7 @@
         <v>25.46</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:6">
       <c r="A93" t="s">
         <v>97</v>
       </c>
@@ -2617,7 +2555,7 @@
         <v>25.42</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:6">
       <c r="A94" t="s">
         <v>98</v>
       </c>
@@ -2637,7 +2575,7 @@
         <v>25.36</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:6">
       <c r="A95" t="s">
         <v>99</v>
       </c>
@@ -2657,7 +2595,7 @@
         <v>25.32</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:6">
       <c r="A96" t="s">
         <v>100</v>
       </c>
@@ -2677,7 +2615,7 @@
         <v>25.25</v>
       </c>
     </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:6">
       <c r="A97" t="s">
         <v>101</v>
       </c>
@@ -2697,7 +2635,7 @@
         <v>25.17</v>
       </c>
     </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:6">
       <c r="A98" t="s">
         <v>102</v>
       </c>
@@ -2717,9 +2655,9 @@
         <v>25.06</v>
       </c>
     </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:6">
       <c r="A99" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B99">
         <v>634023</v>
@@ -2737,9 +2675,9 @@
         <v>25</v>
       </c>
     </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:6">
       <c r="A100" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B100">
         <v>637509</v>
@@ -2757,14 +2695,27 @@
         <v>24.98</v>
       </c>
     </row>
-    <row r="106" spans="1:12" ht="18" x14ac:dyDescent="0.2">
-      <c r="I106" s="2"/>
-      <c r="J106" s="2"/>
-      <c r="K106" s="2"/>
-      <c r="L106" s="2"/>
+    <row r="101" spans="1:6">
+      <c r="A101" t="s">
+        <v>105</v>
+      </c>
+      <c r="B101">
+        <v>642860</v>
+      </c>
+      <c r="C101">
+        <v>727817</v>
+      </c>
+      <c r="D101">
+        <v>79720</v>
+      </c>
+      <c r="E101">
+        <v>68484</v>
+      </c>
+      <c r="F101">
+        <v>24.93</v>
+      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/data-validation/bitacora_historica_tablero_oficial.xlsx
+++ b/data-validation/bitacora_historica_tablero_oficial.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="107">
   <si>
     <t>Fecha</t>
   </si>
@@ -332,6 +332,9 @@
   </si>
   <si>
     <t>2020-09-08</t>
+  </si>
+  <si>
+    <t>2020-09-09</t>
   </si>
 </sst>
 </file>
@@ -689,7 +692,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F101"/>
+  <dimension ref="A1:F102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2715,6 +2718,26 @@
         <v>24.93</v>
       </c>
     </row>
+    <row r="102" spans="1:6">
+      <c r="A102" t="s">
+        <v>106</v>
+      </c>
+      <c r="B102">
+        <v>647507</v>
+      </c>
+      <c r="C102">
+        <v>734649</v>
+      </c>
+      <c r="D102">
+        <v>83537</v>
+      </c>
+      <c r="E102">
+        <v>69095</v>
+      </c>
+      <c r="F102">
+        <v>24.88</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data-validation/bitacora_historica_tablero_oficial.xlsx
+++ b/data-validation/bitacora_historica_tablero_oficial.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>Fecha</t>
   </si>
@@ -335,6 +335,9 @@
   </si>
   <si>
     <t>2020-09-09</t>
+  </si>
+  <si>
+    <t>2020-09-10</t>
   </si>
 </sst>
 </file>
@@ -692,7 +695,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F102"/>
+  <dimension ref="A1:F103"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2738,6 +2741,26 @@
         <v>24.88</v>
       </c>
     </row>
+    <row r="103" spans="1:6">
+      <c r="A103" t="s">
+        <v>107</v>
+      </c>
+      <c r="B103">
+        <v>652364</v>
+      </c>
+      <c r="C103">
+        <v>742268</v>
+      </c>
+      <c r="D103">
+        <v>86270</v>
+      </c>
+      <c r="E103">
+        <v>69649</v>
+      </c>
+      <c r="F103">
+        <v>24.81</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data-validation/bitacora_historica_tablero_oficial.xlsx
+++ b/data-validation/bitacora_historica_tablero_oficial.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10810"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marianafernandez/Documents/COSMO/covid19-mx-data/data-validation/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B07680CB-C4D5-5F44-95DC-D372D0E091DE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="out_vars" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="111">
   <si>
     <t>Fecha</t>
   </si>
@@ -338,15 +344,31 @@
   </si>
   <si>
     <t>2020-09-10</t>
+  </si>
+  <si>
+    <t>2020-09-11</t>
+  </si>
+  <si>
+    <t>2020-09-12</t>
+  </si>
+  <si>
+    <t>2020-09-13</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -356,6 +378,12 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -393,25 +421,40 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+      <alignment wrapText="1"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="XLConnect.Numeric" xfId="1" xr:uid="{C21FBB16-ED5E-C343-A0B5-6D5B357B37DB}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -453,7 +496,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -485,9 +528,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -519,6 +580,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -694,14 +773,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F103"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F106"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A71" workbookViewId="0">
+      <selection activeCell="I89" sqref="I89"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -721,7 +802,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -741,7 +822,7 @@
         <v>34.9</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -758,10 +839,10 @@
         <v>10637</v>
       </c>
       <c r="F3">
-        <v>34.59</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>34.590000000000003</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -778,10 +859,10 @@
         <v>11728</v>
       </c>
       <c r="F4">
-        <v>34.45</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>34.450000000000003</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -801,7 +882,7 @@
         <v>34.24</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -821,7 +902,7 @@
         <v>34.03</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -841,7 +922,7 @@
         <v>33.72</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -858,10 +939,10 @@
         <v>13699</v>
       </c>
       <c r="F8">
-        <v>33.48</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>33.479999999999997</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>13</v>
       </c>
@@ -881,7 +962,7 @@
         <v>33.32</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>14</v>
       </c>
@@ -901,7 +982,7 @@
         <v>33.21</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>15</v>
       </c>
@@ -921,7 +1002,7 @@
         <v>33.11</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>16</v>
       </c>
@@ -941,7 +1022,7 @@
         <v>33.01</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>17</v>
       </c>
@@ -961,7 +1042,7 @@
         <v>32.78</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>18</v>
       </c>
@@ -978,10 +1059,10 @@
         <v>16872</v>
       </c>
       <c r="F14">
-        <v>32.66</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+        <v>32.659999999999997</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>19</v>
       </c>
@@ -1001,7 +1082,7 @@
         <v>32.5</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>20</v>
       </c>
@@ -1021,7 +1102,7 @@
         <v>32.36</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>21</v>
       </c>
@@ -1041,7 +1122,7 @@
         <v>32.29</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>22</v>
       </c>
@@ -1061,7 +1142,7 @@
         <v>32.06</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>23</v>
       </c>
@@ -1081,7 +1162,7 @@
         <v>31.86</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>24</v>
       </c>
@@ -1101,7 +1182,7 @@
         <v>31.72</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>25</v>
       </c>
@@ -1121,7 +1202,7 @@
         <v>31.46</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>26</v>
       </c>
@@ -1141,7 +1222,7 @@
         <v>31.61</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>27</v>
       </c>
@@ -1161,7 +1242,7 @@
         <v>31.69</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>28</v>
       </c>
@@ -1181,7 +1262,7 @@
         <v>31.6</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>29</v>
       </c>
@@ -1201,7 +1282,7 @@
         <v>31.58</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>30</v>
       </c>
@@ -1221,7 +1302,7 @@
         <v>31.46</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>31</v>
       </c>
@@ -1241,7 +1322,7 @@
         <v>31.37</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>32</v>
       </c>
@@ -1261,7 +1342,7 @@
         <v>31.24</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>33</v>
       </c>
@@ -1281,7 +1362,7 @@
         <v>31.11</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>34</v>
       </c>
@@ -1301,7 +1382,7 @@
         <v>30.95</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>35</v>
       </c>
@@ -1321,7 +1402,7 @@
         <v>30.78</v>
       </c>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>36</v>
       </c>
@@ -1341,7 +1422,7 @@
         <v>30.73</v>
       </c>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>37</v>
       </c>
@@ -1361,7 +1442,7 @@
         <v>30.52</v>
       </c>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>38</v>
       </c>
@@ -1381,7 +1462,7 @@
         <v>30.35</v>
       </c>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>39</v>
       </c>
@@ -1401,7 +1482,7 @@
         <v>30.18</v>
       </c>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>40</v>
       </c>
@@ -1421,7 +1502,7 @@
         <v>30.02</v>
       </c>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>41</v>
       </c>
@@ -1441,7 +1522,7 @@
         <v>29.94</v>
       </c>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>42</v>
       </c>
@@ -1461,7 +1542,7 @@
         <v>29.89</v>
       </c>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>43</v>
       </c>
@@ -1481,7 +1562,7 @@
         <v>29.78</v>
       </c>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>44</v>
       </c>
@@ -1501,7 +1582,7 @@
         <v>29.67</v>
       </c>
     </row>
-    <row r="41" spans="1:6">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>45</v>
       </c>
@@ -1521,7 +1602,7 @@
         <v>29.5</v>
       </c>
     </row>
-    <row r="42" spans="1:6">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>46</v>
       </c>
@@ -1541,7 +1622,7 @@
         <v>29.33</v>
       </c>
     </row>
-    <row r="43" spans="1:6">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>47</v>
       </c>
@@ -1561,7 +1642,7 @@
         <v>29.25</v>
       </c>
     </row>
-    <row r="44" spans="1:6">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>48</v>
       </c>
@@ -1581,7 +1662,7 @@
         <v>29.21</v>
       </c>
     </row>
-    <row r="45" spans="1:6">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>49</v>
       </c>
@@ -1601,7 +1682,7 @@
         <v>29.12</v>
       </c>
     </row>
-    <row r="46" spans="1:6">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>50</v>
       </c>
@@ -1621,7 +1702,7 @@
         <v>29.05</v>
       </c>
     </row>
-    <row r="47" spans="1:6">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>51</v>
       </c>
@@ -1641,7 +1722,7 @@
         <v>28.95</v>
       </c>
     </row>
-    <row r="48" spans="1:6">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>52</v>
       </c>
@@ -1661,7 +1742,7 @@
         <v>28.81</v>
       </c>
     </row>
-    <row r="49" spans="1:6">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>53</v>
       </c>
@@ -1681,7 +1762,7 @@
         <v>28.66</v>
       </c>
     </row>
-    <row r="50" spans="1:6">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>54</v>
       </c>
@@ -1701,7 +1782,7 @@
         <v>28.55</v>
       </c>
     </row>
-    <row r="51" spans="1:6">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>55</v>
       </c>
@@ -1721,7 +1802,7 @@
         <v>28.43</v>
       </c>
     </row>
-    <row r="52" spans="1:6">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>56</v>
       </c>
@@ -1741,7 +1822,7 @@
         <v>28.33</v>
       </c>
     </row>
-    <row r="53" spans="1:6">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>57</v>
       </c>
@@ -1761,7 +1842,7 @@
         <v>28.24</v>
       </c>
     </row>
-    <row r="54" spans="1:6">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>58</v>
       </c>
@@ -1781,7 +1862,7 @@
         <v>28.12</v>
       </c>
     </row>
-    <row r="55" spans="1:6">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>59</v>
       </c>
@@ -1801,7 +1882,7 @@
         <v>27.97</v>
       </c>
     </row>
-    <row r="56" spans="1:6">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>60</v>
       </c>
@@ -1821,7 +1902,7 @@
         <v>27.89</v>
       </c>
     </row>
-    <row r="57" spans="1:6">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>61</v>
       </c>
@@ -1841,7 +1922,7 @@
         <v>27.78</v>
       </c>
     </row>
-    <row r="58" spans="1:6">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>62</v>
       </c>
@@ -1861,7 +1942,7 @@
         <v>27.72</v>
       </c>
     </row>
-    <row r="59" spans="1:6">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>63</v>
       </c>
@@ -1881,7 +1962,7 @@
         <v>27.63</v>
       </c>
     </row>
-    <row r="60" spans="1:6">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>64</v>
       </c>
@@ -1901,7 +1982,7 @@
         <v>27.52</v>
       </c>
     </row>
-    <row r="61" spans="1:6">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>65</v>
       </c>
@@ -1921,7 +2002,7 @@
         <v>27.38</v>
       </c>
     </row>
-    <row r="62" spans="1:6">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>66</v>
       </c>
@@ -1941,7 +2022,7 @@
         <v>27.16</v>
       </c>
     </row>
-    <row r="63" spans="1:6">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>67</v>
       </c>
@@ -1961,7 +2042,7 @@
         <v>27.02</v>
       </c>
     </row>
-    <row r="64" spans="1:6">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>68</v>
       </c>
@@ -1981,7 +2062,7 @@
         <v>26.92</v>
       </c>
     </row>
-    <row r="65" spans="1:6">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>69</v>
       </c>
@@ -2001,7 +2082,7 @@
         <v>26.88</v>
       </c>
     </row>
-    <row r="66" spans="1:6">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>70</v>
       </c>
@@ -2021,7 +2102,7 @@
         <v>26.86</v>
       </c>
     </row>
-    <row r="67" spans="1:6">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>71</v>
       </c>
@@ -2041,7 +2122,7 @@
         <v>26.83</v>
       </c>
     </row>
-    <row r="68" spans="1:6">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>72</v>
       </c>
@@ -2061,7 +2142,7 @@
         <v>26.8</v>
       </c>
     </row>
-    <row r="69" spans="1:6">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>73</v>
       </c>
@@ -2081,7 +2162,7 @@
         <v>26.74</v>
       </c>
     </row>
-    <row r="70" spans="1:6">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>74</v>
       </c>
@@ -2101,7 +2182,7 @@
         <v>26.67</v>
       </c>
     </row>
-    <row r="71" spans="1:6">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>75</v>
       </c>
@@ -2121,7 +2202,7 @@
         <v>26.61</v>
       </c>
     </row>
-    <row r="72" spans="1:6">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>76</v>
       </c>
@@ -2141,7 +2222,7 @@
         <v>26.56</v>
       </c>
     </row>
-    <row r="73" spans="1:6">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>77</v>
       </c>
@@ -2161,7 +2242,7 @@
         <v>26.51</v>
       </c>
     </row>
-    <row r="74" spans="1:6">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>78</v>
       </c>
@@ -2181,7 +2262,7 @@
         <v>26.49</v>
       </c>
     </row>
-    <row r="75" spans="1:6">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>79</v>
       </c>
@@ -2201,7 +2282,7 @@
         <v>26.39</v>
       </c>
     </row>
-    <row r="76" spans="1:6">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>80</v>
       </c>
@@ -2221,7 +2302,7 @@
         <v>26.33</v>
       </c>
     </row>
-    <row r="77" spans="1:6">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>81</v>
       </c>
@@ -2241,7 +2322,7 @@
         <v>26.25</v>
       </c>
     </row>
-    <row r="78" spans="1:6">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>82</v>
       </c>
@@ -2261,7 +2342,7 @@
         <v>26.21</v>
       </c>
     </row>
-    <row r="79" spans="1:6">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>83</v>
       </c>
@@ -2281,7 +2362,7 @@
         <v>26.17</v>
       </c>
     </row>
-    <row r="80" spans="1:6">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>84</v>
       </c>
@@ -2301,7 +2382,7 @@
         <v>26.15</v>
       </c>
     </row>
-    <row r="81" spans="1:6">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>85</v>
       </c>
@@ -2321,7 +2402,7 @@
         <v>26.09</v>
       </c>
     </row>
-    <row r="82" spans="1:6">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>86</v>
       </c>
@@ -2341,7 +2422,7 @@
         <v>26.02</v>
       </c>
     </row>
-    <row r="83" spans="1:6">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>87</v>
       </c>
@@ -2361,7 +2442,7 @@
         <v>25.9</v>
       </c>
     </row>
-    <row r="84" spans="1:6">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>88</v>
       </c>
@@ -2381,7 +2462,7 @@
         <v>25.86</v>
       </c>
     </row>
-    <row r="85" spans="1:6">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>89</v>
       </c>
@@ -2401,7 +2482,7 @@
         <v>25.81</v>
       </c>
     </row>
-    <row r="86" spans="1:6">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>90</v>
       </c>
@@ -2421,7 +2502,7 @@
         <v>25.81</v>
       </c>
     </row>
-    <row r="87" spans="1:6">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>91</v>
       </c>
@@ -2441,7 +2522,7 @@
         <v>25.76</v>
       </c>
     </row>
-    <row r="88" spans="1:6">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>92</v>
       </c>
@@ -2461,7 +2542,7 @@
         <v>25.7</v>
       </c>
     </row>
-    <row r="89" spans="1:6">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>93</v>
       </c>
@@ -2481,7 +2562,7 @@
         <v>25.64</v>
       </c>
     </row>
-    <row r="90" spans="1:6">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>94</v>
       </c>
@@ -2501,7 +2582,7 @@
         <v>25.57</v>
       </c>
     </row>
-    <row r="91" spans="1:6">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>95</v>
       </c>
@@ -2521,7 +2602,7 @@
         <v>25.50328538207777</v>
       </c>
     </row>
-    <row r="92" spans="1:6">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>96</v>
       </c>
@@ -2541,7 +2622,7 @@
         <v>25.46</v>
       </c>
     </row>
-    <row r="93" spans="1:6">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>97</v>
       </c>
@@ -2561,7 +2642,7 @@
         <v>25.42</v>
       </c>
     </row>
-    <row r="94" spans="1:6">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>98</v>
       </c>
@@ -2581,7 +2662,7 @@
         <v>25.36</v>
       </c>
     </row>
-    <row r="95" spans="1:6">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>99</v>
       </c>
@@ -2601,7 +2682,7 @@
         <v>25.32</v>
       </c>
     </row>
-    <row r="96" spans="1:6">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>100</v>
       </c>
@@ -2621,7 +2702,7 @@
         <v>25.25</v>
       </c>
     </row>
-    <row r="97" spans="1:6">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>101</v>
       </c>
@@ -2641,7 +2722,7 @@
         <v>25.17</v>
       </c>
     </row>
-    <row r="98" spans="1:6">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>102</v>
       </c>
@@ -2661,7 +2742,7 @@
         <v>25.06</v>
       </c>
     </row>
-    <row r="99" spans="1:6">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>103</v>
       </c>
@@ -2681,7 +2762,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="100" spans="1:6">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>104</v>
       </c>
@@ -2701,7 +2782,7 @@
         <v>24.98</v>
       </c>
     </row>
-    <row r="101" spans="1:6">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>105</v>
       </c>
@@ -2721,7 +2802,7 @@
         <v>24.93</v>
       </c>
     </row>
-    <row r="102" spans="1:6">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>106</v>
       </c>
@@ -2741,7 +2822,7 @@
         <v>24.88</v>
       </c>
     </row>
-    <row r="103" spans="1:6">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>107</v>
       </c>
@@ -2761,7 +2842,68 @@
         <v>24.81</v>
       </c>
     </row>
+    <row r="104" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A104" t="s">
+        <v>108</v>
+      </c>
+      <c r="B104" s="2">
+        <v>658299</v>
+      </c>
+      <c r="C104" s="2">
+        <v>750813</v>
+      </c>
+      <c r="D104" s="2">
+        <v>87210</v>
+      </c>
+      <c r="E104" s="2">
+        <v>70183</v>
+      </c>
+      <c r="F104" s="2">
+        <v>24.73</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A105" t="s">
+        <v>109</v>
+      </c>
+      <c r="B105" s="2">
+        <v>663973</v>
+      </c>
+      <c r="C105" s="2">
+        <v>759188</v>
+      </c>
+      <c r="D105" s="2">
+        <v>87150</v>
+      </c>
+      <c r="E105" s="2">
+        <v>70604</v>
+      </c>
+      <c r="F105" s="2">
+        <v>24.67</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A106" t="s">
+        <v>110</v>
+      </c>
+      <c r="B106" s="2">
+        <v>668381</v>
+      </c>
+      <c r="C106" s="2">
+        <v>765337</v>
+      </c>
+      <c r="D106" s="2">
+        <v>82870</v>
+      </c>
+      <c r="E106" s="2">
+        <v>70821</v>
+      </c>
+      <c r="F106" s="2">
+        <v>24.59</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/data-validation/bitacora_historica_tablero_oficial.xlsx
+++ b/data-validation/bitacora_historica_tablero_oficial.xlsx
@@ -1,26 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10810"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marianafernandez/Documents/COSMO/covid19-mx-data/data-validation/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B07680CB-C4D5-5F44-95DC-D372D0E091DE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="out_vars" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="112">
   <si>
     <t>Fecha</t>
   </si>
@@ -353,22 +347,18 @@
   </si>
   <si>
     <t>2020-09-13</t>
+  </si>
+  <si>
+    <t>2020-09-14</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -378,12 +368,6 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -421,40 +405,25 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
-      <alignment wrapText="1"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1">
-      <alignment wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="XLConnect.Numeric" xfId="1" xr:uid="{C21FBB16-ED5E-C343-A0B5-6D5B357B37DB}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -496,7 +465,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -528,27 +497,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -580,24 +531,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -773,16 +706,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F106"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A71" workbookViewId="0">
-      <selection activeCell="I89" sqref="I89"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -802,7 +733,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -822,7 +753,7 @@
         <v>34.9</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -839,10 +770,10 @@
         <v>10637</v>
       </c>
       <c r="F3">
-        <v>34.590000000000003</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+        <v>34.59</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -859,10 +790,10 @@
         <v>11728</v>
       </c>
       <c r="F4">
-        <v>34.450000000000003</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+        <v>34.45</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -882,7 +813,7 @@
         <v>34.24</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -902,7 +833,7 @@
         <v>34.03</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -922,7 +853,7 @@
         <v>33.72</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -939,10 +870,10 @@
         <v>13699</v>
       </c>
       <c r="F8">
-        <v>33.479999999999997</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+        <v>33.48</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" t="s">
         <v>13</v>
       </c>
@@ -962,7 +893,7 @@
         <v>33.32</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6">
       <c r="A10" t="s">
         <v>14</v>
       </c>
@@ -982,7 +913,7 @@
         <v>33.21</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6">
       <c r="A11" t="s">
         <v>15</v>
       </c>
@@ -1002,7 +933,7 @@
         <v>33.11</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6">
       <c r="A12" t="s">
         <v>16</v>
       </c>
@@ -1022,7 +953,7 @@
         <v>33.01</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6">
       <c r="A13" t="s">
         <v>17</v>
       </c>
@@ -1042,7 +973,7 @@
         <v>32.78</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6">
       <c r="A14" t="s">
         <v>18</v>
       </c>
@@ -1059,10 +990,10 @@
         <v>16872</v>
       </c>
       <c r="F14">
-        <v>32.659999999999997</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+        <v>32.66</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" t="s">
         <v>19</v>
       </c>
@@ -1082,7 +1013,7 @@
         <v>32.5</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6">
       <c r="A16" t="s">
         <v>20</v>
       </c>
@@ -1102,7 +1033,7 @@
         <v>32.36</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6">
       <c r="A17" t="s">
         <v>21</v>
       </c>
@@ -1122,7 +1053,7 @@
         <v>32.29</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6">
       <c r="A18" t="s">
         <v>22</v>
       </c>
@@ -1142,7 +1073,7 @@
         <v>32.06</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6">
       <c r="A19" t="s">
         <v>23</v>
       </c>
@@ -1162,7 +1093,7 @@
         <v>31.86</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6">
       <c r="A20" t="s">
         <v>24</v>
       </c>
@@ -1182,7 +1113,7 @@
         <v>31.72</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6">
       <c r="A21" t="s">
         <v>25</v>
       </c>
@@ -1202,7 +1133,7 @@
         <v>31.46</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6">
       <c r="A22" t="s">
         <v>26</v>
       </c>
@@ -1222,7 +1153,7 @@
         <v>31.61</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6">
       <c r="A23" t="s">
         <v>27</v>
       </c>
@@ -1242,7 +1173,7 @@
         <v>31.69</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6">
       <c r="A24" t="s">
         <v>28</v>
       </c>
@@ -1262,7 +1193,7 @@
         <v>31.6</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6">
       <c r="A25" t="s">
         <v>29</v>
       </c>
@@ -1282,7 +1213,7 @@
         <v>31.58</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6">
       <c r="A26" t="s">
         <v>30</v>
       </c>
@@ -1302,7 +1233,7 @@
         <v>31.46</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6">
       <c r="A27" t="s">
         <v>31</v>
       </c>
@@ -1322,7 +1253,7 @@
         <v>31.37</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6">
       <c r="A28" t="s">
         <v>32</v>
       </c>
@@ -1342,7 +1273,7 @@
         <v>31.24</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6">
       <c r="A29" t="s">
         <v>33</v>
       </c>
@@ -1362,7 +1293,7 @@
         <v>31.11</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6">
       <c r="A30" t="s">
         <v>34</v>
       </c>
@@ -1382,7 +1313,7 @@
         <v>30.95</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6">
       <c r="A31" t="s">
         <v>35</v>
       </c>
@@ -1402,7 +1333,7 @@
         <v>30.78</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:6">
       <c r="A32" t="s">
         <v>36</v>
       </c>
@@ -1422,7 +1353,7 @@
         <v>30.73</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6">
       <c r="A33" t="s">
         <v>37</v>
       </c>
@@ -1442,7 +1373,7 @@
         <v>30.52</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:6">
       <c r="A34" t="s">
         <v>38</v>
       </c>
@@ -1462,7 +1393,7 @@
         <v>30.35</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:6">
       <c r="A35" t="s">
         <v>39</v>
       </c>
@@ -1482,7 +1413,7 @@
         <v>30.18</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:6">
       <c r="A36" t="s">
         <v>40</v>
       </c>
@@ -1502,7 +1433,7 @@
         <v>30.02</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:6">
       <c r="A37" t="s">
         <v>41</v>
       </c>
@@ -1522,7 +1453,7 @@
         <v>29.94</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:6">
       <c r="A38" t="s">
         <v>42</v>
       </c>
@@ -1542,7 +1473,7 @@
         <v>29.89</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:6">
       <c r="A39" t="s">
         <v>43</v>
       </c>
@@ -1562,7 +1493,7 @@
         <v>29.78</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:6">
       <c r="A40" t="s">
         <v>44</v>
       </c>
@@ -1582,7 +1513,7 @@
         <v>29.67</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:6">
       <c r="A41" t="s">
         <v>45</v>
       </c>
@@ -1602,7 +1533,7 @@
         <v>29.5</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:6">
       <c r="A42" t="s">
         <v>46</v>
       </c>
@@ -1622,7 +1553,7 @@
         <v>29.33</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:6">
       <c r="A43" t="s">
         <v>47</v>
       </c>
@@ -1642,7 +1573,7 @@
         <v>29.25</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:6">
       <c r="A44" t="s">
         <v>48</v>
       </c>
@@ -1662,7 +1593,7 @@
         <v>29.21</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:6">
       <c r="A45" t="s">
         <v>49</v>
       </c>
@@ -1682,7 +1613,7 @@
         <v>29.12</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:6">
       <c r="A46" t="s">
         <v>50</v>
       </c>
@@ -1702,7 +1633,7 @@
         <v>29.05</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:6">
       <c r="A47" t="s">
         <v>51</v>
       </c>
@@ -1722,7 +1653,7 @@
         <v>28.95</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:6">
       <c r="A48" t="s">
         <v>52</v>
       </c>
@@ -1742,7 +1673,7 @@
         <v>28.81</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:6">
       <c r="A49" t="s">
         <v>53</v>
       </c>
@@ -1762,7 +1693,7 @@
         <v>28.66</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:6">
       <c r="A50" t="s">
         <v>54</v>
       </c>
@@ -1782,7 +1713,7 @@
         <v>28.55</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:6">
       <c r="A51" t="s">
         <v>55</v>
       </c>
@@ -1802,7 +1733,7 @@
         <v>28.43</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:6">
       <c r="A52" t="s">
         <v>56</v>
       </c>
@@ -1822,7 +1753,7 @@
         <v>28.33</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:6">
       <c r="A53" t="s">
         <v>57</v>
       </c>
@@ -1842,7 +1773,7 @@
         <v>28.24</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:6">
       <c r="A54" t="s">
         <v>58</v>
       </c>
@@ -1862,7 +1793,7 @@
         <v>28.12</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:6">
       <c r="A55" t="s">
         <v>59</v>
       </c>
@@ -1882,7 +1813,7 @@
         <v>27.97</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:6">
       <c r="A56" t="s">
         <v>60</v>
       </c>
@@ -1902,7 +1833,7 @@
         <v>27.89</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:6">
       <c r="A57" t="s">
         <v>61</v>
       </c>
@@ -1922,7 +1853,7 @@
         <v>27.78</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:6">
       <c r="A58" t="s">
         <v>62</v>
       </c>
@@ -1942,7 +1873,7 @@
         <v>27.72</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:6">
       <c r="A59" t="s">
         <v>63</v>
       </c>
@@ -1962,7 +1893,7 @@
         <v>27.63</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:6">
       <c r="A60" t="s">
         <v>64</v>
       </c>
@@ -1982,7 +1913,7 @@
         <v>27.52</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:6">
       <c r="A61" t="s">
         <v>65</v>
       </c>
@@ -2002,7 +1933,7 @@
         <v>27.38</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:6">
       <c r="A62" t="s">
         <v>66</v>
       </c>
@@ -2022,7 +1953,7 @@
         <v>27.16</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:6">
       <c r="A63" t="s">
         <v>67</v>
       </c>
@@ -2042,7 +1973,7 @@
         <v>27.02</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:6">
       <c r="A64" t="s">
         <v>68</v>
       </c>
@@ -2062,7 +1993,7 @@
         <v>26.92</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:6">
       <c r="A65" t="s">
         <v>69</v>
       </c>
@@ -2082,7 +2013,7 @@
         <v>26.88</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:6">
       <c r="A66" t="s">
         <v>70</v>
       </c>
@@ -2102,7 +2033,7 @@
         <v>26.86</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:6">
       <c r="A67" t="s">
         <v>71</v>
       </c>
@@ -2122,7 +2053,7 @@
         <v>26.83</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:6">
       <c r="A68" t="s">
         <v>72</v>
       </c>
@@ -2142,7 +2073,7 @@
         <v>26.8</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:6">
       <c r="A69" t="s">
         <v>73</v>
       </c>
@@ -2162,7 +2093,7 @@
         <v>26.74</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:6">
       <c r="A70" t="s">
         <v>74</v>
       </c>
@@ -2182,7 +2113,7 @@
         <v>26.67</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:6">
       <c r="A71" t="s">
         <v>75</v>
       </c>
@@ -2202,7 +2133,7 @@
         <v>26.61</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:6">
       <c r="A72" t="s">
         <v>76</v>
       </c>
@@ -2222,7 +2153,7 @@
         <v>26.56</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:6">
       <c r="A73" t="s">
         <v>77</v>
       </c>
@@ -2242,7 +2173,7 @@
         <v>26.51</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:6">
       <c r="A74" t="s">
         <v>78</v>
       </c>
@@ -2262,7 +2193,7 @@
         <v>26.49</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:6">
       <c r="A75" t="s">
         <v>79</v>
       </c>
@@ -2282,7 +2213,7 @@
         <v>26.39</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:6">
       <c r="A76" t="s">
         <v>80</v>
       </c>
@@ -2302,7 +2233,7 @@
         <v>26.33</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:6">
       <c r="A77" t="s">
         <v>81</v>
       </c>
@@ -2322,7 +2253,7 @@
         <v>26.25</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:6">
       <c r="A78" t="s">
         <v>82</v>
       </c>
@@ -2342,7 +2273,7 @@
         <v>26.21</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:6">
       <c r="A79" t="s">
         <v>83</v>
       </c>
@@ -2362,7 +2293,7 @@
         <v>26.17</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:6">
       <c r="A80" t="s">
         <v>84</v>
       </c>
@@ -2382,7 +2313,7 @@
         <v>26.15</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:6">
       <c r="A81" t="s">
         <v>85</v>
       </c>
@@ -2402,7 +2333,7 @@
         <v>26.09</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:6">
       <c r="A82" t="s">
         <v>86</v>
       </c>
@@ -2422,7 +2353,7 @@
         <v>26.02</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:6">
       <c r="A83" t="s">
         <v>87</v>
       </c>
@@ -2442,7 +2373,7 @@
         <v>25.9</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:6">
       <c r="A84" t="s">
         <v>88</v>
       </c>
@@ -2462,7 +2393,7 @@
         <v>25.86</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:6">
       <c r="A85" t="s">
         <v>89</v>
       </c>
@@ -2482,7 +2413,7 @@
         <v>25.81</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:6">
       <c r="A86" t="s">
         <v>90</v>
       </c>
@@ -2502,7 +2433,7 @@
         <v>25.81</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:6">
       <c r="A87" t="s">
         <v>91</v>
       </c>
@@ -2522,7 +2453,7 @@
         <v>25.76</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:6">
       <c r="A88" t="s">
         <v>92</v>
       </c>
@@ -2542,7 +2473,7 @@
         <v>25.7</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:6">
       <c r="A89" t="s">
         <v>93</v>
       </c>
@@ -2562,7 +2493,7 @@
         <v>25.64</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:6">
       <c r="A90" t="s">
         <v>94</v>
       </c>
@@ -2582,7 +2513,7 @@
         <v>25.57</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:6">
       <c r="A91" t="s">
         <v>95</v>
       </c>
@@ -2602,7 +2533,7 @@
         <v>25.50328538207777</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:6">
       <c r="A92" t="s">
         <v>96</v>
       </c>
@@ -2622,7 +2553,7 @@
         <v>25.46</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:6">
       <c r="A93" t="s">
         <v>97</v>
       </c>
@@ -2642,7 +2573,7 @@
         <v>25.42</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:6">
       <c r="A94" t="s">
         <v>98</v>
       </c>
@@ -2662,7 +2593,7 @@
         <v>25.36</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:6">
       <c r="A95" t="s">
         <v>99</v>
       </c>
@@ -2682,7 +2613,7 @@
         <v>25.32</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:6">
       <c r="A96" t="s">
         <v>100</v>
       </c>
@@ -2702,7 +2633,7 @@
         <v>25.25</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:6">
       <c r="A97" t="s">
         <v>101</v>
       </c>
@@ -2722,7 +2653,7 @@
         <v>25.17</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:6">
       <c r="A98" t="s">
         <v>102</v>
       </c>
@@ -2742,7 +2673,7 @@
         <v>25.06</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:6">
       <c r="A99" t="s">
         <v>103</v>
       </c>
@@ -2762,7 +2693,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:6">
       <c r="A100" t="s">
         <v>104</v>
       </c>
@@ -2782,7 +2713,7 @@
         <v>24.98</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:6">
       <c r="A101" t="s">
         <v>105</v>
       </c>
@@ -2802,7 +2733,7 @@
         <v>24.93</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:6">
       <c r="A102" t="s">
         <v>106</v>
       </c>
@@ -2822,7 +2753,7 @@
         <v>24.88</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:6">
       <c r="A103" t="s">
         <v>107</v>
       </c>
@@ -2842,68 +2773,87 @@
         <v>24.81</v>
       </c>
     </row>
-    <row r="104" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:6">
       <c r="A104" t="s">
         <v>108</v>
       </c>
-      <c r="B104" s="2">
+      <c r="B104">
         <v>658299</v>
       </c>
-      <c r="C104" s="2">
+      <c r="C104">
         <v>750813</v>
       </c>
-      <c r="D104" s="2">
+      <c r="D104">
         <v>87210</v>
       </c>
-      <c r="E104" s="2">
+      <c r="E104">
         <v>70183</v>
       </c>
-      <c r="F104" s="2">
+      <c r="F104">
         <v>24.73</v>
       </c>
     </row>
-    <row r="105" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:6">
       <c r="A105" t="s">
         <v>109</v>
       </c>
-      <c r="B105" s="2">
+      <c r="B105">
         <v>663973</v>
       </c>
-      <c r="C105" s="2">
+      <c r="C105">
         <v>759188</v>
       </c>
-      <c r="D105" s="2">
+      <c r="D105">
         <v>87150</v>
       </c>
-      <c r="E105" s="2">
+      <c r="E105">
         <v>70604</v>
       </c>
-      <c r="F105" s="2">
+      <c r="F105">
         <v>24.67</v>
       </c>
     </row>
-    <row r="106" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:6">
       <c r="A106" t="s">
         <v>110</v>
       </c>
-      <c r="B106" s="2">
+      <c r="B106">
         <v>668381</v>
       </c>
-      <c r="C106" s="2">
+      <c r="C106">
         <v>765337</v>
       </c>
-      <c r="D106" s="2">
+      <c r="D106">
         <v>82870</v>
       </c>
-      <c r="E106" s="2">
+      <c r="E106">
         <v>70821</v>
       </c>
-      <c r="F106" s="2">
+      <c r="F106">
         <v>24.59</v>
       </c>
     </row>
+    <row r="107" spans="1:6">
+      <c r="A107" t="s">
+        <v>111</v>
+      </c>
+      <c r="B107">
+        <v>671716</v>
+      </c>
+      <c r="C107">
+        <v>770197</v>
+      </c>
+      <c r="D107">
+        <v>78550</v>
+      </c>
+      <c r="E107">
+        <v>71049</v>
+      </c>
+      <c r="F107">
+        <v>24.57</v>
+      </c>
+    </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/data-validation/bitacora_historica_tablero_oficial.xlsx
+++ b/data-validation/bitacora_historica_tablero_oficial.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="113">
   <si>
     <t>Fecha</t>
   </si>
@@ -350,6 +350,9 @@
   </si>
   <si>
     <t>2020-09-14</t>
+  </si>
+  <si>
+    <t>2020-09-15</t>
   </si>
 </sst>
 </file>
@@ -707,7 +710,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F107"/>
+  <dimension ref="A1:F108"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2853,6 +2856,26 @@
         <v>24.57</v>
       </c>
     </row>
+    <row r="108" spans="1:6">
+      <c r="A108" t="s">
+        <v>112</v>
+      </c>
+      <c r="B108">
+        <v>676487</v>
+      </c>
+      <c r="C108">
+        <v>777715</v>
+      </c>
+      <c r="D108">
+        <v>80407</v>
+      </c>
+      <c r="E108">
+        <v>71678</v>
+      </c>
+      <c r="F108">
+        <v>24.55</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data-validation/bitacora_historica_tablero_oficial.xlsx
+++ b/data-validation/bitacora_historica_tablero_oficial.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="114">
   <si>
     <t>Fecha</t>
   </si>
@@ -353,6 +353,9 @@
   </si>
   <si>
     <t>2020-09-15</t>
+  </si>
+  <si>
+    <t>2020-09-16</t>
   </si>
 </sst>
 </file>
@@ -710,7 +713,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F108"/>
+  <dimension ref="A1:F109"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2876,6 +2879,26 @@
         <v>24.55</v>
       </c>
     </row>
+    <row r="109" spans="1:6">
+      <c r="A109" t="s">
+        <v>113</v>
+      </c>
+      <c r="B109">
+        <v>680931</v>
+      </c>
+      <c r="C109">
+        <v>785019</v>
+      </c>
+      <c r="D109">
+        <v>79622</v>
+      </c>
+      <c r="E109">
+        <v>71978</v>
+      </c>
+      <c r="F109">
+        <v>24.5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data-validation/bitacora_historica_tablero_oficial.xlsx
+++ b/data-validation/bitacora_historica_tablero_oficial.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="115">
   <si>
     <t>Fecha</t>
   </si>
@@ -356,6 +356,9 @@
   </si>
   <si>
     <t>2020-09-16</t>
+  </si>
+  <si>
+    <t>2020-09-17</t>
   </si>
 </sst>
 </file>
@@ -713,7 +716,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F109"/>
+  <dimension ref="A1:F110"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2899,6 +2902,26 @@
         <v>24.5</v>
       </c>
     </row>
+    <row r="110" spans="1:6">
+      <c r="A110" t="s">
+        <v>114</v>
+      </c>
+      <c r="B110">
+        <v>684113</v>
+      </c>
+      <c r="C110">
+        <v>789978</v>
+      </c>
+      <c r="D110">
+        <v>75552</v>
+      </c>
+      <c r="E110">
+        <v>72179</v>
+      </c>
+      <c r="F110">
+        <v>24.48</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data-validation/bitacora_historica_tablero_oficial.xlsx
+++ b/data-validation/bitacora_historica_tablero_oficial.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="116">
   <si>
     <t>Fecha</t>
   </si>
@@ -359,6 +359,9 @@
   </si>
   <si>
     <t>2020-09-17</t>
+  </si>
+  <si>
+    <t>2020-09-18</t>
   </si>
 </sst>
 </file>
@@ -716,7 +719,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F110"/>
+  <dimension ref="A1:F111"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2922,6 +2925,26 @@
         <v>24.48</v>
       </c>
     </row>
+    <row r="111" spans="1:6">
+      <c r="A111" t="s">
+        <v>115</v>
+      </c>
+      <c r="B111">
+        <v>688954</v>
+      </c>
+      <c r="C111">
+        <v>797447</v>
+      </c>
+      <c r="D111">
+        <v>79051</v>
+      </c>
+      <c r="E111">
+        <v>72803</v>
+      </c>
+      <c r="F111">
+        <v>24.44</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data-validation/bitacora_historica_tablero_oficial.xlsx
+++ b/data-validation/bitacora_historica_tablero_oficial.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="117">
   <si>
     <t>Fecha</t>
   </si>
@@ -362,6 +362,9 @@
   </si>
   <si>
     <t>2020-09-18</t>
+  </si>
+  <si>
+    <t>2020-09-19</t>
   </si>
 </sst>
 </file>
@@ -719,7 +722,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F111"/>
+  <dimension ref="A1:F112"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2945,6 +2948,26 @@
         <v>24.44</v>
       </c>
     </row>
+    <row r="112" spans="1:6">
+      <c r="A112" t="s">
+        <v>116</v>
+      </c>
+      <c r="B112">
+        <v>694121</v>
+      </c>
+      <c r="C112">
+        <v>804832</v>
+      </c>
+      <c r="D112">
+        <v>81424</v>
+      </c>
+      <c r="E112">
+        <v>73258</v>
+      </c>
+      <c r="F112">
+        <v>24.39</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data-validation/bitacora_historica_tablero_oficial.xlsx
+++ b/data-validation/bitacora_historica_tablero_oficial.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="118">
   <si>
     <t>Fecha</t>
   </si>
@@ -365,6 +365,9 @@
   </si>
   <si>
     <t>2020-09-19</t>
+  </si>
+  <si>
+    <t>2020-09-20</t>
   </si>
 </sst>
 </file>
@@ -722,7 +725,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F112"/>
+  <dimension ref="A1:F113"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2968,6 +2971,26 @@
         <v>24.39</v>
       </c>
     </row>
+    <row r="113" spans="1:6">
+      <c r="A113" t="s">
+        <v>117</v>
+      </c>
+      <c r="B113">
+        <v>697663</v>
+      </c>
+      <c r="C113">
+        <v>809373</v>
+      </c>
+      <c r="D113">
+        <v>79155</v>
+      </c>
+      <c r="E113">
+        <v>73493</v>
+      </c>
+      <c r="F113">
+        <v>24.39</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data-validation/bitacora_historica_tablero_oficial.xlsx
+++ b/data-validation/bitacora_historica_tablero_oficial.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="119">
   <si>
     <t>Fecha</t>
   </si>
@@ -368,6 +368,9 @@
   </si>
   <si>
     <t>2020-09-20</t>
+  </si>
+  <si>
+    <t>2020-09-21</t>
   </si>
 </sst>
 </file>
@@ -725,7 +728,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F113"/>
+  <dimension ref="A1:F114"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2991,6 +2994,26 @@
         <v>24.39</v>
       </c>
     </row>
+    <row r="114" spans="1:6">
+      <c r="A114" t="s">
+        <v>118</v>
+      </c>
+      <c r="B114">
+        <v>700580</v>
+      </c>
+      <c r="C114">
+        <v>813641</v>
+      </c>
+      <c r="D114">
+        <v>75754</v>
+      </c>
+      <c r="E114">
+        <v>73697</v>
+      </c>
+      <c r="F114">
+        <v>24.35</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data-validation/bitacora_historica_tablero_oficial.xlsx
+++ b/data-validation/bitacora_historica_tablero_oficial.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="120">
   <si>
     <t>Fecha</t>
   </si>
@@ -371,6 +371,9 @@
   </si>
   <si>
     <t>2020-09-21</t>
+  </si>
+  <si>
+    <t>2020-09-22</t>
   </si>
 </sst>
 </file>
@@ -728,7 +731,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F114"/>
+  <dimension ref="A1:F115"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3014,6 +3017,26 @@
         <v>24.35</v>
       </c>
     </row>
+    <row r="115" spans="1:6">
+      <c r="A115" t="s">
+        <v>119</v>
+      </c>
+      <c r="B115">
+        <v>705263</v>
+      </c>
+      <c r="C115">
+        <v>820675</v>
+      </c>
+      <c r="D115">
+        <v>78907</v>
+      </c>
+      <c r="E115">
+        <v>74348</v>
+      </c>
+      <c r="F115">
+        <v>24.32</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data-validation/bitacora_historica_tablero_oficial.xlsx
+++ b/data-validation/bitacora_historica_tablero_oficial.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="121">
   <si>
     <t>Fecha</t>
   </si>
@@ -374,6 +374,9 @@
   </si>
   <si>
     <t>2020-09-22</t>
+  </si>
+  <si>
+    <t>2020-09-23</t>
   </si>
 </sst>
 </file>
@@ -731,7 +734,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F115"/>
+  <dimension ref="A1:F116"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3037,6 +3040,26 @@
         <v>24.32</v>
       </c>
     </row>
+    <row r="116" spans="1:6">
+      <c r="A116" t="s">
+        <v>120</v>
+      </c>
+      <c r="B116">
+        <v>710049</v>
+      </c>
+      <c r="C116">
+        <v>828280</v>
+      </c>
+      <c r="D116">
+        <v>82549</v>
+      </c>
+      <c r="E116">
+        <v>74949</v>
+      </c>
+      <c r="F116">
+        <v>24.28</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data-validation/bitacora_historica_tablero_oficial.xlsx
+++ b/data-validation/bitacora_historica_tablero_oficial.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="122">
   <si>
     <t>Fecha</t>
   </si>
@@ -377,6 +377,9 @@
   </si>
   <si>
     <t>2020-09-23</t>
+  </si>
+  <si>
+    <t>2020-09-24</t>
   </si>
 </sst>
 </file>
@@ -734,7 +737,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F116"/>
+  <dimension ref="A1:F117"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3060,6 +3063,26 @@
         <v>24.28</v>
       </c>
     </row>
+    <row r="117" spans="1:6">
+      <c r="A117" t="s">
+        <v>121</v>
+      </c>
+      <c r="B117">
+        <v>715457</v>
+      </c>
+      <c r="C117">
+        <v>835985</v>
+      </c>
+      <c r="D117">
+        <v>84348</v>
+      </c>
+      <c r="E117">
+        <v>75439</v>
+      </c>
+      <c r="F117">
+        <v>24.22</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data-validation/bitacora_historica_tablero_oficial.xlsx
+++ b/data-validation/bitacora_historica_tablero_oficial.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="123">
   <si>
     <t>Fecha</t>
   </si>
@@ -380,6 +380,9 @@
   </si>
   <si>
     <t>2020-09-24</t>
+  </si>
+  <si>
+    <t>2020-09-25</t>
   </si>
 </sst>
 </file>
@@ -737,7 +740,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F117"/>
+  <dimension ref="A1:F118"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3083,6 +3086,26 @@
         <v>24.22</v>
       </c>
     </row>
+    <row r="118" spans="1:6">
+      <c r="A118" t="s">
+        <v>122</v>
+      </c>
+      <c r="B118">
+        <v>720858</v>
+      </c>
+      <c r="C118">
+        <v>843647</v>
+      </c>
+      <c r="D118">
+        <v>86394</v>
+      </c>
+      <c r="E118">
+        <v>75844</v>
+      </c>
+      <c r="F118">
+        <v>24.16</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data-validation/bitacora_historica_tablero_oficial.xlsx
+++ b/data-validation/bitacora_historica_tablero_oficial.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10913"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marianafernandez/Documents/PADeCI/covid19-mx-data/data-validation/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63E4F85C-CFA8-5E48-A3E9-268DEF31233C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="28800" yWindow="0" windowWidth="38400" windowHeight="21600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="out_vars" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="125">
   <si>
     <t>Fecha</t>
   </si>
@@ -383,15 +389,28 @@
   </si>
   <si>
     <t>2020-09-25</t>
+  </si>
+  <si>
+    <t>2020-09-26</t>
+  </si>
+  <si>
+    <t>2020-09-27</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -401,6 +420,12 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -438,25 +463,40 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+      <alignment wrapText="1"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="XLConnect.Numeric" xfId="1" xr:uid="{E2C7ADEB-0443-9048-BE5B-1CDF4C5A4F80}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -498,7 +538,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -530,9 +570,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -564,6 +622,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -739,14 +815,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F118"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F120"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="I107" sqref="I107"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -766,7 +844,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -786,7 +864,7 @@
         <v>34.9</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -803,10 +881,10 @@
         <v>10637</v>
       </c>
       <c r="F3">
-        <v>34.59</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>34.590000000000003</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -823,10 +901,10 @@
         <v>11728</v>
       </c>
       <c r="F4">
-        <v>34.45</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>34.450000000000003</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -846,7 +924,7 @@
         <v>34.24</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -866,7 +944,7 @@
         <v>34.03</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -886,7 +964,7 @@
         <v>33.72</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -903,10 +981,10 @@
         <v>13699</v>
       </c>
       <c r="F8">
-        <v>33.48</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>33.479999999999997</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>13</v>
       </c>
@@ -926,7 +1004,7 @@
         <v>33.32</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>14</v>
       </c>
@@ -946,7 +1024,7 @@
         <v>33.21</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>15</v>
       </c>
@@ -966,7 +1044,7 @@
         <v>33.11</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>16</v>
       </c>
@@ -986,7 +1064,7 @@
         <v>33.01</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>17</v>
       </c>
@@ -1006,7 +1084,7 @@
         <v>32.78</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>18</v>
       </c>
@@ -1023,10 +1101,10 @@
         <v>16872</v>
       </c>
       <c r="F14">
-        <v>32.66</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+        <v>32.659999999999997</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>19</v>
       </c>
@@ -1046,7 +1124,7 @@
         <v>32.5</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>20</v>
       </c>
@@ -1066,7 +1144,7 @@
         <v>32.36</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>21</v>
       </c>
@@ -1086,7 +1164,7 @@
         <v>32.29</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>22</v>
       </c>
@@ -1106,7 +1184,7 @@
         <v>32.06</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>23</v>
       </c>
@@ -1126,7 +1204,7 @@
         <v>31.86</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>24</v>
       </c>
@@ -1146,7 +1224,7 @@
         <v>31.72</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>25</v>
       </c>
@@ -1166,7 +1244,7 @@
         <v>31.46</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>26</v>
       </c>
@@ -1186,7 +1264,7 @@
         <v>31.61</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>27</v>
       </c>
@@ -1206,7 +1284,7 @@
         <v>31.69</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>28</v>
       </c>
@@ -1226,7 +1304,7 @@
         <v>31.6</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>29</v>
       </c>
@@ -1246,7 +1324,7 @@
         <v>31.58</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>30</v>
       </c>
@@ -1266,7 +1344,7 @@
         <v>31.46</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>31</v>
       </c>
@@ -1286,7 +1364,7 @@
         <v>31.37</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>32</v>
       </c>
@@ -1306,7 +1384,7 @@
         <v>31.24</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>33</v>
       </c>
@@ -1326,7 +1404,7 @@
         <v>31.11</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>34</v>
       </c>
@@ -1346,7 +1424,7 @@
         <v>30.95</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>35</v>
       </c>
@@ -1366,7 +1444,7 @@
         <v>30.78</v>
       </c>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>36</v>
       </c>
@@ -1386,7 +1464,7 @@
         <v>30.73</v>
       </c>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>37</v>
       </c>
@@ -1406,7 +1484,7 @@
         <v>30.52</v>
       </c>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>38</v>
       </c>
@@ -1426,7 +1504,7 @@
         <v>30.35</v>
       </c>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>39</v>
       </c>
@@ -1446,7 +1524,7 @@
         <v>30.18</v>
       </c>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>40</v>
       </c>
@@ -1466,7 +1544,7 @@
         <v>30.02</v>
       </c>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>41</v>
       </c>
@@ -1486,7 +1564,7 @@
         <v>29.94</v>
       </c>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>42</v>
       </c>
@@ -1506,7 +1584,7 @@
         <v>29.89</v>
       </c>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>43</v>
       </c>
@@ -1526,7 +1604,7 @@
         <v>29.78</v>
       </c>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>44</v>
       </c>
@@ -1546,7 +1624,7 @@
         <v>29.67</v>
       </c>
     </row>
-    <row r="41" spans="1:6">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>45</v>
       </c>
@@ -1566,7 +1644,7 @@
         <v>29.5</v>
       </c>
     </row>
-    <row r="42" spans="1:6">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>46</v>
       </c>
@@ -1586,7 +1664,7 @@
         <v>29.33</v>
       </c>
     </row>
-    <row r="43" spans="1:6">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>47</v>
       </c>
@@ -1606,7 +1684,7 @@
         <v>29.25</v>
       </c>
     </row>
-    <row r="44" spans="1:6">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>48</v>
       </c>
@@ -1626,7 +1704,7 @@
         <v>29.21</v>
       </c>
     </row>
-    <row r="45" spans="1:6">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>49</v>
       </c>
@@ -1646,7 +1724,7 @@
         <v>29.12</v>
       </c>
     </row>
-    <row r="46" spans="1:6">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>50</v>
       </c>
@@ -1666,7 +1744,7 @@
         <v>29.05</v>
       </c>
     </row>
-    <row r="47" spans="1:6">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>51</v>
       </c>
@@ -1686,7 +1764,7 @@
         <v>28.95</v>
       </c>
     </row>
-    <row r="48" spans="1:6">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>52</v>
       </c>
@@ -1706,7 +1784,7 @@
         <v>28.81</v>
       </c>
     </row>
-    <row r="49" spans="1:6">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>53</v>
       </c>
@@ -1726,7 +1804,7 @@
         <v>28.66</v>
       </c>
     </row>
-    <row r="50" spans="1:6">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>54</v>
       </c>
@@ -1746,7 +1824,7 @@
         <v>28.55</v>
       </c>
     </row>
-    <row r="51" spans="1:6">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>55</v>
       </c>
@@ -1766,7 +1844,7 @@
         <v>28.43</v>
       </c>
     </row>
-    <row r="52" spans="1:6">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>56</v>
       </c>
@@ -1786,7 +1864,7 @@
         <v>28.33</v>
       </c>
     </row>
-    <row r="53" spans="1:6">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>57</v>
       </c>
@@ -1806,7 +1884,7 @@
         <v>28.24</v>
       </c>
     </row>
-    <row r="54" spans="1:6">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>58</v>
       </c>
@@ -1826,7 +1904,7 @@
         <v>28.12</v>
       </c>
     </row>
-    <row r="55" spans="1:6">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>59</v>
       </c>
@@ -1846,7 +1924,7 @@
         <v>27.97</v>
       </c>
     </row>
-    <row r="56" spans="1:6">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>60</v>
       </c>
@@ -1866,7 +1944,7 @@
         <v>27.89</v>
       </c>
     </row>
-    <row r="57" spans="1:6">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>61</v>
       </c>
@@ -1886,7 +1964,7 @@
         <v>27.78</v>
       </c>
     </row>
-    <row r="58" spans="1:6">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>62</v>
       </c>
@@ -1906,7 +1984,7 @@
         <v>27.72</v>
       </c>
     </row>
-    <row r="59" spans="1:6">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>63</v>
       </c>
@@ -1926,7 +2004,7 @@
         <v>27.63</v>
       </c>
     </row>
-    <row r="60" spans="1:6">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>64</v>
       </c>
@@ -1946,7 +2024,7 @@
         <v>27.52</v>
       </c>
     </row>
-    <row r="61" spans="1:6">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>65</v>
       </c>
@@ -1966,7 +2044,7 @@
         <v>27.38</v>
       </c>
     </row>
-    <row r="62" spans="1:6">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>66</v>
       </c>
@@ -1986,7 +2064,7 @@
         <v>27.16</v>
       </c>
     </row>
-    <row r="63" spans="1:6">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>67</v>
       </c>
@@ -2006,7 +2084,7 @@
         <v>27.02</v>
       </c>
     </row>
-    <row r="64" spans="1:6">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>68</v>
       </c>
@@ -2026,7 +2104,7 @@
         <v>26.92</v>
       </c>
     </row>
-    <row r="65" spans="1:6">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>69</v>
       </c>
@@ -2046,7 +2124,7 @@
         <v>26.88</v>
       </c>
     </row>
-    <row r="66" spans="1:6">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>70</v>
       </c>
@@ -2066,7 +2144,7 @@
         <v>26.86</v>
       </c>
     </row>
-    <row r="67" spans="1:6">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>71</v>
       </c>
@@ -2086,7 +2164,7 @@
         <v>26.83</v>
       </c>
     </row>
-    <row r="68" spans="1:6">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>72</v>
       </c>
@@ -2106,7 +2184,7 @@
         <v>26.8</v>
       </c>
     </row>
-    <row r="69" spans="1:6">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>73</v>
       </c>
@@ -2126,7 +2204,7 @@
         <v>26.74</v>
       </c>
     </row>
-    <row r="70" spans="1:6">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>74</v>
       </c>
@@ -2146,7 +2224,7 @@
         <v>26.67</v>
       </c>
     </row>
-    <row r="71" spans="1:6">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>75</v>
       </c>
@@ -2166,7 +2244,7 @@
         <v>26.61</v>
       </c>
     </row>
-    <row r="72" spans="1:6">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>76</v>
       </c>
@@ -2186,7 +2264,7 @@
         <v>26.56</v>
       </c>
     </row>
-    <row r="73" spans="1:6">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>77</v>
       </c>
@@ -2206,7 +2284,7 @@
         <v>26.51</v>
       </c>
     </row>
-    <row r="74" spans="1:6">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>78</v>
       </c>
@@ -2226,7 +2304,7 @@
         <v>26.49</v>
       </c>
     </row>
-    <row r="75" spans="1:6">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>79</v>
       </c>
@@ -2246,7 +2324,7 @@
         <v>26.39</v>
       </c>
     </row>
-    <row r="76" spans="1:6">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>80</v>
       </c>
@@ -2266,7 +2344,7 @@
         <v>26.33</v>
       </c>
     </row>
-    <row r="77" spans="1:6">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>81</v>
       </c>
@@ -2286,7 +2364,7 @@
         <v>26.25</v>
       </c>
     </row>
-    <row r="78" spans="1:6">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>82</v>
       </c>
@@ -2306,7 +2384,7 @@
         <v>26.21</v>
       </c>
     </row>
-    <row r="79" spans="1:6">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>83</v>
       </c>
@@ -2326,7 +2404,7 @@
         <v>26.17</v>
       </c>
     </row>
-    <row r="80" spans="1:6">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>84</v>
       </c>
@@ -2346,7 +2424,7 @@
         <v>26.15</v>
       </c>
     </row>
-    <row r="81" spans="1:6">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>85</v>
       </c>
@@ -2366,7 +2444,7 @@
         <v>26.09</v>
       </c>
     </row>
-    <row r="82" spans="1:6">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>86</v>
       </c>
@@ -2386,7 +2464,7 @@
         <v>26.02</v>
       </c>
     </row>
-    <row r="83" spans="1:6">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>87</v>
       </c>
@@ -2406,7 +2484,7 @@
         <v>25.9</v>
       </c>
     </row>
-    <row r="84" spans="1:6">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>88</v>
       </c>
@@ -2426,7 +2504,7 @@
         <v>25.86</v>
       </c>
     </row>
-    <row r="85" spans="1:6">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>89</v>
       </c>
@@ -2446,7 +2524,7 @@
         <v>25.81</v>
       </c>
     </row>
-    <row r="86" spans="1:6">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>90</v>
       </c>
@@ -2466,7 +2544,7 @@
         <v>25.81</v>
       </c>
     </row>
-    <row r="87" spans="1:6">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>91</v>
       </c>
@@ -2486,7 +2564,7 @@
         <v>25.76</v>
       </c>
     </row>
-    <row r="88" spans="1:6">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>92</v>
       </c>
@@ -2506,7 +2584,7 @@
         <v>25.7</v>
       </c>
     </row>
-    <row r="89" spans="1:6">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>93</v>
       </c>
@@ -2526,7 +2604,7 @@
         <v>25.64</v>
       </c>
     </row>
-    <row r="90" spans="1:6">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>94</v>
       </c>
@@ -2546,7 +2624,7 @@
         <v>25.57</v>
       </c>
     </row>
-    <row r="91" spans="1:6">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>95</v>
       </c>
@@ -2566,7 +2644,7 @@
         <v>25.50328538207777</v>
       </c>
     </row>
-    <row r="92" spans="1:6">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>96</v>
       </c>
@@ -2586,7 +2664,7 @@
         <v>25.46</v>
       </c>
     </row>
-    <row r="93" spans="1:6">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>97</v>
       </c>
@@ -2606,7 +2684,7 @@
         <v>25.42</v>
       </c>
     </row>
-    <row r="94" spans="1:6">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>98</v>
       </c>
@@ -2626,7 +2704,7 @@
         <v>25.36</v>
       </c>
     </row>
-    <row r="95" spans="1:6">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>99</v>
       </c>
@@ -2646,7 +2724,7 @@
         <v>25.32</v>
       </c>
     </row>
-    <row r="96" spans="1:6">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>100</v>
       </c>
@@ -2666,7 +2744,7 @@
         <v>25.25</v>
       </c>
     </row>
-    <row r="97" spans="1:6">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>101</v>
       </c>
@@ -2686,7 +2764,7 @@
         <v>25.17</v>
       </c>
     </row>
-    <row r="98" spans="1:6">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>102</v>
       </c>
@@ -2706,7 +2784,7 @@
         <v>25.06</v>
       </c>
     </row>
-    <row r="99" spans="1:6">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>103</v>
       </c>
@@ -2726,7 +2804,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="100" spans="1:6">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>104</v>
       </c>
@@ -2746,7 +2824,7 @@
         <v>24.98</v>
       </c>
     </row>
-    <row r="101" spans="1:6">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>105</v>
       </c>
@@ -2766,7 +2844,7 @@
         <v>24.93</v>
       </c>
     </row>
-    <row r="102" spans="1:6">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>106</v>
       </c>
@@ -2786,7 +2864,7 @@
         <v>24.88</v>
       </c>
     </row>
-    <row r="103" spans="1:6">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>107</v>
       </c>
@@ -2806,7 +2884,7 @@
         <v>24.81</v>
       </c>
     </row>
-    <row r="104" spans="1:6">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>108</v>
       </c>
@@ -2826,7 +2904,7 @@
         <v>24.73</v>
       </c>
     </row>
-    <row r="105" spans="1:6">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>109</v>
       </c>
@@ -2846,7 +2924,7 @@
         <v>24.67</v>
       </c>
     </row>
-    <row r="106" spans="1:6">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>110</v>
       </c>
@@ -2866,7 +2944,7 @@
         <v>24.59</v>
       </c>
     </row>
-    <row r="107" spans="1:6">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>111</v>
       </c>
@@ -2886,7 +2964,7 @@
         <v>24.57</v>
       </c>
     </row>
-    <row r="108" spans="1:6">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>112</v>
       </c>
@@ -2906,7 +2984,7 @@
         <v>24.55</v>
       </c>
     </row>
-    <row r="109" spans="1:6">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>113</v>
       </c>
@@ -2926,7 +3004,7 @@
         <v>24.5</v>
       </c>
     </row>
-    <row r="110" spans="1:6">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>114</v>
       </c>
@@ -2946,7 +3024,7 @@
         <v>24.48</v>
       </c>
     </row>
-    <row r="111" spans="1:6">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>115</v>
       </c>
@@ -2966,7 +3044,7 @@
         <v>24.44</v>
       </c>
     </row>
-    <row r="112" spans="1:6">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>116</v>
       </c>
@@ -2986,7 +3064,7 @@
         <v>24.39</v>
       </c>
     </row>
-    <row r="113" spans="1:6">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>117</v>
       </c>
@@ -3006,7 +3084,7 @@
         <v>24.39</v>
       </c>
     </row>
-    <row r="114" spans="1:6">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>118</v>
       </c>
@@ -3026,7 +3104,7 @@
         <v>24.35</v>
       </c>
     </row>
-    <row r="115" spans="1:6">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>119</v>
       </c>
@@ -3046,7 +3124,7 @@
         <v>24.32</v>
       </c>
     </row>
-    <row r="116" spans="1:6">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>120</v>
       </c>
@@ -3066,7 +3144,7 @@
         <v>24.28</v>
       </c>
     </row>
-    <row r="117" spans="1:6">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>121</v>
       </c>
@@ -3086,7 +3164,7 @@
         <v>24.22</v>
       </c>
     </row>
-    <row r="118" spans="1:6">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>122</v>
       </c>
@@ -3106,7 +3184,48 @@
         <v>24.16</v>
       </c>
     </row>
+    <row r="119" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A119" t="s">
+        <v>123</v>
+      </c>
+      <c r="B119" s="2">
+        <v>726431</v>
+      </c>
+      <c r="C119" s="2">
+        <v>851864</v>
+      </c>
+      <c r="D119" s="2">
+        <v>86762</v>
+      </c>
+      <c r="E119" s="2">
+        <v>76243</v>
+      </c>
+      <c r="F119" s="2">
+        <v>24.09</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A120" t="s">
+        <v>124</v>
+      </c>
+      <c r="B120" s="2">
+        <v>730317</v>
+      </c>
+      <c r="C120" s="2">
+        <v>857958</v>
+      </c>
+      <c r="D120" s="2">
+        <v>82914</v>
+      </c>
+      <c r="E120" s="2">
+        <v>76430</v>
+      </c>
+      <c r="F120" s="2">
+        <v>24.03</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/data-validation/bitacora_historica_tablero_oficial.xlsx
+++ b/data-validation/bitacora_historica_tablero_oficial.xlsx
@@ -1,26 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10913"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marianafernandez/Documents/PADeCI/covid19-mx-data/data-validation/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63E4F85C-CFA8-5E48-A3E9-268DEF31233C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28800" yWindow="0" windowWidth="38400" windowHeight="21600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="out_vars" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="126">
   <si>
     <t>Fecha</t>
   </si>
@@ -395,22 +389,18 @@
   </si>
   <si>
     <t>2020-09-27</t>
+  </si>
+  <si>
+    <t>2020-09-28</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -420,12 +410,6 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -463,40 +447,25 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
-      <alignment wrapText="1"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1">
-      <alignment wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="XLConnect.Numeric" xfId="1" xr:uid="{E2C7ADEB-0443-9048-BE5B-1CDF4C5A4F80}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -538,7 +507,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -570,27 +539,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -622,24 +573,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -815,16 +748,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F120"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F121"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="I107" sqref="I107"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -844,7 +775,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -864,7 +795,7 @@
         <v>34.9</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -881,10 +812,10 @@
         <v>10637</v>
       </c>
       <c r="F3">
-        <v>34.590000000000003</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+        <v>34.59</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -901,10 +832,10 @@
         <v>11728</v>
       </c>
       <c r="F4">
-        <v>34.450000000000003</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+        <v>34.45</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -924,7 +855,7 @@
         <v>34.24</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -944,7 +875,7 @@
         <v>34.03</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -964,7 +895,7 @@
         <v>33.72</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -981,10 +912,10 @@
         <v>13699</v>
       </c>
       <c r="F8">
-        <v>33.479999999999997</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+        <v>33.48</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" t="s">
         <v>13</v>
       </c>
@@ -1004,7 +935,7 @@
         <v>33.32</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6">
       <c r="A10" t="s">
         <v>14</v>
       </c>
@@ -1024,7 +955,7 @@
         <v>33.21</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6">
       <c r="A11" t="s">
         <v>15</v>
       </c>
@@ -1044,7 +975,7 @@
         <v>33.11</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6">
       <c r="A12" t="s">
         <v>16</v>
       </c>
@@ -1064,7 +995,7 @@
         <v>33.01</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6">
       <c r="A13" t="s">
         <v>17</v>
       </c>
@@ -1084,7 +1015,7 @@
         <v>32.78</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6">
       <c r="A14" t="s">
         <v>18</v>
       </c>
@@ -1101,10 +1032,10 @@
         <v>16872</v>
       </c>
       <c r="F14">
-        <v>32.659999999999997</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+        <v>32.66</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" t="s">
         <v>19</v>
       </c>
@@ -1124,7 +1055,7 @@
         <v>32.5</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6">
       <c r="A16" t="s">
         <v>20</v>
       </c>
@@ -1144,7 +1075,7 @@
         <v>32.36</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6">
       <c r="A17" t="s">
         <v>21</v>
       </c>
@@ -1164,7 +1095,7 @@
         <v>32.29</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6">
       <c r="A18" t="s">
         <v>22</v>
       </c>
@@ -1184,7 +1115,7 @@
         <v>32.06</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6">
       <c r="A19" t="s">
         <v>23</v>
       </c>
@@ -1204,7 +1135,7 @@
         <v>31.86</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6">
       <c r="A20" t="s">
         <v>24</v>
       </c>
@@ -1224,7 +1155,7 @@
         <v>31.72</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6">
       <c r="A21" t="s">
         <v>25</v>
       </c>
@@ -1244,7 +1175,7 @@
         <v>31.46</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6">
       <c r="A22" t="s">
         <v>26</v>
       </c>
@@ -1264,7 +1195,7 @@
         <v>31.61</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6">
       <c r="A23" t="s">
         <v>27</v>
       </c>
@@ -1284,7 +1215,7 @@
         <v>31.69</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6">
       <c r="A24" t="s">
         <v>28</v>
       </c>
@@ -1304,7 +1235,7 @@
         <v>31.6</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6">
       <c r="A25" t="s">
         <v>29</v>
       </c>
@@ -1324,7 +1255,7 @@
         <v>31.58</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6">
       <c r="A26" t="s">
         <v>30</v>
       </c>
@@ -1344,7 +1275,7 @@
         <v>31.46</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6">
       <c r="A27" t="s">
         <v>31</v>
       </c>
@@ -1364,7 +1295,7 @@
         <v>31.37</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6">
       <c r="A28" t="s">
         <v>32</v>
       </c>
@@ -1384,7 +1315,7 @@
         <v>31.24</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6">
       <c r="A29" t="s">
         <v>33</v>
       </c>
@@ -1404,7 +1335,7 @@
         <v>31.11</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6">
       <c r="A30" t="s">
         <v>34</v>
       </c>
@@ -1424,7 +1355,7 @@
         <v>30.95</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6">
       <c r="A31" t="s">
         <v>35</v>
       </c>
@@ -1444,7 +1375,7 @@
         <v>30.78</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:6">
       <c r="A32" t="s">
         <v>36</v>
       </c>
@@ -1464,7 +1395,7 @@
         <v>30.73</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6">
       <c r="A33" t="s">
         <v>37</v>
       </c>
@@ -1484,7 +1415,7 @@
         <v>30.52</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:6">
       <c r="A34" t="s">
         <v>38</v>
       </c>
@@ -1504,7 +1435,7 @@
         <v>30.35</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:6">
       <c r="A35" t="s">
         <v>39</v>
       </c>
@@ -1524,7 +1455,7 @@
         <v>30.18</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:6">
       <c r="A36" t="s">
         <v>40</v>
       </c>
@@ -1544,7 +1475,7 @@
         <v>30.02</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:6">
       <c r="A37" t="s">
         <v>41</v>
       </c>
@@ -1564,7 +1495,7 @@
         <v>29.94</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:6">
       <c r="A38" t="s">
         <v>42</v>
       </c>
@@ -1584,7 +1515,7 @@
         <v>29.89</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:6">
       <c r="A39" t="s">
         <v>43</v>
       </c>
@@ -1604,7 +1535,7 @@
         <v>29.78</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:6">
       <c r="A40" t="s">
         <v>44</v>
       </c>
@@ -1624,7 +1555,7 @@
         <v>29.67</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:6">
       <c r="A41" t="s">
         <v>45</v>
       </c>
@@ -1644,7 +1575,7 @@
         <v>29.5</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:6">
       <c r="A42" t="s">
         <v>46</v>
       </c>
@@ -1664,7 +1595,7 @@
         <v>29.33</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:6">
       <c r="A43" t="s">
         <v>47</v>
       </c>
@@ -1684,7 +1615,7 @@
         <v>29.25</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:6">
       <c r="A44" t="s">
         <v>48</v>
       </c>
@@ -1704,7 +1635,7 @@
         <v>29.21</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:6">
       <c r="A45" t="s">
         <v>49</v>
       </c>
@@ -1724,7 +1655,7 @@
         <v>29.12</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:6">
       <c r="A46" t="s">
         <v>50</v>
       </c>
@@ -1744,7 +1675,7 @@
         <v>29.05</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:6">
       <c r="A47" t="s">
         <v>51</v>
       </c>
@@ -1764,7 +1695,7 @@
         <v>28.95</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:6">
       <c r="A48" t="s">
         <v>52</v>
       </c>
@@ -1784,7 +1715,7 @@
         <v>28.81</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:6">
       <c r="A49" t="s">
         <v>53</v>
       </c>
@@ -1804,7 +1735,7 @@
         <v>28.66</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:6">
       <c r="A50" t="s">
         <v>54</v>
       </c>
@@ -1824,7 +1755,7 @@
         <v>28.55</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:6">
       <c r="A51" t="s">
         <v>55</v>
       </c>
@@ -1844,7 +1775,7 @@
         <v>28.43</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:6">
       <c r="A52" t="s">
         <v>56</v>
       </c>
@@ -1864,7 +1795,7 @@
         <v>28.33</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:6">
       <c r="A53" t="s">
         <v>57</v>
       </c>
@@ -1884,7 +1815,7 @@
         <v>28.24</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:6">
       <c r="A54" t="s">
         <v>58</v>
       </c>
@@ -1904,7 +1835,7 @@
         <v>28.12</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:6">
       <c r="A55" t="s">
         <v>59</v>
       </c>
@@ -1924,7 +1855,7 @@
         <v>27.97</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:6">
       <c r="A56" t="s">
         <v>60</v>
       </c>
@@ -1944,7 +1875,7 @@
         <v>27.89</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:6">
       <c r="A57" t="s">
         <v>61</v>
       </c>
@@ -1964,7 +1895,7 @@
         <v>27.78</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:6">
       <c r="A58" t="s">
         <v>62</v>
       </c>
@@ -1984,7 +1915,7 @@
         <v>27.72</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:6">
       <c r="A59" t="s">
         <v>63</v>
       </c>
@@ -2004,7 +1935,7 @@
         <v>27.63</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:6">
       <c r="A60" t="s">
         <v>64</v>
       </c>
@@ -2024,7 +1955,7 @@
         <v>27.52</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:6">
       <c r="A61" t="s">
         <v>65</v>
       </c>
@@ -2044,7 +1975,7 @@
         <v>27.38</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:6">
       <c r="A62" t="s">
         <v>66</v>
       </c>
@@ -2064,7 +1995,7 @@
         <v>27.16</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:6">
       <c r="A63" t="s">
         <v>67</v>
       </c>
@@ -2084,7 +2015,7 @@
         <v>27.02</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:6">
       <c r="A64" t="s">
         <v>68</v>
       </c>
@@ -2104,7 +2035,7 @@
         <v>26.92</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:6">
       <c r="A65" t="s">
         <v>69</v>
       </c>
@@ -2124,7 +2055,7 @@
         <v>26.88</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:6">
       <c r="A66" t="s">
         <v>70</v>
       </c>
@@ -2144,7 +2075,7 @@
         <v>26.86</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:6">
       <c r="A67" t="s">
         <v>71</v>
       </c>
@@ -2164,7 +2095,7 @@
         <v>26.83</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:6">
       <c r="A68" t="s">
         <v>72</v>
       </c>
@@ -2184,7 +2115,7 @@
         <v>26.8</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:6">
       <c r="A69" t="s">
         <v>73</v>
       </c>
@@ -2204,7 +2135,7 @@
         <v>26.74</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:6">
       <c r="A70" t="s">
         <v>74</v>
       </c>
@@ -2224,7 +2155,7 @@
         <v>26.67</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:6">
       <c r="A71" t="s">
         <v>75</v>
       </c>
@@ -2244,7 +2175,7 @@
         <v>26.61</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:6">
       <c r="A72" t="s">
         <v>76</v>
       </c>
@@ -2264,7 +2195,7 @@
         <v>26.56</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:6">
       <c r="A73" t="s">
         <v>77</v>
       </c>
@@ -2284,7 +2215,7 @@
         <v>26.51</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:6">
       <c r="A74" t="s">
         <v>78</v>
       </c>
@@ -2304,7 +2235,7 @@
         <v>26.49</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:6">
       <c r="A75" t="s">
         <v>79</v>
       </c>
@@ -2324,7 +2255,7 @@
         <v>26.39</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:6">
       <c r="A76" t="s">
         <v>80</v>
       </c>
@@ -2344,7 +2275,7 @@
         <v>26.33</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:6">
       <c r="A77" t="s">
         <v>81</v>
       </c>
@@ -2364,7 +2295,7 @@
         <v>26.25</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:6">
       <c r="A78" t="s">
         <v>82</v>
       </c>
@@ -2384,7 +2315,7 @@
         <v>26.21</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:6">
       <c r="A79" t="s">
         <v>83</v>
       </c>
@@ -2404,7 +2335,7 @@
         <v>26.17</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:6">
       <c r="A80" t="s">
         <v>84</v>
       </c>
@@ -2424,7 +2355,7 @@
         <v>26.15</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:6">
       <c r="A81" t="s">
         <v>85</v>
       </c>
@@ -2444,7 +2375,7 @@
         <v>26.09</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:6">
       <c r="A82" t="s">
         <v>86</v>
       </c>
@@ -2464,7 +2395,7 @@
         <v>26.02</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:6">
       <c r="A83" t="s">
         <v>87</v>
       </c>
@@ -2484,7 +2415,7 @@
         <v>25.9</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:6">
       <c r="A84" t="s">
         <v>88</v>
       </c>
@@ -2504,7 +2435,7 @@
         <v>25.86</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:6">
       <c r="A85" t="s">
         <v>89</v>
       </c>
@@ -2524,7 +2455,7 @@
         <v>25.81</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:6">
       <c r="A86" t="s">
         <v>90</v>
       </c>
@@ -2544,7 +2475,7 @@
         <v>25.81</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:6">
       <c r="A87" t="s">
         <v>91</v>
       </c>
@@ -2564,7 +2495,7 @@
         <v>25.76</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:6">
       <c r="A88" t="s">
         <v>92</v>
       </c>
@@ -2584,7 +2515,7 @@
         <v>25.7</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:6">
       <c r="A89" t="s">
         <v>93</v>
       </c>
@@ -2604,7 +2535,7 @@
         <v>25.64</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:6">
       <c r="A90" t="s">
         <v>94</v>
       </c>
@@ -2624,7 +2555,7 @@
         <v>25.57</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:6">
       <c r="A91" t="s">
         <v>95</v>
       </c>
@@ -2644,7 +2575,7 @@
         <v>25.50328538207777</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:6">
       <c r="A92" t="s">
         <v>96</v>
       </c>
@@ -2664,7 +2595,7 @@
         <v>25.46</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:6">
       <c r="A93" t="s">
         <v>97</v>
       </c>
@@ -2684,7 +2615,7 @@
         <v>25.42</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:6">
       <c r="A94" t="s">
         <v>98</v>
       </c>
@@ -2704,7 +2635,7 @@
         <v>25.36</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:6">
       <c r="A95" t="s">
         <v>99</v>
       </c>
@@ -2724,7 +2655,7 @@
         <v>25.32</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:6">
       <c r="A96" t="s">
         <v>100</v>
       </c>
@@ -2744,7 +2675,7 @@
         <v>25.25</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:6">
       <c r="A97" t="s">
         <v>101</v>
       </c>
@@ -2764,7 +2695,7 @@
         <v>25.17</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:6">
       <c r="A98" t="s">
         <v>102</v>
       </c>
@@ -2784,7 +2715,7 @@
         <v>25.06</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:6">
       <c r="A99" t="s">
         <v>103</v>
       </c>
@@ -2804,7 +2735,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:6">
       <c r="A100" t="s">
         <v>104</v>
       </c>
@@ -2824,7 +2755,7 @@
         <v>24.98</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:6">
       <c r="A101" t="s">
         <v>105</v>
       </c>
@@ -2844,7 +2775,7 @@
         <v>24.93</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:6">
       <c r="A102" t="s">
         <v>106</v>
       </c>
@@ -2864,7 +2795,7 @@
         <v>24.88</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:6">
       <c r="A103" t="s">
         <v>107</v>
       </c>
@@ -2884,7 +2815,7 @@
         <v>24.81</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:6">
       <c r="A104" t="s">
         <v>108</v>
       </c>
@@ -2904,7 +2835,7 @@
         <v>24.73</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:6">
       <c r="A105" t="s">
         <v>109</v>
       </c>
@@ -2924,7 +2855,7 @@
         <v>24.67</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:6">
       <c r="A106" t="s">
         <v>110</v>
       </c>
@@ -2944,7 +2875,7 @@
         <v>24.59</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:6">
       <c r="A107" t="s">
         <v>111</v>
       </c>
@@ -2964,7 +2895,7 @@
         <v>24.57</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:6">
       <c r="A108" t="s">
         <v>112</v>
       </c>
@@ -2984,7 +2915,7 @@
         <v>24.55</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:6">
       <c r="A109" t="s">
         <v>113</v>
       </c>
@@ -3004,7 +2935,7 @@
         <v>24.5</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:6">
       <c r="A110" t="s">
         <v>114</v>
       </c>
@@ -3024,7 +2955,7 @@
         <v>24.48</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:6">
       <c r="A111" t="s">
         <v>115</v>
       </c>
@@ -3044,7 +2975,7 @@
         <v>24.44</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:6">
       <c r="A112" t="s">
         <v>116</v>
       </c>
@@ -3064,7 +2995,7 @@
         <v>24.39</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:6">
       <c r="A113" t="s">
         <v>117</v>
       </c>
@@ -3084,7 +3015,7 @@
         <v>24.39</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:6">
       <c r="A114" t="s">
         <v>118</v>
       </c>
@@ -3104,7 +3035,7 @@
         <v>24.35</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:6">
       <c r="A115" t="s">
         <v>119</v>
       </c>
@@ -3124,7 +3055,7 @@
         <v>24.32</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:6">
       <c r="A116" t="s">
         <v>120</v>
       </c>
@@ -3144,7 +3075,7 @@
         <v>24.28</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:6">
       <c r="A117" t="s">
         <v>121</v>
       </c>
@@ -3164,7 +3095,7 @@
         <v>24.22</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:6">
       <c r="A118" t="s">
         <v>122</v>
       </c>
@@ -3184,48 +3115,67 @@
         <v>24.16</v>
       </c>
     </row>
-    <row r="119" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:6">
       <c r="A119" t="s">
         <v>123</v>
       </c>
-      <c r="B119" s="2">
+      <c r="B119">
         <v>726431</v>
       </c>
-      <c r="C119" s="2">
+      <c r="C119">
         <v>851864</v>
       </c>
-      <c r="D119" s="2">
+      <c r="D119">
         <v>86762</v>
       </c>
-      <c r="E119" s="2">
+      <c r="E119">
         <v>76243</v>
       </c>
-      <c r="F119" s="2">
+      <c r="F119">
         <v>24.09</v>
       </c>
     </row>
-    <row r="120" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:6">
       <c r="A120" t="s">
         <v>124</v>
       </c>
-      <c r="B120" s="2">
+      <c r="B120">
         <v>730317</v>
       </c>
-      <c r="C120" s="2">
+      <c r="C120">
         <v>857958</v>
       </c>
-      <c r="D120" s="2">
+      <c r="D120">
         <v>82914</v>
       </c>
-      <c r="E120" s="2">
+      <c r="E120">
         <v>76430</v>
       </c>
-      <c r="F120" s="2">
+      <c r="F120">
         <v>24.03</v>
       </c>
     </row>
+    <row r="121" spans="1:6">
+      <c r="A121" t="s">
+        <v>125</v>
+      </c>
+      <c r="B121">
+        <v>733717</v>
+      </c>
+      <c r="C121">
+        <v>862782</v>
+      </c>
+      <c r="D121">
+        <v>78901</v>
+      </c>
+      <c r="E121">
+        <v>76603</v>
+      </c>
+      <c r="F121">
+        <v>24.01</v>
+      </c>
+    </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/data-validation/bitacora_historica_tablero_oficial.xlsx
+++ b/data-validation/bitacora_historica_tablero_oficial.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="127">
   <si>
     <t>Fecha</t>
   </si>
@@ -392,6 +392,9 @@
   </si>
   <si>
     <t>2020-09-28</t>
+  </si>
+  <si>
+    <t>2020-09-29</t>
   </si>
 </sst>
 </file>
@@ -749,7 +752,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F121"/>
+  <dimension ref="A1:F122"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3175,6 +3178,26 @@
         <v>24.01</v>
       </c>
     </row>
+    <row r="122" spans="1:6">
+      <c r="A122" t="s">
+        <v>126</v>
+      </c>
+      <c r="B122">
+        <v>738163</v>
+      </c>
+      <c r="C122">
+        <v>869362</v>
+      </c>
+      <c r="D122">
+        <v>83306</v>
+      </c>
+      <c r="E122">
+        <v>77163</v>
+      </c>
+      <c r="F122">
+        <v>23.99</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data-validation/bitacora_historica_tablero_oficial.xlsx
+++ b/data-validation/bitacora_historica_tablero_oficial.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="128">
   <si>
     <t>Fecha</t>
   </si>
@@ -395,6 +395,9 @@
   </si>
   <si>
     <t>2020-09-29</t>
+  </si>
+  <si>
+    <t>2020-09-30</t>
   </si>
 </sst>
 </file>
@@ -752,7 +755,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F122"/>
+  <dimension ref="A1:F123"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3198,6 +3201,26 @@
         <v>23.99</v>
       </c>
     </row>
+    <row r="123" spans="1:6">
+      <c r="A123" t="s">
+        <v>127</v>
+      </c>
+      <c r="B123">
+        <v>743216</v>
+      </c>
+      <c r="C123">
+        <v>876874</v>
+      </c>
+      <c r="D123">
+        <v>86485</v>
+      </c>
+      <c r="E123">
+        <v>77646</v>
+      </c>
+      <c r="F123">
+        <v>23.94</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data-validation/bitacora_historica_tablero_oficial.xlsx
+++ b/data-validation/bitacora_historica_tablero_oficial.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="129">
   <si>
     <t>Fecha</t>
   </si>
@@ -398,6 +398,9 @@
   </si>
   <si>
     <t>2020-09-30</t>
+  </si>
+  <si>
+    <t>2020-10-05</t>
   </si>
 </sst>
 </file>
@@ -755,7 +758,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F123"/>
+  <dimension ref="A1:F124"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3221,6 +3224,26 @@
         <v>23.94</v>
       </c>
     </row>
+    <row r="124" spans="1:6">
+      <c r="A124" t="s">
+        <v>128</v>
+      </c>
+      <c r="B124">
+        <v>765082</v>
+      </c>
+      <c r="C124">
+        <v>913155</v>
+      </c>
+      <c r="D124">
+        <v>80345</v>
+      </c>
+      <c r="E124">
+        <v>79268</v>
+      </c>
+      <c r="F124">
+        <v>23.68</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data-validation/bitacora_historica_tablero_oficial.xlsx
+++ b/data-validation/bitacora_historica_tablero_oficial.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10913"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marianafernandez/Documents/PADeCI/covid19-mx-data/data-validation/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F8760A5-04FC-3549-9656-2CF336295FF1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="out_vars" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="130">
   <si>
     <t>Fecha</t>
   </si>
@@ -400,14 +406,17 @@
     <t>2020-09-30</t>
   </si>
   <si>
-    <t>2020-10-05</t>
+    <t>2020-09-31</t>
+  </si>
+  <si>
+    <t>2020-10-08</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -419,6 +428,12 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -459,22 +474,31 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -516,7 +540,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -548,9 +572,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -582,6 +624,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -757,14 +817,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F124"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F132"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A117" workbookViewId="0">
+      <selection activeCell="A125" sqref="A125"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="10.1640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -784,7 +849,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -804,7 +869,7 @@
         <v>34.9</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -821,10 +886,10 @@
         <v>10637</v>
       </c>
       <c r="F3">
-        <v>34.59</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>34.590000000000003</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -841,10 +906,10 @@
         <v>11728</v>
       </c>
       <c r="F4">
-        <v>34.45</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>34.450000000000003</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -864,7 +929,7 @@
         <v>34.24</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -884,7 +949,7 @@
         <v>34.03</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -904,7 +969,7 @@
         <v>33.72</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -921,10 +986,10 @@
         <v>13699</v>
       </c>
       <c r="F8">
-        <v>33.48</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>33.479999999999997</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>13</v>
       </c>
@@ -944,7 +1009,7 @@
         <v>33.32</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>14</v>
       </c>
@@ -964,7 +1029,7 @@
         <v>33.21</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>15</v>
       </c>
@@ -984,7 +1049,7 @@
         <v>33.11</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>16</v>
       </c>
@@ -1004,7 +1069,7 @@
         <v>33.01</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>17</v>
       </c>
@@ -1024,7 +1089,7 @@
         <v>32.78</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>18</v>
       </c>
@@ -1041,10 +1106,10 @@
         <v>16872</v>
       </c>
       <c r="F14">
-        <v>32.66</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+        <v>32.659999999999997</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>19</v>
       </c>
@@ -1064,7 +1129,7 @@
         <v>32.5</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>20</v>
       </c>
@@ -1084,7 +1149,7 @@
         <v>32.36</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>21</v>
       </c>
@@ -1104,7 +1169,7 @@
         <v>32.29</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>22</v>
       </c>
@@ -1124,7 +1189,7 @@
         <v>32.06</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>23</v>
       </c>
@@ -1144,7 +1209,7 @@
         <v>31.86</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>24</v>
       </c>
@@ -1164,7 +1229,7 @@
         <v>31.72</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>25</v>
       </c>
@@ -1184,7 +1249,7 @@
         <v>31.46</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>26</v>
       </c>
@@ -1204,7 +1269,7 @@
         <v>31.61</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>27</v>
       </c>
@@ -1224,7 +1289,7 @@
         <v>31.69</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>28</v>
       </c>
@@ -1244,7 +1309,7 @@
         <v>31.6</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>29</v>
       </c>
@@ -1264,7 +1329,7 @@
         <v>31.58</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>30</v>
       </c>
@@ -1284,7 +1349,7 @@
         <v>31.46</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>31</v>
       </c>
@@ -1304,7 +1369,7 @@
         <v>31.37</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>32</v>
       </c>
@@ -1324,7 +1389,7 @@
         <v>31.24</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>33</v>
       </c>
@@ -1344,7 +1409,7 @@
         <v>31.11</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>34</v>
       </c>
@@ -1364,7 +1429,7 @@
         <v>30.95</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>35</v>
       </c>
@@ -1384,7 +1449,7 @@
         <v>30.78</v>
       </c>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>36</v>
       </c>
@@ -1404,7 +1469,7 @@
         <v>30.73</v>
       </c>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>37</v>
       </c>
@@ -1424,7 +1489,7 @@
         <v>30.52</v>
       </c>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>38</v>
       </c>
@@ -1444,7 +1509,7 @@
         <v>30.35</v>
       </c>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>39</v>
       </c>
@@ -1464,7 +1529,7 @@
         <v>30.18</v>
       </c>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>40</v>
       </c>
@@ -1484,7 +1549,7 @@
         <v>30.02</v>
       </c>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>41</v>
       </c>
@@ -1504,7 +1569,7 @@
         <v>29.94</v>
       </c>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>42</v>
       </c>
@@ -1524,7 +1589,7 @@
         <v>29.89</v>
       </c>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>43</v>
       </c>
@@ -1544,7 +1609,7 @@
         <v>29.78</v>
       </c>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>44</v>
       </c>
@@ -1564,7 +1629,7 @@
         <v>29.67</v>
       </c>
     </row>
-    <row r="41" spans="1:6">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>45</v>
       </c>
@@ -1584,7 +1649,7 @@
         <v>29.5</v>
       </c>
     </row>
-    <row r="42" spans="1:6">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>46</v>
       </c>
@@ -1604,7 +1669,7 @@
         <v>29.33</v>
       </c>
     </row>
-    <row r="43" spans="1:6">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>47</v>
       </c>
@@ -1624,7 +1689,7 @@
         <v>29.25</v>
       </c>
     </row>
-    <row r="44" spans="1:6">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>48</v>
       </c>
@@ -1644,7 +1709,7 @@
         <v>29.21</v>
       </c>
     </row>
-    <row r="45" spans="1:6">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>49</v>
       </c>
@@ -1664,7 +1729,7 @@
         <v>29.12</v>
       </c>
     </row>
-    <row r="46" spans="1:6">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>50</v>
       </c>
@@ -1684,7 +1749,7 @@
         <v>29.05</v>
       </c>
     </row>
-    <row r="47" spans="1:6">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>51</v>
       </c>
@@ -1704,7 +1769,7 @@
         <v>28.95</v>
       </c>
     </row>
-    <row r="48" spans="1:6">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>52</v>
       </c>
@@ -1724,7 +1789,7 @@
         <v>28.81</v>
       </c>
     </row>
-    <row r="49" spans="1:6">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>53</v>
       </c>
@@ -1744,7 +1809,7 @@
         <v>28.66</v>
       </c>
     </row>
-    <row r="50" spans="1:6">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>54</v>
       </c>
@@ -1764,7 +1829,7 @@
         <v>28.55</v>
       </c>
     </row>
-    <row r="51" spans="1:6">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>55</v>
       </c>
@@ -1784,7 +1849,7 @@
         <v>28.43</v>
       </c>
     </row>
-    <row r="52" spans="1:6">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>56</v>
       </c>
@@ -1804,7 +1869,7 @@
         <v>28.33</v>
       </c>
     </row>
-    <row r="53" spans="1:6">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>57</v>
       </c>
@@ -1824,7 +1889,7 @@
         <v>28.24</v>
       </c>
     </row>
-    <row r="54" spans="1:6">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>58</v>
       </c>
@@ -1844,7 +1909,7 @@
         <v>28.12</v>
       </c>
     </row>
-    <row r="55" spans="1:6">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>59</v>
       </c>
@@ -1864,7 +1929,7 @@
         <v>27.97</v>
       </c>
     </row>
-    <row r="56" spans="1:6">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>60</v>
       </c>
@@ -1884,7 +1949,7 @@
         <v>27.89</v>
       </c>
     </row>
-    <row r="57" spans="1:6">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>61</v>
       </c>
@@ -1904,7 +1969,7 @@
         <v>27.78</v>
       </c>
     </row>
-    <row r="58" spans="1:6">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>62</v>
       </c>
@@ -1924,7 +1989,7 @@
         <v>27.72</v>
       </c>
     </row>
-    <row r="59" spans="1:6">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>63</v>
       </c>
@@ -1944,7 +2009,7 @@
         <v>27.63</v>
       </c>
     </row>
-    <row r="60" spans="1:6">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>64</v>
       </c>
@@ -1964,7 +2029,7 @@
         <v>27.52</v>
       </c>
     </row>
-    <row r="61" spans="1:6">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>65</v>
       </c>
@@ -1984,7 +2049,7 @@
         <v>27.38</v>
       </c>
     </row>
-    <row r="62" spans="1:6">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>66</v>
       </c>
@@ -2004,7 +2069,7 @@
         <v>27.16</v>
       </c>
     </row>
-    <row r="63" spans="1:6">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>67</v>
       </c>
@@ -2024,7 +2089,7 @@
         <v>27.02</v>
       </c>
     </row>
-    <row r="64" spans="1:6">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>68</v>
       </c>
@@ -2044,7 +2109,7 @@
         <v>26.92</v>
       </c>
     </row>
-    <row r="65" spans="1:6">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>69</v>
       </c>
@@ -2064,7 +2129,7 @@
         <v>26.88</v>
       </c>
     </row>
-    <row r="66" spans="1:6">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>70</v>
       </c>
@@ -2084,7 +2149,7 @@
         <v>26.86</v>
       </c>
     </row>
-    <row r="67" spans="1:6">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>71</v>
       </c>
@@ -2104,7 +2169,7 @@
         <v>26.83</v>
       </c>
     </row>
-    <row r="68" spans="1:6">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>72</v>
       </c>
@@ -2124,7 +2189,7 @@
         <v>26.8</v>
       </c>
     </row>
-    <row r="69" spans="1:6">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>73</v>
       </c>
@@ -2144,7 +2209,7 @@
         <v>26.74</v>
       </c>
     </row>
-    <row r="70" spans="1:6">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>74</v>
       </c>
@@ -2164,7 +2229,7 @@
         <v>26.67</v>
       </c>
     </row>
-    <row r="71" spans="1:6">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>75</v>
       </c>
@@ -2184,7 +2249,7 @@
         <v>26.61</v>
       </c>
     </row>
-    <row r="72" spans="1:6">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>76</v>
       </c>
@@ -2204,7 +2269,7 @@
         <v>26.56</v>
       </c>
     </row>
-    <row r="73" spans="1:6">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>77</v>
       </c>
@@ -2224,7 +2289,7 @@
         <v>26.51</v>
       </c>
     </row>
-    <row r="74" spans="1:6">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>78</v>
       </c>
@@ -2244,7 +2309,7 @@
         <v>26.49</v>
       </c>
     </row>
-    <row r="75" spans="1:6">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>79</v>
       </c>
@@ -2264,7 +2329,7 @@
         <v>26.39</v>
       </c>
     </row>
-    <row r="76" spans="1:6">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>80</v>
       </c>
@@ -2284,7 +2349,7 @@
         <v>26.33</v>
       </c>
     </row>
-    <row r="77" spans="1:6">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>81</v>
       </c>
@@ -2304,7 +2369,7 @@
         <v>26.25</v>
       </c>
     </row>
-    <row r="78" spans="1:6">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>82</v>
       </c>
@@ -2324,7 +2389,7 @@
         <v>26.21</v>
       </c>
     </row>
-    <row r="79" spans="1:6">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>83</v>
       </c>
@@ -2344,7 +2409,7 @@
         <v>26.17</v>
       </c>
     </row>
-    <row r="80" spans="1:6">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>84</v>
       </c>
@@ -2364,7 +2429,7 @@
         <v>26.15</v>
       </c>
     </row>
-    <row r="81" spans="1:6">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>85</v>
       </c>
@@ -2384,7 +2449,7 @@
         <v>26.09</v>
       </c>
     </row>
-    <row r="82" spans="1:6">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>86</v>
       </c>
@@ -2404,7 +2469,7 @@
         <v>26.02</v>
       </c>
     </row>
-    <row r="83" spans="1:6">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>87</v>
       </c>
@@ -2424,7 +2489,7 @@
         <v>25.9</v>
       </c>
     </row>
-    <row r="84" spans="1:6">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>88</v>
       </c>
@@ -2444,7 +2509,7 @@
         <v>25.86</v>
       </c>
     </row>
-    <row r="85" spans="1:6">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>89</v>
       </c>
@@ -2464,7 +2529,7 @@
         <v>25.81</v>
       </c>
     </row>
-    <row r="86" spans="1:6">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>90</v>
       </c>
@@ -2484,7 +2549,7 @@
         <v>25.81</v>
       </c>
     </row>
-    <row r="87" spans="1:6">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>91</v>
       </c>
@@ -2504,7 +2569,7 @@
         <v>25.76</v>
       </c>
     </row>
-    <row r="88" spans="1:6">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>92</v>
       </c>
@@ -2524,7 +2589,7 @@
         <v>25.7</v>
       </c>
     </row>
-    <row r="89" spans="1:6">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>93</v>
       </c>
@@ -2544,7 +2609,7 @@
         <v>25.64</v>
       </c>
     </row>
-    <row r="90" spans="1:6">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>94</v>
       </c>
@@ -2564,7 +2629,7 @@
         <v>25.57</v>
       </c>
     </row>
-    <row r="91" spans="1:6">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>95</v>
       </c>
@@ -2584,7 +2649,7 @@
         <v>25.50328538207777</v>
       </c>
     </row>
-    <row r="92" spans="1:6">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>96</v>
       </c>
@@ -2604,7 +2669,7 @@
         <v>25.46</v>
       </c>
     </row>
-    <row r="93" spans="1:6">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>97</v>
       </c>
@@ -2624,7 +2689,7 @@
         <v>25.42</v>
       </c>
     </row>
-    <row r="94" spans="1:6">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>98</v>
       </c>
@@ -2644,7 +2709,7 @@
         <v>25.36</v>
       </c>
     </row>
-    <row r="95" spans="1:6">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>99</v>
       </c>
@@ -2664,7 +2729,7 @@
         <v>25.32</v>
       </c>
     </row>
-    <row r="96" spans="1:6">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>100</v>
       </c>
@@ -2684,7 +2749,7 @@
         <v>25.25</v>
       </c>
     </row>
-    <row r="97" spans="1:6">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>101</v>
       </c>
@@ -2704,7 +2769,7 @@
         <v>25.17</v>
       </c>
     </row>
-    <row r="98" spans="1:6">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>102</v>
       </c>
@@ -2724,7 +2789,7 @@
         <v>25.06</v>
       </c>
     </row>
-    <row r="99" spans="1:6">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>103</v>
       </c>
@@ -2744,7 +2809,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="100" spans="1:6">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>104</v>
       </c>
@@ -2764,7 +2829,7 @@
         <v>24.98</v>
       </c>
     </row>
-    <row r="101" spans="1:6">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>105</v>
       </c>
@@ -2784,7 +2849,7 @@
         <v>24.93</v>
       </c>
     </row>
-    <row r="102" spans="1:6">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>106</v>
       </c>
@@ -2804,7 +2869,7 @@
         <v>24.88</v>
       </c>
     </row>
-    <row r="103" spans="1:6">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>107</v>
       </c>
@@ -2824,7 +2889,7 @@
         <v>24.81</v>
       </c>
     </row>
-    <row r="104" spans="1:6">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>108</v>
       </c>
@@ -2844,7 +2909,7 @@
         <v>24.73</v>
       </c>
     </row>
-    <row r="105" spans="1:6">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>109</v>
       </c>
@@ -2864,7 +2929,7 @@
         <v>24.67</v>
       </c>
     </row>
-    <row r="106" spans="1:6">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>110</v>
       </c>
@@ -2884,7 +2949,7 @@
         <v>24.59</v>
       </c>
     </row>
-    <row r="107" spans="1:6">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>111</v>
       </c>
@@ -2904,7 +2969,7 @@
         <v>24.57</v>
       </c>
     </row>
-    <row r="108" spans="1:6">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>112</v>
       </c>
@@ -2924,7 +2989,7 @@
         <v>24.55</v>
       </c>
     </row>
-    <row r="109" spans="1:6">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>113</v>
       </c>
@@ -2944,7 +3009,7 @@
         <v>24.5</v>
       </c>
     </row>
-    <row r="110" spans="1:6">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>114</v>
       </c>
@@ -2964,7 +3029,7 @@
         <v>24.48</v>
       </c>
     </row>
-    <row r="111" spans="1:6">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>115</v>
       </c>
@@ -2984,7 +3049,7 @@
         <v>24.44</v>
       </c>
     </row>
-    <row r="112" spans="1:6">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>116</v>
       </c>
@@ -3004,7 +3069,7 @@
         <v>24.39</v>
       </c>
     </row>
-    <row r="113" spans="1:6">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>117</v>
       </c>
@@ -3024,7 +3089,7 @@
         <v>24.39</v>
       </c>
     </row>
-    <row r="114" spans="1:6">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>118</v>
       </c>
@@ -3044,7 +3109,7 @@
         <v>24.35</v>
       </c>
     </row>
-    <row r="115" spans="1:6">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>119</v>
       </c>
@@ -3064,7 +3129,7 @@
         <v>24.32</v>
       </c>
     </row>
-    <row r="116" spans="1:6">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>120</v>
       </c>
@@ -3084,7 +3149,7 @@
         <v>24.28</v>
       </c>
     </row>
-    <row r="117" spans="1:6">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>121</v>
       </c>
@@ -3104,7 +3169,7 @@
         <v>24.22</v>
       </c>
     </row>
-    <row r="118" spans="1:6">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>122</v>
       </c>
@@ -3124,7 +3189,7 @@
         <v>24.16</v>
       </c>
     </row>
-    <row r="119" spans="1:6">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>123</v>
       </c>
@@ -3144,7 +3209,7 @@
         <v>24.09</v>
       </c>
     </row>
-    <row r="120" spans="1:6">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>124</v>
       </c>
@@ -3164,7 +3229,7 @@
         <v>24.03</v>
       </c>
     </row>
-    <row r="121" spans="1:6">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>125</v>
       </c>
@@ -3184,7 +3249,7 @@
         <v>24.01</v>
       </c>
     </row>
-    <row r="122" spans="1:6">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>126</v>
       </c>
@@ -3204,7 +3269,7 @@
         <v>23.99</v>
       </c>
     </row>
-    <row r="123" spans="1:6">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>127</v>
       </c>
@@ -3224,27 +3289,188 @@
         <v>23.94</v>
       </c>
     </row>
-    <row r="124" spans="1:6">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>128</v>
       </c>
       <c r="B124">
+        <v>748315</v>
+      </c>
+      <c r="C124">
+        <v>884896</v>
+      </c>
+      <c r="D124">
+        <v>88659</v>
+      </c>
+      <c r="E124">
+        <v>78078</v>
+      </c>
+      <c r="F124">
+        <v>23.88</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A125" s="2">
+        <v>44105</v>
+      </c>
+      <c r="B125">
+        <v>748315</v>
+      </c>
+      <c r="C125">
+        <v>884896</v>
+      </c>
+      <c r="D125">
+        <v>88659</v>
+      </c>
+      <c r="E125">
+        <v>78078</v>
+      </c>
+      <c r="F125">
+        <v>23.88031778061378</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A126" s="2">
+        <v>44106</v>
+      </c>
+      <c r="B126">
+        <v>753090</v>
+      </c>
+      <c r="C126">
+        <v>893324</v>
+      </c>
+      <c r="D126">
+        <v>89183</v>
+      </c>
+      <c r="E126">
+        <v>78492</v>
+      </c>
+      <c r="F126">
+        <v>23.810832702598631</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A127" s="2">
+        <v>44107</v>
+      </c>
+      <c r="B127">
+        <v>757953</v>
+      </c>
+      <c r="C127">
+        <v>901110</v>
+      </c>
+      <c r="D127">
+        <v>90194</v>
+      </c>
+      <c r="E127">
+        <v>78880</v>
+      </c>
+      <c r="F127">
+        <v>23.7492298335121</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A128" s="2">
+        <v>44108</v>
+      </c>
+      <c r="B128">
+        <v>761665</v>
+      </c>
+      <c r="C128">
+        <v>907331</v>
+      </c>
+      <c r="D128">
+        <v>85743</v>
+      </c>
+      <c r="E128">
+        <v>79088</v>
+      </c>
+      <c r="F128">
+        <v>23.707535465066659</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A129" s="2">
+        <v>44109</v>
+      </c>
+      <c r="B129">
         <v>765082</v>
       </c>
-      <c r="C124">
+      <c r="C129">
         <v>913155</v>
       </c>
-      <c r="D124">
+      <c r="D129">
         <v>80345</v>
       </c>
-      <c r="E124">
+      <c r="E129">
         <v>79268</v>
       </c>
-      <c r="F124">
-        <v>23.68</v>
+      <c r="F129">
+        <v>23.675501449517832</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A130" s="2">
+        <v>44110</v>
+      </c>
+      <c r="B130">
+        <v>769558</v>
+      </c>
+      <c r="C130">
+        <v>933316</v>
+      </c>
+      <c r="D130">
+        <v>32797</v>
+      </c>
+      <c r="E130">
+        <v>79714</v>
+      </c>
+      <c r="F130">
+        <v>23.652018431359298</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A131" s="2">
+        <v>44111</v>
+      </c>
+      <c r="B131">
+        <v>774020</v>
+      </c>
+      <c r="C131">
+        <v>940994</v>
+      </c>
+      <c r="D131">
+        <v>36802</v>
+      </c>
+      <c r="E131">
+        <v>80083</v>
+      </c>
+      <c r="F131">
+        <v>23.618123562698639</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A132" t="s">
+        <v>129</v>
+      </c>
+      <c r="B132">
+        <v>804488</v>
+      </c>
+      <c r="C132">
+        <v>948928</v>
+      </c>
+      <c r="D132">
+        <v>299866</v>
+      </c>
+      <c r="E132">
+        <v>83096</v>
+      </c>
+      <c r="F132">
+        <v>23.5</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/data-validation/bitacora_historica_tablero_oficial.xlsx
+++ b/data-validation/bitacora_historica_tablero_oficial.xlsx
@@ -1,26 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10913"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marianafernandez/Documents/PADeCI/covid19-mx-data/data-validation/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F8760A5-04FC-3549-9656-2CF336295FF1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="out_vars" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="131">
   <si>
     <t>Fecha</t>
   </si>
@@ -410,13 +404,19 @@
   </si>
   <si>
     <t>2020-10-08</t>
+  </si>
+  <si>
+    <t>2020-10-09</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  </numFmts>
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -428,12 +428,6 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -479,26 +473,18 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -540,7 +526,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -572,27 +558,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -624,24 +592,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -817,19 +767,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F132"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F133"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A117" workbookViewId="0">
-      <selection activeCell="A125" sqref="A125"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="10.1640625" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -849,7 +794,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -869,7 +814,7 @@
         <v>34.9</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -886,10 +831,10 @@
         <v>10637</v>
       </c>
       <c r="F3">
-        <v>34.590000000000003</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+        <v>34.59</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -906,10 +851,10 @@
         <v>11728</v>
       </c>
       <c r="F4">
-        <v>34.450000000000003</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+        <v>34.45</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -929,7 +874,7 @@
         <v>34.24</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -949,7 +894,7 @@
         <v>34.03</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -969,7 +914,7 @@
         <v>33.72</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -986,10 +931,10 @@
         <v>13699</v>
       </c>
       <c r="F8">
-        <v>33.479999999999997</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+        <v>33.48</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" t="s">
         <v>13</v>
       </c>
@@ -1009,7 +954,7 @@
         <v>33.32</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6">
       <c r="A10" t="s">
         <v>14</v>
       </c>
@@ -1029,7 +974,7 @@
         <v>33.21</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6">
       <c r="A11" t="s">
         <v>15</v>
       </c>
@@ -1049,7 +994,7 @@
         <v>33.11</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6">
       <c r="A12" t="s">
         <v>16</v>
       </c>
@@ -1069,7 +1014,7 @@
         <v>33.01</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6">
       <c r="A13" t="s">
         <v>17</v>
       </c>
@@ -1089,7 +1034,7 @@
         <v>32.78</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6">
       <c r="A14" t="s">
         <v>18</v>
       </c>
@@ -1106,10 +1051,10 @@
         <v>16872</v>
       </c>
       <c r="F14">
-        <v>32.659999999999997</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+        <v>32.66</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" t="s">
         <v>19</v>
       </c>
@@ -1129,7 +1074,7 @@
         <v>32.5</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6">
       <c r="A16" t="s">
         <v>20</v>
       </c>
@@ -1149,7 +1094,7 @@
         <v>32.36</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6">
       <c r="A17" t="s">
         <v>21</v>
       </c>
@@ -1169,7 +1114,7 @@
         <v>32.29</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6">
       <c r="A18" t="s">
         <v>22</v>
       </c>
@@ -1189,7 +1134,7 @@
         <v>32.06</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6">
       <c r="A19" t="s">
         <v>23</v>
       </c>
@@ -1209,7 +1154,7 @@
         <v>31.86</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6">
       <c r="A20" t="s">
         <v>24</v>
       </c>
@@ -1229,7 +1174,7 @@
         <v>31.72</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6">
       <c r="A21" t="s">
         <v>25</v>
       </c>
@@ -1249,7 +1194,7 @@
         <v>31.46</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6">
       <c r="A22" t="s">
         <v>26</v>
       </c>
@@ -1269,7 +1214,7 @@
         <v>31.61</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6">
       <c r="A23" t="s">
         <v>27</v>
       </c>
@@ -1289,7 +1234,7 @@
         <v>31.69</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6">
       <c r="A24" t="s">
         <v>28</v>
       </c>
@@ -1309,7 +1254,7 @@
         <v>31.6</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6">
       <c r="A25" t="s">
         <v>29</v>
       </c>
@@ -1329,7 +1274,7 @@
         <v>31.58</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6">
       <c r="A26" t="s">
         <v>30</v>
       </c>
@@ -1349,7 +1294,7 @@
         <v>31.46</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6">
       <c r="A27" t="s">
         <v>31</v>
       </c>
@@ -1369,7 +1314,7 @@
         <v>31.37</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6">
       <c r="A28" t="s">
         <v>32</v>
       </c>
@@ -1389,7 +1334,7 @@
         <v>31.24</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6">
       <c r="A29" t="s">
         <v>33</v>
       </c>
@@ -1409,7 +1354,7 @@
         <v>31.11</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6">
       <c r="A30" t="s">
         <v>34</v>
       </c>
@@ -1429,7 +1374,7 @@
         <v>30.95</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6">
       <c r="A31" t="s">
         <v>35</v>
       </c>
@@ -1449,7 +1394,7 @@
         <v>30.78</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:6">
       <c r="A32" t="s">
         <v>36</v>
       </c>
@@ -1469,7 +1414,7 @@
         <v>30.73</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6">
       <c r="A33" t="s">
         <v>37</v>
       </c>
@@ -1489,7 +1434,7 @@
         <v>30.52</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:6">
       <c r="A34" t="s">
         <v>38</v>
       </c>
@@ -1509,7 +1454,7 @@
         <v>30.35</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:6">
       <c r="A35" t="s">
         <v>39</v>
       </c>
@@ -1529,7 +1474,7 @@
         <v>30.18</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:6">
       <c r="A36" t="s">
         <v>40</v>
       </c>
@@ -1549,7 +1494,7 @@
         <v>30.02</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:6">
       <c r="A37" t="s">
         <v>41</v>
       </c>
@@ -1569,7 +1514,7 @@
         <v>29.94</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:6">
       <c r="A38" t="s">
         <v>42</v>
       </c>
@@ -1589,7 +1534,7 @@
         <v>29.89</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:6">
       <c r="A39" t="s">
         <v>43</v>
       </c>
@@ -1609,7 +1554,7 @@
         <v>29.78</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:6">
       <c r="A40" t="s">
         <v>44</v>
       </c>
@@ -1629,7 +1574,7 @@
         <v>29.67</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:6">
       <c r="A41" t="s">
         <v>45</v>
       </c>
@@ -1649,7 +1594,7 @@
         <v>29.5</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:6">
       <c r="A42" t="s">
         <v>46</v>
       </c>
@@ -1669,7 +1614,7 @@
         <v>29.33</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:6">
       <c r="A43" t="s">
         <v>47</v>
       </c>
@@ -1689,7 +1634,7 @@
         <v>29.25</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:6">
       <c r="A44" t="s">
         <v>48</v>
       </c>
@@ -1709,7 +1654,7 @@
         <v>29.21</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:6">
       <c r="A45" t="s">
         <v>49</v>
       </c>
@@ -1729,7 +1674,7 @@
         <v>29.12</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:6">
       <c r="A46" t="s">
         <v>50</v>
       </c>
@@ -1749,7 +1694,7 @@
         <v>29.05</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:6">
       <c r="A47" t="s">
         <v>51</v>
       </c>
@@ -1769,7 +1714,7 @@
         <v>28.95</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:6">
       <c r="A48" t="s">
         <v>52</v>
       </c>
@@ -1789,7 +1734,7 @@
         <v>28.81</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:6">
       <c r="A49" t="s">
         <v>53</v>
       </c>
@@ -1809,7 +1754,7 @@
         <v>28.66</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:6">
       <c r="A50" t="s">
         <v>54</v>
       </c>
@@ -1829,7 +1774,7 @@
         <v>28.55</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:6">
       <c r="A51" t="s">
         <v>55</v>
       </c>
@@ -1849,7 +1794,7 @@
         <v>28.43</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:6">
       <c r="A52" t="s">
         <v>56</v>
       </c>
@@ -1869,7 +1814,7 @@
         <v>28.33</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:6">
       <c r="A53" t="s">
         <v>57</v>
       </c>
@@ -1889,7 +1834,7 @@
         <v>28.24</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:6">
       <c r="A54" t="s">
         <v>58</v>
       </c>
@@ -1909,7 +1854,7 @@
         <v>28.12</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:6">
       <c r="A55" t="s">
         <v>59</v>
       </c>
@@ -1929,7 +1874,7 @@
         <v>27.97</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:6">
       <c r="A56" t="s">
         <v>60</v>
       </c>
@@ -1949,7 +1894,7 @@
         <v>27.89</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:6">
       <c r="A57" t="s">
         <v>61</v>
       </c>
@@ -1969,7 +1914,7 @@
         <v>27.78</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:6">
       <c r="A58" t="s">
         <v>62</v>
       </c>
@@ -1989,7 +1934,7 @@
         <v>27.72</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:6">
       <c r="A59" t="s">
         <v>63</v>
       </c>
@@ -2009,7 +1954,7 @@
         <v>27.63</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:6">
       <c r="A60" t="s">
         <v>64</v>
       </c>
@@ -2029,7 +1974,7 @@
         <v>27.52</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:6">
       <c r="A61" t="s">
         <v>65</v>
       </c>
@@ -2049,7 +1994,7 @@
         <v>27.38</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:6">
       <c r="A62" t="s">
         <v>66</v>
       </c>
@@ -2069,7 +2014,7 @@
         <v>27.16</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:6">
       <c r="A63" t="s">
         <v>67</v>
       </c>
@@ -2089,7 +2034,7 @@
         <v>27.02</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:6">
       <c r="A64" t="s">
         <v>68</v>
       </c>
@@ -2109,7 +2054,7 @@
         <v>26.92</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:6">
       <c r="A65" t="s">
         <v>69</v>
       </c>
@@ -2129,7 +2074,7 @@
         <v>26.88</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:6">
       <c r="A66" t="s">
         <v>70</v>
       </c>
@@ -2149,7 +2094,7 @@
         <v>26.86</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:6">
       <c r="A67" t="s">
         <v>71</v>
       </c>
@@ -2169,7 +2114,7 @@
         <v>26.83</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:6">
       <c r="A68" t="s">
         <v>72</v>
       </c>
@@ -2189,7 +2134,7 @@
         <v>26.8</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:6">
       <c r="A69" t="s">
         <v>73</v>
       </c>
@@ -2209,7 +2154,7 @@
         <v>26.74</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:6">
       <c r="A70" t="s">
         <v>74</v>
       </c>
@@ -2229,7 +2174,7 @@
         <v>26.67</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:6">
       <c r="A71" t="s">
         <v>75</v>
       </c>
@@ -2249,7 +2194,7 @@
         <v>26.61</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:6">
       <c r="A72" t="s">
         <v>76</v>
       </c>
@@ -2269,7 +2214,7 @@
         <v>26.56</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:6">
       <c r="A73" t="s">
         <v>77</v>
       </c>
@@ -2289,7 +2234,7 @@
         <v>26.51</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:6">
       <c r="A74" t="s">
         <v>78</v>
       </c>
@@ -2309,7 +2254,7 @@
         <v>26.49</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:6">
       <c r="A75" t="s">
         <v>79</v>
       </c>
@@ -2329,7 +2274,7 @@
         <v>26.39</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:6">
       <c r="A76" t="s">
         <v>80</v>
       </c>
@@ -2349,7 +2294,7 @@
         <v>26.33</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:6">
       <c r="A77" t="s">
         <v>81</v>
       </c>
@@ -2369,7 +2314,7 @@
         <v>26.25</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:6">
       <c r="A78" t="s">
         <v>82</v>
       </c>
@@ -2389,7 +2334,7 @@
         <v>26.21</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:6">
       <c r="A79" t="s">
         <v>83</v>
       </c>
@@ -2409,7 +2354,7 @@
         <v>26.17</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:6">
       <c r="A80" t="s">
         <v>84</v>
       </c>
@@ -2429,7 +2374,7 @@
         <v>26.15</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:6">
       <c r="A81" t="s">
         <v>85</v>
       </c>
@@ -2449,7 +2394,7 @@
         <v>26.09</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:6">
       <c r="A82" t="s">
         <v>86</v>
       </c>
@@ -2469,7 +2414,7 @@
         <v>26.02</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:6">
       <c r="A83" t="s">
         <v>87</v>
       </c>
@@ -2489,7 +2434,7 @@
         <v>25.9</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:6">
       <c r="A84" t="s">
         <v>88</v>
       </c>
@@ -2509,7 +2454,7 @@
         <v>25.86</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:6">
       <c r="A85" t="s">
         <v>89</v>
       </c>
@@ -2529,7 +2474,7 @@
         <v>25.81</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:6">
       <c r="A86" t="s">
         <v>90</v>
       </c>
@@ -2549,7 +2494,7 @@
         <v>25.81</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:6">
       <c r="A87" t="s">
         <v>91</v>
       </c>
@@ -2569,7 +2514,7 @@
         <v>25.76</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:6">
       <c r="A88" t="s">
         <v>92</v>
       </c>
@@ -2589,7 +2534,7 @@
         <v>25.7</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:6">
       <c r="A89" t="s">
         <v>93</v>
       </c>
@@ -2609,7 +2554,7 @@
         <v>25.64</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:6">
       <c r="A90" t="s">
         <v>94</v>
       </c>
@@ -2629,7 +2574,7 @@
         <v>25.57</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:6">
       <c r="A91" t="s">
         <v>95</v>
       </c>
@@ -2649,7 +2594,7 @@
         <v>25.50328538207777</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:6">
       <c r="A92" t="s">
         <v>96</v>
       </c>
@@ -2669,7 +2614,7 @@
         <v>25.46</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:6">
       <c r="A93" t="s">
         <v>97</v>
       </c>
@@ -2689,7 +2634,7 @@
         <v>25.42</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:6">
       <c r="A94" t="s">
         <v>98</v>
       </c>
@@ -2709,7 +2654,7 @@
         <v>25.36</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:6">
       <c r="A95" t="s">
         <v>99</v>
       </c>
@@ -2729,7 +2674,7 @@
         <v>25.32</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:6">
       <c r="A96" t="s">
         <v>100</v>
       </c>
@@ -2749,7 +2694,7 @@
         <v>25.25</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:6">
       <c r="A97" t="s">
         <v>101</v>
       </c>
@@ -2769,7 +2714,7 @@
         <v>25.17</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:6">
       <c r="A98" t="s">
         <v>102</v>
       </c>
@@ -2789,7 +2734,7 @@
         <v>25.06</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:6">
       <c r="A99" t="s">
         <v>103</v>
       </c>
@@ -2809,7 +2754,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:6">
       <c r="A100" t="s">
         <v>104</v>
       </c>
@@ -2829,7 +2774,7 @@
         <v>24.98</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:6">
       <c r="A101" t="s">
         <v>105</v>
       </c>
@@ -2849,7 +2794,7 @@
         <v>24.93</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:6">
       <c r="A102" t="s">
         <v>106</v>
       </c>
@@ -2869,7 +2814,7 @@
         <v>24.88</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:6">
       <c r="A103" t="s">
         <v>107</v>
       </c>
@@ -2889,7 +2834,7 @@
         <v>24.81</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:6">
       <c r="A104" t="s">
         <v>108</v>
       </c>
@@ -2909,7 +2854,7 @@
         <v>24.73</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:6">
       <c r="A105" t="s">
         <v>109</v>
       </c>
@@ -2929,7 +2874,7 @@
         <v>24.67</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:6">
       <c r="A106" t="s">
         <v>110</v>
       </c>
@@ -2949,7 +2894,7 @@
         <v>24.59</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:6">
       <c r="A107" t="s">
         <v>111</v>
       </c>
@@ -2969,7 +2914,7 @@
         <v>24.57</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:6">
       <c r="A108" t="s">
         <v>112</v>
       </c>
@@ -2989,7 +2934,7 @@
         <v>24.55</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:6">
       <c r="A109" t="s">
         <v>113</v>
       </c>
@@ -3009,7 +2954,7 @@
         <v>24.5</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:6">
       <c r="A110" t="s">
         <v>114</v>
       </c>
@@ -3029,7 +2974,7 @@
         <v>24.48</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:6">
       <c r="A111" t="s">
         <v>115</v>
       </c>
@@ -3049,7 +2994,7 @@
         <v>24.44</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:6">
       <c r="A112" t="s">
         <v>116</v>
       </c>
@@ -3069,7 +3014,7 @@
         <v>24.39</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:6">
       <c r="A113" t="s">
         <v>117</v>
       </c>
@@ -3089,7 +3034,7 @@
         <v>24.39</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:6">
       <c r="A114" t="s">
         <v>118</v>
       </c>
@@ -3109,7 +3054,7 @@
         <v>24.35</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:6">
       <c r="A115" t="s">
         <v>119</v>
       </c>
@@ -3129,7 +3074,7 @@
         <v>24.32</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:6">
       <c r="A116" t="s">
         <v>120</v>
       </c>
@@ -3149,7 +3094,7 @@
         <v>24.28</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:6">
       <c r="A117" t="s">
         <v>121</v>
       </c>
@@ -3169,7 +3114,7 @@
         <v>24.22</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:6">
       <c r="A118" t="s">
         <v>122</v>
       </c>
@@ -3189,7 +3134,7 @@
         <v>24.16</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:6">
       <c r="A119" t="s">
         <v>123</v>
       </c>
@@ -3209,7 +3154,7 @@
         <v>24.09</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:6">
       <c r="A120" t="s">
         <v>124</v>
       </c>
@@ -3229,7 +3174,7 @@
         <v>24.03</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:6">
       <c r="A121" t="s">
         <v>125</v>
       </c>
@@ -3249,7 +3194,7 @@
         <v>24.01</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:6">
       <c r="A122" t="s">
         <v>126</v>
       </c>
@@ -3269,7 +3214,7 @@
         <v>23.99</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:6">
       <c r="A123" t="s">
         <v>127</v>
       </c>
@@ -3289,7 +3234,7 @@
         <v>23.94</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:6">
       <c r="A124" t="s">
         <v>128</v>
       </c>
@@ -3309,7 +3254,7 @@
         <v>23.88</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:6">
       <c r="A125" s="2">
         <v>44105</v>
       </c>
@@ -3329,7 +3274,7 @@
         <v>23.88031778061378</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:6">
       <c r="A126" s="2">
         <v>44106</v>
       </c>
@@ -3346,10 +3291,10 @@
         <v>78492</v>
       </c>
       <c r="F126">
-        <v>23.810832702598631</v>
-      </c>
-    </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.2">
+        <v>23.81083270259863</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6">
       <c r="A127" s="2">
         <v>44107</v>
       </c>
@@ -3369,7 +3314,7 @@
         <v>23.7492298335121</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:6">
       <c r="A128" s="2">
         <v>44108</v>
       </c>
@@ -3386,10 +3331,10 @@
         <v>79088</v>
       </c>
       <c r="F128">
-        <v>23.707535465066659</v>
-      </c>
-    </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.2">
+        <v>23.70753546506666</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6">
       <c r="A129" s="2">
         <v>44109</v>
       </c>
@@ -3406,10 +3351,10 @@
         <v>79268</v>
       </c>
       <c r="F129">
-        <v>23.675501449517832</v>
-      </c>
-    </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.2">
+        <v>23.67550144951783</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6">
       <c r="A130" s="2">
         <v>44110</v>
       </c>
@@ -3426,10 +3371,10 @@
         <v>79714</v>
       </c>
       <c r="F130">
-        <v>23.652018431359298</v>
-      </c>
-    </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.2">
+        <v>23.6520184313593</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6">
       <c r="A131" s="2">
         <v>44111</v>
       </c>
@@ -3446,10 +3391,10 @@
         <v>80083</v>
       </c>
       <c r="F131">
-        <v>23.618123562698639</v>
-      </c>
-    </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.2">
+        <v>23.61812356269864</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6">
       <c r="A132" t="s">
         <v>129</v>
       </c>
@@ -3469,8 +3414,27 @@
         <v>23.5</v>
       </c>
     </row>
+    <row r="133" spans="1:6">
+      <c r="A133" t="s">
+        <v>130</v>
+      </c>
+      <c r="B133">
+        <v>809751</v>
+      </c>
+      <c r="C133">
+        <v>956251</v>
+      </c>
+      <c r="D133">
+        <v>302645</v>
+      </c>
+      <c r="E133">
+        <v>83507</v>
+      </c>
+      <c r="F133">
+        <v>23.46</v>
+      </c>
+    </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/data-validation/bitacora_historica_tablero_oficial.xlsx
+++ b/data-validation/bitacora_historica_tablero_oficial.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="132">
   <si>
     <t>Fecha</t>
   </si>
@@ -407,6 +407,9 @@
   </si>
   <si>
     <t>2020-10-09</t>
+  </si>
+  <si>
+    <t>2020-10-13</t>
   </si>
 </sst>
 </file>
@@ -768,7 +771,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F133"/>
+  <dimension ref="A1:F134"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3434,6 +3437,26 @@
         <v>23.46</v>
       </c>
     </row>
+    <row r="134" spans="1:6">
+      <c r="A134" t="s">
+        <v>131</v>
+      </c>
+      <c r="B134">
+        <v>825340</v>
+      </c>
+      <c r="C134">
+        <v>981171</v>
+      </c>
+      <c r="D134">
+        <v>302945</v>
+      </c>
+      <c r="E134">
+        <v>84420</v>
+      </c>
+      <c r="F134">
+        <v>23.32</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data-validation/bitacora_historica_tablero_oficial.xlsx
+++ b/data-validation/bitacora_historica_tablero_oficial.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="133">
   <si>
     <t>Fecha</t>
   </si>
@@ -410,6 +410,9 @@
   </si>
   <si>
     <t>2020-10-13</t>
+  </si>
+  <si>
+    <t>2020-10-14</t>
   </si>
 </sst>
 </file>
@@ -771,7 +774,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F134"/>
+  <dimension ref="A1:F135"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3457,6 +3460,26 @@
         <v>23.32</v>
       </c>
     </row>
+    <row r="135" spans="1:6">
+      <c r="A135" t="s">
+        <v>132</v>
+      </c>
+      <c r="B135">
+        <v>829396</v>
+      </c>
+      <c r="C135">
+        <v>987457</v>
+      </c>
+      <c r="D135">
+        <v>310814</v>
+      </c>
+      <c r="E135">
+        <v>84898</v>
+      </c>
+      <c r="F135">
+        <v>23.34</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data-validation/bitacora_historica_tablero_oficial.xlsx
+++ b/data-validation/bitacora_historica_tablero_oficial.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11011"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marianafernandez/Documents/PADeCI/covid19-mx-data/data-validation/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC248F5B-0665-F349-BDE2-5993145F2F21}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="460" windowWidth="16100" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="out_vars" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="134">
   <si>
     <t>Fecha</t>
   </si>
@@ -413,16 +419,19 @@
   </si>
   <si>
     <t>2020-10-14</t>
+  </si>
+  <si>
+    <t>2020-10-15</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -486,11 +495,19 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -532,7 +549,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -564,9 +581,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -598,6 +633,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -773,14 +826,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F135"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F136"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A128" workbookViewId="0">
+      <selection activeCell="A137" sqref="A137:XFD137"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -800,7 +855,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -820,7 +875,7 @@
         <v>34.9</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -837,10 +892,10 @@
         <v>10637</v>
       </c>
       <c r="F3">
-        <v>34.59</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>34.590000000000003</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -857,10 +912,10 @@
         <v>11728</v>
       </c>
       <c r="F4">
-        <v>34.45</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>34.450000000000003</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -880,7 +935,7 @@
         <v>34.24</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -900,7 +955,7 @@
         <v>34.03</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -920,7 +975,7 @@
         <v>33.72</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -937,10 +992,10 @@
         <v>13699</v>
       </c>
       <c r="F8">
-        <v>33.48</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>33.479999999999997</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>13</v>
       </c>
@@ -960,7 +1015,7 @@
         <v>33.32</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>14</v>
       </c>
@@ -980,7 +1035,7 @@
         <v>33.21</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>15</v>
       </c>
@@ -1000,7 +1055,7 @@
         <v>33.11</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>16</v>
       </c>
@@ -1020,7 +1075,7 @@
         <v>33.01</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>17</v>
       </c>
@@ -1040,7 +1095,7 @@
         <v>32.78</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>18</v>
       </c>
@@ -1057,10 +1112,10 @@
         <v>16872</v>
       </c>
       <c r="F14">
-        <v>32.66</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+        <v>32.659999999999997</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>19</v>
       </c>
@@ -1080,7 +1135,7 @@
         <v>32.5</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>20</v>
       </c>
@@ -1100,7 +1155,7 @@
         <v>32.36</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>21</v>
       </c>
@@ -1120,7 +1175,7 @@
         <v>32.29</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>22</v>
       </c>
@@ -1140,7 +1195,7 @@
         <v>32.06</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>23</v>
       </c>
@@ -1160,7 +1215,7 @@
         <v>31.86</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>24</v>
       </c>
@@ -1180,7 +1235,7 @@
         <v>31.72</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>25</v>
       </c>
@@ -1200,7 +1255,7 @@
         <v>31.46</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>26</v>
       </c>
@@ -1220,7 +1275,7 @@
         <v>31.61</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>27</v>
       </c>
@@ -1240,7 +1295,7 @@
         <v>31.69</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>28</v>
       </c>
@@ -1260,7 +1315,7 @@
         <v>31.6</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>29</v>
       </c>
@@ -1280,7 +1335,7 @@
         <v>31.58</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>30</v>
       </c>
@@ -1300,7 +1355,7 @@
         <v>31.46</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>31</v>
       </c>
@@ -1320,7 +1375,7 @@
         <v>31.37</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>32</v>
       </c>
@@ -1340,7 +1395,7 @@
         <v>31.24</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>33</v>
       </c>
@@ -1360,7 +1415,7 @@
         <v>31.11</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>34</v>
       </c>
@@ -1380,7 +1435,7 @@
         <v>30.95</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>35</v>
       </c>
@@ -1400,7 +1455,7 @@
         <v>30.78</v>
       </c>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>36</v>
       </c>
@@ -1420,7 +1475,7 @@
         <v>30.73</v>
       </c>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>37</v>
       </c>
@@ -1440,7 +1495,7 @@
         <v>30.52</v>
       </c>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>38</v>
       </c>
@@ -1460,7 +1515,7 @@
         <v>30.35</v>
       </c>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>39</v>
       </c>
@@ -1480,7 +1535,7 @@
         <v>30.18</v>
       </c>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>40</v>
       </c>
@@ -1500,7 +1555,7 @@
         <v>30.02</v>
       </c>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>41</v>
       </c>
@@ -1520,7 +1575,7 @@
         <v>29.94</v>
       </c>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>42</v>
       </c>
@@ -1540,7 +1595,7 @@
         <v>29.89</v>
       </c>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>43</v>
       </c>
@@ -1560,7 +1615,7 @@
         <v>29.78</v>
       </c>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>44</v>
       </c>
@@ -1580,7 +1635,7 @@
         <v>29.67</v>
       </c>
     </row>
-    <row r="41" spans="1:6">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>45</v>
       </c>
@@ -1600,7 +1655,7 @@
         <v>29.5</v>
       </c>
     </row>
-    <row r="42" spans="1:6">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>46</v>
       </c>
@@ -1620,7 +1675,7 @@
         <v>29.33</v>
       </c>
     </row>
-    <row r="43" spans="1:6">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>47</v>
       </c>
@@ -1640,7 +1695,7 @@
         <v>29.25</v>
       </c>
     </row>
-    <row r="44" spans="1:6">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>48</v>
       </c>
@@ -1660,7 +1715,7 @@
         <v>29.21</v>
       </c>
     </row>
-    <row r="45" spans="1:6">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>49</v>
       </c>
@@ -1680,7 +1735,7 @@
         <v>29.12</v>
       </c>
     </row>
-    <row r="46" spans="1:6">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>50</v>
       </c>
@@ -1700,7 +1755,7 @@
         <v>29.05</v>
       </c>
     </row>
-    <row r="47" spans="1:6">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>51</v>
       </c>
@@ -1720,7 +1775,7 @@
         <v>28.95</v>
       </c>
     </row>
-    <row r="48" spans="1:6">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>52</v>
       </c>
@@ -1740,7 +1795,7 @@
         <v>28.81</v>
       </c>
     </row>
-    <row r="49" spans="1:6">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>53</v>
       </c>
@@ -1760,7 +1815,7 @@
         <v>28.66</v>
       </c>
     </row>
-    <row r="50" spans="1:6">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>54</v>
       </c>
@@ -1780,7 +1835,7 @@
         <v>28.55</v>
       </c>
     </row>
-    <row r="51" spans="1:6">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>55</v>
       </c>
@@ -1800,7 +1855,7 @@
         <v>28.43</v>
       </c>
     </row>
-    <row r="52" spans="1:6">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>56</v>
       </c>
@@ -1820,7 +1875,7 @@
         <v>28.33</v>
       </c>
     </row>
-    <row r="53" spans="1:6">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>57</v>
       </c>
@@ -1840,7 +1895,7 @@
         <v>28.24</v>
       </c>
     </row>
-    <row r="54" spans="1:6">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>58</v>
       </c>
@@ -1860,7 +1915,7 @@
         <v>28.12</v>
       </c>
     </row>
-    <row r="55" spans="1:6">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>59</v>
       </c>
@@ -1880,7 +1935,7 @@
         <v>27.97</v>
       </c>
     </row>
-    <row r="56" spans="1:6">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>60</v>
       </c>
@@ -1900,7 +1955,7 @@
         <v>27.89</v>
       </c>
     </row>
-    <row r="57" spans="1:6">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>61</v>
       </c>
@@ -1920,7 +1975,7 @@
         <v>27.78</v>
       </c>
     </row>
-    <row r="58" spans="1:6">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>62</v>
       </c>
@@ -1940,7 +1995,7 @@
         <v>27.72</v>
       </c>
     </row>
-    <row r="59" spans="1:6">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>63</v>
       </c>
@@ -1960,7 +2015,7 @@
         <v>27.63</v>
       </c>
     </row>
-    <row r="60" spans="1:6">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>64</v>
       </c>
@@ -1980,7 +2035,7 @@
         <v>27.52</v>
       </c>
     </row>
-    <row r="61" spans="1:6">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>65</v>
       </c>
@@ -2000,7 +2055,7 @@
         <v>27.38</v>
       </c>
     </row>
-    <row r="62" spans="1:6">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>66</v>
       </c>
@@ -2020,7 +2075,7 @@
         <v>27.16</v>
       </c>
     </row>
-    <row r="63" spans="1:6">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>67</v>
       </c>
@@ -2040,7 +2095,7 @@
         <v>27.02</v>
       </c>
     </row>
-    <row r="64" spans="1:6">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>68</v>
       </c>
@@ -2060,7 +2115,7 @@
         <v>26.92</v>
       </c>
     </row>
-    <row r="65" spans="1:6">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>69</v>
       </c>
@@ -2080,7 +2135,7 @@
         <v>26.88</v>
       </c>
     </row>
-    <row r="66" spans="1:6">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>70</v>
       </c>
@@ -2100,7 +2155,7 @@
         <v>26.86</v>
       </c>
     </row>
-    <row r="67" spans="1:6">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>71</v>
       </c>
@@ -2120,7 +2175,7 @@
         <v>26.83</v>
       </c>
     </row>
-    <row r="68" spans="1:6">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>72</v>
       </c>
@@ -2140,7 +2195,7 @@
         <v>26.8</v>
       </c>
     </row>
-    <row r="69" spans="1:6">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>73</v>
       </c>
@@ -2160,7 +2215,7 @@
         <v>26.74</v>
       </c>
     </row>
-    <row r="70" spans="1:6">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>74</v>
       </c>
@@ -2180,7 +2235,7 @@
         <v>26.67</v>
       </c>
     </row>
-    <row r="71" spans="1:6">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>75</v>
       </c>
@@ -2200,7 +2255,7 @@
         <v>26.61</v>
       </c>
     </row>
-    <row r="72" spans="1:6">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>76</v>
       </c>
@@ -2220,7 +2275,7 @@
         <v>26.56</v>
       </c>
     </row>
-    <row r="73" spans="1:6">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>77</v>
       </c>
@@ -2240,7 +2295,7 @@
         <v>26.51</v>
       </c>
     </row>
-    <row r="74" spans="1:6">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>78</v>
       </c>
@@ -2260,7 +2315,7 @@
         <v>26.49</v>
       </c>
     </row>
-    <row r="75" spans="1:6">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>79</v>
       </c>
@@ -2280,7 +2335,7 @@
         <v>26.39</v>
       </c>
     </row>
-    <row r="76" spans="1:6">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>80</v>
       </c>
@@ -2300,7 +2355,7 @@
         <v>26.33</v>
       </c>
     </row>
-    <row r="77" spans="1:6">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>81</v>
       </c>
@@ -2320,7 +2375,7 @@
         <v>26.25</v>
       </c>
     </row>
-    <row r="78" spans="1:6">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>82</v>
       </c>
@@ -2340,7 +2395,7 @@
         <v>26.21</v>
       </c>
     </row>
-    <row r="79" spans="1:6">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>83</v>
       </c>
@@ -2360,7 +2415,7 @@
         <v>26.17</v>
       </c>
     </row>
-    <row r="80" spans="1:6">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>84</v>
       </c>
@@ -2380,7 +2435,7 @@
         <v>26.15</v>
       </c>
     </row>
-    <row r="81" spans="1:6">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>85</v>
       </c>
@@ -2400,7 +2455,7 @@
         <v>26.09</v>
       </c>
     </row>
-    <row r="82" spans="1:6">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>86</v>
       </c>
@@ -2420,7 +2475,7 @@
         <v>26.02</v>
       </c>
     </row>
-    <row r="83" spans="1:6">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>87</v>
       </c>
@@ -2440,7 +2495,7 @@
         <v>25.9</v>
       </c>
     </row>
-    <row r="84" spans="1:6">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>88</v>
       </c>
@@ -2460,7 +2515,7 @@
         <v>25.86</v>
       </c>
     </row>
-    <row r="85" spans="1:6">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>89</v>
       </c>
@@ -2480,7 +2535,7 @@
         <v>25.81</v>
       </c>
     </row>
-    <row r="86" spans="1:6">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>90</v>
       </c>
@@ -2500,7 +2555,7 @@
         <v>25.81</v>
       </c>
     </row>
-    <row r="87" spans="1:6">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>91</v>
       </c>
@@ -2520,7 +2575,7 @@
         <v>25.76</v>
       </c>
     </row>
-    <row r="88" spans="1:6">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>92</v>
       </c>
@@ -2540,7 +2595,7 @@
         <v>25.7</v>
       </c>
     </row>
-    <row r="89" spans="1:6">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>93</v>
       </c>
@@ -2560,7 +2615,7 @@
         <v>25.64</v>
       </c>
     </row>
-    <row r="90" spans="1:6">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>94</v>
       </c>
@@ -2580,7 +2635,7 @@
         <v>25.57</v>
       </c>
     </row>
-    <row r="91" spans="1:6">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>95</v>
       </c>
@@ -2600,7 +2655,7 @@
         <v>25.50328538207777</v>
       </c>
     </row>
-    <row r="92" spans="1:6">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>96</v>
       </c>
@@ -2620,7 +2675,7 @@
         <v>25.46</v>
       </c>
     </row>
-    <row r="93" spans="1:6">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>97</v>
       </c>
@@ -2640,7 +2695,7 @@
         <v>25.42</v>
       </c>
     </row>
-    <row r="94" spans="1:6">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>98</v>
       </c>
@@ -2660,7 +2715,7 @@
         <v>25.36</v>
       </c>
     </row>
-    <row r="95" spans="1:6">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>99</v>
       </c>
@@ -2680,7 +2735,7 @@
         <v>25.32</v>
       </c>
     </row>
-    <row r="96" spans="1:6">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>100</v>
       </c>
@@ -2700,7 +2755,7 @@
         <v>25.25</v>
       </c>
     </row>
-    <row r="97" spans="1:6">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>101</v>
       </c>
@@ -2720,7 +2775,7 @@
         <v>25.17</v>
       </c>
     </row>
-    <row r="98" spans="1:6">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>102</v>
       </c>
@@ -2740,7 +2795,7 @@
         <v>25.06</v>
       </c>
     </row>
-    <row r="99" spans="1:6">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>103</v>
       </c>
@@ -2760,7 +2815,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="100" spans="1:6">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>104</v>
       </c>
@@ -2780,7 +2835,7 @@
         <v>24.98</v>
       </c>
     </row>
-    <row r="101" spans="1:6">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>105</v>
       </c>
@@ -2800,7 +2855,7 @@
         <v>24.93</v>
       </c>
     </row>
-    <row r="102" spans="1:6">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>106</v>
       </c>
@@ -2820,7 +2875,7 @@
         <v>24.88</v>
       </c>
     </row>
-    <row r="103" spans="1:6">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>107</v>
       </c>
@@ -2840,7 +2895,7 @@
         <v>24.81</v>
       </c>
     </row>
-    <row r="104" spans="1:6">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>108</v>
       </c>
@@ -2860,7 +2915,7 @@
         <v>24.73</v>
       </c>
     </row>
-    <row r="105" spans="1:6">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>109</v>
       </c>
@@ -2880,7 +2935,7 @@
         <v>24.67</v>
       </c>
     </row>
-    <row r="106" spans="1:6">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>110</v>
       </c>
@@ -2900,7 +2955,7 @@
         <v>24.59</v>
       </c>
     </row>
-    <row r="107" spans="1:6">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>111</v>
       </c>
@@ -2920,7 +2975,7 @@
         <v>24.57</v>
       </c>
     </row>
-    <row r="108" spans="1:6">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>112</v>
       </c>
@@ -2940,7 +2995,7 @@
         <v>24.55</v>
       </c>
     </row>
-    <row r="109" spans="1:6">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>113</v>
       </c>
@@ -2960,7 +3015,7 @@
         <v>24.5</v>
       </c>
     </row>
-    <row r="110" spans="1:6">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>114</v>
       </c>
@@ -2980,7 +3035,7 @@
         <v>24.48</v>
       </c>
     </row>
-    <row r="111" spans="1:6">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>115</v>
       </c>
@@ -3000,7 +3055,7 @@
         <v>24.44</v>
       </c>
     </row>
-    <row r="112" spans="1:6">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>116</v>
       </c>
@@ -3020,7 +3075,7 @@
         <v>24.39</v>
       </c>
     </row>
-    <row r="113" spans="1:6">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>117</v>
       </c>
@@ -3040,7 +3095,7 @@
         <v>24.39</v>
       </c>
     </row>
-    <row r="114" spans="1:6">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>118</v>
       </c>
@@ -3060,7 +3115,7 @@
         <v>24.35</v>
       </c>
     </row>
-    <row r="115" spans="1:6">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>119</v>
       </c>
@@ -3080,7 +3135,7 @@
         <v>24.32</v>
       </c>
     </row>
-    <row r="116" spans="1:6">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>120</v>
       </c>
@@ -3100,7 +3155,7 @@
         <v>24.28</v>
       </c>
     </row>
-    <row r="117" spans="1:6">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>121</v>
       </c>
@@ -3120,7 +3175,7 @@
         <v>24.22</v>
       </c>
     </row>
-    <row r="118" spans="1:6">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>122</v>
       </c>
@@ -3140,7 +3195,7 @@
         <v>24.16</v>
       </c>
     </row>
-    <row r="119" spans="1:6">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>123</v>
       </c>
@@ -3160,7 +3215,7 @@
         <v>24.09</v>
       </c>
     </row>
-    <row r="120" spans="1:6">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>124</v>
       </c>
@@ -3180,7 +3235,7 @@
         <v>24.03</v>
       </c>
     </row>
-    <row r="121" spans="1:6">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>125</v>
       </c>
@@ -3200,7 +3255,7 @@
         <v>24.01</v>
       </c>
     </row>
-    <row r="122" spans="1:6">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>126</v>
       </c>
@@ -3220,7 +3275,7 @@
         <v>23.99</v>
       </c>
     </row>
-    <row r="123" spans="1:6">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>127</v>
       </c>
@@ -3240,7 +3295,7 @@
         <v>23.94</v>
       </c>
     </row>
-    <row r="124" spans="1:6">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>128</v>
       </c>
@@ -3260,7 +3315,7 @@
         <v>23.88</v>
       </c>
     </row>
-    <row r="125" spans="1:6">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A125" s="2">
         <v>44105</v>
       </c>
@@ -3280,7 +3335,7 @@
         <v>23.88031778061378</v>
       </c>
     </row>
-    <row r="126" spans="1:6">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A126" s="2">
         <v>44106</v>
       </c>
@@ -3297,10 +3352,10 @@
         <v>78492</v>
       </c>
       <c r="F126">
-        <v>23.81083270259863</v>
-      </c>
-    </row>
-    <row r="127" spans="1:6">
+        <v>23.810832702598631</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A127" s="2">
         <v>44107</v>
       </c>
@@ -3320,7 +3375,7 @@
         <v>23.7492298335121</v>
       </c>
     </row>
-    <row r="128" spans="1:6">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A128" s="2">
         <v>44108</v>
       </c>
@@ -3337,10 +3392,10 @@
         <v>79088</v>
       </c>
       <c r="F128">
-        <v>23.70753546506666</v>
-      </c>
-    </row>
-    <row r="129" spans="1:6">
+        <v>23.707535465066659</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A129" s="2">
         <v>44109</v>
       </c>
@@ -3357,10 +3412,10 @@
         <v>79268</v>
       </c>
       <c r="F129">
-        <v>23.67550144951783</v>
-      </c>
-    </row>
-    <row r="130" spans="1:6">
+        <v>23.675501449517832</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A130" s="2">
         <v>44110</v>
       </c>
@@ -3377,10 +3432,10 @@
         <v>79714</v>
       </c>
       <c r="F130">
-        <v>23.6520184313593</v>
-      </c>
-    </row>
-    <row r="131" spans="1:6">
+        <v>23.652018431359298</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A131" s="2">
         <v>44111</v>
       </c>
@@ -3397,10 +3452,10 @@
         <v>80083</v>
       </c>
       <c r="F131">
-        <v>23.61812356269864</v>
-      </c>
-    </row>
-    <row r="132" spans="1:6">
+        <v>23.618123562698639</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>129</v>
       </c>
@@ -3420,7 +3475,7 @@
         <v>23.5</v>
       </c>
     </row>
-    <row r="133" spans="1:6">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>130</v>
       </c>
@@ -3440,7 +3495,7 @@
         <v>23.46</v>
       </c>
     </row>
-    <row r="134" spans="1:6">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>131</v>
       </c>
@@ -3460,7 +3515,7 @@
         <v>23.32</v>
       </c>
     </row>
-    <row r="135" spans="1:6">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>132</v>
       </c>
@@ -3478,6 +3533,26 @@
       </c>
       <c r="F135">
         <v>23.34</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A136" t="s">
+        <v>133</v>
+      </c>
+      <c r="B136">
+        <v>834910</v>
+      </c>
+      <c r="C136">
+        <v>994695</v>
+      </c>
+      <c r="D136">
+        <v>314836</v>
+      </c>
+      <c r="E136">
+        <v>85285</v>
+      </c>
+      <c r="F136">
+        <v>23.3</v>
       </c>
     </row>
   </sheetData>

--- a/data-validation/bitacora_historica_tablero_oficial.xlsx
+++ b/data-validation/bitacora_historica_tablero_oficial.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marianafernandez/Documents/PADeCI/covid19-mx-data/data-validation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC248F5B-0665-F349-BDE2-5993145F2F21}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64994F52-2940-0B42-90A9-07110F55E574}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="460" windowWidth="16100" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="out_vars" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="135">
   <si>
     <t>Fecha</t>
   </si>
@@ -422,6 +422,9 @@
   </si>
   <si>
     <t>2020-10-15</t>
+  </si>
+  <si>
+    <t>2020-10-18</t>
   </si>
 </sst>
 </file>
@@ -431,9 +434,16 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -443,6 +453,13 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -480,18 +497,34 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+      <alignment wrapText="1"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="2" applyNumberFormat="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="XLConnect.Numeric" xfId="1" xr:uid="{C6EAA35F-427B-764C-A86E-0BA318319C26}"/>
+    <cellStyle name="XLConnect.String" xfId="2" xr:uid="{66BE5F56-B543-6C4B-B558-8444F148113D}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -827,10 +860,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F136"/>
+  <dimension ref="A1:F142"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A128" workbookViewId="0">
-      <selection activeCell="A137" sqref="A137:XFD137"/>
+    <sheetView tabSelected="1" topLeftCell="A104" workbookViewId="0">
+      <selection activeCell="L133" sqref="L133"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3495,64 +3528,184 @@
         <v>23.46</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A134" t="s">
+    <row r="134" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A134" s="3">
+        <v>44114</v>
+      </c>
+      <c r="B134" s="5">
+        <v>814328</v>
+      </c>
+      <c r="C134" s="5">
+        <v>964812</v>
+      </c>
+      <c r="D134" s="5">
+        <v>305487</v>
+      </c>
+      <c r="E134" s="5">
+        <v>83642</v>
+      </c>
+      <c r="F134" s="5">
+        <v>23.404205676336808</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A135" s="3">
+        <v>44115</v>
+      </c>
+      <c r="B135" s="5">
+        <v>817503</v>
+      </c>
+      <c r="C135" s="5">
+        <v>969859</v>
+      </c>
+      <c r="D135" s="5">
+        <v>301579</v>
+      </c>
+      <c r="E135" s="5">
+        <v>83781</v>
+      </c>
+      <c r="F135" s="5">
+        <v>23.367865316702201</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A136" s="4">
+        <v>44116</v>
+      </c>
+      <c r="B136" s="5">
+        <v>821045</v>
+      </c>
+      <c r="C136" s="5">
+        <v>975299</v>
+      </c>
+      <c r="D136" s="5">
+        <v>297064</v>
+      </c>
+      <c r="E136" s="5">
+        <v>83945</v>
+      </c>
+      <c r="F136" s="5">
+        <v>23.32965915388316</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A137" t="s">
         <v>131</v>
       </c>
-      <c r="B134">
+      <c r="B137">
         <v>825340</v>
       </c>
-      <c r="C134">
+      <c r="C137">
         <v>981171</v>
       </c>
-      <c r="D134">
+      <c r="D137">
         <v>302945</v>
       </c>
-      <c r="E134">
+      <c r="E137">
         <v>84420</v>
       </c>
-      <c r="F134">
+      <c r="F137">
         <v>23.32</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A135" t="s">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A138" t="s">
         <v>132</v>
       </c>
-      <c r="B135">
+      <c r="B138">
         <v>829396</v>
       </c>
-      <c r="C135">
+      <c r="C138">
         <v>987457</v>
       </c>
-      <c r="D135">
+      <c r="D138">
         <v>310814</v>
       </c>
-      <c r="E135">
+      <c r="E138">
         <v>84898</v>
       </c>
-      <c r="F135">
+      <c r="F138">
         <v>23.34</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A136" t="s">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A139" t="s">
         <v>133</v>
       </c>
-      <c r="B136">
+      <c r="B139">
         <v>834910</v>
       </c>
-      <c r="C136">
+      <c r="C139">
         <v>994695</v>
       </c>
-      <c r="D136">
+      <c r="D139">
         <v>314836</v>
       </c>
-      <c r="E136">
+      <c r="E139">
         <v>85285</v>
       </c>
-      <c r="F136">
+      <c r="F139">
         <v>23.3</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A140" s="6">
+        <v>44120</v>
+      </c>
+      <c r="B140" s="5">
+        <v>841661</v>
+      </c>
+      <c r="C140" s="5">
+        <v>1004800</v>
+      </c>
+      <c r="D140" s="5">
+        <v>313678</v>
+      </c>
+      <c r="E140" s="5">
+        <v>85704</v>
+      </c>
+      <c r="F140" s="5">
+        <v>23.229780160896134</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A141" s="6">
+        <v>44121</v>
+      </c>
+      <c r="B141" s="5">
+        <v>847108</v>
+      </c>
+      <c r="C141" s="5">
+        <v>1013186</v>
+      </c>
+      <c r="D141" s="5">
+        <v>316228</v>
+      </c>
+      <c r="E141" s="5">
+        <v>86059</v>
+      </c>
+      <c r="F141" s="5">
+        <v>23.186063642416315</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A142" t="s">
+        <v>134</v>
+      </c>
+      <c r="B142">
+        <v>851227</v>
+      </c>
+      <c r="C142">
+        <v>1019821</v>
+      </c>
+      <c r="D142">
+        <v>312224</v>
+      </c>
+      <c r="E142">
+        <v>86167</v>
+      </c>
+      <c r="F142">
+        <v>23.32</v>
       </c>
     </row>
   </sheetData>

--- a/data-validation/bitacora_historica_tablero_oficial.xlsx
+++ b/data-validation/bitacora_historica_tablero_oficial.xlsx
@@ -1,26 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marianafernandez/Documents/PADeCI/covid19-mx-data/data-validation/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64994F52-2940-0B42-90A9-07110F55E574}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="out_vars" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="136">
   <si>
     <t>Fecha</t>
   </si>
@@ -425,25 +419,21 @@
   </si>
   <si>
     <t>2020-10-18</t>
+  </si>
+  <si>
+    <t>2020-10-19</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -453,13 +443,6 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -497,50 +480,26 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
-      <alignment wrapText="1"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="2" applyNumberFormat="1">
-      <alignment wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="XLConnect.Numeric" xfId="1" xr:uid="{C6EAA35F-427B-764C-A86E-0BA318319C26}"/>
-    <cellStyle name="XLConnect.String" xfId="2" xr:uid="{66BE5F56-B543-6C4B-B558-8444F148113D}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -582,7 +541,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -614,27 +573,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -666,24 +607,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -859,16 +782,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F142"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F143"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A104" workbookViewId="0">
-      <selection activeCell="L133" sqref="L133"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -888,7 +809,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -908,7 +829,7 @@
         <v>34.9</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -925,10 +846,10 @@
         <v>10637</v>
       </c>
       <c r="F3">
-        <v>34.590000000000003</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+        <v>34.59</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -945,10 +866,10 @@
         <v>11728</v>
       </c>
       <c r="F4">
-        <v>34.450000000000003</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+        <v>34.45</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -968,7 +889,7 @@
         <v>34.24</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -988,7 +909,7 @@
         <v>34.03</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -1008,7 +929,7 @@
         <v>33.72</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -1025,10 +946,10 @@
         <v>13699</v>
       </c>
       <c r="F8">
-        <v>33.479999999999997</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+        <v>33.48</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" t="s">
         <v>13</v>
       </c>
@@ -1048,7 +969,7 @@
         <v>33.32</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6">
       <c r="A10" t="s">
         <v>14</v>
       </c>
@@ -1068,7 +989,7 @@
         <v>33.21</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6">
       <c r="A11" t="s">
         <v>15</v>
       </c>
@@ -1088,7 +1009,7 @@
         <v>33.11</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6">
       <c r="A12" t="s">
         <v>16</v>
       </c>
@@ -1108,7 +1029,7 @@
         <v>33.01</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6">
       <c r="A13" t="s">
         <v>17</v>
       </c>
@@ -1128,7 +1049,7 @@
         <v>32.78</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6">
       <c r="A14" t="s">
         <v>18</v>
       </c>
@@ -1145,10 +1066,10 @@
         <v>16872</v>
       </c>
       <c r="F14">
-        <v>32.659999999999997</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+        <v>32.66</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" t="s">
         <v>19</v>
       </c>
@@ -1168,7 +1089,7 @@
         <v>32.5</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6">
       <c r="A16" t="s">
         <v>20</v>
       </c>
@@ -1188,7 +1109,7 @@
         <v>32.36</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6">
       <c r="A17" t="s">
         <v>21</v>
       </c>
@@ -1208,7 +1129,7 @@
         <v>32.29</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6">
       <c r="A18" t="s">
         <v>22</v>
       </c>
@@ -1228,7 +1149,7 @@
         <v>32.06</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6">
       <c r="A19" t="s">
         <v>23</v>
       </c>
@@ -1248,7 +1169,7 @@
         <v>31.86</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6">
       <c r="A20" t="s">
         <v>24</v>
       </c>
@@ -1268,7 +1189,7 @@
         <v>31.72</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6">
       <c r="A21" t="s">
         <v>25</v>
       </c>
@@ -1288,7 +1209,7 @@
         <v>31.46</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6">
       <c r="A22" t="s">
         <v>26</v>
       </c>
@@ -1308,7 +1229,7 @@
         <v>31.61</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6">
       <c r="A23" t="s">
         <v>27</v>
       </c>
@@ -1328,7 +1249,7 @@
         <v>31.69</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6">
       <c r="A24" t="s">
         <v>28</v>
       </c>
@@ -1348,7 +1269,7 @@
         <v>31.6</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6">
       <c r="A25" t="s">
         <v>29</v>
       </c>
@@ -1368,7 +1289,7 @@
         <v>31.58</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6">
       <c r="A26" t="s">
         <v>30</v>
       </c>
@@ -1388,7 +1309,7 @@
         <v>31.46</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6">
       <c r="A27" t="s">
         <v>31</v>
       </c>
@@ -1408,7 +1329,7 @@
         <v>31.37</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6">
       <c r="A28" t="s">
         <v>32</v>
       </c>
@@ -1428,7 +1349,7 @@
         <v>31.24</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6">
       <c r="A29" t="s">
         <v>33</v>
       </c>
@@ -1448,7 +1369,7 @@
         <v>31.11</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6">
       <c r="A30" t="s">
         <v>34</v>
       </c>
@@ -1468,7 +1389,7 @@
         <v>30.95</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6">
       <c r="A31" t="s">
         <v>35</v>
       </c>
@@ -1488,7 +1409,7 @@
         <v>30.78</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:6">
       <c r="A32" t="s">
         <v>36</v>
       </c>
@@ -1508,7 +1429,7 @@
         <v>30.73</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6">
       <c r="A33" t="s">
         <v>37</v>
       </c>
@@ -1528,7 +1449,7 @@
         <v>30.52</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:6">
       <c r="A34" t="s">
         <v>38</v>
       </c>
@@ -1548,7 +1469,7 @@
         <v>30.35</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:6">
       <c r="A35" t="s">
         <v>39</v>
       </c>
@@ -1568,7 +1489,7 @@
         <v>30.18</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:6">
       <c r="A36" t="s">
         <v>40</v>
       </c>
@@ -1588,7 +1509,7 @@
         <v>30.02</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:6">
       <c r="A37" t="s">
         <v>41</v>
       </c>
@@ -1608,7 +1529,7 @@
         <v>29.94</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:6">
       <c r="A38" t="s">
         <v>42</v>
       </c>
@@ -1628,7 +1549,7 @@
         <v>29.89</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:6">
       <c r="A39" t="s">
         <v>43</v>
       </c>
@@ -1648,7 +1569,7 @@
         <v>29.78</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:6">
       <c r="A40" t="s">
         <v>44</v>
       </c>
@@ -1668,7 +1589,7 @@
         <v>29.67</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:6">
       <c r="A41" t="s">
         <v>45</v>
       </c>
@@ -1688,7 +1609,7 @@
         <v>29.5</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:6">
       <c r="A42" t="s">
         <v>46</v>
       </c>
@@ -1708,7 +1629,7 @@
         <v>29.33</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:6">
       <c r="A43" t="s">
         <v>47</v>
       </c>
@@ -1728,7 +1649,7 @@
         <v>29.25</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:6">
       <c r="A44" t="s">
         <v>48</v>
       </c>
@@ -1748,7 +1669,7 @@
         <v>29.21</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:6">
       <c r="A45" t="s">
         <v>49</v>
       </c>
@@ -1768,7 +1689,7 @@
         <v>29.12</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:6">
       <c r="A46" t="s">
         <v>50</v>
       </c>
@@ -1788,7 +1709,7 @@
         <v>29.05</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:6">
       <c r="A47" t="s">
         <v>51</v>
       </c>
@@ -1808,7 +1729,7 @@
         <v>28.95</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:6">
       <c r="A48" t="s">
         <v>52</v>
       </c>
@@ -1828,7 +1749,7 @@
         <v>28.81</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:6">
       <c r="A49" t="s">
         <v>53</v>
       </c>
@@ -1848,7 +1769,7 @@
         <v>28.66</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:6">
       <c r="A50" t="s">
         <v>54</v>
       </c>
@@ -1868,7 +1789,7 @@
         <v>28.55</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:6">
       <c r="A51" t="s">
         <v>55</v>
       </c>
@@ -1888,7 +1809,7 @@
         <v>28.43</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:6">
       <c r="A52" t="s">
         <v>56</v>
       </c>
@@ -1908,7 +1829,7 @@
         <v>28.33</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:6">
       <c r="A53" t="s">
         <v>57</v>
       </c>
@@ -1928,7 +1849,7 @@
         <v>28.24</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:6">
       <c r="A54" t="s">
         <v>58</v>
       </c>
@@ -1948,7 +1869,7 @@
         <v>28.12</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:6">
       <c r="A55" t="s">
         <v>59</v>
       </c>
@@ -1968,7 +1889,7 @@
         <v>27.97</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:6">
       <c r="A56" t="s">
         <v>60</v>
       </c>
@@ -1988,7 +1909,7 @@
         <v>27.89</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:6">
       <c r="A57" t="s">
         <v>61</v>
       </c>
@@ -2008,7 +1929,7 @@
         <v>27.78</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:6">
       <c r="A58" t="s">
         <v>62</v>
       </c>
@@ -2028,7 +1949,7 @@
         <v>27.72</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:6">
       <c r="A59" t="s">
         <v>63</v>
       </c>
@@ -2048,7 +1969,7 @@
         <v>27.63</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:6">
       <c r="A60" t="s">
         <v>64</v>
       </c>
@@ -2068,7 +1989,7 @@
         <v>27.52</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:6">
       <c r="A61" t="s">
         <v>65</v>
       </c>
@@ -2088,7 +2009,7 @@
         <v>27.38</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:6">
       <c r="A62" t="s">
         <v>66</v>
       </c>
@@ -2108,7 +2029,7 @@
         <v>27.16</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:6">
       <c r="A63" t="s">
         <v>67</v>
       </c>
@@ -2128,7 +2049,7 @@
         <v>27.02</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:6">
       <c r="A64" t="s">
         <v>68</v>
       </c>
@@ -2148,7 +2069,7 @@
         <v>26.92</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:6">
       <c r="A65" t="s">
         <v>69</v>
       </c>
@@ -2168,7 +2089,7 @@
         <v>26.88</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:6">
       <c r="A66" t="s">
         <v>70</v>
       </c>
@@ -2188,7 +2109,7 @@
         <v>26.86</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:6">
       <c r="A67" t="s">
         <v>71</v>
       </c>
@@ -2208,7 +2129,7 @@
         <v>26.83</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:6">
       <c r="A68" t="s">
         <v>72</v>
       </c>
@@ -2228,7 +2149,7 @@
         <v>26.8</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:6">
       <c r="A69" t="s">
         <v>73</v>
       </c>
@@ -2248,7 +2169,7 @@
         <v>26.74</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:6">
       <c r="A70" t="s">
         <v>74</v>
       </c>
@@ -2268,7 +2189,7 @@
         <v>26.67</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:6">
       <c r="A71" t="s">
         <v>75</v>
       </c>
@@ -2288,7 +2209,7 @@
         <v>26.61</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:6">
       <c r="A72" t="s">
         <v>76</v>
       </c>
@@ -2308,7 +2229,7 @@
         <v>26.56</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:6">
       <c r="A73" t="s">
         <v>77</v>
       </c>
@@ -2328,7 +2249,7 @@
         <v>26.51</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:6">
       <c r="A74" t="s">
         <v>78</v>
       </c>
@@ -2348,7 +2269,7 @@
         <v>26.49</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:6">
       <c r="A75" t="s">
         <v>79</v>
       </c>
@@ -2368,7 +2289,7 @@
         <v>26.39</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:6">
       <c r="A76" t="s">
         <v>80</v>
       </c>
@@ -2388,7 +2309,7 @@
         <v>26.33</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:6">
       <c r="A77" t="s">
         <v>81</v>
       </c>
@@ -2408,7 +2329,7 @@
         <v>26.25</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:6">
       <c r="A78" t="s">
         <v>82</v>
       </c>
@@ -2428,7 +2349,7 @@
         <v>26.21</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:6">
       <c r="A79" t="s">
         <v>83</v>
       </c>
@@ -2448,7 +2369,7 @@
         <v>26.17</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:6">
       <c r="A80" t="s">
         <v>84</v>
       </c>
@@ -2468,7 +2389,7 @@
         <v>26.15</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:6">
       <c r="A81" t="s">
         <v>85</v>
       </c>
@@ -2488,7 +2409,7 @@
         <v>26.09</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:6">
       <c r="A82" t="s">
         <v>86</v>
       </c>
@@ -2508,7 +2429,7 @@
         <v>26.02</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:6">
       <c r="A83" t="s">
         <v>87</v>
       </c>
@@ -2528,7 +2449,7 @@
         <v>25.9</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:6">
       <c r="A84" t="s">
         <v>88</v>
       </c>
@@ -2548,7 +2469,7 @@
         <v>25.86</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:6">
       <c r="A85" t="s">
         <v>89</v>
       </c>
@@ -2568,7 +2489,7 @@
         <v>25.81</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:6">
       <c r="A86" t="s">
         <v>90</v>
       </c>
@@ -2588,7 +2509,7 @@
         <v>25.81</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:6">
       <c r="A87" t="s">
         <v>91</v>
       </c>
@@ -2608,7 +2529,7 @@
         <v>25.76</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:6">
       <c r="A88" t="s">
         <v>92</v>
       </c>
@@ -2628,7 +2549,7 @@
         <v>25.7</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:6">
       <c r="A89" t="s">
         <v>93</v>
       </c>
@@ -2648,7 +2569,7 @@
         <v>25.64</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:6">
       <c r="A90" t="s">
         <v>94</v>
       </c>
@@ -2668,7 +2589,7 @@
         <v>25.57</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:6">
       <c r="A91" t="s">
         <v>95</v>
       </c>
@@ -2688,7 +2609,7 @@
         <v>25.50328538207777</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:6">
       <c r="A92" t="s">
         <v>96</v>
       </c>
@@ -2708,7 +2629,7 @@
         <v>25.46</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:6">
       <c r="A93" t="s">
         <v>97</v>
       </c>
@@ -2728,7 +2649,7 @@
         <v>25.42</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:6">
       <c r="A94" t="s">
         <v>98</v>
       </c>
@@ -2748,7 +2669,7 @@
         <v>25.36</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:6">
       <c r="A95" t="s">
         <v>99</v>
       </c>
@@ -2768,7 +2689,7 @@
         <v>25.32</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:6">
       <c r="A96" t="s">
         <v>100</v>
       </c>
@@ -2788,7 +2709,7 @@
         <v>25.25</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:6">
       <c r="A97" t="s">
         <v>101</v>
       </c>
@@ -2808,7 +2729,7 @@
         <v>25.17</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:6">
       <c r="A98" t="s">
         <v>102</v>
       </c>
@@ -2828,7 +2749,7 @@
         <v>25.06</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:6">
       <c r="A99" t="s">
         <v>103</v>
       </c>
@@ -2848,7 +2769,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:6">
       <c r="A100" t="s">
         <v>104</v>
       </c>
@@ -2868,7 +2789,7 @@
         <v>24.98</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:6">
       <c r="A101" t="s">
         <v>105</v>
       </c>
@@ -2888,7 +2809,7 @@
         <v>24.93</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:6">
       <c r="A102" t="s">
         <v>106</v>
       </c>
@@ -2908,7 +2829,7 @@
         <v>24.88</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:6">
       <c r="A103" t="s">
         <v>107</v>
       </c>
@@ -2928,7 +2849,7 @@
         <v>24.81</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:6">
       <c r="A104" t="s">
         <v>108</v>
       </c>
@@ -2948,7 +2869,7 @@
         <v>24.73</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:6">
       <c r="A105" t="s">
         <v>109</v>
       </c>
@@ -2968,7 +2889,7 @@
         <v>24.67</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:6">
       <c r="A106" t="s">
         <v>110</v>
       </c>
@@ -2988,7 +2909,7 @@
         <v>24.59</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:6">
       <c r="A107" t="s">
         <v>111</v>
       </c>
@@ -3008,7 +2929,7 @@
         <v>24.57</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:6">
       <c r="A108" t="s">
         <v>112</v>
       </c>
@@ -3028,7 +2949,7 @@
         <v>24.55</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:6">
       <c r="A109" t="s">
         <v>113</v>
       </c>
@@ -3048,7 +2969,7 @@
         <v>24.5</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:6">
       <c r="A110" t="s">
         <v>114</v>
       </c>
@@ -3068,7 +2989,7 @@
         <v>24.48</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:6">
       <c r="A111" t="s">
         <v>115</v>
       </c>
@@ -3088,7 +3009,7 @@
         <v>24.44</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:6">
       <c r="A112" t="s">
         <v>116</v>
       </c>
@@ -3108,7 +3029,7 @@
         <v>24.39</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:6">
       <c r="A113" t="s">
         <v>117</v>
       </c>
@@ -3128,7 +3049,7 @@
         <v>24.39</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:6">
       <c r="A114" t="s">
         <v>118</v>
       </c>
@@ -3148,7 +3069,7 @@
         <v>24.35</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:6">
       <c r="A115" t="s">
         <v>119</v>
       </c>
@@ -3168,7 +3089,7 @@
         <v>24.32</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:6">
       <c r="A116" t="s">
         <v>120</v>
       </c>
@@ -3188,7 +3109,7 @@
         <v>24.28</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:6">
       <c r="A117" t="s">
         <v>121</v>
       </c>
@@ -3208,7 +3129,7 @@
         <v>24.22</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:6">
       <c r="A118" t="s">
         <v>122</v>
       </c>
@@ -3228,7 +3149,7 @@
         <v>24.16</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:6">
       <c r="A119" t="s">
         <v>123</v>
       </c>
@@ -3248,7 +3169,7 @@
         <v>24.09</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:6">
       <c r="A120" t="s">
         <v>124</v>
       </c>
@@ -3268,7 +3189,7 @@
         <v>24.03</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:6">
       <c r="A121" t="s">
         <v>125</v>
       </c>
@@ -3288,7 +3209,7 @@
         <v>24.01</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:6">
       <c r="A122" t="s">
         <v>126</v>
       </c>
@@ -3308,7 +3229,7 @@
         <v>23.99</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:6">
       <c r="A123" t="s">
         <v>127</v>
       </c>
@@ -3328,7 +3249,7 @@
         <v>23.94</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:6">
       <c r="A124" t="s">
         <v>128</v>
       </c>
@@ -3348,7 +3269,7 @@
         <v>23.88</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:6">
       <c r="A125" s="2">
         <v>44105</v>
       </c>
@@ -3368,7 +3289,7 @@
         <v>23.88031778061378</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:6">
       <c r="A126" s="2">
         <v>44106</v>
       </c>
@@ -3385,10 +3306,10 @@
         <v>78492</v>
       </c>
       <c r="F126">
-        <v>23.810832702598631</v>
-      </c>
-    </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.2">
+        <v>23.81083270259863</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6">
       <c r="A127" s="2">
         <v>44107</v>
       </c>
@@ -3408,7 +3329,7 @@
         <v>23.7492298335121</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:6">
       <c r="A128" s="2">
         <v>44108</v>
       </c>
@@ -3425,10 +3346,10 @@
         <v>79088</v>
       </c>
       <c r="F128">
-        <v>23.707535465066659</v>
-      </c>
-    </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.2">
+        <v>23.70753546506666</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6">
       <c r="A129" s="2">
         <v>44109</v>
       </c>
@@ -3445,10 +3366,10 @@
         <v>79268</v>
       </c>
       <c r="F129">
-        <v>23.675501449517832</v>
-      </c>
-    </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.2">
+        <v>23.67550144951783</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6">
       <c r="A130" s="2">
         <v>44110</v>
       </c>
@@ -3465,10 +3386,10 @@
         <v>79714</v>
       </c>
       <c r="F130">
-        <v>23.652018431359298</v>
-      </c>
-    </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.2">
+        <v>23.6520184313593</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6">
       <c r="A131" s="2">
         <v>44111</v>
       </c>
@@ -3485,10 +3406,10 @@
         <v>80083</v>
       </c>
       <c r="F131">
-        <v>23.618123562698639</v>
-      </c>
-    </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.2">
+        <v>23.61812356269864</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6">
       <c r="A132" t="s">
         <v>129</v>
       </c>
@@ -3508,7 +3429,7 @@
         <v>23.5</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:6">
       <c r="A133" t="s">
         <v>130</v>
       </c>
@@ -3528,67 +3449,67 @@
         <v>23.46</v>
       </c>
     </row>
-    <row r="134" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A134" s="3">
+    <row r="134" spans="1:6">
+      <c r="A134" s="2">
         <v>44114</v>
       </c>
-      <c r="B134" s="5">
+      <c r="B134">
         <v>814328</v>
       </c>
-      <c r="C134" s="5">
+      <c r="C134">
         <v>964812</v>
       </c>
-      <c r="D134" s="5">
+      <c r="D134">
         <v>305487</v>
       </c>
-      <c r="E134" s="5">
+      <c r="E134">
         <v>83642</v>
       </c>
-      <c r="F134" s="5">
-        <v>23.404205676336808</v>
-      </c>
-    </row>
-    <row r="135" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A135" s="3">
+      <c r="F134">
+        <v>23.40420567633681</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6">
+      <c r="A135" s="2">
         <v>44115</v>
       </c>
-      <c r="B135" s="5">
+      <c r="B135">
         <v>817503</v>
       </c>
-      <c r="C135" s="5">
+      <c r="C135">
         <v>969859</v>
       </c>
-      <c r="D135" s="5">
+      <c r="D135">
         <v>301579</v>
       </c>
-      <c r="E135" s="5">
+      <c r="E135">
         <v>83781</v>
       </c>
-      <c r="F135" s="5">
-        <v>23.367865316702201</v>
-      </c>
-    </row>
-    <row r="136" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A136" s="4">
+      <c r="F135">
+        <v>23.3678653167022</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6">
+      <c r="A136" s="2">
         <v>44116</v>
       </c>
-      <c r="B136" s="5">
+      <c r="B136">
         <v>821045</v>
       </c>
-      <c r="C136" s="5">
+      <c r="C136">
         <v>975299</v>
       </c>
-      <c r="D136" s="5">
+      <c r="D136">
         <v>297064</v>
       </c>
-      <c r="E136" s="5">
+      <c r="E136">
         <v>83945</v>
       </c>
-      <c r="F136" s="5">
+      <c r="F136">
         <v>23.32965915388316</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:6">
       <c r="A137" t="s">
         <v>131</v>
       </c>
@@ -3608,7 +3529,7 @@
         <v>23.32</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:6">
       <c r="A138" t="s">
         <v>132</v>
       </c>
@@ -3628,7 +3549,7 @@
         <v>23.34</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:6">
       <c r="A139" t="s">
         <v>133</v>
       </c>
@@ -3648,47 +3569,47 @@
         <v>23.3</v>
       </c>
     </row>
-    <row r="140" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A140" s="6">
+    <row r="140" spans="1:6">
+      <c r="A140" s="2">
         <v>44120</v>
       </c>
-      <c r="B140" s="5">
+      <c r="B140">
         <v>841661</v>
       </c>
-      <c r="C140" s="5">
+      <c r="C140">
         <v>1004800</v>
       </c>
-      <c r="D140" s="5">
+      <c r="D140">
         <v>313678</v>
       </c>
-      <c r="E140" s="5">
+      <c r="E140">
         <v>85704</v>
       </c>
-      <c r="F140" s="5">
-        <v>23.229780160896134</v>
-      </c>
-    </row>
-    <row r="141" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A141" s="6">
+      <c r="F140">
+        <v>23.22978016089613</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6">
+      <c r="A141" s="2">
         <v>44121</v>
       </c>
-      <c r="B141" s="5">
+      <c r="B141">
         <v>847108</v>
       </c>
-      <c r="C141" s="5">
+      <c r="C141">
         <v>1013186</v>
       </c>
-      <c r="D141" s="5">
+      <c r="D141">
         <v>316228</v>
       </c>
-      <c r="E141" s="5">
+      <c r="E141">
         <v>86059</v>
       </c>
-      <c r="F141" s="5">
-        <v>23.186063642416315</v>
-      </c>
-    </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F141">
+        <v>23.18606364241631</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6">
       <c r="A142" t="s">
         <v>134</v>
       </c>
@@ -3706,6 +3627,26 @@
       </c>
       <c r="F142">
         <v>23.32</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6">
+      <c r="A143" t="s">
+        <v>135</v>
+      </c>
+      <c r="B143">
+        <v>854926</v>
+      </c>
+      <c r="C143">
+        <v>1024804</v>
+      </c>
+      <c r="D143">
+        <v>308255</v>
+      </c>
+      <c r="E143">
+        <v>86338</v>
+      </c>
+      <c r="F143">
+        <v>23.09</v>
       </c>
     </row>
   </sheetData>

--- a/data-validation/bitacora_historica_tablero_oficial.xlsx
+++ b/data-validation/bitacora_historica_tablero_oficial.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="137">
   <si>
     <t>Fecha</t>
   </si>
@@ -422,6 +422,9 @@
   </si>
   <si>
     <t>2020-10-19</t>
+  </si>
+  <si>
+    <t>2020-10-20</t>
   </si>
 </sst>
 </file>
@@ -783,7 +786,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F143"/>
+  <dimension ref="A1:F144"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3649,6 +3652,26 @@
         <v>23.09</v>
       </c>
     </row>
+    <row r="144" spans="1:6">
+      <c r="A144" t="s">
+        <v>136</v>
+      </c>
+      <c r="B144">
+        <v>860714</v>
+      </c>
+      <c r="C144">
+        <v>1032997</v>
+      </c>
+      <c r="D144">
+        <v>314126</v>
+      </c>
+      <c r="E144">
+        <v>86893</v>
+      </c>
+      <c r="F144">
+        <v>23.08</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data-validation/bitacora_historica_tablero_oficial.xlsx
+++ b/data-validation/bitacora_historica_tablero_oficial.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="138">
   <si>
     <t>Fecha</t>
   </si>
@@ -425,6 +425,9 @@
   </si>
   <si>
     <t>2020-10-20</t>
+  </si>
+  <si>
+    <t>2020-10-21</t>
   </si>
 </sst>
 </file>
@@ -786,7 +789,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F144"/>
+  <dimension ref="A1:F145"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3672,6 +3675,26 @@
         <v>23.08</v>
       </c>
     </row>
+    <row r="145" spans="1:6">
+      <c r="A145" t="s">
+        <v>137</v>
+      </c>
+      <c r="B145">
+        <v>867559</v>
+      </c>
+      <c r="C145">
+        <v>1041541</v>
+      </c>
+      <c r="D145">
+        <v>320112</v>
+      </c>
+      <c r="E145">
+        <v>87415</v>
+      </c>
+      <c r="F145">
+        <v>23.05</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data-validation/bitacora_historica_tablero_oficial.xlsx
+++ b/data-validation/bitacora_historica_tablero_oficial.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="139">
   <si>
     <t>Fecha</t>
   </si>
@@ -428,6 +428,9 @@
   </si>
   <si>
     <t>2020-10-21</t>
+  </si>
+  <si>
+    <t>2020-10-22</t>
   </si>
 </sst>
 </file>
@@ -789,7 +792,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F145"/>
+  <dimension ref="A1:F146"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3695,6 +3698,26 @@
         <v>23.05</v>
       </c>
     </row>
+    <row r="146" spans="1:6">
+      <c r="A146" t="s">
+        <v>138</v>
+      </c>
+      <c r="B146">
+        <v>874171</v>
+      </c>
+      <c r="C146">
+        <v>1049853</v>
+      </c>
+      <c r="D146">
+        <v>325595</v>
+      </c>
+      <c r="E146">
+        <v>87894</v>
+      </c>
+      <c r="F146">
+        <v>23.01</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data-validation/bitacora_historica_tablero_oficial.xlsx
+++ b/data-validation/bitacora_historica_tablero_oficial.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11011"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marianafernandez/Documents/PADeCI/covid19-mx-data/data-validation/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC2EB5E7-3E68-CB4B-A3F5-E882B94BEA23}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="out_vars" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="140">
   <si>
     <t>Fecha</t>
   </si>
@@ -431,18 +437,29 @@
   </si>
   <si>
     <t>2020-10-22</t>
+  </si>
+  <si>
+    <t>2020-10-26</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -489,26 +506,42 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+      <alignment wrapText="1"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="XLConnect.Numeric" xfId="1" xr:uid="{6A3ECE82-3982-FA4B-8A08-F330DAC0E1DD}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -550,7 +583,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -582,9 +615,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -616,6 +667,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -791,14 +860,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F146"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F150"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A118" workbookViewId="0">
+      <selection activeCell="A146" sqref="A146"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="10.1640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -818,7 +892,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -838,7 +912,7 @@
         <v>34.9</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -855,10 +929,10 @@
         <v>10637</v>
       </c>
       <c r="F3">
-        <v>34.59</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>34.590000000000003</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -875,10 +949,10 @@
         <v>11728</v>
       </c>
       <c r="F4">
-        <v>34.45</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>34.450000000000003</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -898,7 +972,7 @@
         <v>34.24</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -918,7 +992,7 @@
         <v>34.03</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -938,7 +1012,7 @@
         <v>33.72</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -955,10 +1029,10 @@
         <v>13699</v>
       </c>
       <c r="F8">
-        <v>33.48</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>33.479999999999997</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>13</v>
       </c>
@@ -978,7 +1052,7 @@
         <v>33.32</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>14</v>
       </c>
@@ -998,7 +1072,7 @@
         <v>33.21</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>15</v>
       </c>
@@ -1018,7 +1092,7 @@
         <v>33.11</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>16</v>
       </c>
@@ -1038,7 +1112,7 @@
         <v>33.01</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>17</v>
       </c>
@@ -1058,7 +1132,7 @@
         <v>32.78</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>18</v>
       </c>
@@ -1075,10 +1149,10 @@
         <v>16872</v>
       </c>
       <c r="F14">
-        <v>32.66</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+        <v>32.659999999999997</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>19</v>
       </c>
@@ -1098,7 +1172,7 @@
         <v>32.5</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>20</v>
       </c>
@@ -1118,7 +1192,7 @@
         <v>32.36</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>21</v>
       </c>
@@ -1138,7 +1212,7 @@
         <v>32.29</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>22</v>
       </c>
@@ -1158,7 +1232,7 @@
         <v>32.06</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>23</v>
       </c>
@@ -1178,7 +1252,7 @@
         <v>31.86</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>24</v>
       </c>
@@ -1198,7 +1272,7 @@
         <v>31.72</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>25</v>
       </c>
@@ -1218,7 +1292,7 @@
         <v>31.46</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>26</v>
       </c>
@@ -1238,7 +1312,7 @@
         <v>31.61</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>27</v>
       </c>
@@ -1258,7 +1332,7 @@
         <v>31.69</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>28</v>
       </c>
@@ -1278,7 +1352,7 @@
         <v>31.6</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>29</v>
       </c>
@@ -1298,7 +1372,7 @@
         <v>31.58</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>30</v>
       </c>
@@ -1318,7 +1392,7 @@
         <v>31.46</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>31</v>
       </c>
@@ -1338,7 +1412,7 @@
         <v>31.37</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>32</v>
       </c>
@@ -1358,7 +1432,7 @@
         <v>31.24</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>33</v>
       </c>
@@ -1378,7 +1452,7 @@
         <v>31.11</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>34</v>
       </c>
@@ -1398,7 +1472,7 @@
         <v>30.95</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>35</v>
       </c>
@@ -1418,7 +1492,7 @@
         <v>30.78</v>
       </c>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>36</v>
       </c>
@@ -1438,7 +1512,7 @@
         <v>30.73</v>
       </c>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>37</v>
       </c>
@@ -1458,7 +1532,7 @@
         <v>30.52</v>
       </c>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>38</v>
       </c>
@@ -1478,7 +1552,7 @@
         <v>30.35</v>
       </c>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>39</v>
       </c>
@@ -1498,7 +1572,7 @@
         <v>30.18</v>
       </c>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>40</v>
       </c>
@@ -1518,7 +1592,7 @@
         <v>30.02</v>
       </c>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>41</v>
       </c>
@@ -1538,7 +1612,7 @@
         <v>29.94</v>
       </c>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>42</v>
       </c>
@@ -1558,7 +1632,7 @@
         <v>29.89</v>
       </c>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>43</v>
       </c>
@@ -1578,7 +1652,7 @@
         <v>29.78</v>
       </c>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>44</v>
       </c>
@@ -1598,7 +1672,7 @@
         <v>29.67</v>
       </c>
     </row>
-    <row r="41" spans="1:6">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>45</v>
       </c>
@@ -1618,7 +1692,7 @@
         <v>29.5</v>
       </c>
     </row>
-    <row r="42" spans="1:6">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>46</v>
       </c>
@@ -1638,7 +1712,7 @@
         <v>29.33</v>
       </c>
     </row>
-    <row r="43" spans="1:6">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>47</v>
       </c>
@@ -1658,7 +1732,7 @@
         <v>29.25</v>
       </c>
     </row>
-    <row r="44" spans="1:6">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>48</v>
       </c>
@@ -1678,7 +1752,7 @@
         <v>29.21</v>
       </c>
     </row>
-    <row r="45" spans="1:6">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>49</v>
       </c>
@@ -1698,7 +1772,7 @@
         <v>29.12</v>
       </c>
     </row>
-    <row r="46" spans="1:6">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>50</v>
       </c>
@@ -1718,7 +1792,7 @@
         <v>29.05</v>
       </c>
     </row>
-    <row r="47" spans="1:6">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>51</v>
       </c>
@@ -1738,7 +1812,7 @@
         <v>28.95</v>
       </c>
     </row>
-    <row r="48" spans="1:6">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>52</v>
       </c>
@@ -1758,7 +1832,7 @@
         <v>28.81</v>
       </c>
     </row>
-    <row r="49" spans="1:6">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>53</v>
       </c>
@@ -1778,7 +1852,7 @@
         <v>28.66</v>
       </c>
     </row>
-    <row r="50" spans="1:6">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>54</v>
       </c>
@@ -1798,7 +1872,7 @@
         <v>28.55</v>
       </c>
     </row>
-    <row r="51" spans="1:6">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>55</v>
       </c>
@@ -1818,7 +1892,7 @@
         <v>28.43</v>
       </c>
     </row>
-    <row r="52" spans="1:6">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>56</v>
       </c>
@@ -1838,7 +1912,7 @@
         <v>28.33</v>
       </c>
     </row>
-    <row r="53" spans="1:6">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>57</v>
       </c>
@@ -1858,7 +1932,7 @@
         <v>28.24</v>
       </c>
     </row>
-    <row r="54" spans="1:6">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>58</v>
       </c>
@@ -1878,7 +1952,7 @@
         <v>28.12</v>
       </c>
     </row>
-    <row r="55" spans="1:6">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>59</v>
       </c>
@@ -1898,7 +1972,7 @@
         <v>27.97</v>
       </c>
     </row>
-    <row r="56" spans="1:6">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>60</v>
       </c>
@@ -1918,7 +1992,7 @@
         <v>27.89</v>
       </c>
     </row>
-    <row r="57" spans="1:6">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>61</v>
       </c>
@@ -1938,7 +2012,7 @@
         <v>27.78</v>
       </c>
     </row>
-    <row r="58" spans="1:6">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>62</v>
       </c>
@@ -1958,7 +2032,7 @@
         <v>27.72</v>
       </c>
     </row>
-    <row r="59" spans="1:6">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>63</v>
       </c>
@@ -1978,7 +2052,7 @@
         <v>27.63</v>
       </c>
     </row>
-    <row r="60" spans="1:6">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>64</v>
       </c>
@@ -1998,7 +2072,7 @@
         <v>27.52</v>
       </c>
     </row>
-    <row r="61" spans="1:6">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>65</v>
       </c>
@@ -2018,7 +2092,7 @@
         <v>27.38</v>
       </c>
     </row>
-    <row r="62" spans="1:6">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>66</v>
       </c>
@@ -2038,7 +2112,7 @@
         <v>27.16</v>
       </c>
     </row>
-    <row r="63" spans="1:6">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>67</v>
       </c>
@@ -2058,7 +2132,7 @@
         <v>27.02</v>
       </c>
     </row>
-    <row r="64" spans="1:6">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>68</v>
       </c>
@@ -2078,7 +2152,7 @@
         <v>26.92</v>
       </c>
     </row>
-    <row r="65" spans="1:6">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>69</v>
       </c>
@@ -2098,7 +2172,7 @@
         <v>26.88</v>
       </c>
     </row>
-    <row r="66" spans="1:6">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>70</v>
       </c>
@@ -2118,7 +2192,7 @@
         <v>26.86</v>
       </c>
     </row>
-    <row r="67" spans="1:6">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>71</v>
       </c>
@@ -2138,7 +2212,7 @@
         <v>26.83</v>
       </c>
     </row>
-    <row r="68" spans="1:6">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>72</v>
       </c>
@@ -2158,7 +2232,7 @@
         <v>26.8</v>
       </c>
     </row>
-    <row r="69" spans="1:6">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>73</v>
       </c>
@@ -2178,7 +2252,7 @@
         <v>26.74</v>
       </c>
     </row>
-    <row r="70" spans="1:6">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>74</v>
       </c>
@@ -2198,7 +2272,7 @@
         <v>26.67</v>
       </c>
     </row>
-    <row r="71" spans="1:6">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>75</v>
       </c>
@@ -2218,7 +2292,7 @@
         <v>26.61</v>
       </c>
     </row>
-    <row r="72" spans="1:6">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>76</v>
       </c>
@@ -2238,7 +2312,7 @@
         <v>26.56</v>
       </c>
     </row>
-    <row r="73" spans="1:6">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>77</v>
       </c>
@@ -2258,7 +2332,7 @@
         <v>26.51</v>
       </c>
     </row>
-    <row r="74" spans="1:6">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>78</v>
       </c>
@@ -2278,7 +2352,7 @@
         <v>26.49</v>
       </c>
     </row>
-    <row r="75" spans="1:6">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>79</v>
       </c>
@@ -2298,7 +2372,7 @@
         <v>26.39</v>
       </c>
     </row>
-    <row r="76" spans="1:6">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>80</v>
       </c>
@@ -2318,7 +2392,7 @@
         <v>26.33</v>
       </c>
     </row>
-    <row r="77" spans="1:6">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>81</v>
       </c>
@@ -2338,7 +2412,7 @@
         <v>26.25</v>
       </c>
     </row>
-    <row r="78" spans="1:6">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>82</v>
       </c>
@@ -2358,7 +2432,7 @@
         <v>26.21</v>
       </c>
     </row>
-    <row r="79" spans="1:6">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>83</v>
       </c>
@@ -2378,7 +2452,7 @@
         <v>26.17</v>
       </c>
     </row>
-    <row r="80" spans="1:6">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>84</v>
       </c>
@@ -2398,7 +2472,7 @@
         <v>26.15</v>
       </c>
     </row>
-    <row r="81" spans="1:6">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>85</v>
       </c>
@@ -2418,7 +2492,7 @@
         <v>26.09</v>
       </c>
     </row>
-    <row r="82" spans="1:6">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>86</v>
       </c>
@@ -2438,7 +2512,7 @@
         <v>26.02</v>
       </c>
     </row>
-    <row r="83" spans="1:6">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>87</v>
       </c>
@@ -2458,7 +2532,7 @@
         <v>25.9</v>
       </c>
     </row>
-    <row r="84" spans="1:6">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>88</v>
       </c>
@@ -2478,7 +2552,7 @@
         <v>25.86</v>
       </c>
     </row>
-    <row r="85" spans="1:6">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>89</v>
       </c>
@@ -2498,7 +2572,7 @@
         <v>25.81</v>
       </c>
     </row>
-    <row r="86" spans="1:6">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>90</v>
       </c>
@@ -2518,7 +2592,7 @@
         <v>25.81</v>
       </c>
     </row>
-    <row r="87" spans="1:6">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>91</v>
       </c>
@@ -2538,7 +2612,7 @@
         <v>25.76</v>
       </c>
     </row>
-    <row r="88" spans="1:6">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>92</v>
       </c>
@@ -2558,7 +2632,7 @@
         <v>25.7</v>
       </c>
     </row>
-    <row r="89" spans="1:6">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>93</v>
       </c>
@@ -2578,7 +2652,7 @@
         <v>25.64</v>
       </c>
     </row>
-    <row r="90" spans="1:6">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>94</v>
       </c>
@@ -2598,7 +2672,7 @@
         <v>25.57</v>
       </c>
     </row>
-    <row r="91" spans="1:6">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>95</v>
       </c>
@@ -2618,7 +2692,7 @@
         <v>25.50328538207777</v>
       </c>
     </row>
-    <row r="92" spans="1:6">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>96</v>
       </c>
@@ -2638,7 +2712,7 @@
         <v>25.46</v>
       </c>
     </row>
-    <row r="93" spans="1:6">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>97</v>
       </c>
@@ -2658,7 +2732,7 @@
         <v>25.42</v>
       </c>
     </row>
-    <row r="94" spans="1:6">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>98</v>
       </c>
@@ -2678,7 +2752,7 @@
         <v>25.36</v>
       </c>
     </row>
-    <row r="95" spans="1:6">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>99</v>
       </c>
@@ -2698,7 +2772,7 @@
         <v>25.32</v>
       </c>
     </row>
-    <row r="96" spans="1:6">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>100</v>
       </c>
@@ -2718,7 +2792,7 @@
         <v>25.25</v>
       </c>
     </row>
-    <row r="97" spans="1:6">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>101</v>
       </c>
@@ -2738,7 +2812,7 @@
         <v>25.17</v>
       </c>
     </row>
-    <row r="98" spans="1:6">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>102</v>
       </c>
@@ -2758,7 +2832,7 @@
         <v>25.06</v>
       </c>
     </row>
-    <row r="99" spans="1:6">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>103</v>
       </c>
@@ -2778,7 +2852,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="100" spans="1:6">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>104</v>
       </c>
@@ -2798,7 +2872,7 @@
         <v>24.98</v>
       </c>
     </row>
-    <row r="101" spans="1:6">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>105</v>
       </c>
@@ -2818,7 +2892,7 @@
         <v>24.93</v>
       </c>
     </row>
-    <row r="102" spans="1:6">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>106</v>
       </c>
@@ -2838,7 +2912,7 @@
         <v>24.88</v>
       </c>
     </row>
-    <row r="103" spans="1:6">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>107</v>
       </c>
@@ -2858,7 +2932,7 @@
         <v>24.81</v>
       </c>
     </row>
-    <row r="104" spans="1:6">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>108</v>
       </c>
@@ -2878,7 +2952,7 @@
         <v>24.73</v>
       </c>
     </row>
-    <row r="105" spans="1:6">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>109</v>
       </c>
@@ -2898,7 +2972,7 @@
         <v>24.67</v>
       </c>
     </row>
-    <row r="106" spans="1:6">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>110</v>
       </c>
@@ -2918,7 +2992,7 @@
         <v>24.59</v>
       </c>
     </row>
-    <row r="107" spans="1:6">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>111</v>
       </c>
@@ -2938,7 +3012,7 @@
         <v>24.57</v>
       </c>
     </row>
-    <row r="108" spans="1:6">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>112</v>
       </c>
@@ -2958,7 +3032,7 @@
         <v>24.55</v>
       </c>
     </row>
-    <row r="109" spans="1:6">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>113</v>
       </c>
@@ -2978,7 +3052,7 @@
         <v>24.5</v>
       </c>
     </row>
-    <row r="110" spans="1:6">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>114</v>
       </c>
@@ -2998,7 +3072,7 @@
         <v>24.48</v>
       </c>
     </row>
-    <row r="111" spans="1:6">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>115</v>
       </c>
@@ -3018,7 +3092,7 @@
         <v>24.44</v>
       </c>
     </row>
-    <row r="112" spans="1:6">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>116</v>
       </c>
@@ -3038,7 +3112,7 @@
         <v>24.39</v>
       </c>
     </row>
-    <row r="113" spans="1:6">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>117</v>
       </c>
@@ -3058,7 +3132,7 @@
         <v>24.39</v>
       </c>
     </row>
-    <row r="114" spans="1:6">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>118</v>
       </c>
@@ -3078,7 +3152,7 @@
         <v>24.35</v>
       </c>
     </row>
-    <row r="115" spans="1:6">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>119</v>
       </c>
@@ -3098,7 +3172,7 @@
         <v>24.32</v>
       </c>
     </row>
-    <row r="116" spans="1:6">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>120</v>
       </c>
@@ -3118,7 +3192,7 @@
         <v>24.28</v>
       </c>
     </row>
-    <row r="117" spans="1:6">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>121</v>
       </c>
@@ -3138,7 +3212,7 @@
         <v>24.22</v>
       </c>
     </row>
-    <row r="118" spans="1:6">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>122</v>
       </c>
@@ -3158,7 +3232,7 @@
         <v>24.16</v>
       </c>
     </row>
-    <row r="119" spans="1:6">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>123</v>
       </c>
@@ -3178,7 +3252,7 @@
         <v>24.09</v>
       </c>
     </row>
-    <row r="120" spans="1:6">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>124</v>
       </c>
@@ -3198,7 +3272,7 @@
         <v>24.03</v>
       </c>
     </row>
-    <row r="121" spans="1:6">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>125</v>
       </c>
@@ -3218,7 +3292,7 @@
         <v>24.01</v>
       </c>
     </row>
-    <row r="122" spans="1:6">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>126</v>
       </c>
@@ -3238,7 +3312,7 @@
         <v>23.99</v>
       </c>
     </row>
-    <row r="123" spans="1:6">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>127</v>
       </c>
@@ -3258,7 +3332,7 @@
         <v>23.94</v>
       </c>
     </row>
-    <row r="124" spans="1:6">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>128</v>
       </c>
@@ -3278,7 +3352,7 @@
         <v>23.88</v>
       </c>
     </row>
-    <row r="125" spans="1:6">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A125" s="2">
         <v>44105</v>
       </c>
@@ -3298,7 +3372,7 @@
         <v>23.88031778061378</v>
       </c>
     </row>
-    <row r="126" spans="1:6">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A126" s="2">
         <v>44106</v>
       </c>
@@ -3315,10 +3389,10 @@
         <v>78492</v>
       </c>
       <c r="F126">
-        <v>23.81083270259863</v>
-      </c>
-    </row>
-    <row r="127" spans="1:6">
+        <v>23.810832702598631</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A127" s="2">
         <v>44107</v>
       </c>
@@ -3338,7 +3412,7 @@
         <v>23.7492298335121</v>
       </c>
     </row>
-    <row r="128" spans="1:6">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A128" s="2">
         <v>44108</v>
       </c>
@@ -3355,10 +3429,10 @@
         <v>79088</v>
       </c>
       <c r="F128">
-        <v>23.70753546506666</v>
-      </c>
-    </row>
-    <row r="129" spans="1:6">
+        <v>23.707535465066659</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A129" s="2">
         <v>44109</v>
       </c>
@@ -3375,10 +3449,10 @@
         <v>79268</v>
       </c>
       <c r="F129">
-        <v>23.67550144951783</v>
-      </c>
-    </row>
-    <row r="130" spans="1:6">
+        <v>23.675501449517832</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A130" s="2">
         <v>44110</v>
       </c>
@@ -3395,10 +3469,10 @@
         <v>79714</v>
       </c>
       <c r="F130">
-        <v>23.6520184313593</v>
-      </c>
-    </row>
-    <row r="131" spans="1:6">
+        <v>23.652018431359298</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A131" s="2">
         <v>44111</v>
       </c>
@@ -3415,10 +3489,10 @@
         <v>80083</v>
       </c>
       <c r="F131">
-        <v>23.61812356269864</v>
-      </c>
-    </row>
-    <row r="132" spans="1:6">
+        <v>23.618123562698639</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>129</v>
       </c>
@@ -3438,7 +3512,7 @@
         <v>23.5</v>
       </c>
     </row>
-    <row r="133" spans="1:6">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>130</v>
       </c>
@@ -3458,7 +3532,7 @@
         <v>23.46</v>
       </c>
     </row>
-    <row r="134" spans="1:6">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A134" s="2">
         <v>44114</v>
       </c>
@@ -3475,10 +3549,10 @@
         <v>83642</v>
       </c>
       <c r="F134">
-        <v>23.40420567633681</v>
-      </c>
-    </row>
-    <row r="135" spans="1:6">
+        <v>23.404205676336812</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A135" s="2">
         <v>44115</v>
       </c>
@@ -3495,10 +3569,10 @@
         <v>83781</v>
       </c>
       <c r="F135">
-        <v>23.3678653167022</v>
-      </c>
-    </row>
-    <row r="136" spans="1:6">
+        <v>23.367865316702201</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A136" s="2">
         <v>44116</v>
       </c>
@@ -3518,7 +3592,7 @@
         <v>23.32965915388316</v>
       </c>
     </row>
-    <row r="137" spans="1:6">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>131</v>
       </c>
@@ -3538,7 +3612,7 @@
         <v>23.32</v>
       </c>
     </row>
-    <row r="138" spans="1:6">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>132</v>
       </c>
@@ -3558,7 +3632,7 @@
         <v>23.34</v>
       </c>
     </row>
-    <row r="139" spans="1:6">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>133</v>
       </c>
@@ -3578,7 +3652,7 @@
         <v>23.3</v>
       </c>
     </row>
-    <row r="140" spans="1:6">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A140" s="2">
         <v>44120</v>
       </c>
@@ -3598,7 +3672,7 @@
         <v>23.22978016089613</v>
       </c>
     </row>
-    <row r="141" spans="1:6">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A141" s="2">
         <v>44121</v>
       </c>
@@ -3615,10 +3689,10 @@
         <v>86059</v>
       </c>
       <c r="F141">
-        <v>23.18606364241631</v>
-      </c>
-    </row>
-    <row r="142" spans="1:6">
+        <v>23.186063642416311</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>134</v>
       </c>
@@ -3638,7 +3712,7 @@
         <v>23.32</v>
       </c>
     </row>
-    <row r="143" spans="1:6">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>135</v>
       </c>
@@ -3658,7 +3732,7 @@
         <v>23.09</v>
       </c>
     </row>
-    <row r="144" spans="1:6">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>136</v>
       </c>
@@ -3678,7 +3752,7 @@
         <v>23.08</v>
       </c>
     </row>
-    <row r="145" spans="1:6">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>137</v>
       </c>
@@ -3698,7 +3772,7 @@
         <v>23.05</v>
       </c>
     </row>
-    <row r="146" spans="1:6">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>138</v>
       </c>
@@ -3716,6 +3790,86 @@
       </c>
       <c r="F146">
         <v>23.01</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A147" s="3">
+        <v>44127</v>
+      </c>
+      <c r="B147" s="4">
+        <v>880775</v>
+      </c>
+      <c r="C147" s="4">
+        <v>1058102</v>
+      </c>
+      <c r="D147" s="4">
+        <v>330956</v>
+      </c>
+      <c r="E147" s="4">
+        <v>88312</v>
+      </c>
+      <c r="F147" s="4">
+        <v>22.990548096846528</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A148" s="3">
+        <v>44128</v>
+      </c>
+      <c r="B148" s="4">
+        <v>886800</v>
+      </c>
+      <c r="C148" s="4">
+        <v>1066646</v>
+      </c>
+      <c r="D148" s="4">
+        <v>335143</v>
+      </c>
+      <c r="E148" s="4">
+        <v>88743</v>
+      </c>
+      <c r="F148" s="4">
+        <v>22.937302661253948</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A149" s="3">
+        <v>44129</v>
+      </c>
+      <c r="B149" s="4">
+        <v>891160</v>
+      </c>
+      <c r="C149" s="4">
+        <v>1072760</v>
+      </c>
+      <c r="D149" s="4">
+        <v>331758</v>
+      </c>
+      <c r="E149" s="4">
+        <v>88924</v>
+      </c>
+      <c r="F149" s="4">
+        <v>22.897796130885588</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A150" t="s">
+        <v>139</v>
+      </c>
+      <c r="B150">
+        <v>895326</v>
+      </c>
+      <c r="C150">
+        <v>1078072</v>
+      </c>
+      <c r="D150">
+        <v>328231</v>
+      </c>
+      <c r="E150">
+        <v>89171</v>
+      </c>
+      <c r="F150">
+        <v>22.89</v>
       </c>
     </row>
   </sheetData>

--- a/data-validation/bitacora_historica_tablero_oficial.xlsx
+++ b/data-validation/bitacora_historica_tablero_oficial.xlsx
@@ -1,26 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marianafernandez/Documents/PADeCI/covid19-mx-data/data-validation/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC2EB5E7-3E68-CB4B-A3F5-E882B94BEA23}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="out_vars" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="141">
   <si>
     <t>Fecha</t>
   </si>
@@ -440,26 +434,21 @@
   </si>
   <si>
     <t>2020-10-26</t>
+  </si>
+  <si>
+    <t>2020-10-27</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
-    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd;@"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -506,42 +495,26 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
-      <alignment wrapText="1"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1">
-      <alignment wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="XLConnect.Numeric" xfId="1" xr:uid="{6A3ECE82-3982-FA4B-8A08-F330DAC0E1DD}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -583,7 +556,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -615,27 +588,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -667,24 +622,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -860,19 +797,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F150"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F151"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A118" workbookViewId="0">
-      <selection activeCell="A146" sqref="A146"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="10.1640625" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -892,7 +824,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -912,7 +844,7 @@
         <v>34.9</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -929,10 +861,10 @@
         <v>10637</v>
       </c>
       <c r="F3">
-        <v>34.590000000000003</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+        <v>34.59</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -949,10 +881,10 @@
         <v>11728</v>
       </c>
       <c r="F4">
-        <v>34.450000000000003</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+        <v>34.45</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -972,7 +904,7 @@
         <v>34.24</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -992,7 +924,7 @@
         <v>34.03</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -1012,7 +944,7 @@
         <v>33.72</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -1029,10 +961,10 @@
         <v>13699</v>
       </c>
       <c r="F8">
-        <v>33.479999999999997</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+        <v>33.48</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" t="s">
         <v>13</v>
       </c>
@@ -1052,7 +984,7 @@
         <v>33.32</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6">
       <c r="A10" t="s">
         <v>14</v>
       </c>
@@ -1072,7 +1004,7 @@
         <v>33.21</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6">
       <c r="A11" t="s">
         <v>15</v>
       </c>
@@ -1092,7 +1024,7 @@
         <v>33.11</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6">
       <c r="A12" t="s">
         <v>16</v>
       </c>
@@ -1112,7 +1044,7 @@
         <v>33.01</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6">
       <c r="A13" t="s">
         <v>17</v>
       </c>
@@ -1132,7 +1064,7 @@
         <v>32.78</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6">
       <c r="A14" t="s">
         <v>18</v>
       </c>
@@ -1149,10 +1081,10 @@
         <v>16872</v>
       </c>
       <c r="F14">
-        <v>32.659999999999997</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+        <v>32.66</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" t="s">
         <v>19</v>
       </c>
@@ -1172,7 +1104,7 @@
         <v>32.5</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6">
       <c r="A16" t="s">
         <v>20</v>
       </c>
@@ -1192,7 +1124,7 @@
         <v>32.36</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6">
       <c r="A17" t="s">
         <v>21</v>
       </c>
@@ -1212,7 +1144,7 @@
         <v>32.29</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6">
       <c r="A18" t="s">
         <v>22</v>
       </c>
@@ -1232,7 +1164,7 @@
         <v>32.06</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6">
       <c r="A19" t="s">
         <v>23</v>
       </c>
@@ -1252,7 +1184,7 @@
         <v>31.86</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6">
       <c r="A20" t="s">
         <v>24</v>
       </c>
@@ -1272,7 +1204,7 @@
         <v>31.72</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6">
       <c r="A21" t="s">
         <v>25</v>
       </c>
@@ -1292,7 +1224,7 @@
         <v>31.46</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6">
       <c r="A22" t="s">
         <v>26</v>
       </c>
@@ -1312,7 +1244,7 @@
         <v>31.61</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6">
       <c r="A23" t="s">
         <v>27</v>
       </c>
@@ -1332,7 +1264,7 @@
         <v>31.69</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6">
       <c r="A24" t="s">
         <v>28</v>
       </c>
@@ -1352,7 +1284,7 @@
         <v>31.6</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6">
       <c r="A25" t="s">
         <v>29</v>
       </c>
@@ -1372,7 +1304,7 @@
         <v>31.58</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6">
       <c r="A26" t="s">
         <v>30</v>
       </c>
@@ -1392,7 +1324,7 @@
         <v>31.46</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6">
       <c r="A27" t="s">
         <v>31</v>
       </c>
@@ -1412,7 +1344,7 @@
         <v>31.37</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6">
       <c r="A28" t="s">
         <v>32</v>
       </c>
@@ -1432,7 +1364,7 @@
         <v>31.24</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6">
       <c r="A29" t="s">
         <v>33</v>
       </c>
@@ -1452,7 +1384,7 @@
         <v>31.11</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6">
       <c r="A30" t="s">
         <v>34</v>
       </c>
@@ -1472,7 +1404,7 @@
         <v>30.95</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6">
       <c r="A31" t="s">
         <v>35</v>
       </c>
@@ -1492,7 +1424,7 @@
         <v>30.78</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:6">
       <c r="A32" t="s">
         <v>36</v>
       </c>
@@ -1512,7 +1444,7 @@
         <v>30.73</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6">
       <c r="A33" t="s">
         <v>37</v>
       </c>
@@ -1532,7 +1464,7 @@
         <v>30.52</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:6">
       <c r="A34" t="s">
         <v>38</v>
       </c>
@@ -1552,7 +1484,7 @@
         <v>30.35</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:6">
       <c r="A35" t="s">
         <v>39</v>
       </c>
@@ -1572,7 +1504,7 @@
         <v>30.18</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:6">
       <c r="A36" t="s">
         <v>40</v>
       </c>
@@ -1592,7 +1524,7 @@
         <v>30.02</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:6">
       <c r="A37" t="s">
         <v>41</v>
       </c>
@@ -1612,7 +1544,7 @@
         <v>29.94</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:6">
       <c r="A38" t="s">
         <v>42</v>
       </c>
@@ -1632,7 +1564,7 @@
         <v>29.89</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:6">
       <c r="A39" t="s">
         <v>43</v>
       </c>
@@ -1652,7 +1584,7 @@
         <v>29.78</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:6">
       <c r="A40" t="s">
         <v>44</v>
       </c>
@@ -1672,7 +1604,7 @@
         <v>29.67</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:6">
       <c r="A41" t="s">
         <v>45</v>
       </c>
@@ -1692,7 +1624,7 @@
         <v>29.5</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:6">
       <c r="A42" t="s">
         <v>46</v>
       </c>
@@ -1712,7 +1644,7 @@
         <v>29.33</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:6">
       <c r="A43" t="s">
         <v>47</v>
       </c>
@@ -1732,7 +1664,7 @@
         <v>29.25</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:6">
       <c r="A44" t="s">
         <v>48</v>
       </c>
@@ -1752,7 +1684,7 @@
         <v>29.21</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:6">
       <c r="A45" t="s">
         <v>49</v>
       </c>
@@ -1772,7 +1704,7 @@
         <v>29.12</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:6">
       <c r="A46" t="s">
         <v>50</v>
       </c>
@@ -1792,7 +1724,7 @@
         <v>29.05</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:6">
       <c r="A47" t="s">
         <v>51</v>
       </c>
@@ -1812,7 +1744,7 @@
         <v>28.95</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:6">
       <c r="A48" t="s">
         <v>52</v>
       </c>
@@ -1832,7 +1764,7 @@
         <v>28.81</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:6">
       <c r="A49" t="s">
         <v>53</v>
       </c>
@@ -1852,7 +1784,7 @@
         <v>28.66</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:6">
       <c r="A50" t="s">
         <v>54</v>
       </c>
@@ -1872,7 +1804,7 @@
         <v>28.55</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:6">
       <c r="A51" t="s">
         <v>55</v>
       </c>
@@ -1892,7 +1824,7 @@
         <v>28.43</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:6">
       <c r="A52" t="s">
         <v>56</v>
       </c>
@@ -1912,7 +1844,7 @@
         <v>28.33</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:6">
       <c r="A53" t="s">
         <v>57</v>
       </c>
@@ -1932,7 +1864,7 @@
         <v>28.24</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:6">
       <c r="A54" t="s">
         <v>58</v>
       </c>
@@ -1952,7 +1884,7 @@
         <v>28.12</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:6">
       <c r="A55" t="s">
         <v>59</v>
       </c>
@@ -1972,7 +1904,7 @@
         <v>27.97</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:6">
       <c r="A56" t="s">
         <v>60</v>
       </c>
@@ -1992,7 +1924,7 @@
         <v>27.89</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:6">
       <c r="A57" t="s">
         <v>61</v>
       </c>
@@ -2012,7 +1944,7 @@
         <v>27.78</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:6">
       <c r="A58" t="s">
         <v>62</v>
       </c>
@@ -2032,7 +1964,7 @@
         <v>27.72</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:6">
       <c r="A59" t="s">
         <v>63</v>
       </c>
@@ -2052,7 +1984,7 @@
         <v>27.63</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:6">
       <c r="A60" t="s">
         <v>64</v>
       </c>
@@ -2072,7 +2004,7 @@
         <v>27.52</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:6">
       <c r="A61" t="s">
         <v>65</v>
       </c>
@@ -2092,7 +2024,7 @@
         <v>27.38</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:6">
       <c r="A62" t="s">
         <v>66</v>
       </c>
@@ -2112,7 +2044,7 @@
         <v>27.16</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:6">
       <c r="A63" t="s">
         <v>67</v>
       </c>
@@ -2132,7 +2064,7 @@
         <v>27.02</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:6">
       <c r="A64" t="s">
         <v>68</v>
       </c>
@@ -2152,7 +2084,7 @@
         <v>26.92</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:6">
       <c r="A65" t="s">
         <v>69</v>
       </c>
@@ -2172,7 +2104,7 @@
         <v>26.88</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:6">
       <c r="A66" t="s">
         <v>70</v>
       </c>
@@ -2192,7 +2124,7 @@
         <v>26.86</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:6">
       <c r="A67" t="s">
         <v>71</v>
       </c>
@@ -2212,7 +2144,7 @@
         <v>26.83</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:6">
       <c r="A68" t="s">
         <v>72</v>
       </c>
@@ -2232,7 +2164,7 @@
         <v>26.8</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:6">
       <c r="A69" t="s">
         <v>73</v>
       </c>
@@ -2252,7 +2184,7 @@
         <v>26.74</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:6">
       <c r="A70" t="s">
         <v>74</v>
       </c>
@@ -2272,7 +2204,7 @@
         <v>26.67</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:6">
       <c r="A71" t="s">
         <v>75</v>
       </c>
@@ -2292,7 +2224,7 @@
         <v>26.61</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:6">
       <c r="A72" t="s">
         <v>76</v>
       </c>
@@ -2312,7 +2244,7 @@
         <v>26.56</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:6">
       <c r="A73" t="s">
         <v>77</v>
       </c>
@@ -2332,7 +2264,7 @@
         <v>26.51</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:6">
       <c r="A74" t="s">
         <v>78</v>
       </c>
@@ -2352,7 +2284,7 @@
         <v>26.49</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:6">
       <c r="A75" t="s">
         <v>79</v>
       </c>
@@ -2372,7 +2304,7 @@
         <v>26.39</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:6">
       <c r="A76" t="s">
         <v>80</v>
       </c>
@@ -2392,7 +2324,7 @@
         <v>26.33</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:6">
       <c r="A77" t="s">
         <v>81</v>
       </c>
@@ -2412,7 +2344,7 @@
         <v>26.25</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:6">
       <c r="A78" t="s">
         <v>82</v>
       </c>
@@ -2432,7 +2364,7 @@
         <v>26.21</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:6">
       <c r="A79" t="s">
         <v>83</v>
       </c>
@@ -2452,7 +2384,7 @@
         <v>26.17</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:6">
       <c r="A80" t="s">
         <v>84</v>
       </c>
@@ -2472,7 +2404,7 @@
         <v>26.15</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:6">
       <c r="A81" t="s">
         <v>85</v>
       </c>
@@ -2492,7 +2424,7 @@
         <v>26.09</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:6">
       <c r="A82" t="s">
         <v>86</v>
       </c>
@@ -2512,7 +2444,7 @@
         <v>26.02</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:6">
       <c r="A83" t="s">
         <v>87</v>
       </c>
@@ -2532,7 +2464,7 @@
         <v>25.9</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:6">
       <c r="A84" t="s">
         <v>88</v>
       </c>
@@ -2552,7 +2484,7 @@
         <v>25.86</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:6">
       <c r="A85" t="s">
         <v>89</v>
       </c>
@@ -2572,7 +2504,7 @@
         <v>25.81</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:6">
       <c r="A86" t="s">
         <v>90</v>
       </c>
@@ -2592,7 +2524,7 @@
         <v>25.81</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:6">
       <c r="A87" t="s">
         <v>91</v>
       </c>
@@ -2612,7 +2544,7 @@
         <v>25.76</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:6">
       <c r="A88" t="s">
         <v>92</v>
       </c>
@@ -2632,7 +2564,7 @@
         <v>25.7</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:6">
       <c r="A89" t="s">
         <v>93</v>
       </c>
@@ -2652,7 +2584,7 @@
         <v>25.64</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:6">
       <c r="A90" t="s">
         <v>94</v>
       </c>
@@ -2672,7 +2604,7 @@
         <v>25.57</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:6">
       <c r="A91" t="s">
         <v>95</v>
       </c>
@@ -2692,7 +2624,7 @@
         <v>25.50328538207777</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:6">
       <c r="A92" t="s">
         <v>96</v>
       </c>
@@ -2712,7 +2644,7 @@
         <v>25.46</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:6">
       <c r="A93" t="s">
         <v>97</v>
       </c>
@@ -2732,7 +2664,7 @@
         <v>25.42</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:6">
       <c r="A94" t="s">
         <v>98</v>
       </c>
@@ -2752,7 +2684,7 @@
         <v>25.36</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:6">
       <c r="A95" t="s">
         <v>99</v>
       </c>
@@ -2772,7 +2704,7 @@
         <v>25.32</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:6">
       <c r="A96" t="s">
         <v>100</v>
       </c>
@@ -2792,7 +2724,7 @@
         <v>25.25</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:6">
       <c r="A97" t="s">
         <v>101</v>
       </c>
@@ -2812,7 +2744,7 @@
         <v>25.17</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:6">
       <c r="A98" t="s">
         <v>102</v>
       </c>
@@ -2832,7 +2764,7 @@
         <v>25.06</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:6">
       <c r="A99" t="s">
         <v>103</v>
       </c>
@@ -2852,7 +2784,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:6">
       <c r="A100" t="s">
         <v>104</v>
       </c>
@@ -2872,7 +2804,7 @@
         <v>24.98</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:6">
       <c r="A101" t="s">
         <v>105</v>
       </c>
@@ -2892,7 +2824,7 @@
         <v>24.93</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:6">
       <c r="A102" t="s">
         <v>106</v>
       </c>
@@ -2912,7 +2844,7 @@
         <v>24.88</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:6">
       <c r="A103" t="s">
         <v>107</v>
       </c>
@@ -2932,7 +2864,7 @@
         <v>24.81</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:6">
       <c r="A104" t="s">
         <v>108</v>
       </c>
@@ -2952,7 +2884,7 @@
         <v>24.73</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:6">
       <c r="A105" t="s">
         <v>109</v>
       </c>
@@ -2972,7 +2904,7 @@
         <v>24.67</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:6">
       <c r="A106" t="s">
         <v>110</v>
       </c>
@@ -2992,7 +2924,7 @@
         <v>24.59</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:6">
       <c r="A107" t="s">
         <v>111</v>
       </c>
@@ -3012,7 +2944,7 @@
         <v>24.57</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:6">
       <c r="A108" t="s">
         <v>112</v>
       </c>
@@ -3032,7 +2964,7 @@
         <v>24.55</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:6">
       <c r="A109" t="s">
         <v>113</v>
       </c>
@@ -3052,7 +2984,7 @@
         <v>24.5</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:6">
       <c r="A110" t="s">
         <v>114</v>
       </c>
@@ -3072,7 +3004,7 @@
         <v>24.48</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:6">
       <c r="A111" t="s">
         <v>115</v>
       </c>
@@ -3092,7 +3024,7 @@
         <v>24.44</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:6">
       <c r="A112" t="s">
         <v>116</v>
       </c>
@@ -3112,7 +3044,7 @@
         <v>24.39</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:6">
       <c r="A113" t="s">
         <v>117</v>
       </c>
@@ -3132,7 +3064,7 @@
         <v>24.39</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:6">
       <c r="A114" t="s">
         <v>118</v>
       </c>
@@ -3152,7 +3084,7 @@
         <v>24.35</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:6">
       <c r="A115" t="s">
         <v>119</v>
       </c>
@@ -3172,7 +3104,7 @@
         <v>24.32</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:6">
       <c r="A116" t="s">
         <v>120</v>
       </c>
@@ -3192,7 +3124,7 @@
         <v>24.28</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:6">
       <c r="A117" t="s">
         <v>121</v>
       </c>
@@ -3212,7 +3144,7 @@
         <v>24.22</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:6">
       <c r="A118" t="s">
         <v>122</v>
       </c>
@@ -3232,7 +3164,7 @@
         <v>24.16</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:6">
       <c r="A119" t="s">
         <v>123</v>
       </c>
@@ -3252,7 +3184,7 @@
         <v>24.09</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:6">
       <c r="A120" t="s">
         <v>124</v>
       </c>
@@ -3272,7 +3204,7 @@
         <v>24.03</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:6">
       <c r="A121" t="s">
         <v>125</v>
       </c>
@@ -3292,7 +3224,7 @@
         <v>24.01</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:6">
       <c r="A122" t="s">
         <v>126</v>
       </c>
@@ -3312,7 +3244,7 @@
         <v>23.99</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:6">
       <c r="A123" t="s">
         <v>127</v>
       </c>
@@ -3332,7 +3264,7 @@
         <v>23.94</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:6">
       <c r="A124" t="s">
         <v>128</v>
       </c>
@@ -3352,7 +3284,7 @@
         <v>23.88</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:6">
       <c r="A125" s="2">
         <v>44105</v>
       </c>
@@ -3372,7 +3304,7 @@
         <v>23.88031778061378</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:6">
       <c r="A126" s="2">
         <v>44106</v>
       </c>
@@ -3389,10 +3321,10 @@
         <v>78492</v>
       </c>
       <c r="F126">
-        <v>23.810832702598631</v>
-      </c>
-    </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.2">
+        <v>23.81083270259863</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6">
       <c r="A127" s="2">
         <v>44107</v>
       </c>
@@ -3412,7 +3344,7 @@
         <v>23.7492298335121</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:6">
       <c r="A128" s="2">
         <v>44108</v>
       </c>
@@ -3429,10 +3361,10 @@
         <v>79088</v>
       </c>
       <c r="F128">
-        <v>23.707535465066659</v>
-      </c>
-    </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.2">
+        <v>23.70753546506666</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6">
       <c r="A129" s="2">
         <v>44109</v>
       </c>
@@ -3449,10 +3381,10 @@
         <v>79268</v>
       </c>
       <c r="F129">
-        <v>23.675501449517832</v>
-      </c>
-    </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.2">
+        <v>23.67550144951783</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6">
       <c r="A130" s="2">
         <v>44110</v>
       </c>
@@ -3469,10 +3401,10 @@
         <v>79714</v>
       </c>
       <c r="F130">
-        <v>23.652018431359298</v>
-      </c>
-    </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.2">
+        <v>23.6520184313593</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6">
       <c r="A131" s="2">
         <v>44111</v>
       </c>
@@ -3489,10 +3421,10 @@
         <v>80083</v>
       </c>
       <c r="F131">
-        <v>23.618123562698639</v>
-      </c>
-    </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.2">
+        <v>23.61812356269864</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6">
       <c r="A132" t="s">
         <v>129</v>
       </c>
@@ -3512,7 +3444,7 @@
         <v>23.5</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:6">
       <c r="A133" t="s">
         <v>130</v>
       </c>
@@ -3532,7 +3464,7 @@
         <v>23.46</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:6">
       <c r="A134" s="2">
         <v>44114</v>
       </c>
@@ -3549,10 +3481,10 @@
         <v>83642</v>
       </c>
       <c r="F134">
-        <v>23.404205676336812</v>
-      </c>
-    </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.2">
+        <v>23.40420567633681</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6">
       <c r="A135" s="2">
         <v>44115</v>
       </c>
@@ -3569,10 +3501,10 @@
         <v>83781</v>
       </c>
       <c r="F135">
-        <v>23.367865316702201</v>
-      </c>
-    </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.2">
+        <v>23.3678653167022</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6">
       <c r="A136" s="2">
         <v>44116</v>
       </c>
@@ -3592,7 +3524,7 @@
         <v>23.32965915388316</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:6">
       <c r="A137" t="s">
         <v>131</v>
       </c>
@@ -3612,7 +3544,7 @@
         <v>23.32</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:6">
       <c r="A138" t="s">
         <v>132</v>
       </c>
@@ -3632,7 +3564,7 @@
         <v>23.34</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:6">
       <c r="A139" t="s">
         <v>133</v>
       </c>
@@ -3652,7 +3584,7 @@
         <v>23.3</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:6">
       <c r="A140" s="2">
         <v>44120</v>
       </c>
@@ -3672,7 +3604,7 @@
         <v>23.22978016089613</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:6">
       <c r="A141" s="2">
         <v>44121</v>
       </c>
@@ -3689,10 +3621,10 @@
         <v>86059</v>
       </c>
       <c r="F141">
-        <v>23.186063642416311</v>
-      </c>
-    </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.2">
+        <v>23.18606364241631</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6">
       <c r="A142" t="s">
         <v>134</v>
       </c>
@@ -3712,7 +3644,7 @@
         <v>23.32</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:6">
       <c r="A143" t="s">
         <v>135</v>
       </c>
@@ -3732,7 +3664,7 @@
         <v>23.09</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:6">
       <c r="A144" t="s">
         <v>136</v>
       </c>
@@ -3752,7 +3684,7 @@
         <v>23.08</v>
       </c>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:6">
       <c r="A145" t="s">
         <v>137</v>
       </c>
@@ -3772,7 +3704,7 @@
         <v>23.05</v>
       </c>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:6">
       <c r="A146" t="s">
         <v>138</v>
       </c>
@@ -3792,67 +3724,67 @@
         <v>23.01</v>
       </c>
     </row>
-    <row r="147" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A147" s="3">
+    <row r="147" spans="1:6">
+      <c r="A147" s="2">
         <v>44127</v>
       </c>
-      <c r="B147" s="4">
+      <c r="B147">
         <v>880775</v>
       </c>
-      <c r="C147" s="4">
+      <c r="C147">
         <v>1058102</v>
       </c>
-      <c r="D147" s="4">
+      <c r="D147">
         <v>330956</v>
       </c>
-      <c r="E147" s="4">
+      <c r="E147">
         <v>88312</v>
       </c>
-      <c r="F147" s="4">
-        <v>22.990548096846528</v>
-      </c>
-    </row>
-    <row r="148" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A148" s="3">
+      <c r="F147">
+        <v>22.99054809684653</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6">
+      <c r="A148" s="2">
         <v>44128</v>
       </c>
-      <c r="B148" s="4">
+      <c r="B148">
         <v>886800</v>
       </c>
-      <c r="C148" s="4">
+      <c r="C148">
         <v>1066646</v>
       </c>
-      <c r="D148" s="4">
+      <c r="D148">
         <v>335143</v>
       </c>
-      <c r="E148" s="4">
+      <c r="E148">
         <v>88743</v>
       </c>
-      <c r="F148" s="4">
-        <v>22.937302661253948</v>
-      </c>
-    </row>
-    <row r="149" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A149" s="3">
+      <c r="F148">
+        <v>22.93730266125395</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6">
+      <c r="A149" s="2">
         <v>44129</v>
       </c>
-      <c r="B149" s="4">
+      <c r="B149">
         <v>891160</v>
       </c>
-      <c r="C149" s="4">
+      <c r="C149">
         <v>1072760</v>
       </c>
-      <c r="D149" s="4">
+      <c r="D149">
         <v>331758</v>
       </c>
-      <c r="E149" s="4">
+      <c r="E149">
         <v>88924</v>
       </c>
-      <c r="F149" s="4">
-        <v>22.897796130885588</v>
-      </c>
-    </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F149">
+        <v>22.89779613088559</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6">
       <c r="A150" t="s">
         <v>139</v>
       </c>
@@ -3870,6 +3802,26 @@
       </c>
       <c r="F150">
         <v>22.89</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6">
+      <c r="A151" t="s">
+        <v>140</v>
+      </c>
+      <c r="B151">
+        <v>901268</v>
+      </c>
+      <c r="C151">
+        <v>1086229</v>
+      </c>
+      <c r="D151">
+        <v>335517</v>
+      </c>
+      <c r="E151">
+        <v>89814</v>
+      </c>
+      <c r="F151">
+        <v>22.85</v>
       </c>
     </row>
   </sheetData>

--- a/data-validation/bitacora_historica_tablero_oficial.xlsx
+++ b/data-validation/bitacora_historica_tablero_oficial.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="142">
   <si>
     <t>Fecha</t>
   </si>
@@ -437,6 +437,9 @@
   </si>
   <si>
     <t>2020-10-27</t>
+  </si>
+  <si>
+    <t>2020-12-07</t>
   </si>
 </sst>
 </file>
@@ -798,7 +801,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F151"/>
+  <dimension ref="A1:F152"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3824,6 +3827,26 @@
         <v>22.85</v>
       </c>
     </row>
+    <row r="152" spans="1:6">
+      <c r="A152" t="s">
+        <v>141</v>
+      </c>
+      <c r="B152">
+        <v>1182249</v>
+      </c>
+      <c r="C152">
+        <v>1456073</v>
+      </c>
+      <c r="D152">
+        <v>384905</v>
+      </c>
+      <c r="E152">
+        <v>110074</v>
+      </c>
+      <c r="F152">
+        <v>21.13</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data-validation/bitacora_historica_tablero_oficial.xlsx
+++ b/data-validation/bitacora_historica_tablero_oficial.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="143">
   <si>
     <t>Fecha</t>
   </si>
@@ -440,6 +440,9 @@
   </si>
   <si>
     <t>2020-12-07</t>
+  </si>
+  <si>
+    <t>2020-12-08</t>
   </si>
 </sst>
 </file>
@@ -801,7 +804,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F152"/>
+  <dimension ref="A1:F153"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3847,6 +3850,26 @@
         <v>21.13</v>
       </c>
     </row>
+    <row r="153" spans="1:6">
+      <c r="A153" t="s">
+        <v>142</v>
+      </c>
+      <c r="B153">
+        <v>1193255</v>
+      </c>
+      <c r="C153">
+        <v>1472266</v>
+      </c>
+      <c r="D153">
+        <v>388192</v>
+      </c>
+      <c r="E153">
+        <v>110874</v>
+      </c>
+      <c r="F153">
+        <v>21.06</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data-validation/bitacora_historica_tablero_oficial.xlsx
+++ b/data-validation/bitacora_historica_tablero_oficial.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="144">
   <si>
     <t>Fecha</t>
   </si>
@@ -443,6 +443,9 @@
   </si>
   <si>
     <t>2020-12-08</t>
+  </si>
+  <si>
+    <t>2020-12-09</t>
   </si>
 </sst>
 </file>
@@ -804,7 +807,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F153"/>
+  <dimension ref="A1:F154"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3870,6 +3873,26 @@
         <v>21.06</v>
       </c>
     </row>
+    <row r="154" spans="1:6">
+      <c r="A154" t="s">
+        <v>143</v>
+      </c>
+      <c r="B154">
+        <v>1205229</v>
+      </c>
+      <c r="C154">
+        <v>1490180</v>
+      </c>
+      <c r="D154">
+        <v>391101</v>
+      </c>
+      <c r="E154">
+        <v>111655</v>
+      </c>
+      <c r="F154">
+        <v>20.98</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data-validation/bitacora_historica_tablero_oficial.xlsx
+++ b/data-validation/bitacora_historica_tablero_oficial.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="145">
   <si>
     <t>Fecha</t>
   </si>
@@ -446,6 +446,9 @@
   </si>
   <si>
     <t>2020-12-09</t>
+  </si>
+  <si>
+    <t>2020-12-10</t>
   </si>
 </sst>
 </file>
@@ -807,7 +810,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F154"/>
+  <dimension ref="A1:F155"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3893,6 +3896,26 @@
         <v>20.98</v>
       </c>
     </row>
+    <row r="155" spans="1:6">
+      <c r="A155" t="s">
+        <v>144</v>
+      </c>
+      <c r="B155">
+        <v>1217126</v>
+      </c>
+      <c r="C155">
+        <v>1507203</v>
+      </c>
+      <c r="D155">
+        <v>393908</v>
+      </c>
+      <c r="E155">
+        <v>112326</v>
+      </c>
+      <c r="F155">
+        <v>20.9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data-validation/bitacora_historica_tablero_oficial.xlsx
+++ b/data-validation/bitacora_historica_tablero_oficial.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="146">
   <si>
     <t>Fecha</t>
   </si>
@@ -449,6 +449,9 @@
   </si>
   <si>
     <t>2020-12-10</t>
+  </si>
+  <si>
+    <t>2020-12-11</t>
   </si>
 </sst>
 </file>
@@ -810,7 +813,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F155"/>
+  <dimension ref="A1:F156"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3916,6 +3919,26 @@
         <v>20.9</v>
       </c>
     </row>
+    <row r="156" spans="1:6">
+      <c r="A156" t="s">
+        <v>145</v>
+      </c>
+      <c r="B156">
+        <v>1229379</v>
+      </c>
+      <c r="C156">
+        <v>1525914</v>
+      </c>
+      <c r="D156">
+        <v>395511</v>
+      </c>
+      <c r="E156">
+        <v>113019</v>
+      </c>
+      <c r="F156">
+        <v>20.8</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data-validation/bitacora_historica_tablero_oficial.xlsx
+++ b/data-validation/bitacora_historica_tablero_oficial.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="147">
   <si>
     <t>Fecha</t>
   </si>
@@ -452,6 +452,9 @@
   </si>
   <si>
     <t>2020-12-11</t>
+  </si>
+  <si>
+    <t>2020-12-12</t>
   </si>
 </sst>
 </file>
@@ -813,7 +816,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F156"/>
+  <dimension ref="A1:F157"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3939,6 +3942,26 @@
         <v>20.8</v>
       </c>
     </row>
+    <row r="157" spans="1:6">
+      <c r="A157" t="s">
+        <v>146</v>
+      </c>
+      <c r="B157">
+        <v>1241436</v>
+      </c>
+      <c r="C157">
+        <v>1543802</v>
+      </c>
+      <c r="D157">
+        <v>397078</v>
+      </c>
+      <c r="E157">
+        <v>113704</v>
+      </c>
+      <c r="F157">
+        <v>20.71</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data-validation/bitacora_historica_tablero_oficial.xlsx
+++ b/data-validation/bitacora_historica_tablero_oficial.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="148">
   <si>
     <t>Fecha</t>
   </si>
@@ -455,6 +455,9 @@
   </si>
   <si>
     <t>2020-12-12</t>
+  </si>
+  <si>
+    <t>2020-12-13</t>
   </si>
 </sst>
 </file>
@@ -816,7 +819,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F157"/>
+  <dimension ref="A1:F158"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3962,6 +3965,26 @@
         <v>20.71</v>
       </c>
     </row>
+    <row r="158" spans="1:6">
+      <c r="A158" t="s">
+        <v>147</v>
+      </c>
+      <c r="B158">
+        <v>1250044</v>
+      </c>
+      <c r="C158">
+        <v>1553633</v>
+      </c>
+      <c r="D158">
+        <v>390587</v>
+      </c>
+      <c r="E158">
+        <v>113953</v>
+      </c>
+      <c r="F158">
+        <v>20.67</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data-validation/bitacora_historica_tablero_oficial.xlsx
+++ b/data-validation/bitacora_historica_tablero_oficial.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="149">
   <si>
     <t>Fecha</t>
   </si>
@@ -458,6 +458,9 @@
   </si>
   <si>
     <t>2020-12-13</t>
+  </si>
+  <si>
+    <t>2020-12-14</t>
   </si>
 </sst>
 </file>
@@ -819,7 +822,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F158"/>
+  <dimension ref="A1:F159"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3985,6 +3988,26 @@
         <v>20.67</v>
       </c>
     </row>
+    <row r="159" spans="1:6">
+      <c r="A159" t="s">
+        <v>148</v>
+      </c>
+      <c r="B159">
+        <v>1255974</v>
+      </c>
+      <c r="C159">
+        <v>1561829</v>
+      </c>
+      <c r="D159">
+        <v>384524</v>
+      </c>
+      <c r="E159">
+        <v>114298</v>
+      </c>
+      <c r="F159">
+        <v>20.66</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data-validation/bitacora_historica_tablero_oficial.xlsx
+++ b/data-validation/bitacora_historica_tablero_oficial.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="150">
   <si>
     <t>Fecha</t>
   </si>
@@ -461,6 +461,9 @@
   </si>
   <si>
     <t>2020-12-14</t>
+  </si>
+  <si>
+    <t>2020-12-15</t>
   </si>
 </sst>
 </file>
@@ -822,7 +825,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F159"/>
+  <dimension ref="A1:F160"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -4008,6 +4011,26 @@
         <v>20.66</v>
       </c>
     </row>
+    <row r="160" spans="1:6">
+      <c r="A160" t="s">
+        <v>149</v>
+      </c>
+      <c r="B160">
+        <v>1267202</v>
+      </c>
+      <c r="C160">
+        <v>1578722</v>
+      </c>
+      <c r="D160">
+        <v>389966</v>
+      </c>
+      <c r="E160">
+        <v>115099</v>
+      </c>
+      <c r="F160">
+        <v>20.59</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data-validation/bitacora_historica_tablero_oficial.xlsx
+++ b/data-validation/bitacora_historica_tablero_oficial.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="151">
   <si>
     <t>Fecha</t>
   </si>
@@ -464,6 +464,9 @@
   </si>
   <si>
     <t>2020-12-15</t>
+  </si>
+  <si>
+    <t>2020-12-16</t>
   </si>
 </sst>
 </file>
@@ -825,7 +828,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F160"/>
+  <dimension ref="A1:F161"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -4031,6 +4034,26 @@
         <v>20.59</v>
       </c>
     </row>
+    <row r="161" spans="1:6">
+      <c r="A161" t="s">
+        <v>150</v>
+      </c>
+      <c r="B161">
+        <v>1277499</v>
+      </c>
+      <c r="C161">
+        <v>1593851</v>
+      </c>
+      <c r="D161">
+        <v>397784</v>
+      </c>
+      <c r="E161">
+        <v>115769</v>
+      </c>
+      <c r="F161">
+        <v>20.54</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
